--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,18 @@
     <t>['84']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['46', '64']</t>
+  </si>
+  <si>
+    <t>['56', '75', '85']</t>
+  </si>
+  <si>
+    <t>['74', '87']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -734,6 +746,15 @@
   </si>
   <si>
     <t>['61', '90']</t>
+  </si>
+  <si>
+    <t>['67', '86']</t>
+  </si>
+  <si>
+    <t>['49', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '32', '65']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1450,7 @@
         <v>2.75</v>
       </c>
       <c r="AT2">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1617,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT3">
         <v>1.14</v>
@@ -1721,7 +1742,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1808,10 +1829,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT4">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2103,7 +2124,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2294,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2381,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT7">
         <v>0.14</v>
@@ -2575,7 +2596,7 @@
         <v>2.29</v>
       </c>
       <c r="AT8">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2867,7 +2888,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2957,7 +2978,7 @@
         <v>1</v>
       </c>
       <c r="AT10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3058,7 +3079,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3249,7 +3270,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3718,10 +3739,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT14">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3822,7 +3843,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4100,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>1.43</v>
@@ -4204,7 +4225,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4294,7 +4315,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4586,7 +4607,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4673,7 +4694,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -4777,7 +4798,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4867,7 +4888,7 @@
         <v>0.71</v>
       </c>
       <c r="AT20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5159,7 +5180,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5246,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT22">
         <v>1.13</v>
@@ -5350,7 +5371,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5440,7 +5461,7 @@
         <v>2.75</v>
       </c>
       <c r="AT23">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU23">
         <v>1.6</v>
@@ -5541,7 +5562,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5631,7 +5652,7 @@
         <v>1.86</v>
       </c>
       <c r="AT24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6010,10 +6031,10 @@
         <v>3</v>
       </c>
       <c r="AS26">
+        <v>1.75</v>
+      </c>
+      <c r="AT26">
         <v>1.57</v>
-      </c>
-      <c r="AT26">
-        <v>1.33</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6201,7 +6222,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT27">
         <v>0.75</v>
@@ -6305,7 +6326,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6392,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6496,7 +6517,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6878,7 +6899,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7069,7 +7090,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7156,7 +7177,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT32">
         <v>2</v>
@@ -7350,7 +7371,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU33">
         <v>1.8</v>
@@ -7732,7 +7753,7 @@
         <v>0.71</v>
       </c>
       <c r="AT35">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU35">
         <v>1.8</v>
@@ -7833,7 +7854,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8215,7 +8236,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8305,7 +8326,7 @@
         <v>1</v>
       </c>
       <c r="AT38">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8406,7 +8427,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8597,7 +8618,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8684,10 +8705,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT40">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU40">
         <v>2.28</v>
@@ -8788,7 +8809,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8979,7 +9000,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9066,7 +9087,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT42">
         <v>1.14</v>
@@ -9260,7 +9281,7 @@
         <v>0.71</v>
       </c>
       <c r="AT43">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -9361,7 +9382,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9552,7 +9573,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9639,7 +9660,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT45">
         <v>1.5</v>
@@ -9743,7 +9764,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9934,7 +9955,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10024,7 +10045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10125,7 +10146,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10316,7 +10337,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10403,7 +10424,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT49">
         <v>1.43</v>
@@ -10597,7 +10618,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU50">
         <v>1.35</v>
@@ -10698,7 +10719,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10889,7 +10910,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10976,7 +10997,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT52">
         <v>1.38</v>
@@ -11080,7 +11101,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11167,7 +11188,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT53">
         <v>1</v>
@@ -11361,7 +11382,7 @@
         <v>0.71</v>
       </c>
       <c r="AT54">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11552,7 +11573,7 @@
         <v>2.14</v>
       </c>
       <c r="AT55">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU55">
         <v>2.14</v>
@@ -11653,7 +11674,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11844,7 +11865,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11934,7 +11955,7 @@
         <v>1.38</v>
       </c>
       <c r="AT57">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12035,7 +12056,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12125,7 +12146,7 @@
         <v>1.5</v>
       </c>
       <c r="AT58">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU58">
         <v>1.57</v>
@@ -12313,7 +12334,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT59">
         <v>0.75</v>
@@ -12608,7 +12629,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12695,7 +12716,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT61">
         <v>2</v>
@@ -12886,7 +12907,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT62">
         <v>1.43</v>
@@ -13077,7 +13098,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT63">
         <v>1.14</v>
@@ -13268,10 +13289,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.32</v>
@@ -13462,7 +13483,7 @@
         <v>1.38</v>
       </c>
       <c r="AT65">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13563,7 +13584,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13650,7 +13671,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT66">
         <v>0.71</v>
@@ -13754,7 +13775,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14032,7 +14053,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT68">
         <v>1.63</v>
@@ -14327,7 +14348,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14518,7 +14539,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14608,7 +14629,7 @@
         <v>0.71</v>
       </c>
       <c r="AT71">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -14799,7 +14820,7 @@
         <v>1.86</v>
       </c>
       <c r="AT72">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU72">
         <v>1.87</v>
@@ -14900,7 +14921,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -14990,7 +15011,7 @@
         <v>1.5</v>
       </c>
       <c r="AT73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.35</v>
@@ -15178,7 +15199,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT74">
         <v>1.13</v>
@@ -15282,7 +15303,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15473,7 +15494,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15664,7 +15685,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16136,7 +16157,7 @@
         <v>1.63</v>
       </c>
       <c r="AT79">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16237,7 +16258,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16428,7 +16449,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16515,7 +16536,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT81">
         <v>0.14</v>
@@ -16619,7 +16640,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16706,7 +16727,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT82">
         <v>1.63</v>
@@ -16810,7 +16831,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16897,7 +16918,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT83">
         <v>0.71</v>
@@ -17383,7 +17404,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17574,7 +17595,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17661,7 +17682,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT87">
         <v>1.13</v>
@@ -17765,7 +17786,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17956,7 +17977,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18043,10 +18064,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU89">
         <v>2.01</v>
@@ -18338,7 +18359,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18428,7 +18449,7 @@
         <v>1</v>
       </c>
       <c r="AT91">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU91">
         <v>1.86</v>
@@ -18616,7 +18637,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT92">
         <v>1.38</v>
@@ -18720,7 +18741,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18810,7 +18831,7 @@
         <v>2.14</v>
       </c>
       <c r="AT93">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU93">
         <v>2.12</v>
@@ -18911,7 +18932,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19001,7 +19022,7 @@
         <v>0.71</v>
       </c>
       <c r="AT94">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19383,7 +19404,7 @@
         <v>1.86</v>
       </c>
       <c r="AT96">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU96">
         <v>1.74</v>
@@ -19484,7 +19505,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19574,7 +19595,7 @@
         <v>1.5</v>
       </c>
       <c r="AT97">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19765,7 +19786,7 @@
         <v>1</v>
       </c>
       <c r="AT98">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19866,7 +19887,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19953,7 +19974,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT99">
         <v>1.38</v>
@@ -20057,7 +20078,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20526,10 +20547,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20720,7 +20741,7 @@
         <v>1.38</v>
       </c>
       <c r="AT103">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU103">
         <v>1.59</v>
@@ -20821,7 +20842,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20908,7 +20929,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT104">
         <v>1</v>
@@ -21099,7 +21120,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT105">
         <v>1.43</v>
@@ -21394,7 +21415,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21585,7 +21606,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21675,7 +21696,7 @@
         <v>0.71</v>
       </c>
       <c r="AT108">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21776,7 +21797,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22054,7 +22075,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AT110">
         <v>1.14</v>
@@ -22158,7 +22179,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22245,10 +22266,10 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AT111">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22821,7 +22842,7 @@
         <v>0.71</v>
       </c>
       <c r="AT114">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23012,7 +23033,7 @@
         <v>1.86</v>
       </c>
       <c r="AT115">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU115">
         <v>1.67</v>
@@ -23113,7 +23134,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23495,7 +23516,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23582,7 +23603,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT118">
         <v>1.13</v>
@@ -23686,7 +23707,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23773,7 +23794,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AT119">
         <v>1.38</v>
@@ -24259,7 +24280,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24641,7 +24662,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24832,7 +24853,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24919,10 +24940,10 @@
         <v>0.86</v>
       </c>
       <c r="AS125">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT125">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU125">
         <v>2.12</v>
@@ -25023,7 +25044,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25405,7 +25426,7 @@
         <v>145</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25596,7 +25617,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25787,7 +25808,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -25929,6 +25950,1152 @@
       </c>
       <c r="BK130">
         <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>2313503</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>44864.35416666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>66</v>
+      </c>
+      <c r="H131" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>2</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>84</v>
+      </c>
+      <c r="P131" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q131">
+        <v>5</v>
+      </c>
+      <c r="R131">
+        <v>8</v>
+      </c>
+      <c r="S131">
+        <v>13</v>
+      </c>
+      <c r="T131">
+        <v>3.2</v>
+      </c>
+      <c r="U131">
+        <v>2.05</v>
+      </c>
+      <c r="V131">
+        <v>3.6</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>2.63</v>
+      </c>
+      <c r="Y131">
+        <v>3.25</v>
+      </c>
+      <c r="Z131">
+        <v>1.33</v>
+      </c>
+      <c r="AA131">
+        <v>9</v>
+      </c>
+      <c r="AB131">
+        <v>1.07</v>
+      </c>
+      <c r="AC131">
+        <v>2.5</v>
+      </c>
+      <c r="AD131">
+        <v>3.2</v>
+      </c>
+      <c r="AE131">
+        <v>2.85</v>
+      </c>
+      <c r="AF131">
+        <v>1.07</v>
+      </c>
+      <c r="AG131">
+        <v>7.5</v>
+      </c>
+      <c r="AH131">
+        <v>1.33</v>
+      </c>
+      <c r="AI131">
+        <v>3.1</v>
+      </c>
+      <c r="AJ131">
+        <v>2.02</v>
+      </c>
+      <c r="AK131">
+        <v>1.76</v>
+      </c>
+      <c r="AL131">
+        <v>1.8</v>
+      </c>
+      <c r="AM131">
+        <v>1.95</v>
+      </c>
+      <c r="AN131">
+        <v>1.41</v>
+      </c>
+      <c r="AO131">
+        <v>1.31</v>
+      </c>
+      <c r="AP131">
+        <v>1.52</v>
+      </c>
+      <c r="AQ131">
+        <v>1</v>
+      </c>
+      <c r="AR131">
+        <v>1.33</v>
+      </c>
+      <c r="AS131">
+        <v>0.88</v>
+      </c>
+      <c r="AT131">
+        <v>1.57</v>
+      </c>
+      <c r="AU131">
+        <v>2.09</v>
+      </c>
+      <c r="AV131">
+        <v>1.44</v>
+      </c>
+      <c r="AW131">
+        <v>3.53</v>
+      </c>
+      <c r="AX131">
+        <v>1.83</v>
+      </c>
+      <c r="AY131">
+        <v>8</v>
+      </c>
+      <c r="AZ131">
+        <v>2.2</v>
+      </c>
+      <c r="BA131">
+        <v>1.18</v>
+      </c>
+      <c r="BB131">
+        <v>1.33</v>
+      </c>
+      <c r="BC131">
+        <v>1.64</v>
+      </c>
+      <c r="BD131">
+        <v>2.07</v>
+      </c>
+      <c r="BE131">
+        <v>2.73</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>5</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
+        <v>3</v>
+      </c>
+      <c r="BK131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>2313506</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>144</v>
+      </c>
+      <c r="P132" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q132">
+        <v>6</v>
+      </c>
+      <c r="R132">
+        <v>3</v>
+      </c>
+      <c r="S132">
+        <v>9</v>
+      </c>
+      <c r="T132">
+        <v>2.5</v>
+      </c>
+      <c r="U132">
+        <v>2.3</v>
+      </c>
+      <c r="V132">
+        <v>4</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>3.25</v>
+      </c>
+      <c r="Y132">
+        <v>2.63</v>
+      </c>
+      <c r="Z132">
+        <v>1.44</v>
+      </c>
+      <c r="AA132">
+        <v>6.5</v>
+      </c>
+      <c r="AB132">
+        <v>1.11</v>
+      </c>
+      <c r="AC132">
+        <v>2</v>
+      </c>
+      <c r="AD132">
+        <v>3.6</v>
+      </c>
+      <c r="AE132">
+        <v>3.5</v>
+      </c>
+      <c r="AF132">
+        <v>1.04</v>
+      </c>
+      <c r="AG132">
+        <v>10</v>
+      </c>
+      <c r="AH132">
+        <v>1.22</v>
+      </c>
+      <c r="AI132">
+        <v>4</v>
+      </c>
+      <c r="AJ132">
+        <v>1.7</v>
+      </c>
+      <c r="AK132">
+        <v>2.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.67</v>
+      </c>
+      <c r="AM132">
+        <v>2.1</v>
+      </c>
+      <c r="AN132">
+        <v>1.26</v>
+      </c>
+      <c r="AO132">
+        <v>1.27</v>
+      </c>
+      <c r="AP132">
+        <v>1.85</v>
+      </c>
+      <c r="AQ132">
+        <v>0.4</v>
+      </c>
+      <c r="AR132">
+        <v>1.71</v>
+      </c>
+      <c r="AS132">
+        <v>0.83</v>
+      </c>
+      <c r="AT132">
+        <v>1.5</v>
+      </c>
+      <c r="AU132">
+        <v>1.45</v>
+      </c>
+      <c r="AV132">
+        <v>1.45</v>
+      </c>
+      <c r="AW132">
+        <v>2.9</v>
+      </c>
+      <c r="AX132">
+        <v>1.55</v>
+      </c>
+      <c r="AY132">
+        <v>8.5</v>
+      </c>
+      <c r="AZ132">
+        <v>2.91</v>
+      </c>
+      <c r="BA132">
+        <v>1.15</v>
+      </c>
+      <c r="BB132">
+        <v>1.26</v>
+      </c>
+      <c r="BC132">
+        <v>1.5</v>
+      </c>
+      <c r="BD132">
+        <v>1.88</v>
+      </c>
+      <c r="BE132">
+        <v>2.38</v>
+      </c>
+      <c r="BF132">
+        <v>4</v>
+      </c>
+      <c r="BG132">
+        <v>3</v>
+      </c>
+      <c r="BH132">
+        <v>4</v>
+      </c>
+      <c r="BI132">
+        <v>11</v>
+      </c>
+      <c r="BJ132">
+        <v>8</v>
+      </c>
+      <c r="BK132">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>2313505</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>44864.5625</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>67</v>
+      </c>
+      <c r="H133" t="s">
+        <v>65</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>171</v>
+      </c>
+      <c r="P133" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>3</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>3.5</v>
+      </c>
+      <c r="U133">
+        <v>2.05</v>
+      </c>
+      <c r="V133">
+        <v>3.2</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>2.63</v>
+      </c>
+      <c r="Y133">
+        <v>3.25</v>
+      </c>
+      <c r="Z133">
+        <v>1.33</v>
+      </c>
+      <c r="AA133">
+        <v>9</v>
+      </c>
+      <c r="AB133">
+        <v>1.07</v>
+      </c>
+      <c r="AC133">
+        <v>2.63</v>
+      </c>
+      <c r="AD133">
+        <v>3.2</v>
+      </c>
+      <c r="AE133">
+        <v>2.47</v>
+      </c>
+      <c r="AF133">
+        <v>1.07</v>
+      </c>
+      <c r="AG133">
+        <v>7.5</v>
+      </c>
+      <c r="AH133">
+        <v>1.33</v>
+      </c>
+      <c r="AI133">
+        <v>3.1</v>
+      </c>
+      <c r="AJ133">
+        <v>2.06</v>
+      </c>
+      <c r="AK133">
+        <v>1.8</v>
+      </c>
+      <c r="AL133">
+        <v>1.8</v>
+      </c>
+      <c r="AM133">
+        <v>1.95</v>
+      </c>
+      <c r="AN133">
+        <v>1.5</v>
+      </c>
+      <c r="AO133">
+        <v>1.33</v>
+      </c>
+      <c r="AP133">
+        <v>1.41</v>
+      </c>
+      <c r="AQ133">
+        <v>1.43</v>
+      </c>
+      <c r="AR133">
+        <v>1.67</v>
+      </c>
+      <c r="AS133">
+        <v>1.25</v>
+      </c>
+      <c r="AT133">
+        <v>1.86</v>
+      </c>
+      <c r="AU133">
+        <v>2.14</v>
+      </c>
+      <c r="AV133">
+        <v>2.08</v>
+      </c>
+      <c r="AW133">
+        <v>4.22</v>
+      </c>
+      <c r="AX133">
+        <v>2.1</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>1.91</v>
+      </c>
+      <c r="BA133">
+        <v>1.23</v>
+      </c>
+      <c r="BB133">
+        <v>1.46</v>
+      </c>
+      <c r="BC133">
+        <v>1.85</v>
+      </c>
+      <c r="BD133">
+        <v>2.35</v>
+      </c>
+      <c r="BE133">
+        <v>3.14</v>
+      </c>
+      <c r="BF133">
+        <v>5</v>
+      </c>
+      <c r="BG133">
+        <v>5</v>
+      </c>
+      <c r="BH133">
+        <v>1</v>
+      </c>
+      <c r="BI133">
+        <v>6</v>
+      </c>
+      <c r="BJ133">
+        <v>6</v>
+      </c>
+      <c r="BK133">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>2313509</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44865.625</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>70</v>
+      </c>
+      <c r="H134" t="s">
+        <v>74</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>3</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134" t="s">
+        <v>172</v>
+      </c>
+      <c r="P134" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>3</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>2.75</v>
+      </c>
+      <c r="U134">
+        <v>2.05</v>
+      </c>
+      <c r="V134">
+        <v>4.5</v>
+      </c>
+      <c r="W134">
+        <v>1.5</v>
+      </c>
+      <c r="X134">
+        <v>2.5</v>
+      </c>
+      <c r="Y134">
+        <v>3.4</v>
+      </c>
+      <c r="Z134">
+        <v>1.3</v>
+      </c>
+      <c r="AA134">
+        <v>10</v>
+      </c>
+      <c r="AB134">
+        <v>1.06</v>
+      </c>
+      <c r="AC134">
+        <v>2.25</v>
+      </c>
+      <c r="AD134">
+        <v>3</v>
+      </c>
+      <c r="AE134">
+        <v>3.35</v>
+      </c>
+      <c r="AF134">
+        <v>1.08</v>
+      </c>
+      <c r="AG134">
+        <v>7</v>
+      </c>
+      <c r="AH134">
+        <v>1.42</v>
+      </c>
+      <c r="AI134">
+        <v>2.75</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.64</v>
+      </c>
+      <c r="AL134">
+        <v>2</v>
+      </c>
+      <c r="AM134">
+        <v>1.75</v>
+      </c>
+      <c r="AN134">
+        <v>1.27</v>
+      </c>
+      <c r="AO134">
+        <v>1.33</v>
+      </c>
+      <c r="AP134">
+        <v>1.71</v>
+      </c>
+      <c r="AQ134">
+        <v>1.43</v>
+      </c>
+      <c r="AR134">
+        <v>1.86</v>
+      </c>
+      <c r="AS134">
+        <v>1.25</v>
+      </c>
+      <c r="AT134">
+        <v>2</v>
+      </c>
+      <c r="AU134">
+        <v>1.91</v>
+      </c>
+      <c r="AV134">
+        <v>1.16</v>
+      </c>
+      <c r="AW134">
+        <v>3.07</v>
+      </c>
+      <c r="AX134">
+        <v>1.49</v>
+      </c>
+      <c r="AY134">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ134">
+        <v>3.46</v>
+      </c>
+      <c r="BA134">
+        <v>1.26</v>
+      </c>
+      <c r="BB134">
+        <v>1.5</v>
+      </c>
+      <c r="BC134">
+        <v>1.9</v>
+      </c>
+      <c r="BD134">
+        <v>2.45</v>
+      </c>
+      <c r="BE134">
+        <v>3.34</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>5</v>
+      </c>
+      <c r="BH134">
+        <v>3</v>
+      </c>
+      <c r="BI134">
+        <v>1</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2313518</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44869.58333333334</v>
+      </c>
+      <c r="F135">
+        <v>16</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>66</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>173</v>
+      </c>
+      <c r="P135" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>9</v>
+      </c>
+      <c r="S135">
+        <v>13</v>
+      </c>
+      <c r="T135">
+        <v>3.4</v>
+      </c>
+      <c r="U135">
+        <v>2.1</v>
+      </c>
+      <c r="V135">
+        <v>2.8</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>3</v>
+      </c>
+      <c r="Y135">
+        <v>2.62</v>
+      </c>
+      <c r="Z135">
+        <v>1.44</v>
+      </c>
+      <c r="AA135">
+        <v>6.5</v>
+      </c>
+      <c r="AB135">
+        <v>1.1</v>
+      </c>
+      <c r="AC135">
+        <v>2.75</v>
+      </c>
+      <c r="AD135">
+        <v>3.2</v>
+      </c>
+      <c r="AE135">
+        <v>2.25</v>
+      </c>
+      <c r="AF135">
+        <v>1.05</v>
+      </c>
+      <c r="AG135">
+        <v>9</v>
+      </c>
+      <c r="AH135">
+        <v>1.29</v>
+      </c>
+      <c r="AI135">
+        <v>3.5</v>
+      </c>
+      <c r="AJ135">
+        <v>1.8</v>
+      </c>
+      <c r="AK135">
+        <v>1.9</v>
+      </c>
+      <c r="AL135">
+        <v>1.67</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>1.57</v>
+      </c>
+      <c r="AO135">
+        <v>1.3</v>
+      </c>
+      <c r="AP135">
+        <v>1.4</v>
+      </c>
+      <c r="AQ135">
+        <v>1.57</v>
+      </c>
+      <c r="AR135">
+        <v>1.43</v>
+      </c>
+      <c r="AS135">
+        <v>1.75</v>
+      </c>
+      <c r="AT135">
+        <v>1.25</v>
+      </c>
+      <c r="AU135">
+        <v>1.58</v>
+      </c>
+      <c r="AV135">
+        <v>1.81</v>
+      </c>
+      <c r="AW135">
+        <v>3.39</v>
+      </c>
+      <c r="AX135">
+        <v>2.32</v>
+      </c>
+      <c r="AY135">
+        <v>8.5</v>
+      </c>
+      <c r="AZ135">
+        <v>1.82</v>
+      </c>
+      <c r="BA135">
+        <v>1.19</v>
+      </c>
+      <c r="BB135">
+        <v>1.3</v>
+      </c>
+      <c r="BC135">
+        <v>1.58</v>
+      </c>
+      <c r="BD135">
+        <v>2</v>
+      </c>
+      <c r="BE135">
+        <v>2.56</v>
+      </c>
+      <c r="BF135">
+        <v>8</v>
+      </c>
+      <c r="BG135">
+        <v>4</v>
+      </c>
+      <c r="BH135">
+        <v>4</v>
+      </c>
+      <c r="BI135">
+        <v>9</v>
+      </c>
+      <c r="BJ135">
+        <v>12</v>
+      </c>
+      <c r="BK135">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>2313514</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44869.6875</v>
+      </c>
+      <c r="F136">
+        <v>16</v>
+      </c>
+      <c r="G136" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s">
+        <v>82</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>174</v>
+      </c>
+      <c r="P136" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q136">
+        <v>12</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>15</v>
+      </c>
+      <c r="T136">
+        <v>2.2</v>
+      </c>
+      <c r="U136">
+        <v>2.3</v>
+      </c>
+      <c r="V136">
+        <v>4.2</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>3.25</v>
+      </c>
+      <c r="Y136">
+        <v>2.38</v>
+      </c>
+      <c r="Z136">
+        <v>1.53</v>
+      </c>
+      <c r="AA136">
+        <v>6</v>
+      </c>
+      <c r="AB136">
+        <v>1.11</v>
+      </c>
+      <c r="AC136">
+        <v>1.65</v>
+      </c>
+      <c r="AD136">
+        <v>3.65</v>
+      </c>
+      <c r="AE136">
+        <v>4.2</v>
+      </c>
+      <c r="AF136">
+        <v>1.05</v>
+      </c>
+      <c r="AG136">
+        <v>9</v>
+      </c>
+      <c r="AH136">
+        <v>1.25</v>
+      </c>
+      <c r="AI136">
+        <v>3.75</v>
+      </c>
+      <c r="AJ136">
+        <v>1.75</v>
+      </c>
+      <c r="AK136">
+        <v>1.95</v>
+      </c>
+      <c r="AL136">
+        <v>1.7</v>
+      </c>
+      <c r="AM136">
+        <v>2.05</v>
+      </c>
+      <c r="AN136">
+        <v>1.18</v>
+      </c>
+      <c r="AO136">
+        <v>1.25</v>
+      </c>
+      <c r="AP136">
+        <v>2.1</v>
+      </c>
+      <c r="AQ136">
+        <v>2.43</v>
+      </c>
+      <c r="AR136">
+        <v>1.13</v>
+      </c>
+      <c r="AS136">
+        <v>2.5</v>
+      </c>
+      <c r="AT136">
+        <v>1</v>
+      </c>
+      <c r="AU136">
+        <v>1.96</v>
+      </c>
+      <c r="AV136">
+        <v>1.51</v>
+      </c>
+      <c r="AW136">
+        <v>3.47</v>
+      </c>
+      <c r="AX136">
+        <v>1.59</v>
+      </c>
+      <c r="AY136">
+        <v>8.5</v>
+      </c>
+      <c r="AZ136">
+        <v>2.78</v>
+      </c>
+      <c r="BA136">
+        <v>1.18</v>
+      </c>
+      <c r="BB136">
+        <v>1.29</v>
+      </c>
+      <c r="BC136">
+        <v>1.56</v>
+      </c>
+      <c r="BD136">
+        <v>1.98</v>
+      </c>
+      <c r="BE136">
+        <v>2.53</v>
+      </c>
+      <c r="BF136">
+        <v>7</v>
+      </c>
+      <c r="BG136">
+        <v>6</v>
+      </c>
+      <c r="BH136">
+        <v>15</v>
+      </c>
+      <c r="BI136">
+        <v>7</v>
+      </c>
+      <c r="BJ136">
+        <v>22</v>
+      </c>
+      <c r="BK136">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,36 @@
     <t>['74', '87']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['42']</t>
+  </si>
+  <si>
+    <t>['3', '7', '37', '40', '60', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['41', '47', '90+3']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['84', '90+6']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -589,9 +619,6 @@
     <t>['22', '25']</t>
   </si>
   <si>
-    <t>['66']</t>
-  </si>
-  <si>
     <t>['30', '42']</t>
   </si>
   <si>
@@ -617,9 +644,6 @@
   </si>
   <si>
     <t>['15']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -739,9 +763,6 @@
     <t>['11', '13', '67', '75']</t>
   </si>
   <si>
-    <t>['77']</t>
-  </si>
-  <si>
     <t>['28', '30', '40', '47', '72']</t>
   </si>
   <si>
@@ -755,6 +776,33 @@
   </si>
   <si>
     <t>['20', '32', '65']</t>
+  </si>
+  <si>
+    <t>['31', '80']</t>
+  </si>
+  <si>
+    <t>['5', '53', '56', '73']</t>
+  </si>
+  <si>
+    <t>['2', '27', '90+1']</t>
+  </si>
+  <si>
+    <t>['56', '79']</t>
+  </si>
+  <si>
+    <t>['34', '40', '72']</t>
+  </si>
+  <si>
+    <t>['45+6', '90+1']</t>
+  </si>
+  <si>
+    <t>['18', '28']</t>
+  </si>
+  <si>
+    <t>['51', '90']</t>
+  </si>
+  <si>
+    <t>['43', '63', '90+7']</t>
   </si>
 </sst>
 </file>
@@ -1116,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1447,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1638,10 +1686,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT3">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1742,7 +1790,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1829,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2020,10 +2068,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT5">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2124,7 +2172,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2211,10 +2259,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2315,7 +2363,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2402,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT7">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2593,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2784,10 +2832,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT9">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2888,7 +2936,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -2975,10 +3023,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT10">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3079,7 +3127,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3166,10 +3214,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT11">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3270,7 +3318,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3357,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT12">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU12">
         <v>1.19</v>
@@ -3548,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3843,7 +3891,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -3930,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT15">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4124,7 +4172,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4225,7 +4273,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4312,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT17">
         <v>1.25</v>
@@ -4503,10 +4551,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT18">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU18">
         <v>2.26</v>
@@ -4607,7 +4655,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4694,7 +4742,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT19">
         <v>1.5</v>
@@ -4798,7 +4846,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4885,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5076,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT21">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU21">
         <v>2.16</v>
@@ -5180,7 +5228,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5267,10 +5315,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT22">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>2.32</v>
@@ -5371,7 +5419,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5458,10 +5506,10 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT23">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU23">
         <v>1.6</v>
@@ -5562,7 +5610,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5649,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5840,10 +5888,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT25">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0.96</v>
@@ -6034,7 +6082,7 @@
         <v>1.75</v>
       </c>
       <c r="AT26">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6225,7 +6273,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU27">
         <v>1.43</v>
@@ -6326,7 +6374,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6413,10 +6461,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT28">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6517,7 +6565,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6604,10 +6652,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
+        <v>1.44</v>
+      </c>
+      <c r="AT29">
         <v>1.63</v>
-      </c>
-      <c r="AT29">
-        <v>1.43</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -6795,10 +6843,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT30">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU30">
         <v>1.55</v>
@@ -6899,7 +6947,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -6986,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31">
         <v>1.16</v>
@@ -7090,7 +7138,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>7</v>
@@ -7177,10 +7225,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7368,10 +7416,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT33">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <v>1.8</v>
@@ -7559,10 +7607,10 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT34">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU34">
         <v>2.47</v>
@@ -7750,7 +7798,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT35">
         <v>1.25</v>
@@ -7854,7 +7902,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -7941,10 +7989,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT36">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU36">
         <v>2.3</v>
@@ -8132,10 +8180,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT37">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU37">
         <v>1.91</v>
@@ -8236,7 +8284,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8323,10 +8371,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT38">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8427,7 +8475,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8514,10 +8562,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT39">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8618,7 +8666,7 @@
         <v>110</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>2</v>
@@ -8705,7 +8753,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
         <v>1</v>
@@ -8809,7 +8857,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -8896,10 +8944,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT41">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9000,7 +9048,7 @@
         <v>84</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>6</v>
@@ -9087,10 +9135,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT42">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>2.44</v>
@@ -9278,10 +9326,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -9382,7 +9430,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9469,10 +9517,10 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT44">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU44">
         <v>1.43</v>
@@ -9573,7 +9621,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9764,7 +9812,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9851,10 +9899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT46">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU46">
         <v>2.19</v>
@@ -9955,7 +10003,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10042,10 +10090,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10146,7 +10194,7 @@
         <v>84</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>7</v>
@@ -10233,10 +10281,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT48">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10337,7 +10385,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10424,10 +10472,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT49">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU49">
         <v>1.99</v>
@@ -10615,10 +10663,10 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT50">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU50">
         <v>1.35</v>
@@ -10719,7 +10767,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10806,10 +10854,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU51">
         <v>1.91</v>
@@ -10910,7 +10958,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11000,7 +11048,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU52">
         <v>1.48</v>
@@ -11101,7 +11149,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11188,10 +11236,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU53">
         <v>2.21</v>
@@ -11379,7 +11427,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT54">
         <v>1</v>
@@ -11570,7 +11618,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT55">
         <v>1.25</v>
@@ -11674,7 +11722,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11761,10 +11809,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT56">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU56">
         <v>2.05</v>
@@ -11865,7 +11913,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -11952,10 +12000,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12056,7 +12104,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12143,10 +12191,10 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT58">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.57</v>
@@ -12334,10 +12382,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT59">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU59">
         <v>2.41</v>
@@ -12525,10 +12573,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT60">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU60">
         <v>1.63</v>
@@ -12629,7 +12677,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12716,10 +12764,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -12910,7 +12958,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13101,7 +13149,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.39</v>
@@ -13289,10 +13337,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU64">
         <v>1.32</v>
@@ -13480,10 +13528,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT65">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13584,7 +13632,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13671,10 +13719,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT66">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU66">
         <v>1.96</v>
@@ -13775,7 +13823,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13862,10 +13910,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14053,10 +14101,10 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT68">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU68">
         <v>2.14</v>
@@ -14244,10 +14292,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT69">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1.74</v>
@@ -14348,7 +14396,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14435,7 +14483,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT70">
         <v>1.5</v>
@@ -14539,7 +14587,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14626,7 +14674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT71">
         <v>1.25</v>
@@ -14817,10 +14865,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT72">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU72">
         <v>1.87</v>
@@ -14921,7 +14969,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15008,7 +15056,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15199,10 +15247,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15303,7 +15351,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15390,10 +15438,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT75">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15494,7 +15542,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15581,10 +15629,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT76">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -15685,7 +15733,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15772,10 +15820,10 @@
         <v>2</v>
       </c>
       <c r="AS77">
+        <v>1.88</v>
+      </c>
+      <c r="AT77">
         <v>2.14</v>
-      </c>
-      <c r="AT77">
-        <v>2</v>
       </c>
       <c r="AU77">
         <v>2.16</v>
@@ -15963,10 +16011,10 @@
         <v>1.75</v>
       </c>
       <c r="AS78">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT78">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>1.77</v>
@@ -16154,10 +16202,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT79">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16258,7 +16306,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16345,10 +16393,10 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT80">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16449,7 +16497,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16539,7 +16587,7 @@
         <v>2.5</v>
       </c>
       <c r="AT81">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.71</v>
@@ -16640,7 +16688,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16730,7 +16778,7 @@
         <v>1.75</v>
       </c>
       <c r="AT82">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -16831,7 +16879,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -16918,10 +16966,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU83">
         <v>1.4</v>
@@ -17109,10 +17157,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT84">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17300,10 +17348,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT85">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU85">
         <v>1.64</v>
@@ -17404,7 +17452,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17491,7 +17539,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT86">
         <v>1.5</v>
@@ -17595,7 +17643,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17682,10 +17730,10 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT87">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>2.15</v>
@@ -17786,7 +17834,7 @@
         <v>84</v>
       </c>
       <c r="P88" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q88">
         <v>1</v>
@@ -17873,10 +17921,10 @@
         <v>1.67</v>
       </c>
       <c r="AS88">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -17977,7 +18025,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18064,10 +18112,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT89">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU89">
         <v>2.01</v>
@@ -18255,10 +18303,10 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU90">
         <v>1.8</v>
@@ -18359,7 +18407,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18446,7 +18494,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT91">
         <v>1.25</v>
@@ -18637,10 +18685,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT92">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>2.18</v>
@@ -18741,7 +18789,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18828,7 +18876,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT93">
         <v>1</v>
@@ -18932,7 +18980,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19019,10 +19067,10 @@
         <v>1.2</v>
       </c>
       <c r="AS94">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19210,10 +19258,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT95">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU95">
         <v>1.87</v>
@@ -19401,10 +19449,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT96">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.74</v>
@@ -19505,7 +19553,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19592,10 +19640,10 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19783,10 +19831,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT98">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -19887,7 +19935,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19977,7 +20025,7 @@
         <v>1.75</v>
       </c>
       <c r="AT99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU99">
         <v>1.47</v>
@@ -20078,7 +20126,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20165,10 +20213,10 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT100">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU100">
         <v>1.9</v>
@@ -20356,7 +20404,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT101">
         <v>1.5</v>
@@ -20550,7 +20598,7 @@
         <v>2.5</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20738,7 +20786,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20842,7 +20890,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -20929,10 +20977,10 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT104">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU104">
         <v>2.23</v>
@@ -21120,10 +21168,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT105">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU105">
         <v>2.12</v>
@@ -21311,10 +21359,10 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT106">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU106">
         <v>1.84</v>
@@ -21415,7 +21463,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21502,10 +21550,10 @@
         <v>1.67</v>
       </c>
       <c r="AS107">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT107">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21606,7 +21654,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21693,10 +21741,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT108">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21797,7 +21845,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21884,10 +21932,10 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT109">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22075,10 +22123,10 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.98</v>
@@ -22179,7 +22227,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22266,10 +22314,10 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT111">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22457,10 +22505,10 @@
         <v>0.8</v>
       </c>
       <c r="AS112">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT112">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU112">
         <v>1.48</v>
@@ -22648,10 +22696,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AT113">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU113">
         <v>2.18</v>
@@ -22839,10 +22887,10 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23030,7 +23078,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT115">
         <v>1.25</v>
@@ -23134,7 +23182,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23221,10 +23269,10 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT116">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU116">
         <v>1.87</v>
@@ -23412,10 +23460,10 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AT117">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="AU117">
         <v>1.75</v>
@@ -23516,7 +23564,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23606,7 +23654,7 @@
         <v>1.75</v>
       </c>
       <c r="AT118">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23707,7 +23755,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23797,7 +23845,7 @@
         <v>2.5</v>
       </c>
       <c r="AT119">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -23985,10 +24033,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT120">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AU120">
         <v>1.87</v>
@@ -24176,7 +24224,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AT121">
         <v>1.5</v>
@@ -24280,7 +24328,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24367,10 +24415,10 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT122">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24558,10 +24606,10 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24662,7 +24710,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24749,10 +24797,10 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT124">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU124">
         <v>1.74</v>
@@ -24853,7 +24901,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -24940,7 +24988,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25044,7 +25092,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25131,10 +25179,10 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25322,10 +25370,10 @@
         <v>1.86</v>
       </c>
       <c r="AS127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT127">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU127">
         <v>1.9</v>
@@ -25426,7 +25474,7 @@
         <v>145</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="Q128">
         <v>3</v>
@@ -25513,10 +25561,10 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT128">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU128">
         <v>1.59</v>
@@ -25617,7 +25665,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25704,10 +25752,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AT129">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -25808,7 +25856,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -25895,10 +25943,10 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AT130">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -25999,7 +26047,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26086,10 +26134,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT131">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU131">
         <v>2.09</v>
@@ -26277,10 +26325,10 @@
         <v>1.71</v>
       </c>
       <c r="AS132">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU132">
         <v>1.45</v>
@@ -26381,7 +26429,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26468,10 +26516,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT133">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AU133">
         <v>2.14</v>
@@ -26572,7 +26620,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26659,10 +26707,10 @@
         <v>1.86</v>
       </c>
       <c r="AS134">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT134">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU134">
         <v>1.91</v>
@@ -26957,13 +27005,13 @@
         <v>127</v>
       </c>
       <c r="Q136">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="R136">
         <v>3</v>
       </c>
       <c r="S136">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="T136">
         <v>2.2</v>
@@ -27096,6 +27144,3253 @@
       </c>
       <c r="BK136">
         <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>2313512</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44870.35416666666</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s">
+        <v>74</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>84</v>
+      </c>
+      <c r="P137" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
+        <v>1.9</v>
+      </c>
+      <c r="V137">
+        <v>4</v>
+      </c>
+      <c r="W137">
+        <v>1.54</v>
+      </c>
+      <c r="X137">
+        <v>2.34</v>
+      </c>
+      <c r="Y137">
+        <v>3.6</v>
+      </c>
+      <c r="Z137">
+        <v>1.25</v>
+      </c>
+      <c r="AA137">
+        <v>9.85</v>
+      </c>
+      <c r="AB137">
+        <v>1.03</v>
+      </c>
+      <c r="AC137">
+        <v>2</v>
+      </c>
+      <c r="AD137">
+        <v>3.2</v>
+      </c>
+      <c r="AE137">
+        <v>3.5</v>
+      </c>
+      <c r="AF137">
+        <v>1.1</v>
+      </c>
+      <c r="AG137">
+        <v>7.65</v>
+      </c>
+      <c r="AH137">
+        <v>1.5</v>
+      </c>
+      <c r="AI137">
+        <v>2.55</v>
+      </c>
+      <c r="AJ137">
+        <v>2.25</v>
+      </c>
+      <c r="AK137">
+        <v>1.57</v>
+      </c>
+      <c r="AL137">
+        <v>2.05</v>
+      </c>
+      <c r="AM137">
+        <v>1.72</v>
+      </c>
+      <c r="AN137">
+        <v>1.25</v>
+      </c>
+      <c r="AO137">
+        <v>1.3</v>
+      </c>
+      <c r="AP137">
+        <v>1.62</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>2</v>
+      </c>
+      <c r="AS137">
+        <v>0.88</v>
+      </c>
+      <c r="AT137">
+        <v>2.11</v>
+      </c>
+      <c r="AU137">
+        <v>1.68</v>
+      </c>
+      <c r="AV137">
+        <v>1.14</v>
+      </c>
+      <c r="AW137">
+        <v>2.82</v>
+      </c>
+      <c r="AX137">
+        <v>1.85</v>
+      </c>
+      <c r="AY137">
+        <v>8</v>
+      </c>
+      <c r="AZ137">
+        <v>2.28</v>
+      </c>
+      <c r="BA137">
+        <v>1.29</v>
+      </c>
+      <c r="BB137">
+        <v>1.53</v>
+      </c>
+      <c r="BC137">
+        <v>2</v>
+      </c>
+      <c r="BD137">
+        <v>2.55</v>
+      </c>
+      <c r="BE137">
+        <v>3.5</v>
+      </c>
+      <c r="BF137">
+        <v>2</v>
+      </c>
+      <c r="BG137">
+        <v>5</v>
+      </c>
+      <c r="BH137">
+        <v>6</v>
+      </c>
+      <c r="BI137">
+        <v>3</v>
+      </c>
+      <c r="BJ137">
+        <v>8</v>
+      </c>
+      <c r="BK137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>2313511</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s">
+        <v>68</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>175</v>
+      </c>
+      <c r="P138" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>6</v>
+      </c>
+      <c r="S138">
+        <v>9</v>
+      </c>
+      <c r="T138">
+        <v>2.63</v>
+      </c>
+      <c r="U138">
+        <v>2.07</v>
+      </c>
+      <c r="V138">
+        <v>4.03</v>
+      </c>
+      <c r="W138">
+        <v>1.42</v>
+      </c>
+      <c r="X138">
+        <v>2.69</v>
+      </c>
+      <c r="Y138">
+        <v>2.88</v>
+      </c>
+      <c r="Z138">
+        <v>1.36</v>
+      </c>
+      <c r="AA138">
+        <v>8.1</v>
+      </c>
+      <c r="AB138">
+        <v>1.08</v>
+      </c>
+      <c r="AC138">
+        <v>1.94</v>
+      </c>
+      <c r="AD138">
+        <v>3.3</v>
+      </c>
+      <c r="AE138">
+        <v>3.55</v>
+      </c>
+      <c r="AF138">
+        <v>1.06</v>
+      </c>
+      <c r="AG138">
+        <v>10.5</v>
+      </c>
+      <c r="AH138">
+        <v>1.33</v>
+      </c>
+      <c r="AI138">
+        <v>3.35</v>
+      </c>
+      <c r="AJ138">
+        <v>1.9</v>
+      </c>
+      <c r="AK138">
+        <v>1.8</v>
+      </c>
+      <c r="AL138">
+        <v>1.8</v>
+      </c>
+      <c r="AM138">
+        <v>1.91</v>
+      </c>
+      <c r="AN138">
+        <v>1.27</v>
+      </c>
+      <c r="AO138">
+        <v>1.29</v>
+      </c>
+      <c r="AP138">
+        <v>1.81</v>
+      </c>
+      <c r="AQ138">
+        <v>1.38</v>
+      </c>
+      <c r="AR138">
+        <v>0.71</v>
+      </c>
+      <c r="AS138">
+        <v>1.56</v>
+      </c>
+      <c r="AT138">
+        <v>0.63</v>
+      </c>
+      <c r="AU138">
+        <v>1.68</v>
+      </c>
+      <c r="AV138">
+        <v>1.4</v>
+      </c>
+      <c r="AW138">
+        <v>3.08</v>
+      </c>
+      <c r="AX138">
+        <v>1.55</v>
+      </c>
+      <c r="AY138">
+        <v>8.5</v>
+      </c>
+      <c r="AZ138">
+        <v>2.91</v>
+      </c>
+      <c r="BA138">
+        <v>1.2</v>
+      </c>
+      <c r="BB138">
+        <v>1.38</v>
+      </c>
+      <c r="BC138">
+        <v>1.67</v>
+      </c>
+      <c r="BD138">
+        <v>2.12</v>
+      </c>
+      <c r="BE138">
+        <v>2.85</v>
+      </c>
+      <c r="BF138">
+        <v>3</v>
+      </c>
+      <c r="BG138">
+        <v>2</v>
+      </c>
+      <c r="BH138">
+        <v>5</v>
+      </c>
+      <c r="BI138">
+        <v>2</v>
+      </c>
+      <c r="BJ138">
+        <v>8</v>
+      </c>
+      <c r="BK138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2313516</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44870.5625</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>72</v>
+      </c>
+      <c r="H139" t="s">
+        <v>73</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>4</v>
+      </c>
+      <c r="N139">
+        <v>5</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q139">
+        <v>7</v>
+      </c>
+      <c r="R139">
+        <v>3</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>2.4</v>
+      </c>
+      <c r="U139">
+        <v>2.15</v>
+      </c>
+      <c r="V139">
+        <v>4</v>
+      </c>
+      <c r="W139">
+        <v>1.34</v>
+      </c>
+      <c r="X139">
+        <v>3.05</v>
+      </c>
+      <c r="Y139">
+        <v>2.54</v>
+      </c>
+      <c r="Z139">
+        <v>1.46</v>
+      </c>
+      <c r="AA139">
+        <v>6.45</v>
+      </c>
+      <c r="AB139">
+        <v>1.11</v>
+      </c>
+      <c r="AC139">
+        <v>1.78</v>
+      </c>
+      <c r="AD139">
+        <v>3.65</v>
+      </c>
+      <c r="AE139">
+        <v>3.8</v>
+      </c>
+      <c r="AF139">
+        <v>1.04</v>
+      </c>
+      <c r="AG139">
+        <v>14</v>
+      </c>
+      <c r="AH139">
+        <v>1.24</v>
+      </c>
+      <c r="AI139">
+        <v>4.05</v>
+      </c>
+      <c r="AJ139">
+        <v>1.7</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+      <c r="AL139">
+        <v>1.66</v>
+      </c>
+      <c r="AM139">
+        <v>2.05</v>
+      </c>
+      <c r="AN139">
+        <v>1.26</v>
+      </c>
+      <c r="AO139">
+        <v>1.29</v>
+      </c>
+      <c r="AP139">
+        <v>1.9</v>
+      </c>
+      <c r="AQ139">
+        <v>2.14</v>
+      </c>
+      <c r="AR139">
+        <v>1.5</v>
+      </c>
+      <c r="AS139">
+        <v>1.88</v>
+      </c>
+      <c r="AT139">
+        <v>1.5</v>
+      </c>
+      <c r="AU139">
+        <v>2.23</v>
+      </c>
+      <c r="AV139">
+        <v>1.56</v>
+      </c>
+      <c r="AW139">
+        <v>3.79</v>
+      </c>
+      <c r="AX139">
+        <v>1.51</v>
+      </c>
+      <c r="AY139">
+        <v>9</v>
+      </c>
+      <c r="AZ139">
+        <v>3.06</v>
+      </c>
+      <c r="BA139">
+        <v>1.15</v>
+      </c>
+      <c r="BB139">
+        <v>1.29</v>
+      </c>
+      <c r="BC139">
+        <v>1.5</v>
+      </c>
+      <c r="BD139">
+        <v>1.9</v>
+      </c>
+      <c r="BE139">
+        <v>2.43</v>
+      </c>
+      <c r="BF139">
+        <v>4</v>
+      </c>
+      <c r="BG139">
+        <v>8</v>
+      </c>
+      <c r="BH139">
+        <v>11</v>
+      </c>
+      <c r="BI139">
+        <v>7</v>
+      </c>
+      <c r="BJ139">
+        <v>15</v>
+      </c>
+      <c r="BK139">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>2313517</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44870.66666666666</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>65</v>
+      </c>
+      <c r="H140" t="s">
+        <v>71</v>
+      </c>
+      <c r="I140">
+        <v>4</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>5</v>
+      </c>
+      <c r="L140">
+        <v>7</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>8</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q140">
+        <v>5</v>
+      </c>
+      <c r="R140">
+        <v>4</v>
+      </c>
+      <c r="S140">
+        <v>9</v>
+      </c>
+      <c r="T140">
+        <v>1.81</v>
+      </c>
+      <c r="U140">
+        <v>2.44</v>
+      </c>
+      <c r="V140">
+        <v>6.8</v>
+      </c>
+      <c r="W140">
+        <v>1.3</v>
+      </c>
+      <c r="X140">
+        <v>3.25</v>
+      </c>
+      <c r="Y140">
+        <v>2.4</v>
+      </c>
+      <c r="Z140">
+        <v>1.51</v>
+      </c>
+      <c r="AA140">
+        <v>5.85</v>
+      </c>
+      <c r="AB140">
+        <v>1.12</v>
+      </c>
+      <c r="AC140">
+        <v>1.41</v>
+      </c>
+      <c r="AD140">
+        <v>4.74</v>
+      </c>
+      <c r="AE140">
+        <v>7.3</v>
+      </c>
+      <c r="AF140">
+        <v>1.03</v>
+      </c>
+      <c r="AG140">
+        <v>16.75</v>
+      </c>
+      <c r="AH140">
+        <v>1.22</v>
+      </c>
+      <c r="AI140">
+        <v>4.4</v>
+      </c>
+      <c r="AJ140">
+        <v>1.74</v>
+      </c>
+      <c r="AK140">
+        <v>2.1</v>
+      </c>
+      <c r="AL140">
+        <v>1.93</v>
+      </c>
+      <c r="AM140">
+        <v>1.78</v>
+      </c>
+      <c r="AN140">
+        <v>1.1</v>
+      </c>
+      <c r="AO140">
+        <v>1.18</v>
+      </c>
+      <c r="AP140">
+        <v>3.02</v>
+      </c>
+      <c r="AQ140">
+        <v>2.75</v>
+      </c>
+      <c r="AR140">
+        <v>1.13</v>
+      </c>
+      <c r="AS140">
+        <v>2.78</v>
+      </c>
+      <c r="AT140">
+        <v>1</v>
+      </c>
+      <c r="AU140">
+        <v>1.9</v>
+      </c>
+      <c r="AV140">
+        <v>1.76</v>
+      </c>
+      <c r="AW140">
+        <v>3.66</v>
+      </c>
+      <c r="AX140">
+        <v>1.23</v>
+      </c>
+      <c r="AY140">
+        <v>11</v>
+      </c>
+      <c r="AZ140">
+        <v>4.88</v>
+      </c>
+      <c r="BA140">
+        <v>1.2</v>
+      </c>
+      <c r="BB140">
+        <v>1.38</v>
+      </c>
+      <c r="BC140">
+        <v>1.67</v>
+      </c>
+      <c r="BD140">
+        <v>2.12</v>
+      </c>
+      <c r="BE140">
+        <v>2.85</v>
+      </c>
+      <c r="BF140">
+        <v>11</v>
+      </c>
+      <c r="BG140">
+        <v>4</v>
+      </c>
+      <c r="BH140">
+        <v>7</v>
+      </c>
+      <c r="BI140">
+        <v>3</v>
+      </c>
+      <c r="BJ140">
+        <v>18</v>
+      </c>
+      <c r="BK140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>2313515</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44871.35416666666</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>1</v>
+      </c>
+      <c r="O141" t="s">
+        <v>178</v>
+      </c>
+      <c r="P141" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q141">
+        <v>3</v>
+      </c>
+      <c r="R141">
+        <v>4</v>
+      </c>
+      <c r="S141">
+        <v>7</v>
+      </c>
+      <c r="T141">
+        <v>3.4</v>
+      </c>
+      <c r="U141">
+        <v>2.1</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>2.63</v>
+      </c>
+      <c r="Y141">
+        <v>3</v>
+      </c>
+      <c r="Z141">
+        <v>1.36</v>
+      </c>
+      <c r="AA141">
+        <v>9</v>
+      </c>
+      <c r="AB141">
+        <v>1.07</v>
+      </c>
+      <c r="AC141">
+        <v>2.51</v>
+      </c>
+      <c r="AD141">
+        <v>2.93</v>
+      </c>
+      <c r="AE141">
+        <v>2.66</v>
+      </c>
+      <c r="AF141">
+        <v>1.03</v>
+      </c>
+      <c r="AG141">
+        <v>8.4</v>
+      </c>
+      <c r="AH141">
+        <v>1.32</v>
+      </c>
+      <c r="AI141">
+        <v>3.14</v>
+      </c>
+      <c r="AJ141">
+        <v>1.95</v>
+      </c>
+      <c r="AK141">
+        <v>1.75</v>
+      </c>
+      <c r="AL141">
+        <v>1.8</v>
+      </c>
+      <c r="AM141">
+        <v>1.95</v>
+      </c>
+      <c r="AN141">
+        <v>1.53</v>
+      </c>
+      <c r="AO141">
+        <v>1.32</v>
+      </c>
+      <c r="AP141">
+        <v>1.43</v>
+      </c>
+      <c r="AQ141">
+        <v>0.71</v>
+      </c>
+      <c r="AR141">
+        <v>1.14</v>
+      </c>
+      <c r="AS141">
+        <v>1</v>
+      </c>
+      <c r="AT141">
+        <v>1</v>
+      </c>
+      <c r="AU141">
+        <v>1.48</v>
+      </c>
+      <c r="AV141">
+        <v>1.41</v>
+      </c>
+      <c r="AW141">
+        <v>2.89</v>
+      </c>
+      <c r="AX141">
+        <v>2.1</v>
+      </c>
+      <c r="AY141">
+        <v>8</v>
+      </c>
+      <c r="AZ141">
+        <v>1.95</v>
+      </c>
+      <c r="BA141">
+        <v>1.27</v>
+      </c>
+      <c r="BB141">
+        <v>1.5</v>
+      </c>
+      <c r="BC141">
+        <v>1.95</v>
+      </c>
+      <c r="BD141">
+        <v>2.45</v>
+      </c>
+      <c r="BE141">
+        <v>3.4</v>
+      </c>
+      <c r="BF141">
+        <v>6</v>
+      </c>
+      <c r="BG141">
+        <v>3</v>
+      </c>
+      <c r="BH141">
+        <v>3</v>
+      </c>
+      <c r="BI141">
+        <v>6</v>
+      </c>
+      <c r="BJ141">
+        <v>9</v>
+      </c>
+      <c r="BK141">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>2313519</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>81</v>
+      </c>
+      <c r="H142" t="s">
+        <v>70</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>2</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>4</v>
+      </c>
+      <c r="O142" t="s">
+        <v>179</v>
+      </c>
+      <c r="P142" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q142">
+        <v>15</v>
+      </c>
+      <c r="R142">
+        <v>1</v>
+      </c>
+      <c r="S142">
+        <v>16</v>
+      </c>
+      <c r="T142">
+        <v>3.25</v>
+      </c>
+      <c r="U142">
+        <v>2.1</v>
+      </c>
+      <c r="V142">
+        <v>3.4</v>
+      </c>
+      <c r="W142">
+        <v>1.44</v>
+      </c>
+      <c r="X142">
+        <v>2.63</v>
+      </c>
+      <c r="Y142">
+        <v>3.25</v>
+      </c>
+      <c r="Z142">
+        <v>1.33</v>
+      </c>
+      <c r="AA142">
+        <v>9</v>
+      </c>
+      <c r="AB142">
+        <v>1.07</v>
+      </c>
+      <c r="AC142">
+        <v>2.35</v>
+      </c>
+      <c r="AD142">
+        <v>3.16</v>
+      </c>
+      <c r="AE142">
+        <v>2.68</v>
+      </c>
+      <c r="AF142">
+        <v>1.06</v>
+      </c>
+      <c r="AG142">
+        <v>8.25</v>
+      </c>
+      <c r="AH142">
+        <v>1.35</v>
+      </c>
+      <c r="AI142">
+        <v>2.95</v>
+      </c>
+      <c r="AJ142">
+        <v>1.94</v>
+      </c>
+      <c r="AK142">
+        <v>1.74</v>
+      </c>
+      <c r="AL142">
+        <v>1.8</v>
+      </c>
+      <c r="AM142">
+        <v>1.95</v>
+      </c>
+      <c r="AN142">
+        <v>1.47</v>
+      </c>
+      <c r="AO142">
+        <v>1.32</v>
+      </c>
+      <c r="AP142">
+        <v>1.48</v>
+      </c>
+      <c r="AQ142">
+        <v>1.86</v>
+      </c>
+      <c r="AR142">
+        <v>1.43</v>
+      </c>
+      <c r="AS142">
+        <v>1.63</v>
+      </c>
+      <c r="AT142">
+        <v>1.63</v>
+      </c>
+      <c r="AU142">
+        <v>1.72</v>
+      </c>
+      <c r="AV142">
+        <v>1.6</v>
+      </c>
+      <c r="AW142">
+        <v>3.32</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+      <c r="AY142">
+        <v>8</v>
+      </c>
+      <c r="AZ142">
+        <v>2.05</v>
+      </c>
+      <c r="BA142">
+        <v>1.18</v>
+      </c>
+      <c r="BB142">
+        <v>1.34</v>
+      </c>
+      <c r="BC142">
+        <v>1.61</v>
+      </c>
+      <c r="BD142">
+        <v>2.02</v>
+      </c>
+      <c r="BE142">
+        <v>2.7</v>
+      </c>
+      <c r="BF142">
+        <v>12</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>12</v>
+      </c>
+      <c r="BI142">
+        <v>4</v>
+      </c>
+      <c r="BJ142">
+        <v>24</v>
+      </c>
+      <c r="BK142">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>2313513</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44871.5625</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" t="s">
+        <v>69</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>2</v>
+      </c>
+      <c r="N143">
+        <v>5</v>
+      </c>
+      <c r="O143" t="s">
+        <v>180</v>
+      </c>
+      <c r="P143" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q143">
+        <v>11</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>13</v>
+      </c>
+      <c r="T143">
+        <v>1.91</v>
+      </c>
+      <c r="U143">
+        <v>2.4</v>
+      </c>
+      <c r="V143">
+        <v>7</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>3.25</v>
+      </c>
+      <c r="Y143">
+        <v>2.5</v>
+      </c>
+      <c r="Z143">
+        <v>1.5</v>
+      </c>
+      <c r="AA143">
+        <v>6.5</v>
+      </c>
+      <c r="AB143">
+        <v>1.11</v>
+      </c>
+      <c r="AC143">
+        <v>1.4</v>
+      </c>
+      <c r="AD143">
+        <v>4.65</v>
+      </c>
+      <c r="AE143">
+        <v>6.7</v>
+      </c>
+      <c r="AF143">
+        <v>1.01</v>
+      </c>
+      <c r="AG143">
+        <v>10.25</v>
+      </c>
+      <c r="AH143">
+        <v>1.22</v>
+      </c>
+      <c r="AI143">
+        <v>3.9</v>
+      </c>
+      <c r="AJ143">
+        <v>1.7</v>
+      </c>
+      <c r="AK143">
+        <v>2.1</v>
+      </c>
+      <c r="AL143">
+        <v>1.95</v>
+      </c>
+      <c r="AM143">
+        <v>1.8</v>
+      </c>
+      <c r="AN143">
+        <v>1.08</v>
+      </c>
+      <c r="AO143">
+        <v>1.18</v>
+      </c>
+      <c r="AP143">
+        <v>2.94</v>
+      </c>
+      <c r="AQ143">
+        <v>1.25</v>
+      </c>
+      <c r="AR143">
+        <v>1</v>
+      </c>
+      <c r="AS143">
+        <v>1.44</v>
+      </c>
+      <c r="AT143">
+        <v>0.89</v>
+      </c>
+      <c r="AU143">
+        <v>1.99</v>
+      </c>
+      <c r="AV143">
+        <v>1.58</v>
+      </c>
+      <c r="AW143">
+        <v>3.57</v>
+      </c>
+      <c r="AX143">
+        <v>1.26</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>4.64</v>
+      </c>
+      <c r="BA143">
+        <v>1.2</v>
+      </c>
+      <c r="BB143">
+        <v>1.38</v>
+      </c>
+      <c r="BC143">
+        <v>1.67</v>
+      </c>
+      <c r="BD143">
+        <v>2.12</v>
+      </c>
+      <c r="BE143">
+        <v>2.85</v>
+      </c>
+      <c r="BF143">
+        <v>18</v>
+      </c>
+      <c r="BG143">
+        <v>8</v>
+      </c>
+      <c r="BH143">
+        <v>16</v>
+      </c>
+      <c r="BI143">
+        <v>6</v>
+      </c>
+      <c r="BJ143">
+        <v>34</v>
+      </c>
+      <c r="BK143">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>2313526</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44876.58333333334</v>
+      </c>
+      <c r="F144">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>74</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>181</v>
+      </c>
+      <c r="P144" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q144">
+        <v>8</v>
+      </c>
+      <c r="R144">
+        <v>1</v>
+      </c>
+      <c r="S144">
+        <v>9</v>
+      </c>
+      <c r="T144">
+        <v>2.55</v>
+      </c>
+      <c r="U144">
+        <v>2</v>
+      </c>
+      <c r="V144">
+        <v>4.5</v>
+      </c>
+      <c r="W144">
+        <v>1.44</v>
+      </c>
+      <c r="X144">
+        <v>2.62</v>
+      </c>
+      <c r="Y144">
+        <v>3.25</v>
+      </c>
+      <c r="Z144">
+        <v>1.33</v>
+      </c>
+      <c r="AA144">
+        <v>8</v>
+      </c>
+      <c r="AB144">
+        <v>1.06</v>
+      </c>
+      <c r="AC144">
+        <v>1.92</v>
+      </c>
+      <c r="AD144">
+        <v>3.3</v>
+      </c>
+      <c r="AE144">
+        <v>3.8</v>
+      </c>
+      <c r="AF144">
+        <v>1.1</v>
+      </c>
+      <c r="AG144">
+        <v>6.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.4</v>
+      </c>
+      <c r="AI144">
+        <v>2.75</v>
+      </c>
+      <c r="AJ144">
+        <v>2.23</v>
+      </c>
+      <c r="AK144">
+        <v>1.58</v>
+      </c>
+      <c r="AL144">
+        <v>2.02</v>
+      </c>
+      <c r="AM144">
+        <v>1.76</v>
+      </c>
+      <c r="AN144">
+        <v>1.17</v>
+      </c>
+      <c r="AO144">
+        <v>1.25</v>
+      </c>
+      <c r="AP144">
+        <v>1.87</v>
+      </c>
+      <c r="AQ144">
+        <v>0.71</v>
+      </c>
+      <c r="AR144">
+        <v>1.5</v>
+      </c>
+      <c r="AS144">
+        <v>0.75</v>
+      </c>
+      <c r="AT144">
+        <v>1.44</v>
+      </c>
+      <c r="AU144">
+        <v>1.45</v>
+      </c>
+      <c r="AV144">
+        <v>1.45</v>
+      </c>
+      <c r="AW144">
+        <v>2.9</v>
+      </c>
+      <c r="AX144">
+        <v>1.49</v>
+      </c>
+      <c r="AY144">
+        <v>8.5</v>
+      </c>
+      <c r="AZ144">
+        <v>3.42</v>
+      </c>
+      <c r="BA144">
+        <v>1.21</v>
+      </c>
+      <c r="BB144">
+        <v>1.42</v>
+      </c>
+      <c r="BC144">
+        <v>1.76</v>
+      </c>
+      <c r="BD144">
+        <v>2.22</v>
+      </c>
+      <c r="BE144">
+        <v>2.93</v>
+      </c>
+      <c r="BF144">
+        <v>7</v>
+      </c>
+      <c r="BG144">
+        <v>3</v>
+      </c>
+      <c r="BH144">
+        <v>14</v>
+      </c>
+      <c r="BI144">
+        <v>3</v>
+      </c>
+      <c r="BJ144">
+        <v>21</v>
+      </c>
+      <c r="BK144">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>2313527</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44876.6875</v>
+      </c>
+      <c r="F145">
+        <v>17</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>182</v>
+      </c>
+      <c r="P145" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q145">
+        <v>7</v>
+      </c>
+      <c r="R145">
+        <v>1</v>
+      </c>
+      <c r="S145">
+        <v>8</v>
+      </c>
+      <c r="T145">
+        <v>3</v>
+      </c>
+      <c r="U145">
+        <v>2.1</v>
+      </c>
+      <c r="V145">
+        <v>3.3</v>
+      </c>
+      <c r="W145">
+        <v>1.4</v>
+      </c>
+      <c r="X145">
+        <v>2.75</v>
+      </c>
+      <c r="Y145">
+        <v>2.75</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>6.95</v>
+      </c>
+      <c r="AB145">
+        <v>1.07</v>
+      </c>
+      <c r="AC145">
+        <v>2.23</v>
+      </c>
+      <c r="AD145">
+        <v>3.6</v>
+      </c>
+      <c r="AE145">
+        <v>2.8</v>
+      </c>
+      <c r="AF145">
+        <v>1.05</v>
+      </c>
+      <c r="AG145">
+        <v>9</v>
+      </c>
+      <c r="AH145">
+        <v>1.28</v>
+      </c>
+      <c r="AI145">
+        <v>3.5</v>
+      </c>
+      <c r="AJ145">
+        <v>1.83</v>
+      </c>
+      <c r="AK145">
+        <v>1.88</v>
+      </c>
+      <c r="AL145">
+        <v>1.7</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.36</v>
+      </c>
+      <c r="AO145">
+        <v>1.25</v>
+      </c>
+      <c r="AP145">
+        <v>1.52</v>
+      </c>
+      <c r="AQ145">
+        <v>2.29</v>
+      </c>
+      <c r="AR145">
+        <v>1.57</v>
+      </c>
+      <c r="AS145">
+        <v>2.38</v>
+      </c>
+      <c r="AT145">
+        <v>1.38</v>
+      </c>
+      <c r="AU145">
+        <v>1.69</v>
+      </c>
+      <c r="AV145">
+        <v>1.41</v>
+      </c>
+      <c r="AW145">
+        <v>3.1</v>
+      </c>
+      <c r="AX145">
+        <v>1.95</v>
+      </c>
+      <c r="AY145">
+        <v>7.8</v>
+      </c>
+      <c r="AZ145">
+        <v>2.24</v>
+      </c>
+      <c r="BA145">
+        <v>1.21</v>
+      </c>
+      <c r="BB145">
+        <v>1.35</v>
+      </c>
+      <c r="BC145">
+        <v>1.65</v>
+      </c>
+      <c r="BD145">
+        <v>2.1</v>
+      </c>
+      <c r="BE145">
+        <v>2.77</v>
+      </c>
+      <c r="BF145">
+        <v>5</v>
+      </c>
+      <c r="BG145">
+        <v>5</v>
+      </c>
+      <c r="BH145">
+        <v>6</v>
+      </c>
+      <c r="BI145">
+        <v>10</v>
+      </c>
+      <c r="BJ145">
+        <v>11</v>
+      </c>
+      <c r="BK145">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2313522</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44877.35416666666</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>69</v>
+      </c>
+      <c r="H146" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>84</v>
+      </c>
+      <c r="P146" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q146">
+        <v>3</v>
+      </c>
+      <c r="R146">
+        <v>7</v>
+      </c>
+      <c r="S146">
+        <v>10</v>
+      </c>
+      <c r="T146">
+        <v>3.22</v>
+      </c>
+      <c r="U146">
+        <v>2.14</v>
+      </c>
+      <c r="V146">
+        <v>3.02</v>
+      </c>
+      <c r="W146">
+        <v>1.37</v>
+      </c>
+      <c r="X146">
+        <v>2.9</v>
+      </c>
+      <c r="Y146">
+        <v>2.66</v>
+      </c>
+      <c r="Z146">
+        <v>1.42</v>
+      </c>
+      <c r="AA146">
+        <v>7</v>
+      </c>
+      <c r="AB146">
+        <v>1.09</v>
+      </c>
+      <c r="AC146">
+        <v>2.98</v>
+      </c>
+      <c r="AD146">
+        <v>3.48</v>
+      </c>
+      <c r="AE146">
+        <v>2.3</v>
+      </c>
+      <c r="AF146">
+        <v>1.05</v>
+      </c>
+      <c r="AG146">
+        <v>12.25</v>
+      </c>
+      <c r="AH146">
+        <v>1.27</v>
+      </c>
+      <c r="AI146">
+        <v>3.78</v>
+      </c>
+      <c r="AJ146">
+        <v>1.86</v>
+      </c>
+      <c r="AK146">
+        <v>1.94</v>
+      </c>
+      <c r="AL146">
+        <v>1.65</v>
+      </c>
+      <c r="AM146">
+        <v>2.11</v>
+      </c>
+      <c r="AN146">
+        <v>1.52</v>
+      </c>
+      <c r="AO146">
+        <v>1.33</v>
+      </c>
+      <c r="AP146">
+        <v>1.45</v>
+      </c>
+      <c r="AQ146">
+        <v>0.71</v>
+      </c>
+      <c r="AR146">
+        <v>1.63</v>
+      </c>
+      <c r="AS146">
+        <v>0.63</v>
+      </c>
+      <c r="AT146">
+        <v>1.78</v>
+      </c>
+      <c r="AU146">
+        <v>1.54</v>
+      </c>
+      <c r="AV146">
+        <v>1.39</v>
+      </c>
+      <c r="AW146">
+        <v>2.93</v>
+      </c>
+      <c r="AX146">
+        <v>2.14</v>
+      </c>
+      <c r="AY146">
+        <v>7.8</v>
+      </c>
+      <c r="AZ146">
+        <v>2.03</v>
+      </c>
+      <c r="BA146">
+        <v>1.21</v>
+      </c>
+      <c r="BB146">
+        <v>1.3</v>
+      </c>
+      <c r="BC146">
+        <v>1.58</v>
+      </c>
+      <c r="BD146">
+        <v>1.98</v>
+      </c>
+      <c r="BE146">
+        <v>2.56</v>
+      </c>
+      <c r="BF146">
+        <v>3</v>
+      </c>
+      <c r="BG146">
+        <v>8</v>
+      </c>
+      <c r="BH146">
+        <v>7</v>
+      </c>
+      <c r="BI146">
+        <v>13</v>
+      </c>
+      <c r="BJ146">
+        <v>10</v>
+      </c>
+      <c r="BK146">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2313524</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>2</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>3</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>84</v>
+      </c>
+      <c r="P147" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q147">
+        <v>2</v>
+      </c>
+      <c r="R147">
+        <v>8</v>
+      </c>
+      <c r="S147">
+        <v>10</v>
+      </c>
+      <c r="T147">
+        <v>2.2</v>
+      </c>
+      <c r="U147">
+        <v>2.2</v>
+      </c>
+      <c r="V147">
+        <v>5</v>
+      </c>
+      <c r="W147">
+        <v>1.39</v>
+      </c>
+      <c r="X147">
+        <v>2.9</v>
+      </c>
+      <c r="Y147">
+        <v>2.78</v>
+      </c>
+      <c r="Z147">
+        <v>1.42</v>
+      </c>
+      <c r="AA147">
+        <v>7.1</v>
+      </c>
+      <c r="AB147">
+        <v>1.08</v>
+      </c>
+      <c r="AC147">
+        <v>1.62</v>
+      </c>
+      <c r="AD147">
+        <v>4</v>
+      </c>
+      <c r="AE147">
+        <v>5.25</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>12.25</v>
+      </c>
+      <c r="AH147">
+        <v>1.28</v>
+      </c>
+      <c r="AI147">
+        <v>3.5</v>
+      </c>
+      <c r="AJ147">
+        <v>1.86</v>
+      </c>
+      <c r="AK147">
+        <v>1.94</v>
+      </c>
+      <c r="AL147">
+        <v>1.85</v>
+      </c>
+      <c r="AM147">
+        <v>1.9</v>
+      </c>
+      <c r="AN147">
+        <v>1.12</v>
+      </c>
+      <c r="AO147">
+        <v>1.2</v>
+      </c>
+      <c r="AP147">
+        <v>2.05</v>
+      </c>
+      <c r="AQ147">
+        <v>1</v>
+      </c>
+      <c r="AR147">
+        <v>0.14</v>
+      </c>
+      <c r="AS147">
+        <v>0.89</v>
+      </c>
+      <c r="AT147">
+        <v>0.5</v>
+      </c>
+      <c r="AU147">
+        <v>1.81</v>
+      </c>
+      <c r="AV147">
+        <v>1.42</v>
+      </c>
+      <c r="AW147">
+        <v>3.23</v>
+      </c>
+      <c r="AX147">
+        <v>1.26</v>
+      </c>
+      <c r="AY147">
+        <v>10</v>
+      </c>
+      <c r="AZ147">
+        <v>5.3</v>
+      </c>
+      <c r="BA147">
+        <v>1.22</v>
+      </c>
+      <c r="BB147">
+        <v>1.44</v>
+      </c>
+      <c r="BC147">
+        <v>1.79</v>
+      </c>
+      <c r="BD147">
+        <v>2.28</v>
+      </c>
+      <c r="BE147">
+        <v>3.04</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>5</v>
+      </c>
+      <c r="BH147">
+        <v>3</v>
+      </c>
+      <c r="BI147">
+        <v>3</v>
+      </c>
+      <c r="BJ147">
+        <v>10</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2313520</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44877.5625</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>68</v>
+      </c>
+      <c r="H148" t="s">
+        <v>67</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>154</v>
+      </c>
+      <c r="P148" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q148">
+        <v>2</v>
+      </c>
+      <c r="R148">
+        <v>7</v>
+      </c>
+      <c r="S148">
+        <v>9</v>
+      </c>
+      <c r="T148">
+        <v>3.75</v>
+      </c>
+      <c r="U148">
+        <v>2.2</v>
+      </c>
+      <c r="V148">
+        <v>2.6</v>
+      </c>
+      <c r="W148">
+        <v>1.35</v>
+      </c>
+      <c r="X148">
+        <v>3.1</v>
+      </c>
+      <c r="Y148">
+        <v>2.6</v>
+      </c>
+      <c r="Z148">
+        <v>1.47</v>
+      </c>
+      <c r="AA148">
+        <v>6.3</v>
+      </c>
+      <c r="AB148">
+        <v>1.1</v>
+      </c>
+      <c r="AC148">
+        <v>3.3</v>
+      </c>
+      <c r="AD148">
+        <v>3.58</v>
+      </c>
+      <c r="AE148">
+        <v>2.1</v>
+      </c>
+      <c r="AF148">
+        <v>1.05</v>
+      </c>
+      <c r="AG148">
+        <v>13.25</v>
+      </c>
+      <c r="AH148">
+        <v>1.25</v>
+      </c>
+      <c r="AI148">
+        <v>3.75</v>
+      </c>
+      <c r="AJ148">
+        <v>1.81</v>
+      </c>
+      <c r="AK148">
+        <v>2.01</v>
+      </c>
+      <c r="AL148">
+        <v>1.66</v>
+      </c>
+      <c r="AM148">
+        <v>2.15</v>
+      </c>
+      <c r="AN148">
+        <v>1.75</v>
+      </c>
+      <c r="AO148">
+        <v>1.22</v>
+      </c>
+      <c r="AP148">
+        <v>1.3</v>
+      </c>
+      <c r="AQ148">
+        <v>1.63</v>
+      </c>
+      <c r="AR148">
+        <v>2</v>
+      </c>
+      <c r="AS148">
+        <v>1.44</v>
+      </c>
+      <c r="AT148">
+        <v>2.14</v>
+      </c>
+      <c r="AU148">
+        <v>1.92</v>
+      </c>
+      <c r="AV148">
+        <v>1.72</v>
+      </c>
+      <c r="AW148">
+        <v>3.64</v>
+      </c>
+      <c r="AX148">
+        <v>2.64</v>
+      </c>
+      <c r="AY148">
+        <v>7.9</v>
+      </c>
+      <c r="AZ148">
+        <v>1.74</v>
+      </c>
+      <c r="BA148">
+        <v>1.2</v>
+      </c>
+      <c r="BB148">
+        <v>1.4</v>
+      </c>
+      <c r="BC148">
+        <v>1.74</v>
+      </c>
+      <c r="BD148">
+        <v>2.19</v>
+      </c>
+      <c r="BE148">
+        <v>2.88</v>
+      </c>
+      <c r="BF148">
+        <v>5</v>
+      </c>
+      <c r="BG148">
+        <v>10</v>
+      </c>
+      <c r="BH148">
+        <v>4</v>
+      </c>
+      <c r="BI148">
+        <v>9</v>
+      </c>
+      <c r="BJ148">
+        <v>9</v>
+      </c>
+      <c r="BK148">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2313521</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44877.66666666666</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>66</v>
+      </c>
+      <c r="H149" t="s">
+        <v>65</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>147</v>
+      </c>
+      <c r="P149" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q149">
+        <v>5</v>
+      </c>
+      <c r="R149">
+        <v>5</v>
+      </c>
+      <c r="S149">
+        <v>10</v>
+      </c>
+      <c r="T149">
+        <v>5</v>
+      </c>
+      <c r="U149">
+        <v>2.25</v>
+      </c>
+      <c r="V149">
+        <v>2.1</v>
+      </c>
+      <c r="W149">
+        <v>1.34</v>
+      </c>
+      <c r="X149">
+        <v>3</v>
+      </c>
+      <c r="Y149">
+        <v>2.5</v>
+      </c>
+      <c r="Z149">
+        <v>1.46</v>
+      </c>
+      <c r="AA149">
+        <v>6</v>
+      </c>
+      <c r="AB149">
+        <v>1.11</v>
+      </c>
+      <c r="AC149">
+        <v>6.5</v>
+      </c>
+      <c r="AD149">
+        <v>4.33</v>
+      </c>
+      <c r="AE149">
+        <v>1.45</v>
+      </c>
+      <c r="AF149">
+        <v>1.04</v>
+      </c>
+      <c r="AG149">
+        <v>11</v>
+      </c>
+      <c r="AH149">
+        <v>1.23</v>
+      </c>
+      <c r="AI149">
+        <v>3.8</v>
+      </c>
+      <c r="AJ149">
+        <v>1.73</v>
+      </c>
+      <c r="AK149">
+        <v>2.1</v>
+      </c>
+      <c r="AL149">
+        <v>1.77</v>
+      </c>
+      <c r="AM149">
+        <v>1.93</v>
+      </c>
+      <c r="AN149">
+        <v>2.3</v>
+      </c>
+      <c r="AO149">
+        <v>1.23</v>
+      </c>
+      <c r="AP149">
+        <v>1.15</v>
+      </c>
+      <c r="AQ149">
+        <v>0.88</v>
+      </c>
+      <c r="AR149">
+        <v>1.86</v>
+      </c>
+      <c r="AS149">
+        <v>0.78</v>
+      </c>
+      <c r="AT149">
+        <v>2</v>
+      </c>
+      <c r="AU149">
+        <v>1.93</v>
+      </c>
+      <c r="AV149">
+        <v>1.98</v>
+      </c>
+      <c r="AW149">
+        <v>3.91</v>
+      </c>
+      <c r="AX149">
+        <v>5.3</v>
+      </c>
+      <c r="AY149">
+        <v>10</v>
+      </c>
+      <c r="AZ149">
+        <v>1.26</v>
+      </c>
+      <c r="BA149">
+        <v>1.2</v>
+      </c>
+      <c r="BB149">
+        <v>1.35</v>
+      </c>
+      <c r="BC149">
+        <v>1.65</v>
+      </c>
+      <c r="BD149">
+        <v>2.1</v>
+      </c>
+      <c r="BE149">
+        <v>2.77</v>
+      </c>
+      <c r="BF149">
+        <v>8</v>
+      </c>
+      <c r="BG149">
+        <v>5</v>
+      </c>
+      <c r="BH149">
+        <v>8</v>
+      </c>
+      <c r="BI149">
+        <v>10</v>
+      </c>
+      <c r="BJ149">
+        <v>16</v>
+      </c>
+      <c r="BK149">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2313525</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44878.35416666666</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>72</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>96</v>
+      </c>
+      <c r="P150" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q150">
+        <v>5</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>12</v>
+      </c>
+      <c r="T150">
+        <v>3.4</v>
+      </c>
+      <c r="U150">
+        <v>2.1</v>
+      </c>
+      <c r="V150">
+        <v>3.2</v>
+      </c>
+      <c r="W150">
+        <v>1.4</v>
+      </c>
+      <c r="X150">
+        <v>2.75</v>
+      </c>
+      <c r="Y150">
+        <v>3</v>
+      </c>
+      <c r="Z150">
+        <v>1.36</v>
+      </c>
+      <c r="AA150">
+        <v>8</v>
+      </c>
+      <c r="AB150">
+        <v>1.08</v>
+      </c>
+      <c r="AC150">
+        <v>2.45</v>
+      </c>
+      <c r="AD150">
+        <v>3.4</v>
+      </c>
+      <c r="AE150">
+        <v>2.7</v>
+      </c>
+      <c r="AF150">
+        <v>1.06</v>
+      </c>
+      <c r="AG150">
+        <v>8</v>
+      </c>
+      <c r="AH150">
+        <v>1.33</v>
+      </c>
+      <c r="AI150">
+        <v>3.2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.9</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.8</v>
+      </c>
+      <c r="AM150">
+        <v>1.95</v>
+      </c>
+      <c r="AN150">
+        <v>1.5</v>
+      </c>
+      <c r="AO150">
+        <v>1.28</v>
+      </c>
+      <c r="AP150">
+        <v>1.42</v>
+      </c>
+      <c r="AQ150">
+        <v>1.25</v>
+      </c>
+      <c r="AR150">
+        <v>1.38</v>
+      </c>
+      <c r="AS150">
+        <v>1.11</v>
+      </c>
+      <c r="AT150">
+        <v>1.56</v>
+      </c>
+      <c r="AU150">
+        <v>1.83</v>
+      </c>
+      <c r="AV150">
+        <v>1.65</v>
+      </c>
+      <c r="AW150">
+        <v>3.48</v>
+      </c>
+      <c r="AX150">
+        <v>1.98</v>
+      </c>
+      <c r="AY150">
+        <v>7.8</v>
+      </c>
+      <c r="AZ150">
+        <v>2.2</v>
+      </c>
+      <c r="BA150">
+        <v>1.18</v>
+      </c>
+      <c r="BB150">
+        <v>1.38</v>
+      </c>
+      <c r="BC150">
+        <v>1.7</v>
+      </c>
+      <c r="BD150">
+        <v>2.13</v>
+      </c>
+      <c r="BE150">
+        <v>2.79</v>
+      </c>
+      <c r="BF150">
+        <v>5</v>
+      </c>
+      <c r="BG150">
+        <v>6</v>
+      </c>
+      <c r="BH150">
+        <v>7</v>
+      </c>
+      <c r="BI150">
+        <v>10</v>
+      </c>
+      <c r="BJ150">
+        <v>12</v>
+      </c>
+      <c r="BK150">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2313523</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>3</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>183</v>
+      </c>
+      <c r="P151" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q151">
+        <v>4</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>7</v>
+      </c>
+      <c r="T151">
+        <v>2.85</v>
+      </c>
+      <c r="U151">
+        <v>2.05</v>
+      </c>
+      <c r="V151">
+        <v>3.5</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>2.75</v>
+      </c>
+      <c r="Y151">
+        <v>2.75</v>
+      </c>
+      <c r="Z151">
+        <v>1.4</v>
+      </c>
+      <c r="AA151">
+        <v>6.5</v>
+      </c>
+      <c r="AB151">
+        <v>1.1</v>
+      </c>
+      <c r="AC151">
+        <v>2.05</v>
+      </c>
+      <c r="AD151">
+        <v>3.4</v>
+      </c>
+      <c r="AE151">
+        <v>3.3</v>
+      </c>
+      <c r="AF151">
+        <v>1.06</v>
+      </c>
+      <c r="AG151">
+        <v>8</v>
+      </c>
+      <c r="AH151">
+        <v>1.33</v>
+      </c>
+      <c r="AI151">
+        <v>3.25</v>
+      </c>
+      <c r="AJ151">
+        <v>1.81</v>
+      </c>
+      <c r="AK151">
+        <v>1.87</v>
+      </c>
+      <c r="AL151">
+        <v>1.73</v>
+      </c>
+      <c r="AM151">
+        <v>2</v>
+      </c>
+      <c r="AN151">
+        <v>1.36</v>
+      </c>
+      <c r="AO151">
+        <v>1.31</v>
+      </c>
+      <c r="AP151">
+        <v>1.6</v>
+      </c>
+      <c r="AQ151">
+        <v>0.83</v>
+      </c>
+      <c r="AR151">
+        <v>0.75</v>
+      </c>
+      <c r="AS151">
+        <v>1</v>
+      </c>
+      <c r="AT151">
+        <v>1</v>
+      </c>
+      <c r="AU151">
+        <v>1.41</v>
+      </c>
+      <c r="AV151">
+        <v>1.08</v>
+      </c>
+      <c r="AW151">
+        <v>2.49</v>
+      </c>
+      <c r="AX151">
+        <v>1.6</v>
+      </c>
+      <c r="AY151">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ151">
+        <v>2.99</v>
+      </c>
+      <c r="BA151">
+        <v>1.2</v>
+      </c>
+      <c r="BB151">
+        <v>1.35</v>
+      </c>
+      <c r="BC151">
+        <v>1.65</v>
+      </c>
+      <c r="BD151">
+        <v>2.1</v>
+      </c>
+      <c r="BE151">
+        <v>2.77</v>
+      </c>
+      <c r="BF151">
+        <v>9</v>
+      </c>
+      <c r="BG151">
+        <v>6</v>
+      </c>
+      <c r="BH151">
+        <v>8</v>
+      </c>
+      <c r="BI151">
+        <v>4</v>
+      </c>
+      <c r="BJ151">
+        <v>17</v>
+      </c>
+      <c r="BK151">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2313528</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44878.5625</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>84</v>
+      </c>
+      <c r="P152" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>8</v>
+      </c>
+      <c r="S152">
+        <v>12</v>
+      </c>
+      <c r="T152">
+        <v>3.75</v>
+      </c>
+      <c r="U152">
+        <v>2.1</v>
+      </c>
+      <c r="V152">
+        <v>2.7</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>3</v>
+      </c>
+      <c r="Y152">
+        <v>2.62</v>
+      </c>
+      <c r="Z152">
+        <v>1.44</v>
+      </c>
+      <c r="AA152">
+        <v>6.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.1</v>
+      </c>
+      <c r="AC152">
+        <v>3.44</v>
+      </c>
+      <c r="AD152">
+        <v>3.58</v>
+      </c>
+      <c r="AE152">
+        <v>2.05</v>
+      </c>
+      <c r="AF152">
+        <v>1.05</v>
+      </c>
+      <c r="AG152">
+        <v>9</v>
+      </c>
+      <c r="AH152">
+        <v>1.29</v>
+      </c>
+      <c r="AI152">
+        <v>3.5</v>
+      </c>
+      <c r="AJ152">
+        <v>2.01</v>
+      </c>
+      <c r="AK152">
+        <v>1.89</v>
+      </c>
+      <c r="AL152">
+        <v>1.7</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>1.7</v>
+      </c>
+      <c r="AO152">
+        <v>1.25</v>
+      </c>
+      <c r="AP152">
+        <v>1.33</v>
+      </c>
+      <c r="AQ152">
+        <v>1.5</v>
+      </c>
+      <c r="AR152">
+        <v>1.38</v>
+      </c>
+      <c r="AS152">
+        <v>1.44</v>
+      </c>
+      <c r="AT152">
+        <v>1.33</v>
+      </c>
+      <c r="AU152">
+        <v>1.65</v>
+      </c>
+      <c r="AV152">
+        <v>1.53</v>
+      </c>
+      <c r="AW152">
+        <v>3.18</v>
+      </c>
+      <c r="AX152">
+        <v>2.32</v>
+      </c>
+      <c r="AY152">
+        <v>7.8</v>
+      </c>
+      <c r="AZ152">
+        <v>1.92</v>
+      </c>
+      <c r="BA152">
+        <v>1.2</v>
+      </c>
+      <c r="BB152">
+        <v>1.36</v>
+      </c>
+      <c r="BC152">
+        <v>1.67</v>
+      </c>
+      <c r="BD152">
+        <v>2.12</v>
+      </c>
+      <c r="BE152">
+        <v>2.81</v>
+      </c>
+      <c r="BF152">
+        <v>3</v>
+      </c>
+      <c r="BG152">
+        <v>3</v>
+      </c>
+      <c r="BH152">
+        <v>5</v>
+      </c>
+      <c r="BI152">
+        <v>6</v>
+      </c>
+      <c r="BJ152">
+        <v>8</v>
+      </c>
+      <c r="BK152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2313388</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44883.6875</v>
+      </c>
+      <c r="F153">
+        <v>2</v>
+      </c>
+      <c r="G153" t="s">
+        <v>82</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>184</v>
+      </c>
+      <c r="P153" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
+        <v>6</v>
+      </c>
+      <c r="S153">
+        <v>8</v>
+      </c>
+      <c r="T153">
+        <v>2.7</v>
+      </c>
+      <c r="U153">
+        <v>2.15</v>
+      </c>
+      <c r="V153">
+        <v>3.5</v>
+      </c>
+      <c r="W153">
+        <v>1.34</v>
+      </c>
+      <c r="X153">
+        <v>3</v>
+      </c>
+      <c r="Y153">
+        <v>2.35</v>
+      </c>
+      <c r="Z153">
+        <v>1.46</v>
+      </c>
+      <c r="AA153">
+        <v>6</v>
+      </c>
+      <c r="AB153">
+        <v>1.11</v>
+      </c>
+      <c r="AC153">
+        <v>2.34</v>
+      </c>
+      <c r="AD153">
+        <v>3.15</v>
+      </c>
+      <c r="AE153">
+        <v>2.9</v>
+      </c>
+      <c r="AF153">
+        <v>1.04</v>
+      </c>
+      <c r="AG153">
+        <v>11</v>
+      </c>
+      <c r="AH153">
+        <v>1.21</v>
+      </c>
+      <c r="AI153">
+        <v>4.47</v>
+      </c>
+      <c r="AJ153">
+        <v>1.65</v>
+      </c>
+      <c r="AK153">
+        <v>2.06</v>
+      </c>
+      <c r="AL153">
+        <v>1.6</v>
+      </c>
+      <c r="AM153">
+        <v>2.2</v>
+      </c>
+      <c r="AN153">
+        <v>1.36</v>
+      </c>
+      <c r="AO153">
+        <v>1.28</v>
+      </c>
+      <c r="AP153">
+        <v>1.66</v>
+      </c>
+      <c r="AQ153">
+        <v>0.71</v>
+      </c>
+      <c r="AR153">
+        <v>1.71</v>
+      </c>
+      <c r="AS153">
+        <v>1</v>
+      </c>
+      <c r="AT153">
+        <v>1.5</v>
+      </c>
+      <c r="AU153">
+        <v>1.53</v>
+      </c>
+      <c r="AV153">
+        <v>1.61</v>
+      </c>
+      <c r="AW153">
+        <v>3.14</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>2.05</v>
+      </c>
+      <c r="BA153">
+        <v>1.16</v>
+      </c>
+      <c r="BB153">
+        <v>1.3</v>
+      </c>
+      <c r="BC153">
+        <v>1.55</v>
+      </c>
+      <c r="BD153">
+        <v>1.98</v>
+      </c>
+      <c r="BE153">
+        <v>2.5</v>
+      </c>
+      <c r="BF153">
+        <v>4</v>
+      </c>
+      <c r="BG153">
+        <v>4</v>
+      </c>
+      <c r="BH153">
+        <v>3</v>
+      </c>
+      <c r="BI153">
+        <v>11</v>
+      </c>
+      <c r="BJ153">
+        <v>7</v>
+      </c>
+      <c r="BK153">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,7 +3745,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -6384,7 +6384,7 @@
         <v>1.44</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -10444,7 +10444,7 @@
         <v>0.78</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU49" t="n">
         <v>1.99</v>
@@ -13083,7 +13083,7 @@
         <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -17549,7 +17549,7 @@
         <v>2.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -21812,7 +21812,7 @@
         <v>1.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU105" t="n">
         <v>2.12</v>
@@ -25669,7 +25669,7 @@
         <v>0.88</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU124" t="n">
         <v>1.74</v>
@@ -29323,7 +29323,7 @@
         <v>1.63</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -31607,6 +31607,209 @@
         <v>7</v>
       </c>
       <c r="BK153" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2313533</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>44953.58333333334</v>
+      </c>
+      <c r="F154" t="n">
+        <v>18</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X154" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK154" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK154"/>
+  <dimension ref="A1:BK158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3339,7 +3339,7 @@
         <v>2.5</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.56</v>
@@ -3948,7 +3948,7 @@
         <v>0.88</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>1.38</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT30" t="n">
         <v>1.78</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.16</v>
@@ -6993,7 +6993,7 @@
         <v>0.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7196,7 +7196,7 @@
         <v>0.89</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU33" t="n">
         <v>1.8</v>
@@ -7602,7 +7602,7 @@
         <v>1</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU35" t="n">
         <v>1.8</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -10035,7 +10035,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT47" t="n">
         <v>1.38</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT48" t="n">
         <v>1.78</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT52" t="n">
         <v>1.33</v>
@@ -11662,7 +11662,7 @@
         <v>1.88</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU55" t="n">
         <v>2.14</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
         <v>1</v>
@@ -12268,10 +12268,10 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU58" t="n">
         <v>1.57</v>
@@ -12677,7 +12677,7 @@
         <v>2.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU60" t="n">
         <v>1.63</v>
@@ -12880,7 +12880,7 @@
         <v>1</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>1.56</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -14098,7 +14098,7 @@
         <v>0.63</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14907,10 +14907,10 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT72" t="n">
         <v>1.38</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT73" t="n">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>1.88</v>
       </c>
       <c r="AT77" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU77" t="n">
         <v>2.16</v>
@@ -17140,7 +17140,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT82" t="n">
         <v>1.78</v>
@@ -17752,7 +17752,7 @@
         <v>1.56</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU85" t="n">
         <v>1.64</v>
@@ -18358,10 +18358,10 @@
         <v>1.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -18970,7 +18970,7 @@
         <v>0.89</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU91" t="n">
         <v>1.86</v>
@@ -19982,10 +19982,10 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU96" t="n">
         <v>1.74</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT97" t="n">
         <v>2.11</v>
@@ -20391,7 +20391,7 @@
         <v>0.88</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20591,10 +20591,10 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.47</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -23030,7 +23030,7 @@
         <v>1</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23230,7 +23230,7 @@
         <v>0.8</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT112" t="n">
         <v>0.63</v>
@@ -23839,10 +23839,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU115" t="n">
         <v>1.67</v>
@@ -24045,7 +24045,7 @@
         <v>0.89</v>
       </c>
       <c r="AT116" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU116" t="n">
         <v>1.87</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24448,7 +24448,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -24654,7 +24654,7 @@
         <v>2.5</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25057,7 +25057,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT121" t="n">
         <v>1.5</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT122" t="n">
         <v>0.63</v>
@@ -25466,7 +25466,7 @@
         <v>1.56</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -26075,7 +26075,7 @@
         <v>1</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU126" t="n">
         <v>1.49</v>
@@ -27496,7 +27496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU133" t="n">
         <v>2.14</v>
@@ -27899,10 +27899,10 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU135" t="n">
         <v>1.58</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT142" t="n">
         <v>1.56</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AT144" t="n">
         <v>1.44</v>
@@ -30541,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -30744,7 +30744,7 @@
         <v>0.78</v>
       </c>
       <c r="AT149" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU149" t="n">
         <v>1.93</v>
@@ -30947,7 +30947,7 @@
         <v>1.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU150" t="n">
         <v>1.83</v>
@@ -31350,7 +31350,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AT152" t="n">
         <v>1.33</v>
@@ -31811,6 +31811,818 @@
       </c>
       <c r="BK154" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2313534</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>44953.6875</v>
+      </c>
+      <c r="F155" t="n">
+        <v>18</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>5</v>
+      </c>
+      <c r="R155" t="n">
+        <v>7</v>
+      </c>
+      <c r="S155" t="n">
+        <v>12</v>
+      </c>
+      <c r="T155" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U155" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X155" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2313535</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F156" t="n">
+        <v>18</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>2</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>2</v>
+      </c>
+      <c r="R156" t="n">
+        <v>4</v>
+      </c>
+      <c r="S156" t="n">
+        <v>6</v>
+      </c>
+      <c r="T156" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U156" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X156" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>2313536</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>44954.5625</v>
+      </c>
+      <c r="F157" t="n">
+        <v>18</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="n">
+        <v>3</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3</v>
+      </c>
+      <c r="N157" t="n">
+        <v>6</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>['67', '79', '90+9']</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>['20', '75', '86']</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>7</v>
+      </c>
+      <c r="T157" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U157" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V157" t="n">
+        <v>3</v>
+      </c>
+      <c r="W157" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X157" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>2313537</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>44954.66666666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>18</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>3</v>
+      </c>
+      <c r="N158" t="n">
+        <v>3</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>['33', '67', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>4</v>
+      </c>
+      <c r="R158" t="n">
+        <v>3</v>
+      </c>
+      <c r="S158" t="n">
+        <v>7</v>
+      </c>
+      <c r="T158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V158" t="n">
+        <v>4</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X158" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK158"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2730,7 +2730,7 @@
         <v>0.78</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.56</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT14" t="n">
         <v>1.44</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT17" t="n">
         <v>1.44</v>
@@ -4760,7 +4760,7 @@
         <v>1.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU21" t="n">
         <v>2.16</v>
@@ -4963,7 +4963,7 @@
         <v>1.44</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU22" t="n">
         <v>2.32</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -8414,7 +8414,7 @@
         <v>1.88</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU39" t="n">
         <v>1.6</v>
@@ -8820,7 +8820,7 @@
         <v>2.78</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT45" t="n">
         <v>1.5</v>
@@ -9835,7 +9835,7 @@
         <v>2.38</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU46" t="n">
         <v>2.19</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT50" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>0.89</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -11256,7 +11256,7 @@
         <v>1.11</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU53" t="n">
         <v>2.21</v>
@@ -11865,7 +11865,7 @@
         <v>1.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT61" t="n">
         <v>2</v>
@@ -13080,7 +13080,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT62" t="n">
         <v>1.56</v>
@@ -13486,7 +13486,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT64" t="n">
         <v>2.11</v>
@@ -13895,7 +13895,7 @@
         <v>0.78</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU66" t="n">
         <v>1.96</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5</v>
@@ -15519,7 +15519,7 @@
         <v>1.11</v>
       </c>
       <c r="AT74" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -15925,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -16937,7 +16937,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -18158,7 +18158,7 @@
         <v>0.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU87" t="n">
         <v>2.15</v>
@@ -19782,7 +19782,7 @@
         <v>1.44</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU95" t="n">
         <v>1.87</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT98" t="n">
         <v>1.89</v>
@@ -20797,7 +20797,7 @@
         <v>1.44</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU100" t="n">
         <v>1.9</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT102" t="n">
         <v>2.11</v>
@@ -21609,7 +21609,7 @@
         <v>0.78</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU104" t="n">
         <v>2.23</v>
@@ -22215,7 +22215,7 @@
         <v>1.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT107" t="n">
         <v>1.78</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
         <v>1.89</v>
@@ -23233,7 +23233,7 @@
         <v>0.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -24451,7 +24451,7 @@
         <v>1.67</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -24651,7 +24651,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT119" t="n">
         <v>1.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.78</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU120" t="n">
         <v>1.87</v>
@@ -25263,7 +25263,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU122" t="n">
         <v>1.56</v>
@@ -25666,7 +25666,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT124" t="n">
         <v>1.56</v>
@@ -27290,7 +27290,7 @@
         <v>1.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT132" t="n">
         <v>1.44</v>
@@ -28102,7 +28102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AT136" t="n">
         <v>1</v>
@@ -28305,7 +28305,7 @@
         <v>2</v>
       </c>
       <c r="AS137" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AT137" t="n">
         <v>2.11</v>
@@ -28511,7 +28511,7 @@
         <v>1.56</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AU138" t="n">
         <v>1.68</v>
@@ -28917,7 +28917,7 @@
         <v>2.78</v>
       </c>
       <c r="AT140" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU140" t="n">
         <v>1.9</v>
@@ -29526,7 +29526,7 @@
         <v>1.44</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU143" t="n">
         <v>1.99</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT151" t="n">
         <v>1</v>
@@ -31553,7 +31553,7 @@
         <v>1.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AT153" t="n">
         <v>1.5</v>
@@ -32623,6 +32623,615 @@
       </c>
       <c r="BK158" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>2313530</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>44955.35416666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>18</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>2</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>9</v>
+      </c>
+      <c r="R159" t="n">
+        <v>2</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2313532</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F160" t="n">
+        <v>18</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>2</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2</v>
+      </c>
+      <c r="L160" t="n">
+        <v>3</v>
+      </c>
+      <c r="M160" t="n">
+        <v>2</v>
+      </c>
+      <c r="N160" t="n">
+        <v>5</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>['24', '36', '47']</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>['65', '79']</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>9</v>
+      </c>
+      <c r="R160" t="n">
+        <v>4</v>
+      </c>
+      <c r="S160" t="n">
+        <v>13</v>
+      </c>
+      <c r="T160" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V160" t="n">
+        <v>7</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2313531</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>44955.5625</v>
+      </c>
+      <c r="F161" t="n">
+        <v>18</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Lechia Gdańsk</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Wisła Płock</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="n">
+        <v>0</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>8</v>
+      </c>
+      <c r="R161" t="n">
+        <v>8</v>
+      </c>
+      <c r="S161" t="n">
+        <v>16</v>
+      </c>
+      <c r="T161" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT13" t="n">
         <v>0.8</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT18" t="n">
         <v>1.33</v>
@@ -4354,7 +4354,7 @@
         <v>1.11</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU19" t="n">
         <v>2.38</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT37" t="n">
         <v>1</v>
@@ -9632,7 +9632,7 @@
         <v>2.56</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU45" t="n">
         <v>1.55</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT57" t="n">
         <v>2.11</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT65" t="n">
         <v>1.89</v>
@@ -14707,7 +14707,7 @@
         <v>2.38</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU70" t="n">
         <v>1.98</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT85" t="n">
         <v>1.5</v>
@@ -17955,7 +17955,7 @@
         <v>0.63</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.45</v>
@@ -21000,7 +21000,7 @@
         <v>1.3</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU101" t="n">
         <v>1.5</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103" t="n">
         <v>1</v>
@@ -25060,7 +25060,7 @@
         <v>0.78</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25463,7 +25463,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT123" t="n">
         <v>2</v>
@@ -28508,7 +28508,7 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT138" t="n">
         <v>0.67</v>
@@ -28714,7 +28714,7 @@
         <v>1.88</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU139" t="n">
         <v>2.23</v>
@@ -31556,7 +31556,7 @@
         <v>1.22</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU153" t="n">
         <v>1.53</v>
@@ -32893,10 +32893,10 @@
         <v>9</v>
       </c>
       <c r="R160" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S160" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T160" t="n">
         <v>1.91</v>
@@ -33232,6 +33232,209 @@
       </c>
       <c r="BK161" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2313529</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>44956.625</v>
+      </c>
+      <c r="F162" t="n">
+        <v>18</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>2</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>2</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>['17', '53']</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>3</v>
+      </c>
+      <c r="R162" t="n">
+        <v>9</v>
+      </c>
+      <c r="S162" t="n">
+        <v>12</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V162" t="n">
+        <v>4</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X162" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK162"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6993,7 +6993,7 @@
         <v>0.78</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -12880,7 +12880,7 @@
         <v>1.22</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>1.88</v>
       </c>
       <c r="AT77" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU77" t="n">
         <v>2.16</v>
@@ -18361,7 +18361,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -24045,7 +24045,7 @@
         <v>0.89</v>
       </c>
       <c r="AT116" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU116" t="n">
         <v>1.87</v>
@@ -25466,7 +25466,7 @@
         <v>1.7</v>
       </c>
       <c r="AT123" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -30541,7 +30541,7 @@
         <v>1.44</v>
       </c>
       <c r="AT148" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -31962,7 +31962,7 @@
         <v>1.67</v>
       </c>
       <c r="AT155" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AU155" t="n">
         <v>1.59</v>
@@ -33435,6 +33435,209 @@
       </c>
       <c r="BK162" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2313390</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>44958.625</v>
+      </c>
+      <c r="F163" t="n">
+        <v>2</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="n">
+        <v>2</v>
+      </c>
+      <c r="N163" t="n">
+        <v>4</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['16', '76']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>['36', '67']</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>2</v>
+      </c>
+      <c r="R163" t="n">
+        <v>5</v>
+      </c>
+      <c r="S163" t="n">
+        <v>7</v>
+      </c>
+      <c r="T163" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U163" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT2" t="n">
         <v>2.11</v>
@@ -1512,7 +1512,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT10" t="n">
         <v>1.38</v>
@@ -4760,7 +4760,7 @@
         <v>1.88</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU21" t="n">
         <v>2.16</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT23" t="n">
         <v>1.44</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT24" t="n">
         <v>1</v>
@@ -5978,7 +5978,7 @@
         <v>2.56</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU27" t="n">
         <v>1.43</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT33" t="n">
         <v>1.89</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.33</v>
@@ -8008,7 +8008,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU37" t="n">
         <v>1.91</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT38" t="n">
         <v>1.44</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -10847,10 +10847,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.9</v>
@@ -12474,7 +12474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU59" t="n">
         <v>2.41</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT60" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>0.78</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU66" t="n">
         <v>1.96</v>
@@ -15110,7 +15110,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT72" t="n">
         <v>1.38</v>
@@ -15719,10 +15719,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -16328,7 +16328,7 @@
         <v>1.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT78" t="n">
         <v>1.33</v>
@@ -17346,7 +17346,7 @@
         <v>1.22</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT84" t="n">
         <v>1.56</v>
@@ -18767,7 +18767,7 @@
         <v>2.38</v>
       </c>
       <c r="AT90" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU90" t="n">
         <v>1.8</v>
@@ -18967,7 +18967,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT91" t="n">
         <v>1.44</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT96" t="n">
         <v>1.89</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT106" t="n">
         <v>0.5</v>
@@ -23233,7 +23233,7 @@
         <v>0.78</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -23436,7 +23436,7 @@
         <v>1.88</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU113" t="n">
         <v>2.18</v>
@@ -23839,7 +23839,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT115" t="n">
         <v>1.44</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT116" t="n">
         <v>1.89</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT117" t="n">
         <v>0.5</v>
@@ -24854,7 +24854,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT120" t="n">
         <v>0.8</v>
@@ -25263,7 +25263,7 @@
         <v>1.3</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU122" t="n">
         <v>1.56</v>
@@ -26275,7 +26275,7 @@
         <v>1.86</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT127" t="n">
         <v>1.78</v>
@@ -26481,7 +26481,7 @@
         <v>0.63</v>
       </c>
       <c r="AT128" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -28511,7 +28511,7 @@
         <v>1.7</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU138" t="n">
         <v>1.68</v>
@@ -28914,7 +28914,7 @@
         <v>1.13</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT140" t="n">
         <v>0.9</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT142" t="n">
         <v>1.56</v>
@@ -30335,7 +30335,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AT147" t="n">
         <v>0.5</v>
@@ -31150,7 +31150,7 @@
         <v>1.22</v>
       </c>
       <c r="AT151" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU151" t="n">
         <v>1.41</v>
@@ -32365,7 +32365,7 @@
         <v>1.56</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AT157" t="n">
         <v>1.5</v>
@@ -32774,7 +32774,7 @@
         <v>0.89</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -33638,6 +33638,615 @@
       </c>
       <c r="BK163" t="n">
         <v>17</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2313545</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>44960.70833333334</v>
+      </c>
+      <c r="F164" t="n">
+        <v>19</v>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="n">
+        <v>2</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="Q164" t="n">
+        <v>11</v>
+      </c>
+      <c r="R164" t="n">
+        <v>3</v>
+      </c>
+      <c r="S164" t="n">
+        <v>14</v>
+      </c>
+      <c r="T164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U164" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X164" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG164" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH164" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO164" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP164" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ164" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR164" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT164" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU164" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV164" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW164" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX164" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY164" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ164" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA164" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB164" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC164" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD164" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE164" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF164" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG164" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH164" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI164" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ164" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK164" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>2313544</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F165" t="n">
+        <v>19</v>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="n">
+        <v>0</v>
+      </c>
+      <c r="N165" t="n">
+        <v>1</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q165" t="n">
+        <v>4</v>
+      </c>
+      <c r="R165" t="n">
+        <v>4</v>
+      </c>
+      <c r="S165" t="n">
+        <v>8</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U165" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V165" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W165" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X165" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB165" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD165" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE165" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF165" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG165" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH165" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ165" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK165" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL165" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM165" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN165" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO165" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AQ165" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AU165" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV165" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW165" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX165" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY165" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ165" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BA165" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC165" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD165" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE165" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF165" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH165" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI165" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ165" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>2313541</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>44961.5625</v>
+      </c>
+      <c r="F166" t="n">
+        <v>19</v>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Lechia Gdańsk</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="n">
+        <v>2</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>['45+9']</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="Q166" t="n">
+        <v>3</v>
+      </c>
+      <c r="R166" t="n">
+        <v>2</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5</v>
+      </c>
+      <c r="T166" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V166" t="n">
+        <v>4</v>
+      </c>
+      <c r="W166" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X166" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB166" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC166" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AD166" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE166" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF166" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG166" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI166" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ166" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK166" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL166" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO166" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP166" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ166" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT166" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU166" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV166" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW166" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX166" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY166" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ166" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA166" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BB166" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BD166" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE166" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG166" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH166" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK166"/>
+  <dimension ref="A1:BK170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>0.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT9" t="n">
         <v>1.78</v>
@@ -4151,7 +4151,7 @@
         <v>1.7</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU18" t="n">
         <v>2.26</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT19" t="n">
         <v>1.33</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT21" t="n">
         <v>0.7</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT22" t="n">
         <v>0.9</v>
@@ -5166,7 +5166,7 @@
         <v>2.8</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU23" t="n">
         <v>1.6</v>
@@ -5572,7 +5572,7 @@
         <v>0.63</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU25" t="n">
         <v>0.96</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT32" t="n">
         <v>1.89</v>
@@ -7399,7 +7399,7 @@
         <v>2.38</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU34" t="n">
         <v>2.47</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU36" t="n">
         <v>2.3</v>
@@ -8211,7 +8211,7 @@
         <v>0.9</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT39" t="n">
         <v>0.9</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -9020,10 +9020,10 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU42" t="n">
         <v>2.44</v>
@@ -9429,7 +9429,7 @@
         <v>1.44</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU44" t="n">
         <v>1.43</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT49" t="n">
         <v>1.56</v>
@@ -10647,7 +10647,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU50" t="n">
         <v>1.35</v>
@@ -11053,7 +11053,7 @@
         <v>1.67</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.48</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT53" t="n">
         <v>0.8</v>
@@ -11659,7 +11659,7 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>1.44</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT59" t="n">
         <v>0.9</v>
@@ -13286,7 +13286,7 @@
         <v>1.67</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU63" t="n">
         <v>1.39</v>
@@ -13892,7 +13892,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT66" t="n">
         <v>0.7</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT68" t="n">
         <v>1.78</v>
@@ -14504,7 +14504,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT74" t="n">
         <v>0.9</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT77" t="n">
         <v>1.89</v>
@@ -16331,7 +16331,7 @@
         <v>2.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU78" t="n">
         <v>1.77</v>
@@ -16534,7 +16534,7 @@
         <v>1.44</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU79" t="n">
         <v>1.75</v>
@@ -16737,7 +16737,7 @@
         <v>0.89</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU80" t="n">
         <v>1.83</v>
@@ -16940,7 +16940,7 @@
         <v>2.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.71</v>
@@ -18155,7 +18155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT87" t="n">
         <v>0.9</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT89" t="n">
         <v>1.38</v>
@@ -19170,10 +19170,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>2.18</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT93" t="n">
         <v>1</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.57</v>
@@ -21606,7 +21606,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT104" t="n">
         <v>0.8</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT105" t="n">
         <v>1.56</v>
@@ -22015,7 +22015,7 @@
         <v>2.8</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -22421,7 +22421,7 @@
         <v>0.63</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -22624,7 +22624,7 @@
         <v>2.38</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -22824,10 +22824,10 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU110" t="n">
         <v>1.98</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT113" t="n">
         <v>0.9</v>
@@ -24248,7 +24248,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.75</v>
@@ -25869,7 +25869,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT125" t="n">
         <v>1</v>
@@ -26684,7 +26684,7 @@
         <v>1.44</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.86</v>
@@ -26887,7 +26887,7 @@
         <v>2.38</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT131" t="n">
         <v>1.38</v>
@@ -27293,7 +27293,7 @@
         <v>1.22</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU132" t="n">
         <v>1.45</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT133" t="n">
         <v>1.89</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT134" t="n">
         <v>2.11</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>1.33</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AU141" t="n">
         <v>1.48</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT143" t="n">
         <v>0.8</v>
@@ -29729,7 +29729,7 @@
         <v>0.78</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU144" t="n">
         <v>1.45</v>
@@ -30338,7 +30338,7 @@
         <v>0.9</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU147" t="n">
         <v>1.81</v>
@@ -30741,7 +30741,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AT149" t="n">
         <v>1.89</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT150" t="n">
         <v>1.5</v>
@@ -31353,7 +31353,7 @@
         <v>1.3</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU152" t="n">
         <v>1.65</v>
@@ -34108,13 +34108,13 @@
         </is>
       </c>
       <c r="Q166" t="n">
+        <v>5</v>
+      </c>
+      <c r="R166" t="n">
         <v>3</v>
       </c>
-      <c r="R166" t="n">
-        <v>2</v>
-      </c>
       <c r="S166" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="T166" t="n">
         <v>2.55</v>
@@ -34231,22 +34231,834 @@
         <v>2.35</v>
       </c>
       <c r="BF166" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG166" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH166" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI166" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ166" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK166" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2313538</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>44961.66666666666</v>
+      </c>
+      <c r="F167" t="n">
+        <v>19</v>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="n">
+        <v>2</v>
+      </c>
+      <c r="N167" t="n">
+        <v>3</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>['37', '59']</t>
+        </is>
+      </c>
+      <c r="Q167" t="n">
+        <v>5</v>
+      </c>
+      <c r="R167" t="n">
+        <v>3</v>
+      </c>
+      <c r="S167" t="n">
+        <v>8</v>
+      </c>
+      <c r="T167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U167" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X167" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB167" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD167" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF167" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG167" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI167" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ167" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL167" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN167" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ167" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AR167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS167" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AT167" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU167" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV167" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW167" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AX167" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY167" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ167" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA167" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB167" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC167" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD167" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG167" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI167" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ167" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK167" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>2313543</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>44962.35416666666</v>
+      </c>
+      <c r="F168" t="n">
+        <v>19</v>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0</v>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q168" t="n">
+        <v>4</v>
+      </c>
+      <c r="R168" t="n">
+        <v>4</v>
+      </c>
+      <c r="S168" t="n">
+        <v>8</v>
+      </c>
+      <c r="T168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U168" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V168" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X168" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB168" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC168" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD168" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE168" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AF168" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG168" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH168" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AI168" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AJ168" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK168" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL168" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO168" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP168" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ168" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR168" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT168" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU168" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV168" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW168" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX168" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY168" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ168" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BA168" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB168" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC168" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD168" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE168" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF168" t="n">
         <v>6</v>
       </c>
-      <c r="BI166" t="n">
+      <c r="BG168" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH168" t="n">
         <v>4</v>
       </c>
-      <c r="BJ166" t="n">
+      <c r="BI168" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ168" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK168" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2313540</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F169" t="n">
+        <v>19</v>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="n">
+        <v>0</v>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q169" t="n">
+        <v>4</v>
+      </c>
+      <c r="R169" t="n">
+        <v>2</v>
+      </c>
+      <c r="S169" t="n">
+        <v>6</v>
+      </c>
+      <c r="T169" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U169" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V169" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB169" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC169" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AD169" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AE169" t="n">
+        <v>5.92</v>
+      </c>
+      <c r="AF169" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG169" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH169" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI169" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ169" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK169" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL169" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM169" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN169" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO169" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ169" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR169" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS169" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT169" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AV169" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW169" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AX169" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY169" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ169" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA169" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB169" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BC169" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD169" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE169" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG169" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH169" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI169" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ169" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK169" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2313542</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>44962.5625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>19</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>2</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['48', '85']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>9</v>
+      </c>
+      <c r="R170" t="n">
+        <v>1</v>
+      </c>
+      <c r="S170" t="n">
+        <v>10</v>
+      </c>
+      <c r="T170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X170" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA170" t="n">
         <v>8</v>
       </c>
-      <c r="BK166" t="n">
+      <c r="AB170" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG170" t="n">
         <v>6</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>14</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK170"/>
+  <dimension ref="A1:BK171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT6" t="n">
         <v>1.5</v>
@@ -2527,7 +2527,7 @@
         <v>0.9</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT25" t="n">
         <v>1.22</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT43" t="n">
         <v>2.11</v>
@@ -10038,7 +10038,7 @@
         <v>1.3</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU47" t="n">
         <v>1.71</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT67" t="n">
         <v>1.5</v>
@@ -15113,7 +15113,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU72" t="n">
         <v>1.87</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT86" t="n">
         <v>1.33</v>
@@ -18564,7 +18564,7 @@
         <v>1.3</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU89" t="n">
         <v>2.01</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT108" t="n">
         <v>1.3</v>
@@ -23639,7 +23639,7 @@
         <v>1</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT128" t="n">
         <v>0.9</v>
@@ -27090,7 +27090,7 @@
         <v>0.7</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -29932,7 +29932,7 @@
         <v>2.38</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30132,7 +30132,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AT146" t="n">
         <v>1.78</v>
@@ -34517,10 +34517,10 @@
         <v>4</v>
       </c>
       <c r="R168" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S168" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T168" t="n">
         <v>2.63</v>
@@ -35059,6 +35059,209 @@
       </c>
       <c r="BK170" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2313539</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>44963.625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>19</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="n">
+        <v>3</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['30', '56']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>8</v>
+      </c>
+      <c r="R171" t="n">
+        <v>4</v>
+      </c>
+      <c r="S171" t="n">
+        <v>12</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1215,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK171"/>
+  <dimension ref="A1:BK172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4220,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT16">
         <v>1.56</v>
@@ -6130,7 +6130,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT26">
         <v>1.22</v>
@@ -7470,7 +7470,7 @@
         <v>0.9</v>
       </c>
       <c r="AT33">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU33">
         <v>1.8</v>
@@ -11096,7 +11096,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT52">
         <v>1.5</v>
@@ -12245,7 +12245,7 @@
         <v>1.3</v>
       </c>
       <c r="AT58">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU58">
         <v>1.57</v>
@@ -13197,7 +13197,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT63">
         <v>1.22</v>
@@ -13582,7 +13582,7 @@
         <v>1.7</v>
       </c>
       <c r="AT65">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -16826,7 +16826,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT82">
         <v>1.78</v>
@@ -19503,7 +19503,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU96">
         <v>1.74</v>
@@ -19885,7 +19885,7 @@
         <v>0.89</v>
       </c>
       <c r="AT98">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -20073,7 +20073,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT99">
         <v>1.5</v>
@@ -22368,7 +22368,7 @@
         <v>1.22</v>
       </c>
       <c r="AT111">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -23702,7 +23702,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT118">
         <v>0.9</v>
@@ -26570,7 +26570,7 @@
         <v>1.6</v>
       </c>
       <c r="AT133">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU133">
         <v>2.14</v>
@@ -26949,7 +26949,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT135">
         <v>1.44</v>
@@ -29626,7 +29626,7 @@
         <v>0.7</v>
       </c>
       <c r="AT149">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -30769,7 +30769,7 @@
         <v>2.14</v>
       </c>
       <c r="AS155">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AT155">
         <v>1.89</v>
@@ -30963,7 +30963,7 @@
         <v>0.78</v>
       </c>
       <c r="AT156">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AU156">
         <v>1.58</v>
@@ -33880,6 +33880,197 @@
       </c>
       <c r="BK171">
         <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2313552</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44967.58333333334</v>
+      </c>
+      <c r="F172">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>65</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>84</v>
+      </c>
+      <c r="P172" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q172">
+        <v>2</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>5</v>
+      </c>
+      <c r="T172">
+        <v>5.75</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>2.05</v>
+      </c>
+      <c r="W172">
+        <v>1.37</v>
+      </c>
+      <c r="X172">
+        <v>2.85</v>
+      </c>
+      <c r="Y172">
+        <v>2.6</v>
+      </c>
+      <c r="Z172">
+        <v>1.43</v>
+      </c>
+      <c r="AA172">
+        <v>6.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.1</v>
+      </c>
+      <c r="AC172">
+        <v>6</v>
+      </c>
+      <c r="AD172">
+        <v>3.95</v>
+      </c>
+      <c r="AE172">
+        <v>1.5</v>
+      </c>
+      <c r="AF172">
+        <v>1.05</v>
+      </c>
+      <c r="AG172">
+        <v>9</v>
+      </c>
+      <c r="AH172">
+        <v>1.25</v>
+      </c>
+      <c r="AI172">
+        <v>3.75</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.91</v>
+      </c>
+      <c r="AL172">
+        <v>1.9</v>
+      </c>
+      <c r="AM172">
+        <v>1.78</v>
+      </c>
+      <c r="AN172">
+        <v>2.5</v>
+      </c>
+      <c r="AO172">
+        <v>1.23</v>
+      </c>
+      <c r="AP172">
+        <v>1.11</v>
+      </c>
+      <c r="AQ172">
+        <v>1.67</v>
+      </c>
+      <c r="AR172">
+        <v>1.89</v>
+      </c>
+      <c r="AS172">
+        <v>1.6</v>
+      </c>
+      <c r="AT172">
+        <v>1.8</v>
+      </c>
+      <c r="AU172">
+        <v>1.58</v>
+      </c>
+      <c r="AV172">
+        <v>1.89</v>
+      </c>
+      <c r="AW172">
+        <v>3.47</v>
+      </c>
+      <c r="AX172">
+        <v>3.1</v>
+      </c>
+      <c r="AY172">
+        <v>9</v>
+      </c>
+      <c r="AZ172">
+        <v>1.44</v>
+      </c>
+      <c r="BA172">
+        <v>1.2</v>
+      </c>
+      <c r="BB172">
+        <v>1.41</v>
+      </c>
+      <c r="BC172">
+        <v>1.75</v>
+      </c>
+      <c r="BD172">
+        <v>2.21</v>
+      </c>
+      <c r="BE172">
+        <v>2.93</v>
+      </c>
+      <c r="BF172">
+        <v>2</v>
+      </c>
+      <c r="BG172">
+        <v>2</v>
+      </c>
+      <c r="BH172">
+        <v>0</v>
+      </c>
+      <c r="BI172">
+        <v>2</v>
+      </c>
+      <c r="BJ172">
+        <v>2</v>
+      </c>
+      <c r="BK172">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -607,6 +607,12 @@
     <t>['30', '56']</t>
   </si>
   <si>
+    <t>['58', '78']</t>
+  </si>
+  <si>
+    <t>['80', '87']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -854,6 +860,18 @@
   </si>
   <si>
     <t>['48', '85']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['13', '38']</t>
+  </si>
+  <si>
+    <t>['9', '82']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK172"/>
+  <dimension ref="A1:BK179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1737,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT3">
         <v>1.22</v>
@@ -1841,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2119,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT5">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2223,7 +2241,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2692,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2886,7 +2904,7 @@
         <v>1.67</v>
       </c>
       <c r="AT9">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2987,7 +3005,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3074,10 +3092,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT10">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3178,7 +3196,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3369,7 +3387,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3456,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU12">
         <v>1.19</v>
@@ -3650,7 +3668,7 @@
         <v>1.7</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3838,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT14">
         <v>1.44</v>
@@ -3942,7 +3960,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4029,10 +4047,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4223,7 +4241,7 @@
         <v>1.6</v>
       </c>
       <c r="AT16">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4324,7 +4342,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4706,7 +4724,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4897,7 +4915,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5279,7 +5297,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5470,7 +5488,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5661,7 +5679,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6133,7 +6151,7 @@
         <v>1.6</v>
       </c>
       <c r="AT26">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6321,10 +6339,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT27">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU27">
         <v>1.43</v>
@@ -6425,7 +6443,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6512,10 +6530,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT28">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6616,7 +6634,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6703,10 +6721,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT29">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -6894,10 +6912,10 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU30">
         <v>1.55</v>
@@ -6998,7 +7016,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7088,7 +7106,7 @@
         <v>0.78</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>1.16</v>
@@ -7276,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT32">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7467,7 +7485,7 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT33">
         <v>1.8</v>
@@ -7658,7 +7676,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT34">
         <v>0.44</v>
@@ -7953,7 +7971,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8234,7 +8252,7 @@
         <v>1.7</v>
       </c>
       <c r="AT37">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU37">
         <v>1.91</v>
@@ -8335,7 +8353,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8422,7 +8440,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT38">
         <v>1.3</v>
@@ -8526,7 +8544,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8908,7 +8926,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9481,7 +9499,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9568,7 +9586,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT44">
         <v>0.44</v>
@@ -9672,7 +9690,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9759,7 +9777,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT45">
         <v>1.33</v>
@@ -9863,7 +9881,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9950,10 +9968,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT46">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU46">
         <v>2.19</v>
@@ -10054,7 +10072,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10141,10 +10159,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT47">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10335,7 +10353,7 @@
         <v>0.78</v>
       </c>
       <c r="AT48">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10436,7 +10454,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10523,10 +10541,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT49">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.99</v>
@@ -10818,7 +10836,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10905,7 +10923,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT51">
         <v>0.7</v>
@@ -11009,7 +11027,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -11200,7 +11218,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11290,7 +11308,7 @@
         <v>1.3</v>
       </c>
       <c r="AT53">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU53">
         <v>2.21</v>
@@ -11773,7 +11791,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11964,7 +11982,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12155,7 +12173,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12242,7 +12260,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
         <v>1.8</v>
@@ -12436,7 +12454,7 @@
         <v>1.6</v>
       </c>
       <c r="AT59">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU59">
         <v>2.41</v>
@@ -12627,7 +12645,7 @@
         <v>2.8</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU60">
         <v>1.63</v>
@@ -12728,7 +12746,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12815,10 +12833,10 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -13006,10 +13024,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT62">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13388,7 +13406,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT64">
         <v>2.11</v>
@@ -13683,7 +13701,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13770,7 +13788,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT66">
         <v>0.7</v>
@@ -13874,7 +13892,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13964,7 +13982,7 @@
         <v>0.89</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14155,7 +14173,7 @@
         <v>1.6</v>
       </c>
       <c r="AT68">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU68">
         <v>2.14</v>
@@ -14447,7 +14465,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14534,7 +14552,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT70">
         <v>1.33</v>
@@ -14638,7 +14656,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14919,7 +14937,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU72">
         <v>1.87</v>
@@ -15020,7 +15038,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15107,7 +15125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15402,7 +15420,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15489,10 +15507,10 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15593,7 +15611,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15683,7 +15701,7 @@
         <v>1</v>
       </c>
       <c r="AT76">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU76">
         <v>1.43</v>
@@ -15784,7 +15802,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15874,7 +15892,7 @@
         <v>1.67</v>
       </c>
       <c r="AT77">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU77">
         <v>2.16</v>
@@ -16253,7 +16271,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT79">
         <v>1.3</v>
@@ -16357,7 +16375,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16548,7 +16566,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16635,7 +16653,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT81">
         <v>0.44</v>
@@ -16739,7 +16757,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16829,7 +16847,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -16930,7 +16948,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17017,7 +17035,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT83">
         <v>0.7</v>
@@ -17211,7 +17229,7 @@
         <v>2.8</v>
       </c>
       <c r="AT84">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17402,7 +17420,7 @@
         <v>1.7</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU85">
         <v>1.64</v>
@@ -17503,7 +17521,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17694,7 +17712,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17781,7 +17799,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT87">
         <v>0.9</v>
@@ -17975,7 +17993,7 @@
         <v>0.78</v>
       </c>
       <c r="AT88">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18076,7 +18094,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18166,7 +18184,7 @@
         <v>1.3</v>
       </c>
       <c r="AT89">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU89">
         <v>2.01</v>
@@ -18354,10 +18372,10 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT90">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU90">
         <v>1.8</v>
@@ -18458,7 +18476,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18545,7 +18563,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT91">
         <v>1.44</v>
@@ -18840,7 +18858,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19031,7 +19049,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19309,10 +19327,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT95">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU95">
         <v>1.87</v>
@@ -19604,7 +19622,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19691,7 +19709,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
         <v>2.11</v>
@@ -19986,7 +20004,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20076,7 +20094,7 @@
         <v>1.6</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU99">
         <v>1.47</v>
@@ -20177,7 +20195,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20264,7 +20282,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -20455,7 +20473,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT101">
         <v>1.33</v>
@@ -20646,7 +20664,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT102">
         <v>2.11</v>
@@ -20941,7 +20959,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21028,10 +21046,10 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT104">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU104">
         <v>2.23</v>
@@ -21222,7 +21240,7 @@
         <v>1.6</v>
       </c>
       <c r="AT105">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>2.12</v>
@@ -21514,7 +21532,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21604,7 +21622,7 @@
         <v>0.89</v>
       </c>
       <c r="AT107">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21705,7 +21723,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21896,7 +21914,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -21983,7 +22001,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT109">
         <v>1.5</v>
@@ -22278,7 +22296,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22365,7 +22383,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT111">
         <v>1.8</v>
@@ -22750,7 +22768,7 @@
         <v>1.67</v>
       </c>
       <c r="AT113">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU113">
         <v>2.18</v>
@@ -22941,7 +22959,7 @@
         <v>1</v>
       </c>
       <c r="AT114">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23233,7 +23251,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23320,10 +23338,10 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU116">
         <v>1.87</v>
@@ -23615,7 +23633,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23806,7 +23824,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23893,10 +23911,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT119">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -24087,7 +24105,7 @@
         <v>2.8</v>
       </c>
       <c r="AT120">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU120">
         <v>1.87</v>
@@ -24379,7 +24397,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24466,7 +24484,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT122">
         <v>0.7</v>
@@ -24660,7 +24678,7 @@
         <v>1.7</v>
       </c>
       <c r="AT123">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24761,7 +24779,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24851,7 +24869,7 @@
         <v>0.89</v>
       </c>
       <c r="AT124">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU124">
         <v>1.74</v>
@@ -24952,7 +24970,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25039,7 +25057,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT125">
         <v>1</v>
@@ -25143,7 +25161,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25233,7 +25251,7 @@
         <v>1</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25421,10 +25439,10 @@
         <v>1.86</v>
       </c>
       <c r="AS127">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT127">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU127">
         <v>1.9</v>
@@ -25615,7 +25633,7 @@
         <v>0.89</v>
       </c>
       <c r="AT128">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU128">
         <v>1.59</v>
@@ -25716,7 +25734,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25803,7 +25821,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT129">
         <v>1.5</v>
@@ -25907,7 +25925,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -25994,7 +26012,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT130">
         <v>1.22</v>
@@ -26098,7 +26116,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26185,10 +26203,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU131">
         <v>2.09</v>
@@ -26376,7 +26394,7 @@
         <v>1.71</v>
       </c>
       <c r="AS132">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT132">
         <v>1.3</v>
@@ -26480,7 +26498,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26671,7 +26689,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27140,7 +27158,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT136">
         <v>1</v>
@@ -27244,7 +27262,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27626,7 +27644,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28199,7 +28217,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28289,7 +28307,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU142">
         <v>1.72</v>
@@ -28390,7 +28408,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28480,7 +28498,7 @@
         <v>1.6</v>
       </c>
       <c r="AT143">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU143">
         <v>1.99</v>
@@ -28859,10 +28877,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>2.38</v>
+        <v>2.11</v>
       </c>
       <c r="AT145">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU145">
         <v>1.69</v>
@@ -28963,7 +28981,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29053,7 +29071,7 @@
         <v>0.89</v>
       </c>
       <c r="AT146">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU146">
         <v>1.54</v>
@@ -29154,7 +29172,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29241,7 +29259,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT147">
         <v>0.44</v>
@@ -29345,7 +29363,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29432,10 +29450,10 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT148">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29536,7 +29554,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29623,7 +29641,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT149">
         <v>1.8</v>
@@ -29727,7 +29745,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29817,7 +29835,7 @@
         <v>1.3</v>
       </c>
       <c r="AT150">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU150">
         <v>1.83</v>
@@ -29918,7 +29936,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30005,10 +30023,10 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT151">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU151">
         <v>1.41</v>
@@ -30196,7 +30214,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT152">
         <v>1.5</v>
@@ -30387,7 +30405,7 @@
         <v>1.71</v>
       </c>
       <c r="AS153">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT153">
         <v>1.33</v>
@@ -30581,7 +30599,7 @@
         <v>1</v>
       </c>
       <c r="AT154">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.44</v>
@@ -30772,7 +30790,7 @@
         <v>1.6</v>
       </c>
       <c r="AT155">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU155">
         <v>1.59</v>
@@ -31064,7 +31082,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31154,7 +31172,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU157">
         <v>1.89</v>
@@ -31255,7 +31273,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31342,7 +31360,7 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT158">
         <v>1.44</v>
@@ -31446,7 +31464,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31637,7 +31655,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31724,10 +31742,10 @@
         <v>0.89</v>
       </c>
       <c r="AS160">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="AT160">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="AU160">
         <v>2.03</v>
@@ -31915,7 +31933,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT161">
         <v>0.9</v>
@@ -32210,7 +32228,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32300,7 +32318,7 @@
         <v>1</v>
       </c>
       <c r="AT163">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AU163">
         <v>1.46</v>
@@ -32682,7 +32700,7 @@
         <v>2.8</v>
       </c>
       <c r="AT165">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AU165">
         <v>1.96</v>
@@ -32783,7 +32801,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32870,7 +32888,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT166">
         <v>1</v>
@@ -32974,7 +32992,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33061,7 +33079,7 @@
         <v>1.33</v>
       </c>
       <c r="AS167">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AT167">
         <v>1.5</v>
@@ -33547,7 +33565,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33828,7 +33846,7 @@
         <v>0.89</v>
       </c>
       <c r="AT171">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AU171">
         <v>1.48</v>
@@ -33935,10 +33953,10 @@
         <v>2</v>
       </c>
       <c r="R172">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S172">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T172">
         <v>5.75</v>
@@ -34055,22 +34073,1359 @@
         <v>2.93</v>
       </c>
       <c r="BF172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG172">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI172">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BJ172">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BK172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2313549</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44967.6875</v>
+      </c>
+      <c r="F173">
+        <v>20</v>
+      </c>
+      <c r="G173" t="s">
+        <v>82</v>
+      </c>
+      <c r="H173" t="s">
+        <v>81</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173" t="s">
+        <v>84</v>
+      </c>
+      <c r="P173" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>8</v>
+      </c>
+      <c r="S173">
+        <v>11</v>
+      </c>
+      <c r="T173">
+        <v>3.1</v>
+      </c>
+      <c r="U173">
+        <v>2</v>
+      </c>
+      <c r="V173">
+        <v>3.2</v>
+      </c>
+      <c r="W173">
+        <v>1.41</v>
+      </c>
+      <c r="X173">
+        <v>2.65</v>
+      </c>
+      <c r="Y173">
+        <v>2.8</v>
+      </c>
+      <c r="Z173">
+        <v>1.37</v>
+      </c>
+      <c r="AA173">
+        <v>7.25</v>
+      </c>
+      <c r="AB173">
+        <v>1.08</v>
+      </c>
+      <c r="AC173">
+        <v>2.55</v>
+      </c>
+      <c r="AD173">
+        <v>3.05</v>
+      </c>
+      <c r="AE173">
+        <v>2.6</v>
+      </c>
+      <c r="AF173">
+        <v>1.07</v>
+      </c>
+      <c r="AG173">
+        <v>7.5</v>
+      </c>
+      <c r="AH173">
+        <v>1.33</v>
+      </c>
+      <c r="AI173">
+        <v>3.1</v>
+      </c>
+      <c r="AJ173">
+        <v>2.05</v>
+      </c>
+      <c r="AK173">
+        <v>1.7</v>
+      </c>
+      <c r="AL173">
+        <v>1.75</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>1.44</v>
+      </c>
+      <c r="AO173">
+        <v>1.33</v>
+      </c>
+      <c r="AP173">
+        <v>1.47</v>
+      </c>
+      <c r="AQ173">
+        <v>1.22</v>
+      </c>
+      <c r="AR173">
+        <v>1.78</v>
+      </c>
+      <c r="AS173">
+        <v>1.2</v>
+      </c>
+      <c r="AT173">
+        <v>1.7</v>
+      </c>
+      <c r="AU173">
+        <v>1.45</v>
+      </c>
+      <c r="AV173">
+        <v>1.5</v>
+      </c>
+      <c r="AW173">
+        <v>2.95</v>
+      </c>
+      <c r="AX173">
+        <v>2.1</v>
+      </c>
+      <c r="AY173">
+        <v>8.5</v>
+      </c>
+      <c r="AZ173">
+        <v>1.91</v>
+      </c>
+      <c r="BA173">
+        <v>1.17</v>
+      </c>
+      <c r="BB173">
+        <v>1.27</v>
+      </c>
+      <c r="BC173">
+        <v>1.52</v>
+      </c>
+      <c r="BD173">
+        <v>1.8</v>
+      </c>
+      <c r="BE173">
+        <v>2.41</v>
+      </c>
+      <c r="BF173">
         <v>4</v>
+      </c>
+      <c r="BG173">
+        <v>5</v>
+      </c>
+      <c r="BH173">
+        <v>9</v>
+      </c>
+      <c r="BI173">
+        <v>16</v>
+      </c>
+      <c r="BJ173">
+        <v>13</v>
+      </c>
+      <c r="BK173">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2313555</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F174">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>77</v>
+      </c>
+      <c r="H174" t="s">
+        <v>69</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>187</v>
+      </c>
+      <c r="P174" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q174">
+        <v>5</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>9</v>
+      </c>
+      <c r="T174">
+        <v>2.5</v>
+      </c>
+      <c r="U174">
+        <v>2.2</v>
+      </c>
+      <c r="V174">
+        <v>4.33</v>
+      </c>
+      <c r="W174">
+        <v>1.36</v>
+      </c>
+      <c r="X174">
+        <v>3</v>
+      </c>
+      <c r="Y174">
+        <v>2.75</v>
+      </c>
+      <c r="Z174">
+        <v>1.4</v>
+      </c>
+      <c r="AA174">
+        <v>7</v>
+      </c>
+      <c r="AB174">
+        <v>1.1</v>
+      </c>
+      <c r="AC174">
+        <v>1.85</v>
+      </c>
+      <c r="AD174">
+        <v>3.6</v>
+      </c>
+      <c r="AE174">
+        <v>4</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>9.5</v>
+      </c>
+      <c r="AH174">
+        <v>1.22</v>
+      </c>
+      <c r="AI174">
+        <v>3.7</v>
+      </c>
+      <c r="AJ174">
+        <v>1.9</v>
+      </c>
+      <c r="AK174">
+        <v>1.93</v>
+      </c>
+      <c r="AL174">
+        <v>1.8</v>
+      </c>
+      <c r="AM174">
+        <v>1.95</v>
+      </c>
+      <c r="AN174">
+        <v>1.26</v>
+      </c>
+      <c r="AO174">
+        <v>1.3</v>
+      </c>
+      <c r="AP174">
+        <v>1.87</v>
+      </c>
+      <c r="AQ174">
+        <v>1.3</v>
+      </c>
+      <c r="AR174">
+        <v>0.8</v>
+      </c>
+      <c r="AS174">
+        <v>1.27</v>
+      </c>
+      <c r="AT174">
+        <v>0.82</v>
+      </c>
+      <c r="AU174">
+        <v>1.57</v>
+      </c>
+      <c r="AV174">
+        <v>1.61</v>
+      </c>
+      <c r="AW174">
+        <v>3.18</v>
+      </c>
+      <c r="AX174">
+        <v>1.59</v>
+      </c>
+      <c r="AY174">
+        <v>8.5</v>
+      </c>
+      <c r="AZ174">
+        <v>2.78</v>
+      </c>
+      <c r="BA174">
+        <v>1.18</v>
+      </c>
+      <c r="BB174">
+        <v>1.37</v>
+      </c>
+      <c r="BC174">
+        <v>1.69</v>
+      </c>
+      <c r="BD174">
+        <v>2.11</v>
+      </c>
+      <c r="BE174">
+        <v>2.79</v>
+      </c>
+      <c r="BF174">
+        <v>4</v>
+      </c>
+      <c r="BG174">
+        <v>7</v>
+      </c>
+      <c r="BH174">
+        <v>4</v>
+      </c>
+      <c r="BI174">
+        <v>10</v>
+      </c>
+      <c r="BJ174">
+        <v>8</v>
+      </c>
+      <c r="BK174">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2313554</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44968.5625</v>
+      </c>
+      <c r="F175">
+        <v>20</v>
+      </c>
+      <c r="G175" t="s">
+        <v>71</v>
+      </c>
+      <c r="H175" t="s">
+        <v>67</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+      <c r="M175">
+        <v>1</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>84</v>
+      </c>
+      <c r="P175" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q175">
+        <v>5</v>
+      </c>
+      <c r="R175">
+        <v>3</v>
+      </c>
+      <c r="S175">
+        <v>8</v>
+      </c>
+      <c r="T175">
+        <v>4.33</v>
+      </c>
+      <c r="U175">
+        <v>2.25</v>
+      </c>
+      <c r="V175">
+        <v>2.5</v>
+      </c>
+      <c r="W175">
+        <v>1.36</v>
+      </c>
+      <c r="X175">
+        <v>3</v>
+      </c>
+      <c r="Y175">
+        <v>2.63</v>
+      </c>
+      <c r="Z175">
+        <v>1.44</v>
+      </c>
+      <c r="AA175">
+        <v>7</v>
+      </c>
+      <c r="AB175">
+        <v>1.1</v>
+      </c>
+      <c r="AC175">
+        <v>3.3</v>
+      </c>
+      <c r="AD175">
+        <v>3.4</v>
+      </c>
+      <c r="AE175">
+        <v>2.1</v>
+      </c>
+      <c r="AF175">
+        <v>1.03</v>
+      </c>
+      <c r="AG175">
+        <v>8.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.25</v>
+      </c>
+      <c r="AI175">
+        <v>3.5</v>
+      </c>
+      <c r="AJ175">
+        <v>1.85</v>
+      </c>
+      <c r="AK175">
+        <v>1.93</v>
+      </c>
+      <c r="AL175">
+        <v>1.75</v>
+      </c>
+      <c r="AM175">
+        <v>2</v>
+      </c>
+      <c r="AN175">
+        <v>1.83</v>
+      </c>
+      <c r="AO175">
+        <v>1.27</v>
+      </c>
+      <c r="AP175">
+        <v>1.26</v>
+      </c>
+      <c r="AQ175">
+        <v>2.38</v>
+      </c>
+      <c r="AR175">
+        <v>1.89</v>
+      </c>
+      <c r="AS175">
+        <v>2.11</v>
+      </c>
+      <c r="AT175">
+        <v>2</v>
+      </c>
+      <c r="AU175">
+        <v>1.69</v>
+      </c>
+      <c r="AV175">
+        <v>1.97</v>
+      </c>
+      <c r="AW175">
+        <v>3.66</v>
+      </c>
+      <c r="AX175">
+        <v>2.78</v>
+      </c>
+      <c r="AY175">
+        <v>8.5</v>
+      </c>
+      <c r="AZ175">
+        <v>1.59</v>
+      </c>
+      <c r="BA175">
+        <v>1.2</v>
+      </c>
+      <c r="BB175">
+        <v>1.32</v>
+      </c>
+      <c r="BC175">
+        <v>1.59</v>
+      </c>
+      <c r="BD175">
+        <v>2.01</v>
+      </c>
+      <c r="BE175">
+        <v>2.62</v>
+      </c>
+      <c r="BF175">
+        <v>6</v>
+      </c>
+      <c r="BG175">
+        <v>8</v>
+      </c>
+      <c r="BH175">
+        <v>5</v>
+      </c>
+      <c r="BI175">
+        <v>6</v>
+      </c>
+      <c r="BJ175">
+        <v>11</v>
+      </c>
+      <c r="BK175">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2313547</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44968.66666666666</v>
+      </c>
+      <c r="F176">
+        <v>20</v>
+      </c>
+      <c r="G176" t="s">
+        <v>68</v>
+      </c>
+      <c r="H176" t="s">
+        <v>72</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>0</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>197</v>
+      </c>
+      <c r="P176" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q176">
+        <v>4</v>
+      </c>
+      <c r="R176">
+        <v>4</v>
+      </c>
+      <c r="S176">
+        <v>8</v>
+      </c>
+      <c r="T176">
+        <v>3.6</v>
+      </c>
+      <c r="U176">
+        <v>2.2</v>
+      </c>
+      <c r="V176">
+        <v>2.88</v>
+      </c>
+      <c r="W176">
+        <v>1.36</v>
+      </c>
+      <c r="X176">
+        <v>3</v>
+      </c>
+      <c r="Y176">
+        <v>2.75</v>
+      </c>
+      <c r="Z176">
+        <v>1.4</v>
+      </c>
+      <c r="AA176">
+        <v>7</v>
+      </c>
+      <c r="AB176">
+        <v>1.1</v>
+      </c>
+      <c r="AC176">
+        <v>2.96</v>
+      </c>
+      <c r="AD176">
+        <v>3.35</v>
+      </c>
+      <c r="AE176">
+        <v>2.25</v>
+      </c>
+      <c r="AF176">
+        <v>1.04</v>
+      </c>
+      <c r="AG176">
+        <v>8.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.22</v>
+      </c>
+      <c r="AI176">
+        <v>3.7</v>
+      </c>
+      <c r="AJ176">
+        <v>1.99</v>
+      </c>
+      <c r="AK176">
+        <v>1.91</v>
+      </c>
+      <c r="AL176">
+        <v>1.7</v>
+      </c>
+      <c r="AM176">
+        <v>2.05</v>
+      </c>
+      <c r="AN176">
+        <v>1.52</v>
+      </c>
+      <c r="AO176">
+        <v>1.33</v>
+      </c>
+      <c r="AP176">
+        <v>1.32</v>
+      </c>
+      <c r="AQ176">
+        <v>1.44</v>
+      </c>
+      <c r="AR176">
+        <v>1.5</v>
+      </c>
+      <c r="AS176">
+        <v>1.6</v>
+      </c>
+      <c r="AT176">
+        <v>1.36</v>
+      </c>
+      <c r="AU176">
+        <v>1.84</v>
+      </c>
+      <c r="AV176">
+        <v>1.69</v>
+      </c>
+      <c r="AW176">
+        <v>3.53</v>
+      </c>
+      <c r="AX176">
+        <v>2.43</v>
+      </c>
+      <c r="AY176">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176">
+        <v>1.75</v>
+      </c>
+      <c r="BA176">
+        <v>1.16</v>
+      </c>
+      <c r="BB176">
+        <v>1.27</v>
+      </c>
+      <c r="BC176">
+        <v>1.51</v>
+      </c>
+      <c r="BD176">
+        <v>1.93</v>
+      </c>
+      <c r="BE176">
+        <v>2.39</v>
+      </c>
+      <c r="BF176">
+        <v>5</v>
+      </c>
+      <c r="BG176">
+        <v>9</v>
+      </c>
+      <c r="BH176">
+        <v>4</v>
+      </c>
+      <c r="BI176">
+        <v>10</v>
+      </c>
+      <c r="BJ176">
+        <v>9</v>
+      </c>
+      <c r="BK176">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2313548</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44969.35416666666</v>
+      </c>
+      <c r="F177">
+        <v>20</v>
+      </c>
+      <c r="G177" t="s">
+        <v>66</v>
+      </c>
+      <c r="H177" t="s">
+        <v>79</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>2</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>84</v>
+      </c>
+      <c r="P177" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q177">
+        <v>6</v>
+      </c>
+      <c r="R177">
+        <v>4</v>
+      </c>
+      <c r="S177">
+        <v>10</v>
+      </c>
+      <c r="T177">
+        <v>3.1</v>
+      </c>
+      <c r="U177">
+        <v>2.05</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.5</v>
+      </c>
+      <c r="X177">
+        <v>2.5</v>
+      </c>
+      <c r="Y177">
+        <v>3.4</v>
+      </c>
+      <c r="Z177">
+        <v>1.3</v>
+      </c>
+      <c r="AA177">
+        <v>10</v>
+      </c>
+      <c r="AB177">
+        <v>1.06</v>
+      </c>
+      <c r="AC177">
+        <v>2.33</v>
+      </c>
+      <c r="AD177">
+        <v>3</v>
+      </c>
+      <c r="AE177">
+        <v>3.1</v>
+      </c>
+      <c r="AF177">
+        <v>1.07</v>
+      </c>
+      <c r="AG177">
+        <v>7.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.38</v>
+      </c>
+      <c r="AI177">
+        <v>2.8</v>
+      </c>
+      <c r="AJ177">
+        <v>2.14</v>
+      </c>
+      <c r="AK177">
+        <v>1.63</v>
+      </c>
+      <c r="AL177">
+        <v>1.95</v>
+      </c>
+      <c r="AM177">
+        <v>1.8</v>
+      </c>
+      <c r="AN177">
+        <v>1.37</v>
+      </c>
+      <c r="AO177">
+        <v>1.32</v>
+      </c>
+      <c r="AP177">
+        <v>1.55</v>
+      </c>
+      <c r="AQ177">
+        <v>0.7</v>
+      </c>
+      <c r="AR177">
+        <v>0.9</v>
+      </c>
+      <c r="AS177">
+        <v>0.64</v>
+      </c>
+      <c r="AT177">
+        <v>1.09</v>
+      </c>
+      <c r="AU177">
+        <v>1.91</v>
+      </c>
+      <c r="AV177">
+        <v>1.11</v>
+      </c>
+      <c r="AW177">
+        <v>3.02</v>
+      </c>
+      <c r="AX177">
+        <v>1.76</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>2.4</v>
+      </c>
+      <c r="BA177">
+        <v>1.2</v>
+      </c>
+      <c r="BB177">
+        <v>1.41</v>
+      </c>
+      <c r="BC177">
+        <v>1.75</v>
+      </c>
+      <c r="BD177">
+        <v>2.19</v>
+      </c>
+      <c r="BE177">
+        <v>2.93</v>
+      </c>
+      <c r="BF177">
+        <v>5</v>
+      </c>
+      <c r="BG177">
+        <v>3</v>
+      </c>
+      <c r="BH177">
+        <v>4</v>
+      </c>
+      <c r="BI177">
+        <v>6</v>
+      </c>
+      <c r="BJ177">
+        <v>9</v>
+      </c>
+      <c r="BK177">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2313551</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F178">
+        <v>20</v>
+      </c>
+      <c r="G178" t="s">
+        <v>73</v>
+      </c>
+      <c r="H178" t="s">
+        <v>70</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178" t="s">
+        <v>84</v>
+      </c>
+      <c r="P178" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q178">
+        <v>7</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>9</v>
+      </c>
+      <c r="T178">
+        <v>2.63</v>
+      </c>
+      <c r="U178">
+        <v>2.1</v>
+      </c>
+      <c r="V178">
+        <v>4.33</v>
+      </c>
+      <c r="W178">
+        <v>1.44</v>
+      </c>
+      <c r="X178">
+        <v>2.63</v>
+      </c>
+      <c r="Y178">
+        <v>3.25</v>
+      </c>
+      <c r="Z178">
+        <v>1.33</v>
+      </c>
+      <c r="AA178">
+        <v>9</v>
+      </c>
+      <c r="AB178">
+        <v>1.07</v>
+      </c>
+      <c r="AC178">
+        <v>2.01</v>
+      </c>
+      <c r="AD178">
+        <v>3.25</v>
+      </c>
+      <c r="AE178">
+        <v>3.57</v>
+      </c>
+      <c r="AF178">
+        <v>1.05</v>
+      </c>
+      <c r="AG178">
+        <v>7.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.3</v>
+      </c>
+      <c r="AI178">
+        <v>3.2</v>
+      </c>
+      <c r="AJ178">
+        <v>1.98</v>
+      </c>
+      <c r="AK178">
+        <v>1.74</v>
+      </c>
+      <c r="AL178">
+        <v>1.91</v>
+      </c>
+      <c r="AM178">
+        <v>1.91</v>
+      </c>
+      <c r="AN178">
+        <v>1.3</v>
+      </c>
+      <c r="AO178">
+        <v>1.33</v>
+      </c>
+      <c r="AP178">
+        <v>1.73</v>
+      </c>
+      <c r="AQ178">
+        <v>0.9</v>
+      </c>
+      <c r="AR178">
+        <v>1.56</v>
+      </c>
+      <c r="AS178">
+        <v>0.91</v>
+      </c>
+      <c r="AT178">
+        <v>1.5</v>
+      </c>
+      <c r="AU178">
+        <v>1.85</v>
+      </c>
+      <c r="AV178">
+        <v>1.6</v>
+      </c>
+      <c r="AW178">
+        <v>3.45</v>
+      </c>
+      <c r="AX178">
+        <v>1.68</v>
+      </c>
+      <c r="AY178">
+        <v>10.5</v>
+      </c>
+      <c r="AZ178">
+        <v>2.54</v>
+      </c>
+      <c r="BA178">
+        <v>1.18</v>
+      </c>
+      <c r="BB178">
+        <v>1.32</v>
+      </c>
+      <c r="BC178">
+        <v>1.6</v>
+      </c>
+      <c r="BD178">
+        <v>2.01</v>
+      </c>
+      <c r="BE178">
+        <v>2.62</v>
+      </c>
+      <c r="BF178">
+        <v>6</v>
+      </c>
+      <c r="BG178">
+        <v>5</v>
+      </c>
+      <c r="BH178">
+        <v>5</v>
+      </c>
+      <c r="BI178">
+        <v>7</v>
+      </c>
+      <c r="BJ178">
+        <v>11</v>
+      </c>
+      <c r="BK178">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2313550</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44969.5625</v>
+      </c>
+      <c r="F179">
+        <v>20</v>
+      </c>
+      <c r="G179" t="s">
+        <v>76</v>
+      </c>
+      <c r="H179" t="s">
+        <v>75</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>198</v>
+      </c>
+      <c r="P179" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q179">
+        <v>10</v>
+      </c>
+      <c r="R179">
+        <v>3</v>
+      </c>
+      <c r="S179">
+        <v>13</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
+        <v>2.1</v>
+      </c>
+      <c r="V179">
+        <v>4.75</v>
+      </c>
+      <c r="W179">
+        <v>1.4</v>
+      </c>
+      <c r="X179">
+        <v>2.75</v>
+      </c>
+      <c r="Y179">
+        <v>3</v>
+      </c>
+      <c r="Z179">
+        <v>1.36</v>
+      </c>
+      <c r="AA179">
+        <v>9</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>1.84</v>
+      </c>
+      <c r="AD179">
+        <v>3.72</v>
+      </c>
+      <c r="AE179">
+        <v>4.14</v>
+      </c>
+      <c r="AF179">
+        <v>1.03</v>
+      </c>
+      <c r="AG179">
+        <v>8.5</v>
+      </c>
+      <c r="AH179">
+        <v>1.28</v>
+      </c>
+      <c r="AI179">
+        <v>3.3</v>
+      </c>
+      <c r="AJ179">
+        <v>1.89</v>
+      </c>
+      <c r="AK179">
+        <v>1.91</v>
+      </c>
+      <c r="AL179">
+        <v>1.91</v>
+      </c>
+      <c r="AM179">
+        <v>1.91</v>
+      </c>
+      <c r="AN179">
+        <v>1.17</v>
+      </c>
+      <c r="AO179">
+        <v>1.25</v>
+      </c>
+      <c r="AP179">
+        <v>1.9</v>
+      </c>
+      <c r="AQ179">
+        <v>2.56</v>
+      </c>
+      <c r="AR179">
+        <v>1.22</v>
+      </c>
+      <c r="AS179">
+        <v>2.4</v>
+      </c>
+      <c r="AT179">
+        <v>1.2</v>
+      </c>
+      <c r="AU179">
+        <v>1.96</v>
+      </c>
+      <c r="AV179">
+        <v>1.41</v>
+      </c>
+      <c r="AW179">
+        <v>3.37</v>
+      </c>
+      <c r="AX179">
+        <v>1.48</v>
+      </c>
+      <c r="AY179">
+        <v>11</v>
+      </c>
+      <c r="AZ179">
+        <v>3.13</v>
+      </c>
+      <c r="BA179">
+        <v>1.18</v>
+      </c>
+      <c r="BB179">
+        <v>1.3</v>
+      </c>
+      <c r="BC179">
+        <v>1.57</v>
+      </c>
+      <c r="BD179">
+        <v>1.96</v>
+      </c>
+      <c r="BE179">
+        <v>2.55</v>
+      </c>
+      <c r="BF179">
+        <v>6</v>
+      </c>
+      <c r="BG179">
+        <v>3</v>
+      </c>
+      <c r="BH179">
+        <v>14</v>
+      </c>
+      <c r="BI179">
+        <v>9</v>
+      </c>
+      <c r="BJ179">
+        <v>20</v>
+      </c>
+      <c r="BK179">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="286">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['80', '87']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -686,9 +689,6 @@
   </si>
   <si>
     <t>['45+3']</t>
-  </si>
-  <si>
-    <t>['74']</t>
   </si>
   <si>
     <t>['35', '83']</t>
@@ -1233,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK179"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1859,7 +1859,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2241,7 +2241,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2522,7 +2522,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3005,7 +3005,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3196,7 +3196,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT11">
         <v>0.9</v>
@@ -3387,7 +3387,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3960,7 +3960,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4342,7 +4342,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4724,7 +4724,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4915,7 +4915,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5297,7 +5297,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5488,7 +5488,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5679,7 +5679,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6443,7 +6443,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6634,7 +6634,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7016,7 +7016,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7103,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="AS31">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT31">
         <v>1.36</v>
@@ -7679,7 +7679,7 @@
         <v>2.11</v>
       </c>
       <c r="AT34">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU34">
         <v>2.47</v>
@@ -7971,7 +7971,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8353,7 +8353,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8544,7 +8544,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8926,7 +8926,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9499,7 +9499,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9589,7 +9589,7 @@
         <v>1.6</v>
       </c>
       <c r="AT44">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU44">
         <v>1.43</v>
@@ -9690,7 +9690,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9881,7 +9881,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10072,7 +10072,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10350,7 +10350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT48">
         <v>1.7</v>
@@ -10454,7 +10454,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10836,7 +10836,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11027,7 +11027,7 @@
         <v>84</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -14364,7 +14364,7 @@
         <v>0.89</v>
       </c>
       <c r="AT69">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1.74</v>
@@ -14743,7 +14743,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT71">
         <v>1.44</v>
@@ -16656,7 +16656,7 @@
         <v>2.4</v>
       </c>
       <c r="AT81">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1.71</v>
@@ -17990,7 +17990,7 @@
         <v>1.67</v>
       </c>
       <c r="AS88">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT88">
         <v>2</v>
@@ -21431,7 +21431,7 @@
         <v>2.8</v>
       </c>
       <c r="AT106">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU106">
         <v>1.84</v>
@@ -22574,7 +22574,7 @@
         <v>0.8</v>
       </c>
       <c r="AS112">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT112">
         <v>0.7</v>
@@ -23532,7 +23532,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU117">
         <v>1.75</v>
@@ -24293,7 +24293,7 @@
         <v>1.6</v>
       </c>
       <c r="AS121">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT121">
         <v>1.33</v>
@@ -28686,7 +28686,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT144">
         <v>1.3</v>
@@ -29262,7 +29262,7 @@
         <v>0.91</v>
       </c>
       <c r="AT147">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU147">
         <v>1.81</v>
@@ -30978,7 +30978,7 @@
         <v>2</v>
       </c>
       <c r="AS156">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AT156">
         <v>1.8</v>
@@ -31464,7 +31464,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -33464,7 +33464,7 @@
         <v>1.6</v>
       </c>
       <c r="AT169">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AU169">
         <v>2.23</v>
@@ -35426,6 +35426,197 @@
       </c>
       <c r="BK179">
         <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2313553</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44970.625</v>
+      </c>
+      <c r="F180">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>74</v>
+      </c>
+      <c r="H180" t="s">
+        <v>80</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>199</v>
+      </c>
+      <c r="P180" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q180">
+        <v>8</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="S180">
+        <v>9</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
+        <v>2</v>
+      </c>
+      <c r="V180">
+        <v>4.5</v>
+      </c>
+      <c r="W180">
+        <v>1.46</v>
+      </c>
+      <c r="X180">
+        <v>2.5</v>
+      </c>
+      <c r="Y180">
+        <v>3.1</v>
+      </c>
+      <c r="Z180">
+        <v>1.32</v>
+      </c>
+      <c r="AA180">
+        <v>8.5</v>
+      </c>
+      <c r="AB180">
+        <v>1.06</v>
+      </c>
+      <c r="AC180">
+        <v>1.98</v>
+      </c>
+      <c r="AD180">
+        <v>3.5</v>
+      </c>
+      <c r="AE180">
+        <v>3.93</v>
+      </c>
+      <c r="AF180">
+        <v>1.08</v>
+      </c>
+      <c r="AG180">
+        <v>7</v>
+      </c>
+      <c r="AH180">
+        <v>1.4</v>
+      </c>
+      <c r="AI180">
+        <v>2.8</v>
+      </c>
+      <c r="AJ180">
+        <v>2.27</v>
+      </c>
+      <c r="AK180">
+        <v>1.56</v>
+      </c>
+      <c r="AL180">
+        <v>1.98</v>
+      </c>
+      <c r="AM180">
+        <v>1.71</v>
+      </c>
+      <c r="AN180">
+        <v>1.22</v>
+      </c>
+      <c r="AO180">
+        <v>1.31</v>
+      </c>
+      <c r="AP180">
+        <v>1.87</v>
+      </c>
+      <c r="AQ180">
+        <v>0.78</v>
+      </c>
+      <c r="AR180">
+        <v>0.44</v>
+      </c>
+      <c r="AS180">
+        <v>0.8</v>
+      </c>
+      <c r="AT180">
+        <v>0.5</v>
+      </c>
+      <c r="AU180">
+        <v>1.51</v>
+      </c>
+      <c r="AV180">
+        <v>1.39</v>
+      </c>
+      <c r="AW180">
+        <v>2.9</v>
+      </c>
+      <c r="AX180">
+        <v>1.51</v>
+      </c>
+      <c r="AY180">
+        <v>7</v>
+      </c>
+      <c r="AZ180">
+        <v>3.62</v>
+      </c>
+      <c r="BA180">
+        <v>1.53</v>
+      </c>
+      <c r="BB180">
+        <v>1.88</v>
+      </c>
+      <c r="BC180">
+        <v>2.34</v>
+      </c>
+      <c r="BD180">
+        <v>2.6</v>
+      </c>
+      <c r="BE180">
+        <v>4.8</v>
+      </c>
+      <c r="BF180">
+        <v>7</v>
+      </c>
+      <c r="BG180">
+        <v>6</v>
+      </c>
+      <c r="BH180">
+        <v>10</v>
+      </c>
+      <c r="BI180">
+        <v>7</v>
+      </c>
+      <c r="BJ180">
+        <v>17</v>
+      </c>
+      <c r="BK180">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['74']</t>
   </si>
   <si>
+    <t>['47', '85']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -872,6 +875,9 @@
   </si>
   <si>
     <t>['9', '82']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,7 +1764,7 @@
         <v>0.64</v>
       </c>
       <c r="AT3">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1859,7 +1865,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1949,7 +1955,7 @@
         <v>1.6</v>
       </c>
       <c r="AT4">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2241,7 +2247,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -3005,7 +3011,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3196,7 +3202,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3387,7 +3393,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3665,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT13">
         <v>0.82</v>
@@ -3960,7 +3966,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4342,7 +4348,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4620,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT18">
         <v>1.5</v>
@@ -4724,7 +4730,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4915,7 +4921,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5297,7 +5303,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5488,7 +5494,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5578,7 +5584,7 @@
         <v>2.8</v>
       </c>
       <c r="AT23">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU23">
         <v>1.6</v>
@@ -5679,7 +5685,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5766,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT24">
         <v>1</v>
@@ -5960,7 +5966,7 @@
         <v>0.89</v>
       </c>
       <c r="AT25">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU25">
         <v>0.96</v>
@@ -6443,7 +6449,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6634,7 +6640,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7016,7 +7022,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7971,7 +7977,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8058,7 +8064,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT36">
         <v>1.5</v>
@@ -8249,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT37">
         <v>1.09</v>
@@ -8353,7 +8359,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8443,7 +8449,7 @@
         <v>0.91</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8544,7 +8550,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8926,7 +8932,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9207,7 +9213,7 @@
         <v>1.6</v>
       </c>
       <c r="AT42">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU42">
         <v>2.44</v>
@@ -9499,7 +9505,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9690,7 +9696,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9881,7 +9887,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10072,7 +10078,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10454,7 +10460,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10735,7 +10741,7 @@
         <v>0.89</v>
       </c>
       <c r="AT50">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU50">
         <v>1.35</v>
@@ -10836,7 +10842,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11218,7 +11224,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11791,7 +11797,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11878,7 +11884,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT56">
         <v>0.9</v>
@@ -11982,7 +11988,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12069,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT57">
         <v>2.11</v>
@@ -12173,7 +12179,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12746,7 +12752,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13218,7 +13224,7 @@
         <v>1.6</v>
       </c>
       <c r="AT63">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU63">
         <v>1.39</v>
@@ -13597,7 +13603,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT65">
         <v>1.8</v>
@@ -13701,7 +13707,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13892,7 +13898,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14465,7 +14471,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14656,7 +14662,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14934,7 +14940,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT72">
         <v>1.2</v>
@@ -15038,7 +15044,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15420,7 +15426,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15611,7 +15617,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15802,7 +15808,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16274,7 +16280,7 @@
         <v>1.6</v>
       </c>
       <c r="AT79">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16375,7 +16381,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16465,7 +16471,7 @@
         <v>0.89</v>
       </c>
       <c r="AT80">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16566,7 +16572,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16757,7 +16763,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16948,7 +16954,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17417,7 +17423,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT85">
         <v>1.36</v>
@@ -17521,7 +17527,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17712,7 +17718,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18094,7 +18100,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18476,7 +18482,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18858,7 +18864,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19049,7 +19055,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19139,7 +19145,7 @@
         <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19518,7 +19524,7 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT96">
         <v>1.8</v>
@@ -19622,7 +19628,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20004,7 +20010,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20195,7 +20201,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20855,7 +20861,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
         <v>1</v>
@@ -20959,7 +20965,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21532,7 +21538,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21723,7 +21729,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21813,7 +21819,7 @@
         <v>0.89</v>
       </c>
       <c r="AT108">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21914,7 +21920,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22195,7 +22201,7 @@
         <v>1.3</v>
       </c>
       <c r="AT110">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU110">
         <v>1.98</v>
@@ -22296,7 +22302,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23147,7 +23153,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT115">
         <v>1.44</v>
@@ -23251,7 +23257,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23529,7 +23535,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT117">
         <v>0.5</v>
@@ -23633,7 +23639,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23824,7 +23830,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24397,7 +24403,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24675,7 +24681,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -24779,7 +24785,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24970,7 +24976,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25161,7 +25167,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25734,7 +25740,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25925,7 +25931,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26015,7 +26021,7 @@
         <v>2.11</v>
       </c>
       <c r="AT130">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -26116,7 +26122,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26397,7 +26403,7 @@
         <v>1.2</v>
       </c>
       <c r="AT132">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU132">
         <v>1.45</v>
@@ -26498,7 +26504,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26689,7 +26695,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27262,7 +27268,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27540,7 +27546,7 @@
         <v>0.71</v>
       </c>
       <c r="AS138">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT138">
         <v>0.7</v>
@@ -27644,7 +27650,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28116,7 +28122,7 @@
         <v>1</v>
       </c>
       <c r="AT141">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU141">
         <v>1.48</v>
@@ -28217,7 +28223,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28304,7 +28310,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT142">
         <v>1.5</v>
@@ -28408,7 +28414,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28689,7 +28695,7 @@
         <v>0.8</v>
       </c>
       <c r="AT144">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -28981,7 +28987,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29172,7 +29178,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29363,7 +29369,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29554,7 +29560,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29745,7 +29751,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29936,7 +29942,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -31082,7 +31088,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31169,7 +31175,7 @@
         <v>1.56</v>
       </c>
       <c r="AS157">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT157">
         <v>1.36</v>
@@ -31273,7 +31279,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31464,7 +31470,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31655,7 +31661,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -32124,7 +32130,7 @@
         <v>1.5</v>
       </c>
       <c r="AS162">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT162">
         <v>1.33</v>
@@ -32228,7 +32234,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32506,7 +32512,7 @@
         <v>0.67</v>
       </c>
       <c r="AS164">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT164">
         <v>0.7</v>
@@ -32801,7 +32807,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32992,7 +32998,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33273,7 +33279,7 @@
         <v>1.3</v>
       </c>
       <c r="AT168">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU168">
         <v>1.79</v>
@@ -33565,7 +33571,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33655,7 +33661,7 @@
         <v>1.67</v>
       </c>
       <c r="AT170">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AU170">
         <v>2.19</v>
@@ -34329,7 +34335,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34520,7 +34526,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34902,7 +34908,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35284,7 +35290,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35475,7 +35481,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35617,6 +35623,388 @@
       </c>
       <c r="BK180">
         <v>13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2313556</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44974.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>75</v>
+      </c>
+      <c r="H181" t="s">
+        <v>78</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>200</v>
+      </c>
+      <c r="P181" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q181">
+        <v>5</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181">
+        <v>10</v>
+      </c>
+      <c r="T181">
+        <v>2.4</v>
+      </c>
+      <c r="U181">
+        <v>2.1</v>
+      </c>
+      <c r="V181">
+        <v>4.5</v>
+      </c>
+      <c r="W181">
+        <v>1.42</v>
+      </c>
+      <c r="X181">
+        <v>2.7</v>
+      </c>
+      <c r="Y181">
+        <v>2.95</v>
+      </c>
+      <c r="Z181">
+        <v>1.35</v>
+      </c>
+      <c r="AA181">
+        <v>7.4</v>
+      </c>
+      <c r="AB181">
+        <v>1.06</v>
+      </c>
+      <c r="AC181">
+        <v>1.94</v>
+      </c>
+      <c r="AD181">
+        <v>3.5</v>
+      </c>
+      <c r="AE181">
+        <v>3.94</v>
+      </c>
+      <c r="AF181">
+        <v>1.07</v>
+      </c>
+      <c r="AG181">
+        <v>7.5</v>
+      </c>
+      <c r="AH181">
+        <v>1.33</v>
+      </c>
+      <c r="AI181">
+        <v>3.1</v>
+      </c>
+      <c r="AJ181">
+        <v>2.05</v>
+      </c>
+      <c r="AK181">
+        <v>1.67</v>
+      </c>
+      <c r="AL181">
+        <v>1.9</v>
+      </c>
+      <c r="AM181">
+        <v>1.83</v>
+      </c>
+      <c r="AN181">
+        <v>1.17</v>
+      </c>
+      <c r="AO181">
+        <v>1.22</v>
+      </c>
+      <c r="AP181">
+        <v>1.95</v>
+      </c>
+      <c r="AQ181">
+        <v>1.7</v>
+      </c>
+      <c r="AR181">
+        <v>1.3</v>
+      </c>
+      <c r="AS181">
+        <v>1.82</v>
+      </c>
+      <c r="AT181">
+        <v>1.18</v>
+      </c>
+      <c r="AU181">
+        <v>1.64</v>
+      </c>
+      <c r="AV181">
+        <v>1.38</v>
+      </c>
+      <c r="AW181">
+        <v>3.02</v>
+      </c>
+      <c r="AX181">
+        <v>1.41</v>
+      </c>
+      <c r="AY181">
+        <v>9</v>
+      </c>
+      <c r="AZ181">
+        <v>3.48</v>
+      </c>
+      <c r="BA181">
+        <v>1.21</v>
+      </c>
+      <c r="BB181">
+        <v>1.34</v>
+      </c>
+      <c r="BC181">
+        <v>1.6</v>
+      </c>
+      <c r="BD181">
+        <v>2.07</v>
+      </c>
+      <c r="BE181">
+        <v>2.7</v>
+      </c>
+      <c r="BF181">
+        <v>7</v>
+      </c>
+      <c r="BG181">
+        <v>3</v>
+      </c>
+      <c r="BH181">
+        <v>6</v>
+      </c>
+      <c r="BI181">
+        <v>3</v>
+      </c>
+      <c r="BJ181">
+        <v>13</v>
+      </c>
+      <c r="BK181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2313564</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44974.6875</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>77</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>181</v>
+      </c>
+      <c r="P182" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q182">
+        <v>3</v>
+      </c>
+      <c r="R182">
+        <v>5</v>
+      </c>
+      <c r="S182">
+        <v>8</v>
+      </c>
+      <c r="T182">
+        <v>2.6</v>
+      </c>
+      <c r="U182">
+        <v>2.1</v>
+      </c>
+      <c r="V182">
+        <v>4</v>
+      </c>
+      <c r="W182">
+        <v>1.4</v>
+      </c>
+      <c r="X182">
+        <v>2.75</v>
+      </c>
+      <c r="Y182">
+        <v>2.8</v>
+      </c>
+      <c r="Z182">
+        <v>1.39</v>
+      </c>
+      <c r="AA182">
+        <v>6.95</v>
+      </c>
+      <c r="AB182">
+        <v>1.07</v>
+      </c>
+      <c r="AC182">
+        <v>2.18</v>
+      </c>
+      <c r="AD182">
+        <v>3.42</v>
+      </c>
+      <c r="AE182">
+        <v>3.3</v>
+      </c>
+      <c r="AF182">
+        <v>1.06</v>
+      </c>
+      <c r="AG182">
+        <v>8</v>
+      </c>
+      <c r="AH182">
+        <v>1.3</v>
+      </c>
+      <c r="AI182">
+        <v>3.3</v>
+      </c>
+      <c r="AJ182">
+        <v>1.91</v>
+      </c>
+      <c r="AK182">
+        <v>1.8</v>
+      </c>
+      <c r="AL182">
+        <v>1.78</v>
+      </c>
+      <c r="AM182">
+        <v>2</v>
+      </c>
+      <c r="AN182">
+        <v>1.22</v>
+      </c>
+      <c r="AO182">
+        <v>1.25</v>
+      </c>
+      <c r="AP182">
+        <v>1.8</v>
+      </c>
+      <c r="AQ182">
+        <v>1.5</v>
+      </c>
+      <c r="AR182">
+        <v>1.22</v>
+      </c>
+      <c r="AS182">
+        <v>1.64</v>
+      </c>
+      <c r="AT182">
+        <v>1.1</v>
+      </c>
+      <c r="AU182">
+        <v>1.91</v>
+      </c>
+      <c r="AV182">
+        <v>1.36</v>
+      </c>
+      <c r="AW182">
+        <v>3.27</v>
+      </c>
+      <c r="AX182">
+        <v>1.55</v>
+      </c>
+      <c r="AY182">
+        <v>8.5</v>
+      </c>
+      <c r="AZ182">
+        <v>2.91</v>
+      </c>
+      <c r="BA182">
+        <v>1.2</v>
+      </c>
+      <c r="BB182">
+        <v>1.48</v>
+      </c>
+      <c r="BC182">
+        <v>1.73</v>
+      </c>
+      <c r="BD182">
+        <v>2.1</v>
+      </c>
+      <c r="BE182">
+        <v>2.7</v>
+      </c>
+      <c r="BF182">
+        <v>4</v>
+      </c>
+      <c r="BG182">
+        <v>3</v>
+      </c>
+      <c r="BH182">
+        <v>5</v>
+      </c>
+      <c r="BI182">
+        <v>4</v>
+      </c>
+      <c r="BJ182">
+        <v>9</v>
+      </c>
+      <c r="BK182">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="293">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -619,6 +619,18 @@
     <t>['47', '85']</t>
   </si>
   <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['10', '90+5']</t>
+  </si>
+  <si>
+    <t>['5', '54', '56']</t>
+  </si>
+  <si>
+    <t>['45+1', '61']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -877,7 +889,10 @@
     <t>['9', '82']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['23', '35']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,10 +1585,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT2">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1865,7 +1880,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1952,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT4">
         <v>1.18</v>
@@ -2247,7 +2262,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2334,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT6">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2525,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2719,7 +2734,7 @@
         <v>2.11</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2907,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT9">
         <v>1.7</v>
@@ -3011,7 +3026,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3202,7 +3217,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3292,7 +3307,7 @@
         <v>0.8</v>
       </c>
       <c r="AT11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3393,7 +3408,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3865,7 +3880,7 @@
         <v>2.4</v>
       </c>
       <c r="AT14">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3966,7 +3981,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4348,7 +4363,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4435,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT17">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4629,7 +4644,7 @@
         <v>1.82</v>
       </c>
       <c r="AT18">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU18">
         <v>2.26</v>
@@ -4730,7 +4745,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4817,10 +4832,10 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT19">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU19">
         <v>2.38</v>
@@ -4921,7 +4936,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5008,10 +5023,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT20">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5199,10 +5214,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT21">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU21">
         <v>2.16</v>
@@ -5303,7 +5318,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5390,10 +5405,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT22">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU22">
         <v>2.32</v>
@@ -5494,7 +5509,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5581,7 +5596,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT23">
         <v>1.18</v>
@@ -5685,7 +5700,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5775,7 +5790,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -5963,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT25">
         <v>1.1</v>
@@ -6449,7 +6464,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6640,7 +6655,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7022,7 +7037,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7873,10 +7888,10 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT35">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU35">
         <v>1.8</v>
@@ -7977,7 +7992,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8067,7 +8082,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU36">
         <v>2.3</v>
@@ -8359,7 +8374,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8550,7 +8565,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8637,10 +8652,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT39">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8828,10 +8843,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU40">
         <v>2.28</v>
@@ -8932,7 +8947,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9019,10 +9034,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT41">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9210,7 +9225,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT42">
         <v>1.1</v>
@@ -9401,10 +9416,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT43">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -9505,7 +9520,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9696,7 +9711,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9786,7 +9801,7 @@
         <v>2.4</v>
       </c>
       <c r="AT45">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>1.55</v>
@@ -9887,7 +9902,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10078,7 +10093,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10460,7 +10475,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10738,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="AS50">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT50">
         <v>1.18</v>
@@ -10842,7 +10857,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10932,7 +10947,7 @@
         <v>0.91</v>
       </c>
       <c r="AT51">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU51">
         <v>1.91</v>
@@ -11123,7 +11138,7 @@
         <v>1.6</v>
       </c>
       <c r="AT52">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU52">
         <v>1.48</v>
@@ -11224,7 +11239,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11311,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
         <v>0.82</v>
@@ -11502,10 +11517,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT54">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11693,10 +11708,10 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU55">
         <v>2.14</v>
@@ -11797,7 +11812,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11887,7 +11902,7 @@
         <v>1.64</v>
       </c>
       <c r="AT56">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU56">
         <v>2.05</v>
@@ -11988,7 +12003,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12078,7 +12093,7 @@
         <v>1.82</v>
       </c>
       <c r="AT57">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12179,7 +12194,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12457,7 +12472,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT59">
         <v>1.09</v>
@@ -12648,7 +12663,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT60">
         <v>1.36</v>
@@ -12752,7 +12767,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13415,7 +13430,7 @@
         <v>1.2</v>
       </c>
       <c r="AT64">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU64">
         <v>1.32</v>
@@ -13707,7 +13722,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13797,7 +13812,7 @@
         <v>0.64</v>
       </c>
       <c r="AT66">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU66">
         <v>1.96</v>
@@ -13898,7 +13913,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -13985,7 +14000,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT67">
         <v>1.36</v>
@@ -14176,7 +14191,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT68">
         <v>1.7</v>
@@ -14367,7 +14382,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT69">
         <v>0.5</v>
@@ -14471,7 +14486,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14561,7 +14576,7 @@
         <v>2.11</v>
       </c>
       <c r="AT70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU70">
         <v>1.98</v>
@@ -14662,7 +14677,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14752,7 +14767,7 @@
         <v>0.8</v>
       </c>
       <c r="AT71">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -15044,7 +15059,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15134,7 +15149,7 @@
         <v>1.27</v>
       </c>
       <c r="AT73">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU73">
         <v>1.35</v>
@@ -15322,10 +15337,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15426,7 +15441,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15617,7 +15632,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15704,7 +15719,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT76">
         <v>0.82</v>
@@ -15808,7 +15823,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15895,7 +15910,7 @@
         <v>2</v>
       </c>
       <c r="AS77">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT77">
         <v>2</v>
@@ -16086,10 +16101,10 @@
         <v>1.75</v>
       </c>
       <c r="AS78">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT78">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU78">
         <v>1.77</v>
@@ -16381,7 +16396,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16468,7 +16483,7 @@
         <v>1</v>
       </c>
       <c r="AS80">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT80">
         <v>1.1</v>
@@ -16572,7 +16587,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16763,7 +16778,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16954,7 +16969,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17044,7 +17059,7 @@
         <v>1.2</v>
       </c>
       <c r="AT83">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU83">
         <v>1.4</v>
@@ -17232,7 +17247,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT84">
         <v>1.5</v>
@@ -17527,7 +17542,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17614,10 +17629,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU86">
         <v>1.45</v>
@@ -17718,7 +17733,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17808,7 +17823,7 @@
         <v>0.64</v>
       </c>
       <c r="AT87">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU87">
         <v>2.15</v>
@@ -18100,7 +18115,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18187,7 +18202,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT89">
         <v>1.2</v>
@@ -18482,7 +18497,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18572,7 +18587,7 @@
         <v>0.91</v>
       </c>
       <c r="AT91">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU91">
         <v>1.86</v>
@@ -18760,10 +18775,10 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT92">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU92">
         <v>2.18</v>
@@ -18864,7 +18879,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18951,10 +18966,10 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT93">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU93">
         <v>2.12</v>
@@ -19055,7 +19070,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19142,7 +19157,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT94">
         <v>1.18</v>
@@ -19628,7 +19643,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19718,7 +19733,7 @@
         <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19906,7 +19921,7 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT98">
         <v>1.8</v>
@@ -20010,7 +20025,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20201,7 +20216,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20291,7 +20306,7 @@
         <v>1.6</v>
       </c>
       <c r="AT100">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU100">
         <v>1.9</v>
@@ -20482,7 +20497,7 @@
         <v>1.27</v>
       </c>
       <c r="AT101">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101">
         <v>1.5</v>
@@ -20673,7 +20688,7 @@
         <v>2.4</v>
       </c>
       <c r="AT102">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20864,7 +20879,7 @@
         <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU103">
         <v>1.59</v>
@@ -20965,7 +20980,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21243,7 +21258,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT105">
         <v>1.5</v>
@@ -21434,7 +21449,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT106">
         <v>0.5</v>
@@ -21538,7 +21553,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21625,7 +21640,7 @@
         <v>1.67</v>
       </c>
       <c r="AS107">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT107">
         <v>1.7</v>
@@ -21729,7 +21744,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21816,7 +21831,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT108">
         <v>1.18</v>
@@ -21920,7 +21935,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22010,7 +22025,7 @@
         <v>2.11</v>
       </c>
       <c r="AT109">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22198,7 +22213,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT110">
         <v>1.1</v>
@@ -22302,7 +22317,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22583,7 +22598,7 @@
         <v>0.8</v>
       </c>
       <c r="AT112">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU112">
         <v>1.48</v>
@@ -22771,7 +22786,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT113">
         <v>1.09</v>
@@ -22962,7 +22977,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
         <v>1.2</v>
@@ -23156,7 +23171,7 @@
         <v>1.64</v>
       </c>
       <c r="AT115">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU115">
         <v>1.67</v>
@@ -23257,7 +23272,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23639,7 +23654,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23729,7 +23744,7 @@
         <v>1.6</v>
       </c>
       <c r="AT118">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23830,7 +23845,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24108,7 +24123,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT120">
         <v>0.82</v>
@@ -24302,7 +24317,7 @@
         <v>0.8</v>
       </c>
       <c r="AT121">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU121">
         <v>1.54</v>
@@ -24403,7 +24418,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24493,7 +24508,7 @@
         <v>1.27</v>
       </c>
       <c r="AT122">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24785,7 +24800,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24872,7 +24887,7 @@
         <v>1.17</v>
       </c>
       <c r="AS124">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT124">
         <v>1.5</v>
@@ -24976,7 +24991,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25066,7 +25081,7 @@
         <v>0.64</v>
       </c>
       <c r="AT125">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU125">
         <v>2.12</v>
@@ -25167,7 +25182,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25254,7 +25269,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT126">
         <v>1.36</v>
@@ -25636,7 +25651,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT128">
         <v>1.09</v>
@@ -25740,7 +25755,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25830,7 +25845,7 @@
         <v>1.6</v>
       </c>
       <c r="AT129">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -25931,7 +25946,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26122,7 +26137,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26504,7 +26519,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26591,7 +26606,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT133">
         <v>1.8</v>
@@ -26695,7 +26710,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26782,10 +26797,10 @@
         <v>1.86</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU134">
         <v>1.91</v>
@@ -26976,7 +26991,7 @@
         <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU135">
         <v>1.58</v>
@@ -27167,7 +27182,7 @@
         <v>2.4</v>
       </c>
       <c r="AT136">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU136">
         <v>1.96</v>
@@ -27268,7 +27283,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27355,10 +27370,10 @@
         <v>2</v>
       </c>
       <c r="AS137">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT137">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU137">
         <v>1.68</v>
@@ -27549,7 +27564,7 @@
         <v>1.82</v>
       </c>
       <c r="AT138">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU138">
         <v>1.68</v>
@@ -27650,7 +27665,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27737,10 +27752,10 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT139">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU139">
         <v>2.23</v>
@@ -27928,10 +27943,10 @@
         <v>1.13</v>
       </c>
       <c r="AS140">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT140">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU140">
         <v>1.9</v>
@@ -28119,7 +28134,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT141">
         <v>1.1</v>
@@ -28223,7 +28238,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28414,7 +28429,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28501,7 +28516,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT143">
         <v>0.82</v>
@@ -28987,7 +29002,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29074,7 +29089,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT146">
         <v>1.7</v>
@@ -29178,7 +29193,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29369,7 +29384,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29560,7 +29575,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29751,7 +29766,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29838,7 +29853,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT150">
         <v>1.36</v>
@@ -29942,7 +29957,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30223,7 +30238,7 @@
         <v>1.27</v>
       </c>
       <c r="AT152">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU152">
         <v>1.65</v>
@@ -30414,7 +30429,7 @@
         <v>1.2</v>
       </c>
       <c r="AT153">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU153">
         <v>1.53</v>
@@ -30602,7 +30617,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT154">
         <v>1.5</v>
@@ -31088,7 +31103,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31279,7 +31294,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31369,7 +31384,7 @@
         <v>1.27</v>
       </c>
       <c r="AT158">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU158">
         <v>1.58</v>
@@ -31470,7 +31485,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31557,10 +31572,10 @@
         <v>0.63</v>
       </c>
       <c r="AS159">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AT159">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU159">
         <v>1.63</v>
@@ -31661,7 +31676,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31942,7 +31957,7 @@
         <v>1.2</v>
       </c>
       <c r="AT161">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AU161">
         <v>1.48</v>
@@ -32133,7 +32148,7 @@
         <v>1.82</v>
       </c>
       <c r="AT162">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU162">
         <v>1.61</v>
@@ -32234,7 +32249,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32321,7 +32336,7 @@
         <v>2</v>
       </c>
       <c r="AS163">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AT163">
         <v>2</v>
@@ -32515,7 +32530,7 @@
         <v>1.64</v>
       </c>
       <c r="AT164">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU164">
         <v>1.92</v>
@@ -32703,7 +32718,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AT165">
         <v>1.09</v>
@@ -32807,7 +32822,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32897,7 +32912,7 @@
         <v>0.91</v>
       </c>
       <c r="AT166">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU166">
         <v>1.81</v>
@@ -32998,7 +33013,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33088,7 +33103,7 @@
         <v>0.64</v>
       </c>
       <c r="AT167">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33276,7 +33291,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AT168">
         <v>1.18</v>
@@ -33467,7 +33482,7 @@
         <v>0.5</v>
       </c>
       <c r="AS169">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT169">
         <v>0.5</v>
@@ -33571,7 +33586,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33658,7 +33673,7 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AT170">
         <v>1.1</v>
@@ -33849,7 +33864,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT171">
         <v>1.2</v>
@@ -34335,7 +34350,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34526,7 +34541,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34908,7 +34923,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35290,7 +35305,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35481,7 +35496,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35672,7 +35687,7 @@
         <v>200</v>
       </c>
       <c r="P181" t="s">
-        <v>287</v>
+        <v>201</v>
       </c>
       <c r="Q181">
         <v>5</v>
@@ -36005,6 +36020,1343 @@
       </c>
       <c r="BK182">
         <v>7</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2313558</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F183">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>69</v>
+      </c>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>201</v>
+      </c>
+      <c r="P183" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q183">
+        <v>9</v>
+      </c>
+      <c r="R183">
+        <v>5</v>
+      </c>
+      <c r="S183">
+        <v>14</v>
+      </c>
+      <c r="T183">
+        <v>3.1</v>
+      </c>
+      <c r="U183">
+        <v>2</v>
+      </c>
+      <c r="V183">
+        <v>3.25</v>
+      </c>
+      <c r="W183">
+        <v>1.4</v>
+      </c>
+      <c r="X183">
+        <v>2.75</v>
+      </c>
+      <c r="Y183">
+        <v>2.75</v>
+      </c>
+      <c r="Z183">
+        <v>1.4</v>
+      </c>
+      <c r="AA183">
+        <v>7</v>
+      </c>
+      <c r="AB183">
+        <v>1.08</v>
+      </c>
+      <c r="AC183">
+        <v>2.45</v>
+      </c>
+      <c r="AD183">
+        <v>3.15</v>
+      </c>
+      <c r="AE183">
+        <v>2.65</v>
+      </c>
+      <c r="AF183">
+        <v>1.06</v>
+      </c>
+      <c r="AG183">
+        <v>8</v>
+      </c>
+      <c r="AH183">
+        <v>1.33</v>
+      </c>
+      <c r="AI183">
+        <v>3.25</v>
+      </c>
+      <c r="AJ183">
+        <v>1.97</v>
+      </c>
+      <c r="AK183">
+        <v>1.8</v>
+      </c>
+      <c r="AL183">
+        <v>1.8</v>
+      </c>
+      <c r="AM183">
+        <v>1.91</v>
+      </c>
+      <c r="AN183">
+        <v>1.44</v>
+      </c>
+      <c r="AO183">
+        <v>1.33</v>
+      </c>
+      <c r="AP183">
+        <v>1.47</v>
+      </c>
+      <c r="AQ183">
+        <v>0.89</v>
+      </c>
+      <c r="AR183">
+        <v>1</v>
+      </c>
+      <c r="AS183">
+        <v>1.1</v>
+      </c>
+      <c r="AT183">
+        <v>0.91</v>
+      </c>
+      <c r="AU183">
+        <v>1.52</v>
+      </c>
+      <c r="AV183">
+        <v>1.52</v>
+      </c>
+      <c r="AW183">
+        <v>3.04</v>
+      </c>
+      <c r="AX183">
+        <v>1.82</v>
+      </c>
+      <c r="AY183">
+        <v>8.5</v>
+      </c>
+      <c r="AZ183">
+        <v>2.32</v>
+      </c>
+      <c r="BA183">
+        <v>1.16</v>
+      </c>
+      <c r="BB183">
+        <v>1.26</v>
+      </c>
+      <c r="BC183">
+        <v>1.49</v>
+      </c>
+      <c r="BD183">
+        <v>1.84</v>
+      </c>
+      <c r="BE183">
+        <v>2.34</v>
+      </c>
+      <c r="BF183">
+        <v>10</v>
+      </c>
+      <c r="BG183">
+        <v>3</v>
+      </c>
+      <c r="BH183">
+        <v>9</v>
+      </c>
+      <c r="BI183">
+        <v>6</v>
+      </c>
+      <c r="BJ183">
+        <v>19</v>
+      </c>
+      <c r="BK183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2313563</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44975.5625</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>65</v>
+      </c>
+      <c r="H184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>202</v>
+      </c>
+      <c r="P184" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q184">
+        <v>9</v>
+      </c>
+      <c r="R184">
+        <v>2</v>
+      </c>
+      <c r="S184">
+        <v>11</v>
+      </c>
+      <c r="T184">
+        <v>1.98</v>
+      </c>
+      <c r="U184">
+        <v>2.25</v>
+      </c>
+      <c r="V184">
+        <v>6</v>
+      </c>
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>3</v>
+      </c>
+      <c r="Y184">
+        <v>2.5</v>
+      </c>
+      <c r="Z184">
+        <v>1.5</v>
+      </c>
+      <c r="AA184">
+        <v>6</v>
+      </c>
+      <c r="AB184">
+        <v>1.11</v>
+      </c>
+      <c r="AC184">
+        <v>1.43</v>
+      </c>
+      <c r="AD184">
+        <v>4.1</v>
+      </c>
+      <c r="AE184">
+        <v>6.4</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>9</v>
+      </c>
+      <c r="AH184">
+        <v>1.29</v>
+      </c>
+      <c r="AI184">
+        <v>3.5</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.97</v>
+      </c>
+      <c r="AL184">
+        <v>2</v>
+      </c>
+      <c r="AM184">
+        <v>1.73</v>
+      </c>
+      <c r="AN184">
+        <v>1.1</v>
+      </c>
+      <c r="AO184">
+        <v>1.21</v>
+      </c>
+      <c r="AP184">
+        <v>2.6</v>
+      </c>
+      <c r="AQ184">
+        <v>2.8</v>
+      </c>
+      <c r="AR184">
+        <v>1.33</v>
+      </c>
+      <c r="AS184">
+        <v>2.82</v>
+      </c>
+      <c r="AT184">
+        <v>1.2</v>
+      </c>
+      <c r="AU184">
+        <v>1.89</v>
+      </c>
+      <c r="AV184">
+        <v>1.6</v>
+      </c>
+      <c r="AW184">
+        <v>3.49</v>
+      </c>
+      <c r="AX184">
+        <v>1.31</v>
+      </c>
+      <c r="AY184">
+        <v>9.5</v>
+      </c>
+      <c r="AZ184">
+        <v>4.12</v>
+      </c>
+      <c r="BA184">
+        <v>1.22</v>
+      </c>
+      <c r="BB184">
+        <v>1.42</v>
+      </c>
+      <c r="BC184">
+        <v>1.74</v>
+      </c>
+      <c r="BD184">
+        <v>2.23</v>
+      </c>
+      <c r="BE184">
+        <v>3</v>
+      </c>
+      <c r="BF184">
+        <v>9</v>
+      </c>
+      <c r="BG184">
+        <v>0</v>
+      </c>
+      <c r="BH184">
+        <v>8</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>17</v>
+      </c>
+      <c r="BK184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:63">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>2313561</v>
+      </c>
+      <c r="C185" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" t="s">
+        <v>64</v>
+      </c>
+      <c r="E185" s="2">
+        <v>44975.66666666666</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>74</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>3</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>4</v>
+      </c>
+      <c r="O185" t="s">
+        <v>203</v>
+      </c>
+      <c r="P185" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q185">
+        <v>7</v>
+      </c>
+      <c r="R185">
+        <v>4</v>
+      </c>
+      <c r="S185">
+        <v>11</v>
+      </c>
+      <c r="T185">
+        <v>2.5</v>
+      </c>
+      <c r="U185">
+        <v>2</v>
+      </c>
+      <c r="V185">
+        <v>4.4</v>
+      </c>
+      <c r="W185">
+        <v>1.4</v>
+      </c>
+      <c r="X185">
+        <v>2.75</v>
+      </c>
+      <c r="Y185">
+        <v>3</v>
+      </c>
+      <c r="Z185">
+        <v>1.36</v>
+      </c>
+      <c r="AA185">
+        <v>7</v>
+      </c>
+      <c r="AB185">
+        <v>1.08</v>
+      </c>
+      <c r="AC185">
+        <v>1.94</v>
+      </c>
+      <c r="AD185">
+        <v>3.54</v>
+      </c>
+      <c r="AE185">
+        <v>3.9</v>
+      </c>
+      <c r="AF185">
+        <v>1.07</v>
+      </c>
+      <c r="AG185">
+        <v>7.5</v>
+      </c>
+      <c r="AH185">
+        <v>1.36</v>
+      </c>
+      <c r="AI185">
+        <v>3</v>
+      </c>
+      <c r="AJ185">
+        <v>2.04</v>
+      </c>
+      <c r="AK185">
+        <v>1.78</v>
+      </c>
+      <c r="AL185">
+        <v>1.91</v>
+      </c>
+      <c r="AM185">
+        <v>1.8</v>
+      </c>
+      <c r="AN185">
+        <v>1.22</v>
+      </c>
+      <c r="AO185">
+        <v>1.31</v>
+      </c>
+      <c r="AP185">
+        <v>1.85</v>
+      </c>
+      <c r="AQ185">
+        <v>1.67</v>
+      </c>
+      <c r="AR185">
+        <v>2.11</v>
+      </c>
+      <c r="AS185">
+        <v>1.8</v>
+      </c>
+      <c r="AT185">
+        <v>1.9</v>
+      </c>
+      <c r="AU185">
+        <v>2.23</v>
+      </c>
+      <c r="AV185">
+        <v>1.15</v>
+      </c>
+      <c r="AW185">
+        <v>3.38</v>
+      </c>
+      <c r="AX185">
+        <v>1.45</v>
+      </c>
+      <c r="AY185">
+        <v>8.5</v>
+      </c>
+      <c r="AZ185">
+        <v>3.2</v>
+      </c>
+      <c r="BA185">
+        <v>1.2</v>
+      </c>
+      <c r="BB185">
+        <v>1.41</v>
+      </c>
+      <c r="BC185">
+        <v>1.75</v>
+      </c>
+      <c r="BD185">
+        <v>2.21</v>
+      </c>
+      <c r="BE185">
+        <v>2.93</v>
+      </c>
+      <c r="BF185">
+        <v>9</v>
+      </c>
+      <c r="BG185">
+        <v>4</v>
+      </c>
+      <c r="BH185">
+        <v>6</v>
+      </c>
+      <c r="BI185">
+        <v>3</v>
+      </c>
+      <c r="BJ185">
+        <v>15</v>
+      </c>
+      <c r="BK185">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186" spans="1:63">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>2313560</v>
+      </c>
+      <c r="C186" t="s">
+        <v>63</v>
+      </c>
+      <c r="D186" t="s">
+        <v>64</v>
+      </c>
+      <c r="E186" s="2">
+        <v>44976.35416666666</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>80</v>
+      </c>
+      <c r="H186" t="s">
+        <v>71</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>2</v>
+      </c>
+      <c r="L186">
+        <v>2</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>204</v>
+      </c>
+      <c r="P186" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q186">
+        <v>7</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>9</v>
+      </c>
+      <c r="T186">
+        <v>3.25</v>
+      </c>
+      <c r="U186">
+        <v>2.1</v>
+      </c>
+      <c r="V186">
+        <v>3.4</v>
+      </c>
+      <c r="W186">
+        <v>1.44</v>
+      </c>
+      <c r="X186">
+        <v>2.63</v>
+      </c>
+      <c r="Y186">
+        <v>3.25</v>
+      </c>
+      <c r="Z186">
+        <v>1.33</v>
+      </c>
+      <c r="AA186">
+        <v>9</v>
+      </c>
+      <c r="AB186">
+        <v>1.07</v>
+      </c>
+      <c r="AC186">
+        <v>2.83</v>
+      </c>
+      <c r="AD186">
+        <v>3.36</v>
+      </c>
+      <c r="AE186">
+        <v>2.46</v>
+      </c>
+      <c r="AF186">
+        <v>1.06</v>
+      </c>
+      <c r="AG186">
+        <v>8.25</v>
+      </c>
+      <c r="AH186">
+        <v>1.33</v>
+      </c>
+      <c r="AI186">
+        <v>3.1</v>
+      </c>
+      <c r="AJ186">
+        <v>1.95</v>
+      </c>
+      <c r="AK186">
+        <v>1.7</v>
+      </c>
+      <c r="AL186">
+        <v>1.8</v>
+      </c>
+      <c r="AM186">
+        <v>1.95</v>
+      </c>
+      <c r="AN186">
+        <v>1.47</v>
+      </c>
+      <c r="AO186">
+        <v>1.32</v>
+      </c>
+      <c r="AP186">
+        <v>1.46</v>
+      </c>
+      <c r="AQ186">
+        <v>1</v>
+      </c>
+      <c r="AR186">
+        <v>0.9</v>
+      </c>
+      <c r="AS186">
+        <v>1.18</v>
+      </c>
+      <c r="AT186">
+        <v>0.82</v>
+      </c>
+      <c r="AU186">
+        <v>1.39</v>
+      </c>
+      <c r="AV186">
+        <v>1.63</v>
+      </c>
+      <c r="AW186">
+        <v>3.02</v>
+      </c>
+      <c r="AX186">
+        <v>1.95</v>
+      </c>
+      <c r="AY186">
+        <v>8</v>
+      </c>
+      <c r="AZ186">
+        <v>2.1</v>
+      </c>
+      <c r="BA186">
+        <v>1.25</v>
+      </c>
+      <c r="BB186">
+        <v>1.47</v>
+      </c>
+      <c r="BC186">
+        <v>1.83</v>
+      </c>
+      <c r="BD186">
+        <v>2.38</v>
+      </c>
+      <c r="BE186">
+        <v>3.25</v>
+      </c>
+      <c r="BF186">
+        <v>7</v>
+      </c>
+      <c r="BG186">
+        <v>5</v>
+      </c>
+      <c r="BH186">
+        <v>7</v>
+      </c>
+      <c r="BI186">
+        <v>6</v>
+      </c>
+      <c r="BJ186">
+        <v>14</v>
+      </c>
+      <c r="BK186">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" spans="1:63">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>2313559</v>
+      </c>
+      <c r="C187" t="s">
+        <v>63</v>
+      </c>
+      <c r="D187" t="s">
+        <v>64</v>
+      </c>
+      <c r="E187" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>67</v>
+      </c>
+      <c r="H187" t="s">
+        <v>66</v>
+      </c>
+      <c r="I187">
+        <v>1</v>
+      </c>
+      <c r="J187">
+        <v>2</v>
+      </c>
+      <c r="K187">
+        <v>3</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+      <c r="M187">
+        <v>2</v>
+      </c>
+      <c r="N187">
+        <v>3</v>
+      </c>
+      <c r="O187" t="s">
+        <v>105</v>
+      </c>
+      <c r="P187" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q187">
+        <v>7</v>
+      </c>
+      <c r="R187">
+        <v>1</v>
+      </c>
+      <c r="S187">
+        <v>8</v>
+      </c>
+      <c r="T187">
+        <v>2</v>
+      </c>
+      <c r="U187">
+        <v>2.38</v>
+      </c>
+      <c r="V187">
+        <v>6</v>
+      </c>
+      <c r="W187">
+        <v>1.33</v>
+      </c>
+      <c r="X187">
+        <v>3.25</v>
+      </c>
+      <c r="Y187">
+        <v>2.63</v>
+      </c>
+      <c r="Z187">
+        <v>1.44</v>
+      </c>
+      <c r="AA187">
+        <v>7</v>
+      </c>
+      <c r="AB187">
+        <v>1.1</v>
+      </c>
+      <c r="AC187">
+        <v>1.61</v>
+      </c>
+      <c r="AD187">
+        <v>4.04</v>
+      </c>
+      <c r="AE187">
+        <v>5.4</v>
+      </c>
+      <c r="AF187">
+        <v>1.04</v>
+      </c>
+      <c r="AG187">
+        <v>10</v>
+      </c>
+      <c r="AH187">
+        <v>1.25</v>
+      </c>
+      <c r="AI187">
+        <v>3.6</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.87</v>
+      </c>
+      <c r="AL187">
+        <v>1.95</v>
+      </c>
+      <c r="AM187">
+        <v>1.8</v>
+      </c>
+      <c r="AN187">
+        <v>1.1</v>
+      </c>
+      <c r="AO187">
+        <v>1.21</v>
+      </c>
+      <c r="AP187">
+        <v>2.65</v>
+      </c>
+      <c r="AQ187">
+        <v>1.6</v>
+      </c>
+      <c r="AR187">
+        <v>1.44</v>
+      </c>
+      <c r="AS187">
+        <v>1.45</v>
+      </c>
+      <c r="AT187">
+        <v>1.6</v>
+      </c>
+      <c r="AU187">
+        <v>2.19</v>
+      </c>
+      <c r="AV187">
+        <v>1.77</v>
+      </c>
+      <c r="AW187">
+        <v>3.96</v>
+      </c>
+      <c r="AX187">
+        <v>1.41</v>
+      </c>
+      <c r="AY187">
+        <v>9</v>
+      </c>
+      <c r="AZ187">
+        <v>3.48</v>
+      </c>
+      <c r="BA187">
+        <v>1.22</v>
+      </c>
+      <c r="BB187">
+        <v>1.42</v>
+      </c>
+      <c r="BC187">
+        <v>1.74</v>
+      </c>
+      <c r="BD187">
+        <v>2.23</v>
+      </c>
+      <c r="BE187">
+        <v>3</v>
+      </c>
+      <c r="BF187">
+        <v>2</v>
+      </c>
+      <c r="BG187">
+        <v>0</v>
+      </c>
+      <c r="BH187">
+        <v>0</v>
+      </c>
+      <c r="BI187">
+        <v>2</v>
+      </c>
+      <c r="BJ187">
+        <v>2</v>
+      </c>
+      <c r="BK187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:63">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>2313557</v>
+      </c>
+      <c r="C188" t="s">
+        <v>63</v>
+      </c>
+      <c r="D188" t="s">
+        <v>64</v>
+      </c>
+      <c r="E188" s="2">
+        <v>44976.5625</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>79</v>
+      </c>
+      <c r="H188" t="s">
+        <v>76</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>0</v>
+      </c>
+      <c r="L188">
+        <v>0</v>
+      </c>
+      <c r="M188">
+        <v>1</v>
+      </c>
+      <c r="N188">
+        <v>1</v>
+      </c>
+      <c r="O188" t="s">
+        <v>84</v>
+      </c>
+      <c r="P188" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q188">
+        <v>2</v>
+      </c>
+      <c r="R188">
+        <v>2</v>
+      </c>
+      <c r="S188">
+        <v>4</v>
+      </c>
+      <c r="T188">
+        <v>3.6</v>
+      </c>
+      <c r="U188">
+        <v>2.05</v>
+      </c>
+      <c r="V188">
+        <v>3.1</v>
+      </c>
+      <c r="W188">
+        <v>1.44</v>
+      </c>
+      <c r="X188">
+        <v>2.63</v>
+      </c>
+      <c r="Y188">
+        <v>3.25</v>
+      </c>
+      <c r="Z188">
+        <v>1.33</v>
+      </c>
+      <c r="AA188">
+        <v>10</v>
+      </c>
+      <c r="AB188">
+        <v>1.06</v>
+      </c>
+      <c r="AC188">
+        <v>3.1</v>
+      </c>
+      <c r="AD188">
+        <v>3.3</v>
+      </c>
+      <c r="AE188">
+        <v>2.06</v>
+      </c>
+      <c r="AF188">
+        <v>1.05</v>
+      </c>
+      <c r="AG188">
+        <v>7.5</v>
+      </c>
+      <c r="AH188">
+        <v>1.32</v>
+      </c>
+      <c r="AI188">
+        <v>3.1</v>
+      </c>
+      <c r="AJ188">
+        <v>2.04</v>
+      </c>
+      <c r="AK188">
+        <v>1.8</v>
+      </c>
+      <c r="AL188">
+        <v>1.91</v>
+      </c>
+      <c r="AM188">
+        <v>1.91</v>
+      </c>
+      <c r="AN188">
+        <v>1.57</v>
+      </c>
+      <c r="AO188">
+        <v>1.35</v>
+      </c>
+      <c r="AP188">
+        <v>1.27</v>
+      </c>
+      <c r="AQ188">
+        <v>0.89</v>
+      </c>
+      <c r="AR188">
+        <v>1.5</v>
+      </c>
+      <c r="AS188">
+        <v>0.8</v>
+      </c>
+      <c r="AT188">
+        <v>1.64</v>
+      </c>
+      <c r="AU188">
+        <v>1.72</v>
+      </c>
+      <c r="AV188">
+        <v>1.52</v>
+      </c>
+      <c r="AW188">
+        <v>3.24</v>
+      </c>
+      <c r="AX188">
+        <v>2.2</v>
+      </c>
+      <c r="AY188">
+        <v>8</v>
+      </c>
+      <c r="AZ188">
+        <v>1.83</v>
+      </c>
+      <c r="BA188">
+        <v>1.2</v>
+      </c>
+      <c r="BB188">
+        <v>1.37</v>
+      </c>
+      <c r="BC188">
+        <v>1.78</v>
+      </c>
+      <c r="BD188">
+        <v>2.18</v>
+      </c>
+      <c r="BE188">
+        <v>2.65</v>
+      </c>
+      <c r="BF188">
+        <v>0</v>
+      </c>
+      <c r="BG188">
+        <v>3</v>
+      </c>
+      <c r="BH188">
+        <v>8</v>
+      </c>
+      <c r="BI188">
+        <v>4</v>
+      </c>
+      <c r="BJ188">
+        <v>8</v>
+      </c>
+      <c r="BK188">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="189" spans="1:63">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>2313562</v>
+      </c>
+      <c r="C189" t="s">
+        <v>63</v>
+      </c>
+      <c r="D189" t="s">
+        <v>64</v>
+      </c>
+      <c r="E189" s="2">
+        <v>44977.625</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" t="s">
+        <v>68</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>0</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189" t="s">
+        <v>84</v>
+      </c>
+      <c r="P189" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q189">
+        <v>4</v>
+      </c>
+      <c r="R189">
+        <v>3</v>
+      </c>
+      <c r="S189">
+        <v>7</v>
+      </c>
+      <c r="T189">
+        <v>2.63</v>
+      </c>
+      <c r="U189">
+        <v>2.2</v>
+      </c>
+      <c r="V189">
+        <v>4</v>
+      </c>
+      <c r="W189">
+        <v>1.4</v>
+      </c>
+      <c r="X189">
+        <v>2.75</v>
+      </c>
+      <c r="Y189">
+        <v>3</v>
+      </c>
+      <c r="Z189">
+        <v>1.36</v>
+      </c>
+      <c r="AA189">
+        <v>8</v>
+      </c>
+      <c r="AB189">
+        <v>1.08</v>
+      </c>
+      <c r="AC189">
+        <v>2.1</v>
+      </c>
+      <c r="AD189">
+        <v>3.25</v>
+      </c>
+      <c r="AE189">
+        <v>3.6</v>
+      </c>
+      <c r="AF189">
+        <v>1.02</v>
+      </c>
+      <c r="AG189">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH189">
+        <v>1.29</v>
+      </c>
+      <c r="AI189">
+        <v>3.24</v>
+      </c>
+      <c r="AJ189">
+        <v>2.06</v>
+      </c>
+      <c r="AK189">
+        <v>1.73</v>
+      </c>
+      <c r="AL189">
+        <v>1.8</v>
+      </c>
+      <c r="AM189">
+        <v>1.95</v>
+      </c>
+      <c r="AN189">
+        <v>1.3</v>
+      </c>
+      <c r="AO189">
+        <v>1.3</v>
+      </c>
+      <c r="AP189">
+        <v>1.75</v>
+      </c>
+      <c r="AQ189">
+        <v>1.3</v>
+      </c>
+      <c r="AR189">
+        <v>0.7</v>
+      </c>
+      <c r="AS189">
+        <v>1.27</v>
+      </c>
+      <c r="AT189">
+        <v>0.73</v>
+      </c>
+      <c r="AU189">
+        <v>1.76</v>
+      </c>
+      <c r="AV189">
+        <v>1.3</v>
+      </c>
+      <c r="AW189">
+        <v>3.06</v>
+      </c>
+      <c r="AX189">
+        <v>1.59</v>
+      </c>
+      <c r="AY189">
+        <v>8.5</v>
+      </c>
+      <c r="AZ189">
+        <v>2.78</v>
+      </c>
+      <c r="BA189">
+        <v>1.22</v>
+      </c>
+      <c r="BB189">
+        <v>1.42</v>
+      </c>
+      <c r="BC189">
+        <v>1.74</v>
+      </c>
+      <c r="BD189">
+        <v>2.23</v>
+      </c>
+      <c r="BE189">
+        <v>3</v>
+      </c>
+      <c r="BF189">
+        <v>5</v>
+      </c>
+      <c r="BG189">
+        <v>3</v>
+      </c>
+      <c r="BH189">
+        <v>7</v>
+      </c>
+      <c r="BI189">
+        <v>3</v>
+      </c>
+      <c r="BJ189">
+        <v>12</v>
+      </c>
+      <c r="BK189">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -631,6 +631,12 @@
     <t>['45+1', '61']</t>
   </si>
   <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['18', '76']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -755,9 +761,6 @@
   </si>
   <si>
     <t>['45+1', '57']</t>
-  </si>
-  <si>
-    <t>['3']</t>
   </si>
   <si>
     <t>['21', '73']</t>
@@ -893,6 +896,12 @@
   </si>
   <si>
     <t>['23', '35']</t>
+  </si>
+  <si>
+    <t>['38', '75']</t>
+  </si>
+  <si>
+    <t>['70', '83']</t>
   </si>
 </sst>
 </file>
@@ -1254,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK189"/>
+  <dimension ref="A1:BK191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1880,7 +1889,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2158,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT5">
         <v>1.09</v>
@@ -2262,7 +2271,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2925,7 +2934,7 @@
         <v>1.8</v>
       </c>
       <c r="AT9">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3026,7 +3035,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3217,7 +3226,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3408,7 +3417,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3495,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT12">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU12">
         <v>1.19</v>
@@ -3877,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT14">
         <v>1.6</v>
@@ -3981,7 +3990,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4363,7 +4372,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4745,7 +4754,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4936,7 +4945,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5318,7 +5327,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5509,7 +5518,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5700,7 +5709,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6360,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT27">
         <v>1.09</v>
@@ -6464,7 +6473,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6655,7 +6664,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6742,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
         <v>1.5</v>
@@ -6936,7 +6945,7 @@
         <v>1.27</v>
       </c>
       <c r="AT30">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU30">
         <v>1.55</v>
@@ -7037,7 +7046,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7509,7 +7518,7 @@
         <v>0.91</v>
       </c>
       <c r="AT33">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU33">
         <v>1.8</v>
@@ -7992,7 +8001,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8374,7 +8383,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8565,7 +8574,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8947,7 +8956,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9520,7 +9529,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9607,7 +9616,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT44">
         <v>0.5</v>
@@ -9711,7 +9720,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9798,7 +9807,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT45">
         <v>1.2</v>
@@ -9902,7 +9911,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10093,7 +10102,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10374,7 +10383,7 @@
         <v>0.8</v>
       </c>
       <c r="AT48">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -10475,7 +10484,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10857,7 +10866,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11239,7 +11248,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11812,7 +11821,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12003,7 +12012,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12194,7 +12203,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12284,7 +12293,7 @@
         <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU58">
         <v>1.57</v>
@@ -12767,7 +12776,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13045,7 +13054,7 @@
         <v>2.33</v>
       </c>
       <c r="AS62">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT62">
         <v>1.5</v>
@@ -13621,7 +13630,7 @@
         <v>1.82</v>
       </c>
       <c r="AT65">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13722,7 +13731,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13913,7 +13922,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14194,7 +14203,7 @@
         <v>1.45</v>
       </c>
       <c r="AT68">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU68">
         <v>2.14</v>
@@ -14486,7 +14495,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14677,7 +14686,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15059,7 +15068,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15441,7 +15450,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15632,7 +15641,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15823,7 +15832,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16292,7 +16301,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT79">
         <v>1.18</v>
@@ -16396,7 +16405,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16587,7 +16596,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16674,7 +16683,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT81">
         <v>0.5</v>
@@ -16778,7 +16787,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16868,7 +16877,7 @@
         <v>1.6</v>
       </c>
       <c r="AT82">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -16969,7 +16978,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17542,7 +17551,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17733,7 +17742,7 @@
         <v>146</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -18115,7 +18124,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18497,7 +18506,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18879,7 +18888,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19070,7 +19079,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19348,7 +19357,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT95">
         <v>0.82</v>
@@ -19542,7 +19551,7 @@
         <v>1.64</v>
       </c>
       <c r="AT96">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU96">
         <v>1.74</v>
@@ -19643,7 +19652,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19924,7 +19933,7 @@
         <v>0.8</v>
       </c>
       <c r="AT98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -20025,7 +20034,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20216,7 +20225,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20303,7 +20312,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT100">
         <v>0.82</v>
@@ -20685,7 +20694,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT102">
         <v>1.9</v>
@@ -20980,7 +20989,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21553,7 +21562,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21643,7 +21652,7 @@
         <v>0.8</v>
       </c>
       <c r="AT107">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -21744,7 +21753,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21935,7 +21944,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22317,7 +22326,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22407,7 +22416,7 @@
         <v>1.2</v>
       </c>
       <c r="AT111">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -23272,7 +23281,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23654,7 +23663,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23845,7 +23854,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23932,7 +23941,7 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT119">
         <v>1.36</v>
@@ -24418,7 +24427,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24800,7 +24809,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24991,7 +25000,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25182,7 +25191,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25463,7 +25472,7 @@
         <v>0.91</v>
       </c>
       <c r="AT127">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU127">
         <v>1.9</v>
@@ -25755,7 +25764,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25842,7 +25851,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT129">
         <v>1.64</v>
@@ -25946,7 +25955,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26137,7 +26146,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26519,7 +26528,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26609,7 +26618,7 @@
         <v>1.45</v>
       </c>
       <c r="AT133">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU133">
         <v>2.14</v>
@@ -26710,7 +26719,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27179,7 +27188,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT136">
         <v>0.91</v>
@@ -27283,7 +27292,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27665,7 +27674,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28238,7 +28247,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28429,7 +28438,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29002,7 +29011,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29092,7 +29101,7 @@
         <v>1.1</v>
       </c>
       <c r="AT146">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU146">
         <v>1.54</v>
@@ -29193,7 +29202,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29384,7 +29393,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29471,7 +29480,7 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT148">
         <v>2</v>
@@ -29575,7 +29584,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29665,7 +29674,7 @@
         <v>0.64</v>
       </c>
       <c r="AT149">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -29766,7 +29775,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29957,7 +29966,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -31002,7 +31011,7 @@
         <v>0.8</v>
       </c>
       <c r="AT156">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU156">
         <v>1.58</v>
@@ -31103,7 +31112,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31294,7 +31303,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31485,7 +31494,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31676,7 +31685,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31763,7 +31772,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT160">
         <v>0.82</v>
@@ -32249,7 +32258,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32822,7 +32831,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33013,7 +33022,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33586,7 +33595,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -34058,7 +34067,7 @@
         <v>1.6</v>
       </c>
       <c r="AT172">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AU172">
         <v>1.58</v>
@@ -34249,7 +34258,7 @@
         <v>1.2</v>
       </c>
       <c r="AT173">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AU173">
         <v>1.45</v>
@@ -34350,7 +34359,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34541,7 +34550,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34819,7 +34828,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT176">
         <v>1.36</v>
@@ -34923,7 +34932,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35305,7 +35314,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35392,7 +35401,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT179">
         <v>1.2</v>
@@ -35496,7 +35505,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -36451,7 +36460,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36642,7 +36651,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36833,7 +36842,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37024,7 +37033,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37357,6 +37366,388 @@
       </c>
       <c r="BK189">
         <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:63">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>2313566</v>
+      </c>
+      <c r="C190" t="s">
+        <v>63</v>
+      </c>
+      <c r="D190" t="s">
+        <v>64</v>
+      </c>
+      <c r="E190" s="2">
+        <v>44981.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>22</v>
+      </c>
+      <c r="G190" t="s">
+        <v>68</v>
+      </c>
+      <c r="H190" t="s">
+        <v>65</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>2</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>2</v>
+      </c>
+      <c r="N190">
+        <v>3</v>
+      </c>
+      <c r="O190" t="s">
+        <v>205</v>
+      </c>
+      <c r="P190" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q190">
+        <v>2</v>
+      </c>
+      <c r="R190">
+        <v>12</v>
+      </c>
+      <c r="S190">
+        <v>14</v>
+      </c>
+      <c r="T190">
+        <v>5</v>
+      </c>
+      <c r="U190">
+        <v>2.15</v>
+      </c>
+      <c r="V190">
+        <v>2.2</v>
+      </c>
+      <c r="W190">
+        <v>1.39</v>
+      </c>
+      <c r="X190">
+        <v>2.75</v>
+      </c>
+      <c r="Y190">
+        <v>2.7</v>
+      </c>
+      <c r="Z190">
+        <v>1.4</v>
+      </c>
+      <c r="AA190">
+        <v>7</v>
+      </c>
+      <c r="AB190">
+        <v>1.09</v>
+      </c>
+      <c r="AC190">
+        <v>4.75</v>
+      </c>
+      <c r="AD190">
+        <v>3.6</v>
+      </c>
+      <c r="AE190">
+        <v>1.73</v>
+      </c>
+      <c r="AF190">
+        <v>1.05</v>
+      </c>
+      <c r="AG190">
+        <v>9</v>
+      </c>
+      <c r="AH190">
+        <v>1.25</v>
+      </c>
+      <c r="AI190">
+        <v>3.6</v>
+      </c>
+      <c r="AJ190">
+        <v>1.9</v>
+      </c>
+      <c r="AK190">
+        <v>1.95</v>
+      </c>
+      <c r="AL190">
+        <v>1.87</v>
+      </c>
+      <c r="AM190">
+        <v>1.82</v>
+      </c>
+      <c r="AN190">
+        <v>2.35</v>
+      </c>
+      <c r="AO190">
+        <v>1.18</v>
+      </c>
+      <c r="AP190">
+        <v>1.12</v>
+      </c>
+      <c r="AQ190">
+        <v>1.6</v>
+      </c>
+      <c r="AR190">
+        <v>1.8</v>
+      </c>
+      <c r="AS190">
+        <v>1.45</v>
+      </c>
+      <c r="AT190">
+        <v>1.91</v>
+      </c>
+      <c r="AU190">
+        <v>1.79</v>
+      </c>
+      <c r="AV190">
+        <v>1.89</v>
+      </c>
+      <c r="AW190">
+        <v>3.68</v>
+      </c>
+      <c r="AX190">
+        <v>3.3</v>
+      </c>
+      <c r="AY190">
+        <v>9</v>
+      </c>
+      <c r="AZ190">
+        <v>1.45</v>
+      </c>
+      <c r="BA190">
+        <v>1.22</v>
+      </c>
+      <c r="BB190">
+        <v>1.42</v>
+      </c>
+      <c r="BC190">
+        <v>1.74</v>
+      </c>
+      <c r="BD190">
+        <v>2.23</v>
+      </c>
+      <c r="BE190">
+        <v>3</v>
+      </c>
+      <c r="BF190">
+        <v>6</v>
+      </c>
+      <c r="BG190">
+        <v>8</v>
+      </c>
+      <c r="BH190">
+        <v>3</v>
+      </c>
+      <c r="BI190">
+        <v>8</v>
+      </c>
+      <c r="BJ190">
+        <v>9</v>
+      </c>
+      <c r="BK190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:63">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>2313569</v>
+      </c>
+      <c r="C191" t="s">
+        <v>63</v>
+      </c>
+      <c r="D191" t="s">
+        <v>64</v>
+      </c>
+      <c r="E191" s="2">
+        <v>44981.6875</v>
+      </c>
+      <c r="F191">
+        <v>22</v>
+      </c>
+      <c r="G191" t="s">
+        <v>76</v>
+      </c>
+      <c r="H191" t="s">
+        <v>81</v>
+      </c>
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191">
+        <v>0</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>2</v>
+      </c>
+      <c r="M191">
+        <v>2</v>
+      </c>
+      <c r="N191">
+        <v>4</v>
+      </c>
+      <c r="O191" t="s">
+        <v>206</v>
+      </c>
+      <c r="P191" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q191">
+        <v>8</v>
+      </c>
+      <c r="R191">
+        <v>5</v>
+      </c>
+      <c r="S191">
+        <v>13</v>
+      </c>
+      <c r="T191">
+        <v>2.5</v>
+      </c>
+      <c r="U191">
+        <v>2.15</v>
+      </c>
+      <c r="V191">
+        <v>4</v>
+      </c>
+      <c r="W191">
+        <v>1.39</v>
+      </c>
+      <c r="X191">
+        <v>2.75</v>
+      </c>
+      <c r="Y191">
+        <v>2.7</v>
+      </c>
+      <c r="Z191">
+        <v>1.4</v>
+      </c>
+      <c r="AA191">
+        <v>7</v>
+      </c>
+      <c r="AB191">
+        <v>1.09</v>
+      </c>
+      <c r="AC191">
+        <v>1.92</v>
+      </c>
+      <c r="AD191">
+        <v>3.6</v>
+      </c>
+      <c r="AE191">
+        <v>3.55</v>
+      </c>
+      <c r="AF191">
+        <v>1.05</v>
+      </c>
+      <c r="AG191">
+        <v>9</v>
+      </c>
+      <c r="AH191">
+        <v>1.28</v>
+      </c>
+      <c r="AI191">
+        <v>3.5</v>
+      </c>
+      <c r="AJ191">
+        <v>1.92</v>
+      </c>
+      <c r="AK191">
+        <v>1.94</v>
+      </c>
+      <c r="AL191">
+        <v>1.75</v>
+      </c>
+      <c r="AM191">
+        <v>2</v>
+      </c>
+      <c r="AN191">
+        <v>1.2</v>
+      </c>
+      <c r="AO191">
+        <v>1.22</v>
+      </c>
+      <c r="AP191">
+        <v>1.85</v>
+      </c>
+      <c r="AQ191">
+        <v>2.4</v>
+      </c>
+      <c r="AR191">
+        <v>1.7</v>
+      </c>
+      <c r="AS191">
+        <v>2.27</v>
+      </c>
+      <c r="AT191">
+        <v>1.64</v>
+      </c>
+      <c r="AU191">
+        <v>2</v>
+      </c>
+      <c r="AV191">
+        <v>1.57</v>
+      </c>
+      <c r="AW191">
+        <v>3.57</v>
+      </c>
+      <c r="AX191">
+        <v>1.64</v>
+      </c>
+      <c r="AY191">
+        <v>8.5</v>
+      </c>
+      <c r="AZ191">
+        <v>2.66</v>
+      </c>
+      <c r="BA191">
+        <v>1.18</v>
+      </c>
+      <c r="BB191">
+        <v>1.34</v>
+      </c>
+      <c r="BC191">
+        <v>1.61</v>
+      </c>
+      <c r="BD191">
+        <v>2.02</v>
+      </c>
+      <c r="BE191">
+        <v>2.7</v>
+      </c>
+      <c r="BF191">
+        <v>8</v>
+      </c>
+      <c r="BG191">
+        <v>7</v>
+      </c>
+      <c r="BH191">
+        <v>11</v>
+      </c>
+      <c r="BI191">
+        <v>8</v>
+      </c>
+      <c r="BJ191">
+        <v>19</v>
+      </c>
+      <c r="BK191">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="301">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,9 @@
     <t>['8', '31', '45', '60', '73']</t>
   </si>
   <si>
+    <t>['34', '57']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -911,6 +914,9 @@
   </si>
   <si>
     <t>['21', '41', '52']</t>
+  </si>
+  <si>
+    <t>['90+4']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1278,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK195"/>
+  <dimension ref="A1:BK197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1898,7 +1904,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2280,7 +2286,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2749,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT8">
         <v>0.91</v>
@@ -3044,7 +3050,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3235,7 +3241,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3426,7 +3432,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3999,7 +4005,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4086,10 +4092,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4381,7 +4387,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4763,7 +4769,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4954,7 +4960,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5336,7 +5342,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5527,7 +5533,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5718,7 +5724,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6482,7 +6488,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6673,7 +6679,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6951,7 +6957,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT30">
         <v>1.64</v>
@@ -7055,7 +7061,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7145,7 +7151,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.16</v>
@@ -7336,7 +7342,7 @@
         <v>0.64</v>
       </c>
       <c r="AT32">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -7715,7 +7721,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT34">
         <v>0.5</v>
@@ -8010,7 +8016,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8392,7 +8398,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8583,7 +8589,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8965,7 +8971,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9538,7 +9544,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9729,7 +9735,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9920,7 +9926,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10007,7 +10013,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -10111,7 +10117,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10198,7 +10204,7 @@
         <v>1.5</v>
       </c>
       <c r="AS47">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT47">
         <v>1.09</v>
@@ -10493,7 +10499,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10875,7 +10881,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11257,7 +11263,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11830,7 +11836,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12021,7 +12027,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12212,7 +12218,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12299,7 +12305,7 @@
         <v>0</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT58">
         <v>1.91</v>
@@ -12684,7 +12690,7 @@
         <v>2.82</v>
       </c>
       <c r="AT60">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU60">
         <v>1.63</v>
@@ -12785,7 +12791,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12875,7 +12881,7 @@
         <v>1.09</v>
       </c>
       <c r="AT61">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -13740,7 +13746,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13931,7 +13937,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14021,7 +14027,7 @@
         <v>1.1</v>
       </c>
       <c r="AT67">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14504,7 +14510,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14591,7 +14597,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT70">
         <v>1.36</v>
@@ -14695,7 +14701,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15077,7 +15083,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15164,7 +15170,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT73">
         <v>0.91</v>
@@ -15459,7 +15465,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15650,7 +15656,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15841,7 +15847,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15931,7 +15937,7 @@
         <v>1.8</v>
       </c>
       <c r="AT77">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU77">
         <v>2.16</v>
@@ -16414,7 +16420,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16605,7 +16611,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16796,7 +16802,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16987,7 +16993,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17459,7 +17465,7 @@
         <v>1.82</v>
       </c>
       <c r="AT85">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU85">
         <v>1.64</v>
@@ -17560,7 +17566,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18032,7 +18038,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18133,7 +18139,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18411,7 +18417,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT90">
         <v>1.09</v>
@@ -18515,7 +18521,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18897,7 +18903,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19088,7 +19094,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19661,7 +19667,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19748,7 +19754,7 @@
         <v>2</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT97">
         <v>1.9</v>
@@ -20043,7 +20049,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20133,7 +20139,7 @@
         <v>1.45</v>
       </c>
       <c r="AT99">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.47</v>
@@ -20234,7 +20240,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20512,7 +20518,7 @@
         <v>2</v>
       </c>
       <c r="AS101">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT101">
         <v>1.36</v>
@@ -20998,7 +21004,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21571,7 +21577,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21762,7 +21768,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21953,7 +21959,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22040,7 +22046,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT109">
         <v>1.64</v>
@@ -22335,7 +22341,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23290,7 +23296,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23380,7 +23386,7 @@
         <v>0.91</v>
       </c>
       <c r="AT116">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU116">
         <v>1.87</v>
@@ -23672,7 +23678,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23863,7 +23869,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23953,7 +23959,7 @@
         <v>2.27</v>
       </c>
       <c r="AT119">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -24436,7 +24442,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24523,7 +24529,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
         <v>0.73</v>
@@ -24717,7 +24723,7 @@
         <v>1.82</v>
       </c>
       <c r="AT123">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24818,7 +24824,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25009,7 +25015,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25200,7 +25206,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25290,7 +25296,7 @@
         <v>1.18</v>
       </c>
       <c r="AT126">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25773,7 +25779,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25964,7 +25970,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26051,7 +26057,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT130">
         <v>1.1</v>
@@ -26155,7 +26161,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26537,7 +26543,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26728,7 +26734,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27301,7 +27307,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27683,7 +27689,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28256,7 +28262,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28447,7 +28453,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28916,7 +28922,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT145">
         <v>1.09</v>
@@ -29020,7 +29026,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29211,7 +29217,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29402,7 +29408,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29492,7 +29498,7 @@
         <v>1.45</v>
       </c>
       <c r="AT148">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29593,7 +29599,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29784,7 +29790,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29874,7 +29880,7 @@
         <v>1.27</v>
       </c>
       <c r="AT150">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU150">
         <v>1.83</v>
@@ -29975,7 +29981,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30253,7 +30259,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT152">
         <v>1.64</v>
@@ -30829,7 +30835,7 @@
         <v>1.45</v>
       </c>
       <c r="AT155">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU155">
         <v>1.59</v>
@@ -31121,7 +31127,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31211,7 +31217,7 @@
         <v>1.64</v>
       </c>
       <c r="AT157">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU157">
         <v>1.89</v>
@@ -31312,7 +31318,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31399,7 +31405,7 @@
         <v>1.25</v>
       </c>
       <c r="AS158">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT158">
         <v>1.6</v>
@@ -31503,7 +31509,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31694,7 +31700,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -32267,7 +32273,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32357,7 +32363,7 @@
         <v>1.18</v>
       </c>
       <c r="AT163">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU163">
         <v>1.46</v>
@@ -32840,7 +32846,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33031,7 +33037,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33604,7 +33610,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -34368,7 +34374,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34455,7 +34461,7 @@
         <v>0.8</v>
       </c>
       <c r="AS174">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT174">
         <v>0.75</v>
@@ -34559,7 +34565,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34646,10 +34652,10 @@
         <v>1.89</v>
       </c>
       <c r="AS175">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AT175">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="AU175">
         <v>1.69</v>
@@ -34840,7 +34846,7 @@
         <v>1.45</v>
       </c>
       <c r="AT176">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU176">
         <v>1.84</v>
@@ -34941,7 +34947,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35323,7 +35329,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35514,7 +35520,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -36469,7 +36475,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36660,7 +36666,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36851,7 +36857,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37042,7 +37048,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37424,7 +37430,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37615,7 +37621,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37806,7 +37812,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -37997,7 +38003,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38188,7 +38194,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38379,16 +38385,16 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q195">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R195">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S195">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="T195">
         <v>3.5</v>
@@ -38505,22 +38511,404 @@
         <v>2.5</v>
       </c>
       <c r="BF195">
+        <v>7</v>
+      </c>
+      <c r="BG195">
+        <v>3</v>
+      </c>
+      <c r="BH195">
+        <v>2</v>
+      </c>
+      <c r="BI195">
+        <v>11</v>
+      </c>
+      <c r="BJ195">
+        <v>9</v>
+      </c>
+      <c r="BK195">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="196" spans="1:63">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>2313572</v>
+      </c>
+      <c r="C196" t="s">
+        <v>63</v>
+      </c>
+      <c r="D196" t="s">
+        <v>64</v>
+      </c>
+      <c r="E196" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F196">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s">
+        <v>71</v>
+      </c>
+      <c r="H196" t="s">
+        <v>72</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>1</v>
+      </c>
+      <c r="N196">
+        <v>1</v>
+      </c>
+      <c r="O196" t="s">
+        <v>84</v>
+      </c>
+      <c r="P196" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q196">
         <v>6</v>
       </c>
-      <c r="BG195">
-        <v>0</v>
-      </c>
-      <c r="BH195">
-        <v>2</v>
-      </c>
-      <c r="BI195">
+      <c r="R196">
+        <v>9</v>
+      </c>
+      <c r="S196">
+        <v>15</v>
+      </c>
+      <c r="T196">
+        <v>3.6</v>
+      </c>
+      <c r="U196">
+        <v>2.2</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+      <c r="W196">
+        <v>1.4</v>
+      </c>
+      <c r="X196">
+        <v>2.75</v>
+      </c>
+      <c r="Y196">
+        <v>2.75</v>
+      </c>
+      <c r="Z196">
+        <v>1.4</v>
+      </c>
+      <c r="AA196">
+        <v>8</v>
+      </c>
+      <c r="AB196">
+        <v>1.08</v>
+      </c>
+      <c r="AC196">
+        <v>2.63</v>
+      </c>
+      <c r="AD196">
+        <v>3.2</v>
+      </c>
+      <c r="AE196">
+        <v>2.63</v>
+      </c>
+      <c r="AF196">
+        <v>1.05</v>
+      </c>
+      <c r="AG196">
+        <v>8.5</v>
+      </c>
+      <c r="AH196">
+        <v>1.3</v>
+      </c>
+      <c r="AI196">
+        <v>3.3</v>
+      </c>
+      <c r="AJ196">
+        <v>1.87</v>
+      </c>
+      <c r="AK196">
+        <v>1.89</v>
+      </c>
+      <c r="AL196">
+        <v>1.75</v>
+      </c>
+      <c r="AM196">
+        <v>2</v>
+      </c>
+      <c r="AN196">
+        <v>1.65</v>
+      </c>
+      <c r="AO196">
+        <v>1.33</v>
+      </c>
+      <c r="AP196">
+        <v>1.35</v>
+      </c>
+      <c r="AQ196">
+        <v>2.11</v>
+      </c>
+      <c r="AR196">
+        <v>1.36</v>
+      </c>
+      <c r="AS196">
+        <v>1.9</v>
+      </c>
+      <c r="AT196">
+        <v>1.5</v>
+      </c>
+      <c r="AU196">
+        <v>1.67</v>
+      </c>
+      <c r="AV196">
+        <v>1.77</v>
+      </c>
+      <c r="AW196">
+        <v>3.44</v>
+      </c>
+      <c r="AX196">
+        <v>2.39</v>
+      </c>
+      <c r="AY196">
+        <v>8</v>
+      </c>
+      <c r="AZ196">
+        <v>1.82</v>
+      </c>
+      <c r="BA196">
+        <v>1.18</v>
+      </c>
+      <c r="BB196">
+        <v>1.34</v>
+      </c>
+      <c r="BC196">
+        <v>1.61</v>
+      </c>
+      <c r="BD196">
+        <v>2.02</v>
+      </c>
+      <c r="BE196">
+        <v>2.7</v>
+      </c>
+      <c r="BF196">
+        <v>4</v>
+      </c>
+      <c r="BG196">
+        <v>11</v>
+      </c>
+      <c r="BH196">
+        <v>7</v>
+      </c>
+      <c r="BI196">
+        <v>13</v>
+      </c>
+      <c r="BJ196">
+        <v>11</v>
+      </c>
+      <c r="BK196">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="197" spans="1:63">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>2313573</v>
+      </c>
+      <c r="C197" t="s">
+        <v>63</v>
+      </c>
+      <c r="D197" t="s">
+        <v>64</v>
+      </c>
+      <c r="E197" s="2">
+        <v>44983.5625</v>
+      </c>
+      <c r="F197">
+        <v>22</v>
+      </c>
+      <c r="G197" t="s">
+        <v>77</v>
+      </c>
+      <c r="H197" t="s">
+        <v>67</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197">
+        <v>0</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>2</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>3</v>
+      </c>
+      <c r="O197" t="s">
+        <v>209</v>
+      </c>
+      <c r="P197" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q197">
+        <v>3</v>
+      </c>
+      <c r="R197">
+        <v>7</v>
+      </c>
+      <c r="S197">
+        <v>10</v>
+      </c>
+      <c r="T197">
+        <v>4.33</v>
+      </c>
+      <c r="U197">
+        <v>2.2</v>
+      </c>
+      <c r="V197">
+        <v>2.6</v>
+      </c>
+      <c r="W197">
+        <v>1.4</v>
+      </c>
+      <c r="X197">
+        <v>2.75</v>
+      </c>
+      <c r="Y197">
+        <v>2.75</v>
+      </c>
+      <c r="Z197">
+        <v>1.4</v>
+      </c>
+      <c r="AA197">
+        <v>8</v>
+      </c>
+      <c r="AB197">
+        <v>1.08</v>
+      </c>
+      <c r="AC197">
+        <v>3.6</v>
+      </c>
+      <c r="AD197">
+        <v>3.4</v>
+      </c>
+      <c r="AE197">
+        <v>2</v>
+      </c>
+      <c r="AF197">
+        <v>1.02</v>
+      </c>
+      <c r="AG197">
+        <v>8.9</v>
+      </c>
+      <c r="AH197">
+        <v>1.3</v>
+      </c>
+      <c r="AI197">
+        <v>3.55</v>
+      </c>
+      <c r="AJ197">
+        <v>1.96</v>
+      </c>
+      <c r="AK197">
+        <v>1.81</v>
+      </c>
+      <c r="AL197">
+        <v>1.75</v>
+      </c>
+      <c r="AM197">
+        <v>2</v>
+      </c>
+      <c r="AN197">
+        <v>1.75</v>
+      </c>
+      <c r="AO197">
+        <v>1.32</v>
+      </c>
+      <c r="AP197">
+        <v>1.3</v>
+      </c>
+      <c r="AQ197">
+        <v>1.27</v>
+      </c>
+      <c r="AR197">
+        <v>2</v>
+      </c>
+      <c r="AS197">
+        <v>1.42</v>
+      </c>
+      <c r="AT197">
+        <v>1.82</v>
+      </c>
+      <c r="AU197">
+        <v>1.54</v>
+      </c>
+      <c r="AV197">
+        <v>1.97</v>
+      </c>
+      <c r="AW197">
+        <v>3.51</v>
+      </c>
+      <c r="AX197">
+        <v>2.52</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>1.75</v>
+      </c>
+      <c r="BA197">
+        <v>1.25</v>
+      </c>
+      <c r="BB197">
+        <v>1.47</v>
+      </c>
+      <c r="BC197">
+        <v>1.83</v>
+      </c>
+      <c r="BD197">
+        <v>2.38</v>
+      </c>
+      <c r="BE197">
+        <v>3.25</v>
+      </c>
+      <c r="BF197">
         <v>5</v>
       </c>
-      <c r="BJ195">
-        <v>8</v>
-      </c>
-      <c r="BK195">
-        <v>5</v>
+      <c r="BG197">
+        <v>6</v>
+      </c>
+      <c r="BH197">
+        <v>4</v>
+      </c>
+      <c r="BI197">
+        <v>12</v>
+      </c>
+      <c r="BJ197">
+        <v>9</v>
+      </c>
+      <c r="BK197">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1239" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="302">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -644,6 +644,9 @@
   </si>
   <si>
     <t>['34', '57']</t>
+  </si>
+  <si>
+    <t>['52', '82']</t>
   </si>
   <si>
     <t>['14', '64']</t>
@@ -1278,7 +1281,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK197"/>
+  <dimension ref="A1:BK198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1800,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT3">
         <v>1.1</v>
@@ -1904,7 +1907,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2286,7 +2289,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2567,7 +2570,7 @@
         <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3050,7 +3053,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3241,7 +3244,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3432,7 +3435,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4005,7 +4008,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4387,7 +4390,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4769,7 +4772,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4960,7 +4963,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5342,7 +5345,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5533,7 +5536,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5724,7 +5727,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6488,7 +6491,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6679,7 +6682,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7061,7 +7064,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7339,7 +7342,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT32">
         <v>1.82</v>
@@ -7724,7 +7727,7 @@
         <v>1.9</v>
       </c>
       <c r="AT34">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU34">
         <v>2.47</v>
@@ -8016,7 +8019,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8398,7 +8401,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8589,7 +8592,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8971,7 +8974,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9544,7 +9547,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9634,7 +9637,7 @@
         <v>1.45</v>
       </c>
       <c r="AT44">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU44">
         <v>1.43</v>
@@ -9735,7 +9738,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9926,7 +9929,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10117,7 +10120,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10499,7 +10502,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10586,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT49">
         <v>1.64</v>
@@ -10881,7 +10884,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11263,7 +11266,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11836,7 +11839,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12027,7 +12030,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12218,7 +12221,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12791,7 +12794,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13746,7 +13749,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13833,7 +13836,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT66">
         <v>0.73</v>
@@ -13937,7 +13940,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14409,7 +14412,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU69">
         <v>1.74</v>
@@ -14510,7 +14513,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14701,7 +14704,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15083,7 +15086,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15465,7 +15468,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15656,7 +15659,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15847,7 +15850,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16420,7 +16423,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16611,7 +16614,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16701,7 +16704,7 @@
         <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU81">
         <v>1.71</v>
@@ -16802,7 +16805,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16993,7 +16996,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17566,7 +17569,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17844,7 +17847,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT87">
         <v>0.82</v>
@@ -18139,7 +18142,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18521,7 +18524,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18903,7 +18906,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19094,7 +19097,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19667,7 +19670,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20049,7 +20052,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20240,7 +20243,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -21004,7 +21007,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21091,7 +21094,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT104">
         <v>0.75</v>
@@ -21476,7 +21479,7 @@
         <v>2.82</v>
       </c>
       <c r="AT106">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU106">
         <v>1.84</v>
@@ -21577,7 +21580,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21768,7 +21771,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21959,7 +21962,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22341,7 +22344,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23296,7 +23299,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23577,7 +23580,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU117">
         <v>1.75</v>
@@ -23678,7 +23681,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23869,7 +23872,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24442,7 +24445,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24824,7 +24827,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25015,7 +25018,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25102,7 +25105,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT125">
         <v>0.91</v>
@@ -25206,7 +25209,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25779,7 +25782,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25970,7 +25973,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26161,7 +26164,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26248,7 +26251,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT131">
         <v>1.09</v>
@@ -26543,7 +26546,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26734,7 +26737,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27307,7 +27310,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27689,7 +27692,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28262,7 +28265,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28453,7 +28456,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29026,7 +29029,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29217,7 +29220,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29307,7 +29310,7 @@
         <v>0.91</v>
       </c>
       <c r="AT147">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU147">
         <v>1.81</v>
@@ -29408,7 +29411,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29599,7 +29602,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29686,7 +29689,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT149">
         <v>1.91</v>
@@ -29790,7 +29793,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29981,7 +29984,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -31127,7 +31130,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31318,7 +31321,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31509,7 +31512,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31700,7 +31703,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -32273,7 +32276,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32846,7 +32849,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33037,7 +33040,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33124,7 +33127,7 @@
         <v>1.33</v>
       </c>
       <c r="AS167">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT167">
         <v>1.64</v>
@@ -33509,7 +33512,7 @@
         <v>1.45</v>
       </c>
       <c r="AT169">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU169">
         <v>2.23</v>
@@ -33610,7 +33613,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -34374,7 +34377,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34565,7 +34568,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34947,7 +34950,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35034,7 +35037,7 @@
         <v>0.9</v>
       </c>
       <c r="AS177">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AT177">
         <v>1.09</v>
@@ -35329,7 +35332,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35520,7 +35523,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35610,7 +35613,7 @@
         <v>1</v>
       </c>
       <c r="AT180">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU180">
         <v>1.51</v>
@@ -36475,7 +36478,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36666,7 +36669,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36857,7 +36860,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37048,7 +37051,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37430,7 +37433,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37621,7 +37624,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37812,7 +37815,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38003,7 +38006,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38194,7 +38197,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38385,7 +38388,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38576,7 +38579,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38909,6 +38912,197 @@
       </c>
       <c r="BK197">
         <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:63">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>2313567</v>
+      </c>
+      <c r="C198" t="s">
+        <v>63</v>
+      </c>
+      <c r="D198" t="s">
+        <v>64</v>
+      </c>
+      <c r="E198" s="2">
+        <v>44984.625</v>
+      </c>
+      <c r="F198">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s">
+        <v>66</v>
+      </c>
+      <c r="H198" t="s">
+        <v>80</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>0</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>210</v>
+      </c>
+      <c r="P198" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q198">
+        <v>3</v>
+      </c>
+      <c r="R198">
+        <v>3</v>
+      </c>
+      <c r="S198">
+        <v>6</v>
+      </c>
+      <c r="T198">
+        <v>2.75</v>
+      </c>
+      <c r="U198">
+        <v>2.1</v>
+      </c>
+      <c r="V198">
+        <v>4</v>
+      </c>
+      <c r="W198">
+        <v>1.4</v>
+      </c>
+      <c r="X198">
+        <v>2.75</v>
+      </c>
+      <c r="Y198">
+        <v>3</v>
+      </c>
+      <c r="Z198">
+        <v>1.36</v>
+      </c>
+      <c r="AA198">
+        <v>8</v>
+      </c>
+      <c r="AB198">
+        <v>1.08</v>
+      </c>
+      <c r="AC198">
+        <v>2.1</v>
+      </c>
+      <c r="AD198">
+        <v>3.2</v>
+      </c>
+      <c r="AE198">
+        <v>3.6</v>
+      </c>
+      <c r="AF198">
+        <v>1.04</v>
+      </c>
+      <c r="AG198">
+        <v>10</v>
+      </c>
+      <c r="AH198">
+        <v>1.3</v>
+      </c>
+      <c r="AI198">
+        <v>3.4</v>
+      </c>
+      <c r="AJ198">
+        <v>2.13</v>
+      </c>
+      <c r="AK198">
+        <v>1.75</v>
+      </c>
+      <c r="AL198">
+        <v>1.8</v>
+      </c>
+      <c r="AM198">
+        <v>1.95</v>
+      </c>
+      <c r="AN198">
+        <v>1.29</v>
+      </c>
+      <c r="AO198">
+        <v>1.3</v>
+      </c>
+      <c r="AP198">
+        <v>1.71</v>
+      </c>
+      <c r="AQ198">
+        <v>0.64</v>
+      </c>
+      <c r="AR198">
+        <v>0.5</v>
+      </c>
+      <c r="AS198">
+        <v>0.83</v>
+      </c>
+      <c r="AT198">
+        <v>0.45</v>
+      </c>
+      <c r="AU198">
+        <v>1.87</v>
+      </c>
+      <c r="AV198">
+        <v>1.43</v>
+      </c>
+      <c r="AW198">
+        <v>3.3</v>
+      </c>
+      <c r="AX198">
+        <v>1.61</v>
+      </c>
+      <c r="AY198">
+        <v>8</v>
+      </c>
+      <c r="AZ198">
+        <v>2.95</v>
+      </c>
+      <c r="BA198">
+        <v>1.25</v>
+      </c>
+      <c r="BB198">
+        <v>1.49</v>
+      </c>
+      <c r="BC198">
+        <v>1.88</v>
+      </c>
+      <c r="BD198">
+        <v>2.44</v>
+      </c>
+      <c r="BE198">
+        <v>3.28</v>
+      </c>
+      <c r="BF198">
+        <v>8</v>
+      </c>
+      <c r="BG198">
+        <v>4</v>
+      </c>
+      <c r="BH198">
+        <v>7</v>
+      </c>
+      <c r="BI198">
+        <v>5</v>
+      </c>
+      <c r="BJ198">
+        <v>15</v>
+      </c>
+      <c r="BK198">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="304">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -649,6 +649,9 @@
     <t>['52', '82']</t>
   </si>
   <si>
+    <t>['25', '44', '67', '83', '88']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -920,6 +923,9 @@
   </si>
   <si>
     <t>['90+4']</t>
+  </si>
+  <si>
+    <t>['80', '88']</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1287,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK198"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1907,7 +1913,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1994,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT4">
         <v>1.18</v>
@@ -2188,7 +2194,7 @@
         <v>1.45</v>
       </c>
       <c r="AT5">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2289,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2761,7 +2767,7 @@
         <v>1.9</v>
       </c>
       <c r="AT8">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -3053,7 +3059,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3244,7 +3250,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3435,7 +3441,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4008,7 +4014,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4286,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
         <v>1.64</v>
@@ -4390,7 +4396,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4772,7 +4778,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4963,7 +4969,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5345,7 +5351,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5432,7 +5438,7 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT22">
         <v>0.82</v>
@@ -5536,7 +5542,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5727,7 +5733,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5817,7 +5823,7 @@
         <v>1.64</v>
       </c>
       <c r="AT24">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU24">
         <v>0</v>
@@ -6196,7 +6202,7 @@
         <v>3</v>
       </c>
       <c r="AS26">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT26">
         <v>1.09</v>
@@ -6390,7 +6396,7 @@
         <v>2.27</v>
       </c>
       <c r="AT27">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU27">
         <v>1.43</v>
@@ -6491,7 +6497,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6682,7 +6688,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7064,7 +7070,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -8019,7 +8025,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8300,7 +8306,7 @@
         <v>1.82</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.91</v>
@@ -8401,7 +8407,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8592,7 +8598,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8873,7 +8879,7 @@
         <v>1.27</v>
       </c>
       <c r="AT40">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU40">
         <v>2.28</v>
@@ -8974,7 +8980,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9252,7 +9258,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT42">
         <v>1.1</v>
@@ -9547,7 +9553,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9738,7 +9744,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9929,7 +9935,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10120,7 +10126,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10502,7 +10508,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10884,7 +10890,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11162,7 +11168,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT52">
         <v>1.64</v>
@@ -11266,7 +11272,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11547,7 +11553,7 @@
         <v>1.18</v>
       </c>
       <c r="AT54">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11839,7 +11845,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12030,7 +12036,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12221,7 +12227,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12499,10 +12505,10 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT59">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU59">
         <v>2.41</v>
@@ -12794,7 +12800,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13263,7 +13269,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT63">
         <v>1.1</v>
@@ -13749,7 +13755,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13940,7 +13946,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14218,7 +14224,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT68">
         <v>1.64</v>
@@ -14513,7 +14519,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14704,7 +14710,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15086,7 +15092,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15176,7 +15182,7 @@
         <v>1.42</v>
       </c>
       <c r="AT73">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU73">
         <v>1.35</v>
@@ -15468,7 +15474,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15558,7 +15564,7 @@
         <v>0.91</v>
       </c>
       <c r="AT75">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU75">
         <v>1.88</v>
@@ -15659,7 +15665,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15850,7 +15856,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16423,7 +16429,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16614,7 +16620,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16805,7 +16811,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -16892,7 +16898,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT82">
         <v>1.64</v>
@@ -16996,7 +17002,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17569,7 +17575,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18142,7 +18148,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18423,7 +18429,7 @@
         <v>1.9</v>
       </c>
       <c r="AT90">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU90">
         <v>1.8</v>
@@ -18524,7 +18530,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18802,7 +18808,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT92">
         <v>1.64</v>
@@ -18906,7 +18912,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18996,7 +19002,7 @@
         <v>1.8</v>
       </c>
       <c r="AT93">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU93">
         <v>2.12</v>
@@ -19097,7 +19103,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19670,7 +19676,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20052,7 +20058,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20139,7 +20145,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT99">
         <v>1.5</v>
@@ -20243,7 +20249,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20906,7 +20912,7 @@
         <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU103">
         <v>1.59</v>
@@ -21007,7 +21013,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21285,7 +21291,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
         <v>1.64</v>
@@ -21580,7 +21586,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21771,7 +21777,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21962,7 +21968,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22344,7 +22350,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22816,7 +22822,7 @@
         <v>1.8</v>
       </c>
       <c r="AT113">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU113">
         <v>2.18</v>
@@ -23299,7 +23305,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23681,7 +23687,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23768,7 +23774,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT118">
         <v>0.82</v>
@@ -23872,7 +23878,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24445,7 +24451,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24827,7 +24833,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25018,7 +25024,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25108,7 +25114,7 @@
         <v>0.83</v>
       </c>
       <c r="AT125">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU125">
         <v>2.12</v>
@@ -25209,7 +25215,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25681,7 +25687,7 @@
         <v>1.1</v>
       </c>
       <c r="AT128">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU128">
         <v>1.59</v>
@@ -25782,7 +25788,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25973,7 +25979,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26164,7 +26170,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26546,7 +26552,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26633,7 +26639,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
         <v>1.91</v>
@@ -26737,7 +26743,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27015,7 +27021,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT135">
         <v>1.6</v>
@@ -27209,7 +27215,7 @@
         <v>2.27</v>
       </c>
       <c r="AT136">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU136">
         <v>1.96</v>
@@ -27310,7 +27316,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27692,7 +27698,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -28265,7 +28271,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28456,7 +28462,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28543,7 +28549,7 @@
         <v>1</v>
       </c>
       <c r="AS143">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT143">
         <v>0.75</v>
@@ -29029,7 +29035,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29220,7 +29226,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29411,7 +29417,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29602,7 +29608,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29793,7 +29799,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29984,7 +29990,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30074,7 +30080,7 @@
         <v>1.09</v>
       </c>
       <c r="AT151">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU151">
         <v>1.41</v>
@@ -30835,7 +30841,7 @@
         <v>2.14</v>
       </c>
       <c r="AS155">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT155">
         <v>1.82</v>
@@ -31130,7 +31136,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31321,7 +31327,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31512,7 +31518,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31703,7 +31709,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -32276,7 +32282,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32748,7 +32754,7 @@
         <v>2.82</v>
       </c>
       <c r="AT165">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU165">
         <v>1.96</v>
@@ -32849,7 +32855,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32939,7 +32945,7 @@
         <v>0.91</v>
       </c>
       <c r="AT166">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU166">
         <v>1.81</v>
@@ -33040,7 +33046,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33509,7 +33515,7 @@
         <v>0.5</v>
       </c>
       <c r="AS169">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT169">
         <v>0.45</v>
@@ -33613,7 +33619,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -34082,7 +34088,7 @@
         <v>1.89</v>
       </c>
       <c r="AS172">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT172">
         <v>1.91</v>
@@ -34377,7 +34383,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34568,7 +34574,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34950,7 +34956,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35040,7 +35046,7 @@
         <v>0.83</v>
       </c>
       <c r="AT177">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU177">
         <v>1.91</v>
@@ -35332,7 +35338,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35523,7 +35529,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -36186,7 +36192,7 @@
         <v>1.1</v>
       </c>
       <c r="AT183">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU183">
         <v>1.52</v>
@@ -36478,7 +36484,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36669,7 +36675,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36860,7 +36866,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -36947,7 +36953,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT187">
         <v>1.6</v>
@@ -37051,7 +37057,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37433,7 +37439,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37624,7 +37630,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37815,7 +37821,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38006,7 +38012,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38197,7 +38203,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38388,7 +38394,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38475,7 +38481,7 @@
         <v>1.2</v>
       </c>
       <c r="AS195">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT195">
         <v>1.36</v>
@@ -38579,7 +38585,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38961,7 +38967,7 @@
         <v>210</v>
       </c>
       <c r="P198" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39103,6 +39109,388 @@
       </c>
       <c r="BK198">
         <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:63">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>2313581</v>
+      </c>
+      <c r="C199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D199" t="s">
+        <v>64</v>
+      </c>
+      <c r="E199" s="2">
+        <v>44988.58333333334</v>
+      </c>
+      <c r="F199">
+        <v>23</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>79</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>0</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>2</v>
+      </c>
+      <c r="O199" t="s">
+        <v>84</v>
+      </c>
+      <c r="P199" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q199">
+        <v>3</v>
+      </c>
+      <c r="R199">
+        <v>2</v>
+      </c>
+      <c r="S199">
+        <v>5</v>
+      </c>
+      <c r="T199">
+        <v>3.6</v>
+      </c>
+      <c r="U199">
+        <v>1.98</v>
+      </c>
+      <c r="V199">
+        <v>2.95</v>
+      </c>
+      <c r="W199">
+        <v>1.46</v>
+      </c>
+      <c r="X199">
+        <v>2.5</v>
+      </c>
+      <c r="Y199">
+        <v>3.1</v>
+      </c>
+      <c r="Z199">
+        <v>1.32</v>
+      </c>
+      <c r="AA199">
+        <v>8.5</v>
+      </c>
+      <c r="AB199">
+        <v>1.06</v>
+      </c>
+      <c r="AC199">
+        <v>2.91</v>
+      </c>
+      <c r="AD199">
+        <v>3.17</v>
+      </c>
+      <c r="AE199">
+        <v>2.49</v>
+      </c>
+      <c r="AF199">
+        <v>1.08</v>
+      </c>
+      <c r="AG199">
+        <v>7</v>
+      </c>
+      <c r="AH199">
+        <v>1.4</v>
+      </c>
+      <c r="AI199">
+        <v>2.8</v>
+      </c>
+      <c r="AJ199">
+        <v>2.02</v>
+      </c>
+      <c r="AK199">
+        <v>1.78</v>
+      </c>
+      <c r="AL199">
+        <v>1.87</v>
+      </c>
+      <c r="AM199">
+        <v>1.8</v>
+      </c>
+      <c r="AN199">
+        <v>1.57</v>
+      </c>
+      <c r="AO199">
+        <v>1.33</v>
+      </c>
+      <c r="AP199">
+        <v>1.36</v>
+      </c>
+      <c r="AQ199">
+        <v>1.45</v>
+      </c>
+      <c r="AR199">
+        <v>1.09</v>
+      </c>
+      <c r="AS199">
+        <v>1.33</v>
+      </c>
+      <c r="AT199">
+        <v>1.25</v>
+      </c>
+      <c r="AU199">
+        <v>1.49</v>
+      </c>
+      <c r="AV199">
+        <v>1.13</v>
+      </c>
+      <c r="AW199">
+        <v>2.62</v>
+      </c>
+      <c r="AX199">
+        <v>2.22</v>
+      </c>
+      <c r="AY199">
+        <v>7.7</v>
+      </c>
+      <c r="AZ199">
+        <v>1.95</v>
+      </c>
+      <c r="BA199">
+        <v>1.21</v>
+      </c>
+      <c r="BB199">
+        <v>1.41</v>
+      </c>
+      <c r="BC199">
+        <v>1.75</v>
+      </c>
+      <c r="BD199">
+        <v>2.19</v>
+      </c>
+      <c r="BE199">
+        <v>2.93</v>
+      </c>
+      <c r="BF199">
+        <v>3</v>
+      </c>
+      <c r="BG199">
+        <v>5</v>
+      </c>
+      <c r="BH199">
+        <v>8</v>
+      </c>
+      <c r="BI199">
+        <v>7</v>
+      </c>
+      <c r="BJ199">
+        <v>11</v>
+      </c>
+      <c r="BK199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:63">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>2313576</v>
+      </c>
+      <c r="C200" t="s">
+        <v>63</v>
+      </c>
+      <c r="D200" t="s">
+        <v>64</v>
+      </c>
+      <c r="E200" s="2">
+        <v>44988.6875</v>
+      </c>
+      <c r="F200">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>67</v>
+      </c>
+      <c r="H200" t="s">
+        <v>82</v>
+      </c>
+      <c r="I200">
+        <v>2</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>5</v>
+      </c>
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>211</v>
+      </c>
+      <c r="P200" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q200">
+        <v>8</v>
+      </c>
+      <c r="R200">
+        <v>2</v>
+      </c>
+      <c r="S200">
+        <v>10</v>
+      </c>
+      <c r="T200">
+        <v>1.95</v>
+      </c>
+      <c r="U200">
+        <v>2.3</v>
+      </c>
+      <c r="V200">
+        <v>5.75</v>
+      </c>
+      <c r="W200">
+        <v>1.33</v>
+      </c>
+      <c r="X200">
+        <v>3</v>
+      </c>
+      <c r="Y200">
+        <v>2.5</v>
+      </c>
+      <c r="Z200">
+        <v>1.46</v>
+      </c>
+      <c r="AA200">
+        <v>6</v>
+      </c>
+      <c r="AB200">
+        <v>1.11</v>
+      </c>
+      <c r="AC200">
+        <v>1.47</v>
+      </c>
+      <c r="AD200">
+        <v>4.3</v>
+      </c>
+      <c r="AE200">
+        <v>6</v>
+      </c>
+      <c r="AF200">
+        <v>1.05</v>
+      </c>
+      <c r="AG200">
+        <v>8.5</v>
+      </c>
+      <c r="AH200">
+        <v>1.25</v>
+      </c>
+      <c r="AI200">
+        <v>3.75</v>
+      </c>
+      <c r="AJ200">
+        <v>1.89</v>
+      </c>
+      <c r="AK200">
+        <v>2.01</v>
+      </c>
+      <c r="AL200">
+        <v>1.95</v>
+      </c>
+      <c r="AM200">
+        <v>1.75</v>
+      </c>
+      <c r="AN200">
+        <v>1.11</v>
+      </c>
+      <c r="AO200">
+        <v>1.2</v>
+      </c>
+      <c r="AP200">
+        <v>2.6</v>
+      </c>
+      <c r="AQ200">
+        <v>1.45</v>
+      </c>
+      <c r="AR200">
+        <v>0.91</v>
+      </c>
+      <c r="AS200">
+        <v>1.58</v>
+      </c>
+      <c r="AT200">
+        <v>0.83</v>
+      </c>
+      <c r="AU200">
+        <v>2.08</v>
+      </c>
+      <c r="AV200">
+        <v>1.51</v>
+      </c>
+      <c r="AW200">
+        <v>3.59</v>
+      </c>
+      <c r="AX200">
+        <v>1.25</v>
+      </c>
+      <c r="AY200">
+        <v>16</v>
+      </c>
+      <c r="AZ200">
+        <v>4.48</v>
+      </c>
+      <c r="BA200">
+        <v>1.15</v>
+      </c>
+      <c r="BB200">
+        <v>1.32</v>
+      </c>
+      <c r="BC200">
+        <v>1.6</v>
+      </c>
+      <c r="BD200">
+        <v>2.01</v>
+      </c>
+      <c r="BE200">
+        <v>2.62</v>
+      </c>
+      <c r="BF200">
+        <v>8</v>
+      </c>
+      <c r="BG200">
+        <v>3</v>
+      </c>
+      <c r="BH200">
+        <v>9</v>
+      </c>
+      <c r="BI200">
+        <v>4</v>
+      </c>
+      <c r="BJ200">
+        <v>17</v>
+      </c>
+      <c r="BK200">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="309">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -652,6 +652,12 @@
     <t>['25', '44', '67', '83', '88']</t>
   </si>
   <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -752,9 +758,6 @@
   </si>
   <si>
     <t>['33', '67']</t>
-  </si>
-  <si>
-    <t>['29']</t>
   </si>
   <si>
     <t>['5', '14', '49']</t>
@@ -926,6 +929,18 @@
   </si>
   <si>
     <t>['80', '88']</t>
+  </si>
+  <si>
+    <t>['12', '65']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['38', '53']</t>
+  </si>
+  <si>
+    <t>['9']</t>
   </si>
 </sst>
 </file>
@@ -1287,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1621,7 +1636,7 @@
         <v>2.82</v>
       </c>
       <c r="AT2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1812,7 +1827,7 @@
         <v>0.83</v>
       </c>
       <c r="AT3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1913,7 +1928,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2295,7 +2310,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2382,10 +2397,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT6">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2955,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT9">
         <v>1.64</v>
@@ -3059,7 +3074,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3146,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT10">
         <v>1.09</v>
@@ -3250,7 +3265,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3340,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="AT11">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3441,7 +3456,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3719,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT13">
         <v>0.75</v>
@@ -4014,7 +4029,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4396,7 +4411,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4674,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="AS18">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT18">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU18">
         <v>2.26</v>
@@ -4778,7 +4793,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4969,7 +4984,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5056,10 +5071,10 @@
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -5247,10 +5262,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT21">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU21">
         <v>2.16</v>
@@ -5351,7 +5366,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5441,7 +5456,7 @@
         <v>1.58</v>
       </c>
       <c r="AT22">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU22">
         <v>2.32</v>
@@ -5542,7 +5557,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5733,7 +5748,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -5820,7 +5835,7 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT24">
         <v>0.83</v>
@@ -6011,10 +6026,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT25">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU25">
         <v>0.96</v>
@@ -6497,7 +6512,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6688,7 +6703,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7070,7 +7085,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7539,10 +7554,10 @@
         <v>0</v>
       </c>
       <c r="AS33">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT33">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <v>1.8</v>
@@ -7921,7 +7936,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT35">
         <v>1.6</v>
@@ -8025,7 +8040,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8112,10 +8127,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU36">
         <v>2.3</v>
@@ -8303,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT37">
         <v>1.25</v>
@@ -8407,7 +8422,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8494,7 +8509,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8598,7 +8613,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8685,10 +8700,10 @@
         <v>3</v>
       </c>
       <c r="AS39">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT39">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU39">
         <v>1.6</v>
@@ -8980,7 +8995,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9070,7 +9085,7 @@
         <v>2.82</v>
       </c>
       <c r="AT41">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU41">
         <v>1.72</v>
@@ -9261,7 +9276,7 @@
         <v>1.58</v>
       </c>
       <c r="AT42">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU42">
         <v>2.44</v>
@@ -9449,10 +9464,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT43">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -9553,7 +9568,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9744,7 +9759,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9935,7 +9950,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10126,7 +10141,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10508,7 +10523,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10890,7 +10905,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10977,10 +10992,10 @@
         <v>0.5</v>
       </c>
       <c r="AS51">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT51">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU51">
         <v>1.91</v>
@@ -11171,7 +11186,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU52">
         <v>1.48</v>
@@ -11272,7 +11287,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11550,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT54">
         <v>0.83</v>
@@ -11741,7 +11756,7 @@
         <v>2</v>
       </c>
       <c r="AS55">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
         <v>1.6</v>
@@ -11845,7 +11860,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -11932,10 +11947,10 @@
         <v>2.33</v>
       </c>
       <c r="AS56">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU56">
         <v>2.05</v>
@@ -12036,7 +12051,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12123,10 +12138,10 @@
         <v>2</v>
       </c>
       <c r="AS57">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -12227,7 +12242,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12317,7 +12332,7 @@
         <v>1.42</v>
       </c>
       <c r="AT58">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU58">
         <v>1.57</v>
@@ -12800,7 +12815,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -13272,7 +13287,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU63">
         <v>1.39</v>
@@ -13463,7 +13478,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU64">
         <v>1.32</v>
@@ -13651,10 +13666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT65">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU65">
         <v>1.64</v>
@@ -13755,7 +13770,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13845,7 +13860,7 @@
         <v>0.83</v>
       </c>
       <c r="AT66">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU66">
         <v>1.96</v>
@@ -13946,7 +13961,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14033,7 +14048,7 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT67">
         <v>1.5</v>
@@ -14519,7 +14534,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14710,7 +14725,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -14988,7 +15003,7 @@
         <v>1.33</v>
       </c>
       <c r="AS72">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT72">
         <v>1.09</v>
@@ -15092,7 +15107,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>5</v>
@@ -15373,7 +15388,7 @@
         <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU74">
         <v>2.04</v>
@@ -15474,7 +15489,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15561,7 +15576,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT75">
         <v>1.25</v>
@@ -15665,7 +15680,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15752,7 +15767,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT76">
         <v>0.75</v>
@@ -15856,7 +15871,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15943,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="AS77">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT77">
         <v>1.82</v>
@@ -16137,7 +16152,7 @@
         <v>2.82</v>
       </c>
       <c r="AT78">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU78">
         <v>1.77</v>
@@ -16429,7 +16444,7 @@
         <v>140</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -16519,7 +16534,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16620,7 +16635,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16811,7 +16826,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -17002,7 +17017,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17092,7 +17107,7 @@
         <v>1.09</v>
       </c>
       <c r="AT83">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU83">
         <v>1.4</v>
@@ -17471,7 +17486,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT85">
         <v>1.5</v>
@@ -17575,7 +17590,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17662,7 +17677,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT86">
         <v>1.36</v>
@@ -17856,7 +17871,7 @@
         <v>0.83</v>
       </c>
       <c r="AT87">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU87">
         <v>2.15</v>
@@ -18148,7 +18163,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18530,7 +18545,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18617,7 +18632,7 @@
         <v>1.4</v>
       </c>
       <c r="AS91">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT91">
         <v>1.6</v>
@@ -18811,7 +18826,7 @@
         <v>1.58</v>
       </c>
       <c r="AT92">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU92">
         <v>2.18</v>
@@ -18912,7 +18927,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -18999,7 +19014,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT93">
         <v>0.83</v>
@@ -19103,7 +19118,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19190,7 +19205,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT94">
         <v>1.18</v>
@@ -19572,10 +19587,10 @@
         <v>1</v>
       </c>
       <c r="AS96">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT96">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU96">
         <v>1.74</v>
@@ -19676,7 +19691,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -19766,7 +19781,7 @@
         <v>1.42</v>
       </c>
       <c r="AT97">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -19957,7 +19972,7 @@
         <v>1</v>
       </c>
       <c r="AT98">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU98">
         <v>1.72</v>
@@ -20058,7 +20073,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20249,7 +20264,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20339,7 +20354,7 @@
         <v>1.45</v>
       </c>
       <c r="AT100">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU100">
         <v>1.9</v>
@@ -20721,7 +20736,7 @@
         <v>2.27</v>
       </c>
       <c r="AT102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -20909,7 +20924,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT103">
         <v>0.83</v>
@@ -21013,7 +21028,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21586,7 +21601,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21777,7 +21792,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21864,7 +21879,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT108">
         <v>1.18</v>
@@ -21968,7 +21983,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22058,7 +22073,7 @@
         <v>1.9</v>
       </c>
       <c r="AT109">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU109">
         <v>1.84</v>
@@ -22249,7 +22264,7 @@
         <v>1.27</v>
       </c>
       <c r="AT110">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU110">
         <v>1.98</v>
@@ -22350,7 +22365,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22440,7 +22455,7 @@
         <v>1.09</v>
       </c>
       <c r="AT111">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU111">
         <v>1.57</v>
@@ -22631,7 +22646,7 @@
         <v>1</v>
       </c>
       <c r="AT112">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU112">
         <v>1.48</v>
@@ -22819,7 +22834,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT113">
         <v>1.25</v>
@@ -23010,7 +23025,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT114">
         <v>1.09</v>
@@ -23201,7 +23216,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1.6</v>
@@ -23305,7 +23320,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23392,7 +23407,7 @@
         <v>2</v>
       </c>
       <c r="AS116">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT116">
         <v>1.82</v>
@@ -23583,7 +23598,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT117">
         <v>0.45</v>
@@ -23687,7 +23702,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23777,7 +23792,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU118">
         <v>1.58</v>
@@ -23878,7 +23893,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24451,7 +24466,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24541,7 +24556,7 @@
         <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU122">
         <v>1.56</v>
@@ -24729,7 +24744,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT123">
         <v>1.82</v>
@@ -24833,7 +24848,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25024,7 +25039,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25215,7 +25230,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25302,7 +25317,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT126">
         <v>1.5</v>
@@ -25493,7 +25508,7 @@
         <v>1.86</v>
       </c>
       <c r="AS127">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT127">
         <v>1.64</v>
@@ -25684,7 +25699,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT128">
         <v>1.25</v>
@@ -25788,7 +25803,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25878,7 +25893,7 @@
         <v>1.45</v>
       </c>
       <c r="AT129">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU129">
         <v>1.86</v>
@@ -25979,7 +25994,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26069,7 +26084,7 @@
         <v>1.9</v>
       </c>
       <c r="AT130">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -26170,7 +26185,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26552,7 +26567,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26642,7 +26657,7 @@
         <v>1.58</v>
       </c>
       <c r="AT133">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU133">
         <v>2.14</v>
@@ -26743,7 +26758,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -26833,7 +26848,7 @@
         <v>1.27</v>
       </c>
       <c r="AT134">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU134">
         <v>1.91</v>
@@ -27316,7 +27331,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27406,7 +27421,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU137">
         <v>1.68</v>
@@ -27594,10 +27609,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT138">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU138">
         <v>1.68</v>
@@ -27698,7 +27713,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27785,7 +27800,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT139">
         <v>1.36</v>
@@ -27979,7 +27994,7 @@
         <v>2.82</v>
       </c>
       <c r="AT140">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU140">
         <v>1.9</v>
@@ -28167,10 +28182,10 @@
         <v>1.14</v>
       </c>
       <c r="AS141">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU141">
         <v>1.48</v>
@@ -28271,7 +28286,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28358,7 +28373,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT142">
         <v>1.64</v>
@@ -28462,7 +28477,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29035,7 +29050,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29122,7 +29137,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT146">
         <v>1.64</v>
@@ -29226,7 +29241,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29313,7 +29328,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT147">
         <v>0.45</v>
@@ -29417,7 +29432,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29608,7 +29623,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29698,7 +29713,7 @@
         <v>0.83</v>
       </c>
       <c r="AT149">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU149">
         <v>1.93</v>
@@ -29799,7 +29814,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29990,7 +30005,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30271,7 +30286,7 @@
         <v>1.42</v>
       </c>
       <c r="AT152">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU152">
         <v>1.65</v>
@@ -30650,7 +30665,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT154">
         <v>1.64</v>
@@ -31035,7 +31050,7 @@
         <v>1</v>
       </c>
       <c r="AT156">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU156">
         <v>1.58</v>
@@ -31136,7 +31151,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31223,7 +31238,7 @@
         <v>1.56</v>
       </c>
       <c r="AS157">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT157">
         <v>1.5</v>
@@ -31327,7 +31342,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31518,7 +31533,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31608,7 +31623,7 @@
         <v>1</v>
       </c>
       <c r="AT159">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU159">
         <v>1.63</v>
@@ -31709,7 +31724,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31990,7 +32005,7 @@
         <v>1.09</v>
       </c>
       <c r="AT161">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU161">
         <v>1.48</v>
@@ -32178,7 +32193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS162">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT162">
         <v>1.36</v>
@@ -32282,7 +32297,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32369,7 +32384,7 @@
         <v>2</v>
       </c>
       <c r="AS163">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT163">
         <v>1.82</v>
@@ -32560,10 +32575,10 @@
         <v>0.67</v>
       </c>
       <c r="AS164">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT164">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU164">
         <v>1.92</v>
@@ -32855,7 +32870,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -32942,7 +32957,7 @@
         <v>1</v>
       </c>
       <c r="AS166">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT166">
         <v>0.83</v>
@@ -33046,7 +33061,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33136,7 +33151,7 @@
         <v>0.83</v>
       </c>
       <c r="AT167">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU167">
         <v>1.94</v>
@@ -33619,7 +33634,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33706,10 +33721,10 @@
         <v>1</v>
       </c>
       <c r="AS170">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT170">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU170">
         <v>2.19</v>
@@ -33897,7 +33912,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT171">
         <v>1.09</v>
@@ -34091,7 +34106,7 @@
         <v>1.33</v>
       </c>
       <c r="AT172">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU172">
         <v>1.58</v>
@@ -34383,7 +34398,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34574,7 +34589,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34956,7 +34971,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35234,7 +35249,7 @@
         <v>1.56</v>
       </c>
       <c r="AS178">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AT178">
         <v>1.64</v>
@@ -35338,7 +35353,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35529,7 +35544,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35807,7 +35822,7 @@
         <v>1.3</v>
       </c>
       <c r="AS181">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AT181">
         <v>1.18</v>
@@ -35998,10 +36013,10 @@
         <v>1.22</v>
       </c>
       <c r="AS182">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AU182">
         <v>1.91</v>
@@ -36189,7 +36204,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT183">
         <v>0.83</v>
@@ -36484,7 +36499,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36571,10 +36586,10 @@
         <v>2.11</v>
       </c>
       <c r="AS185">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT185">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU185">
         <v>2.23</v>
@@ -36675,7 +36690,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36762,10 +36777,10 @@
         <v>0.9</v>
       </c>
       <c r="AS186">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT186">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU186">
         <v>1.39</v>
@@ -36866,7 +36881,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37057,7 +37072,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37147,7 +37162,7 @@
         <v>1</v>
       </c>
       <c r="AT188">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AU188">
         <v>1.72</v>
@@ -37338,7 +37353,7 @@
         <v>1.27</v>
       </c>
       <c r="AT189">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU189">
         <v>1.76</v>
@@ -37439,7 +37454,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37529,7 +37544,7 @@
         <v>1.45</v>
       </c>
       <c r="AT190">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AU190">
         <v>1.79</v>
@@ -37630,7 +37645,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37821,7 +37836,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38012,7 +38027,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38203,7 +38218,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38394,7 +38409,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38585,7 +38600,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38967,7 +38982,7 @@
         <v>210</v>
       </c>
       <c r="P198" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39158,7 +39173,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -39490,6 +39505,1152 @@
         <v>17</v>
       </c>
       <c r="BK200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:63">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>2313582</v>
+      </c>
+      <c r="C201" t="s">
+        <v>63</v>
+      </c>
+      <c r="D201" t="s">
+        <v>64</v>
+      </c>
+      <c r="E201" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F201">
+        <v>23</v>
+      </c>
+      <c r="G201" t="s">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s">
+        <v>74</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>2</v>
+      </c>
+      <c r="N201">
+        <v>2</v>
+      </c>
+      <c r="O201" t="s">
+        <v>84</v>
+      </c>
+      <c r="P201" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q201">
+        <v>5</v>
+      </c>
+      <c r="R201">
+        <v>6</v>
+      </c>
+      <c r="S201">
+        <v>11</v>
+      </c>
+      <c r="T201">
+        <v>2.8</v>
+      </c>
+      <c r="U201">
+        <v>1.98</v>
+      </c>
+      <c r="V201">
+        <v>3.8</v>
+      </c>
+      <c r="W201">
+        <v>1.44</v>
+      </c>
+      <c r="X201">
+        <v>2.62</v>
+      </c>
+      <c r="Y201">
+        <v>3</v>
+      </c>
+      <c r="Z201">
+        <v>1.36</v>
+      </c>
+      <c r="AA201">
+        <v>8</v>
+      </c>
+      <c r="AB201">
+        <v>1.06</v>
+      </c>
+      <c r="AC201">
+        <v>2.2</v>
+      </c>
+      <c r="AD201">
+        <v>3</v>
+      </c>
+      <c r="AE201">
+        <v>3.25</v>
+      </c>
+      <c r="AF201">
+        <v>1.08</v>
+      </c>
+      <c r="AG201">
+        <v>7</v>
+      </c>
+      <c r="AH201">
+        <v>1.4</v>
+      </c>
+      <c r="AI201">
+        <v>2.75</v>
+      </c>
+      <c r="AJ201">
+        <v>2.19</v>
+      </c>
+      <c r="AK201">
+        <v>1.59</v>
+      </c>
+      <c r="AL201">
+        <v>1.91</v>
+      </c>
+      <c r="AM201">
+        <v>1.8</v>
+      </c>
+      <c r="AN201">
+        <v>1.25</v>
+      </c>
+      <c r="AO201">
+        <v>1.28</v>
+      </c>
+      <c r="AP201">
+        <v>1.66</v>
+      </c>
+      <c r="AQ201">
+        <v>1.64</v>
+      </c>
+      <c r="AR201">
+        <v>1.9</v>
+      </c>
+      <c r="AS201">
+        <v>1.5</v>
+      </c>
+      <c r="AT201">
+        <v>2</v>
+      </c>
+      <c r="AU201">
+        <v>1.86</v>
+      </c>
+      <c r="AV201">
+        <v>1.15</v>
+      </c>
+      <c r="AW201">
+        <v>3.01</v>
+      </c>
+      <c r="AX201">
+        <v>1.59</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>3.02</v>
+      </c>
+      <c r="BA201">
+        <v>1.23</v>
+      </c>
+      <c r="BB201">
+        <v>1.45</v>
+      </c>
+      <c r="BC201">
+        <v>1.82</v>
+      </c>
+      <c r="BD201">
+        <v>2.32</v>
+      </c>
+      <c r="BE201">
+        <v>3.08</v>
+      </c>
+      <c r="BF201">
+        <v>0</v>
+      </c>
+      <c r="BG201">
+        <v>4</v>
+      </c>
+      <c r="BH201">
+        <v>12</v>
+      </c>
+      <c r="BI201">
+        <v>6</v>
+      </c>
+      <c r="BJ201">
+        <v>12</v>
+      </c>
+      <c r="BK201">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:63">
+      <c r="A202" s="1">
+        <v>201</v>
+      </c>
+      <c r="B202">
+        <v>2313575</v>
+      </c>
+      <c r="C202" t="s">
+        <v>63</v>
+      </c>
+      <c r="D202" t="s">
+        <v>64</v>
+      </c>
+      <c r="E202" s="2">
+        <v>44989.5625</v>
+      </c>
+      <c r="F202">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>69</v>
+      </c>
+      <c r="H202" t="s">
+        <v>71</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>0</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>1</v>
+      </c>
+      <c r="O202" t="s">
+        <v>171</v>
+      </c>
+      <c r="P202" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q202">
+        <v>8</v>
+      </c>
+      <c r="R202">
+        <v>3</v>
+      </c>
+      <c r="S202">
+        <v>11</v>
+      </c>
+      <c r="T202">
+        <v>2.87</v>
+      </c>
+      <c r="U202">
+        <v>2.1</v>
+      </c>
+      <c r="V202">
+        <v>3.4</v>
+      </c>
+      <c r="W202">
+        <v>1.4</v>
+      </c>
+      <c r="X202">
+        <v>2.75</v>
+      </c>
+      <c r="Y202">
+        <v>2.75</v>
+      </c>
+      <c r="Z202">
+        <v>1.4</v>
+      </c>
+      <c r="AA202">
+        <v>6.5</v>
+      </c>
+      <c r="AB202">
+        <v>1.1</v>
+      </c>
+      <c r="AC202">
+        <v>2.25</v>
+      </c>
+      <c r="AD202">
+        <v>3.1</v>
+      </c>
+      <c r="AE202">
+        <v>2.95</v>
+      </c>
+      <c r="AF202">
+        <v>1.06</v>
+      </c>
+      <c r="AG202">
+        <v>8</v>
+      </c>
+      <c r="AH202">
+        <v>1.3</v>
+      </c>
+      <c r="AI202">
+        <v>3.4</v>
+      </c>
+      <c r="AJ202">
+        <v>1.84</v>
+      </c>
+      <c r="AK202">
+        <v>1.84</v>
+      </c>
+      <c r="AL202">
+        <v>1.73</v>
+      </c>
+      <c r="AM202">
+        <v>2</v>
+      </c>
+      <c r="AN202">
+        <v>1.39</v>
+      </c>
+      <c r="AO202">
+        <v>1.3</v>
+      </c>
+      <c r="AP202">
+        <v>1.57</v>
+      </c>
+      <c r="AQ202">
+        <v>1.1</v>
+      </c>
+      <c r="AR202">
+        <v>0.82</v>
+      </c>
+      <c r="AS202">
+        <v>1.27</v>
+      </c>
+      <c r="AT202">
+        <v>0.75</v>
+      </c>
+      <c r="AU202">
+        <v>1.61</v>
+      </c>
+      <c r="AV202">
+        <v>1.62</v>
+      </c>
+      <c r="AW202">
+        <v>3.23</v>
+      </c>
+      <c r="AX202">
+        <v>1.88</v>
+      </c>
+      <c r="AY202">
+        <v>7.9</v>
+      </c>
+      <c r="AZ202">
+        <v>2.34</v>
+      </c>
+      <c r="BA202">
+        <v>1.17</v>
+      </c>
+      <c r="BB202">
+        <v>1.29</v>
+      </c>
+      <c r="BC202">
+        <v>1.54</v>
+      </c>
+      <c r="BD202">
+        <v>1.92</v>
+      </c>
+      <c r="BE202">
+        <v>2.49</v>
+      </c>
+      <c r="BF202">
+        <v>7</v>
+      </c>
+      <c r="BG202">
+        <v>4</v>
+      </c>
+      <c r="BH202">
+        <v>6</v>
+      </c>
+      <c r="BI202">
+        <v>4</v>
+      </c>
+      <c r="BJ202">
+        <v>13</v>
+      </c>
+      <c r="BK202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:63">
+      <c r="A203" s="1">
+        <v>202</v>
+      </c>
+      <c r="B203">
+        <v>2313578</v>
+      </c>
+      <c r="C203" t="s">
+        <v>63</v>
+      </c>
+      <c r="D203" t="s">
+        <v>64</v>
+      </c>
+      <c r="E203" s="2">
+        <v>44989.66666666666</v>
+      </c>
+      <c r="F203">
+        <v>23</v>
+      </c>
+      <c r="G203" t="s">
+        <v>73</v>
+      </c>
+      <c r="H203" t="s">
+        <v>76</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>0</v>
+      </c>
+      <c r="M203">
+        <v>1</v>
+      </c>
+      <c r="N203">
+        <v>1</v>
+      </c>
+      <c r="O203" t="s">
+        <v>84</v>
+      </c>
+      <c r="P203" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q203">
+        <v>8</v>
+      </c>
+      <c r="R203">
+        <v>3</v>
+      </c>
+      <c r="S203">
+        <v>11</v>
+      </c>
+      <c r="T203">
+        <v>3.4</v>
+      </c>
+      <c r="U203">
+        <v>2.05</v>
+      </c>
+      <c r="V203">
+        <v>2.85</v>
+      </c>
+      <c r="W203">
+        <v>1.4</v>
+      </c>
+      <c r="X203">
+        <v>2.75</v>
+      </c>
+      <c r="Y203">
+        <v>2.75</v>
+      </c>
+      <c r="Z203">
+        <v>1.4</v>
+      </c>
+      <c r="AA203">
+        <v>7</v>
+      </c>
+      <c r="AB203">
+        <v>1.08</v>
+      </c>
+      <c r="AC203">
+        <v>2.9</v>
+      </c>
+      <c r="AD203">
+        <v>3.15</v>
+      </c>
+      <c r="AE203">
+        <v>2.25</v>
+      </c>
+      <c r="AF203">
+        <v>1.06</v>
+      </c>
+      <c r="AG203">
+        <v>8</v>
+      </c>
+      <c r="AH203">
+        <v>1.33</v>
+      </c>
+      <c r="AI203">
+        <v>3.25</v>
+      </c>
+      <c r="AJ203">
+        <v>1.88</v>
+      </c>
+      <c r="AK203">
+        <v>1.81</v>
+      </c>
+      <c r="AL203">
+        <v>1.8</v>
+      </c>
+      <c r="AM203">
+        <v>1.91</v>
+      </c>
+      <c r="AN203">
+        <v>1.58</v>
+      </c>
+      <c r="AO203">
+        <v>1.31</v>
+      </c>
+      <c r="AP203">
+        <v>1.37</v>
+      </c>
+      <c r="AQ203">
+        <v>0.91</v>
+      </c>
+      <c r="AR203">
+        <v>1.64</v>
+      </c>
+      <c r="AS203">
+        <v>0.83</v>
+      </c>
+      <c r="AT203">
+        <v>1.75</v>
+      </c>
+      <c r="AU203">
+        <v>1.84</v>
+      </c>
+      <c r="AV203">
+        <v>1.49</v>
+      </c>
+      <c r="AW203">
+        <v>3.33</v>
+      </c>
+      <c r="AX203">
+        <v>2.22</v>
+      </c>
+      <c r="AY203">
+        <v>7.7</v>
+      </c>
+      <c r="AZ203">
+        <v>1.95</v>
+      </c>
+      <c r="BA203">
+        <v>1.18</v>
+      </c>
+      <c r="BB203">
+        <v>1.32</v>
+      </c>
+      <c r="BC203">
+        <v>1.6</v>
+      </c>
+      <c r="BD203">
+        <v>2.01</v>
+      </c>
+      <c r="BE203">
+        <v>2.62</v>
+      </c>
+      <c r="BF203">
+        <v>6</v>
+      </c>
+      <c r="BG203">
+        <v>3</v>
+      </c>
+      <c r="BH203">
+        <v>6</v>
+      </c>
+      <c r="BI203">
+        <v>2</v>
+      </c>
+      <c r="BJ203">
+        <v>12</v>
+      </c>
+      <c r="BK203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:63">
+      <c r="A204" s="1">
+        <v>203</v>
+      </c>
+      <c r="B204">
+        <v>2313577</v>
+      </c>
+      <c r="C204" t="s">
+        <v>63</v>
+      </c>
+      <c r="D204" t="s">
+        <v>64</v>
+      </c>
+      <c r="E204" s="2">
+        <v>44990.35416666666</v>
+      </c>
+      <c r="F204">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>80</v>
+      </c>
+      <c r="H204" t="s">
+        <v>68</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+      <c r="M204">
+        <v>1</v>
+      </c>
+      <c r="N204">
+        <v>2</v>
+      </c>
+      <c r="O204" t="s">
+        <v>212</v>
+      </c>
+      <c r="P204" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q204">
+        <v>5</v>
+      </c>
+      <c r="R204">
+        <v>7</v>
+      </c>
+      <c r="S204">
+        <v>12</v>
+      </c>
+      <c r="T204">
+        <v>2.8</v>
+      </c>
+      <c r="U204">
+        <v>2.05</v>
+      </c>
+      <c r="V204">
+        <v>3.75</v>
+      </c>
+      <c r="W204">
+        <v>1.43</v>
+      </c>
+      <c r="X204">
+        <v>2.65</v>
+      </c>
+      <c r="Y204">
+        <v>2.95</v>
+      </c>
+      <c r="Z204">
+        <v>1.35</v>
+      </c>
+      <c r="AA204">
+        <v>7.4</v>
+      </c>
+      <c r="AB204">
+        <v>1.06</v>
+      </c>
+      <c r="AC204">
+        <v>2.12</v>
+      </c>
+      <c r="AD204">
+        <v>3.25</v>
+      </c>
+      <c r="AE204">
+        <v>3.25</v>
+      </c>
+      <c r="AF204">
+        <v>1.05</v>
+      </c>
+      <c r="AG204">
+        <v>8.5</v>
+      </c>
+      <c r="AH204">
+        <v>1.3</v>
+      </c>
+      <c r="AI204">
+        <v>3.3</v>
+      </c>
+      <c r="AJ204">
+        <v>1.9</v>
+      </c>
+      <c r="AK204">
+        <v>1.79</v>
+      </c>
+      <c r="AL204">
+        <v>1.75</v>
+      </c>
+      <c r="AM204">
+        <v>1.95</v>
+      </c>
+      <c r="AN204">
+        <v>1.28</v>
+      </c>
+      <c r="AO204">
+        <v>1.25</v>
+      </c>
+      <c r="AP204">
+        <v>1.66</v>
+      </c>
+      <c r="AQ204">
+        <v>1.18</v>
+      </c>
+      <c r="AR204">
+        <v>0.73</v>
+      </c>
+      <c r="AS204">
+        <v>1.17</v>
+      </c>
+      <c r="AT204">
+        <v>0.75</v>
+      </c>
+      <c r="AU204">
+        <v>1.44</v>
+      </c>
+      <c r="AV204">
+        <v>1.27</v>
+      </c>
+      <c r="AW204">
+        <v>2.71</v>
+      </c>
+      <c r="AX204">
+        <v>1.82</v>
+      </c>
+      <c r="AY204">
+        <v>8</v>
+      </c>
+      <c r="AZ204">
+        <v>2.33</v>
+      </c>
+      <c r="BA204">
+        <v>1.25</v>
+      </c>
+      <c r="BB204">
+        <v>1.48</v>
+      </c>
+      <c r="BC204">
+        <v>1.9</v>
+      </c>
+      <c r="BD204">
+        <v>2.39</v>
+      </c>
+      <c r="BE204">
+        <v>3.28</v>
+      </c>
+      <c r="BF204">
+        <v>6</v>
+      </c>
+      <c r="BG204">
+        <v>5</v>
+      </c>
+      <c r="BH204">
+        <v>9</v>
+      </c>
+      <c r="BI204">
+        <v>9</v>
+      </c>
+      <c r="BJ204">
+        <v>15</v>
+      </c>
+      <c r="BK204">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="205" spans="1:63">
+      <c r="A205" s="1">
+        <v>204</v>
+      </c>
+      <c r="B205">
+        <v>2313579</v>
+      </c>
+      <c r="C205" t="s">
+        <v>63</v>
+      </c>
+      <c r="D205" t="s">
+        <v>64</v>
+      </c>
+      <c r="E205" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F205">
+        <v>23</v>
+      </c>
+      <c r="G205" t="s">
+        <v>72</v>
+      </c>
+      <c r="H205" t="s">
+        <v>65</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>0</v>
+      </c>
+      <c r="M205">
+        <v>2</v>
+      </c>
+      <c r="N205">
+        <v>2</v>
+      </c>
+      <c r="O205" t="s">
+        <v>84</v>
+      </c>
+      <c r="P205" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q205">
+        <v>7</v>
+      </c>
+      <c r="R205">
+        <v>7</v>
+      </c>
+      <c r="S205">
+        <v>14</v>
+      </c>
+      <c r="T205">
+        <v>3.85</v>
+      </c>
+      <c r="U205">
+        <v>2.12</v>
+      </c>
+      <c r="V205">
+        <v>2.72</v>
+      </c>
+      <c r="W205">
+        <v>1.41</v>
+      </c>
+      <c r="X205">
+        <v>2.79</v>
+      </c>
+      <c r="Y205">
+        <v>2.88</v>
+      </c>
+      <c r="Z205">
+        <v>1.39</v>
+      </c>
+      <c r="AA205">
+        <v>7.4</v>
+      </c>
+      <c r="AB205">
+        <v>1.07</v>
+      </c>
+      <c r="AC205">
+        <v>3.27</v>
+      </c>
+      <c r="AD205">
+        <v>3.18</v>
+      </c>
+      <c r="AE205">
+        <v>2.02</v>
+      </c>
+      <c r="AF205">
+        <v>1.03</v>
+      </c>
+      <c r="AG205">
+        <v>8.5</v>
+      </c>
+      <c r="AH205">
+        <v>1.27</v>
+      </c>
+      <c r="AI205">
+        <v>3.4</v>
+      </c>
+      <c r="AJ205">
+        <v>1.93</v>
+      </c>
+      <c r="AK205">
+        <v>1.77</v>
+      </c>
+      <c r="AL205">
+        <v>1.85</v>
+      </c>
+      <c r="AM205">
+        <v>1.92</v>
+      </c>
+      <c r="AN205">
+        <v>1.65</v>
+      </c>
+      <c r="AO205">
+        <v>1.35</v>
+      </c>
+      <c r="AP205">
+        <v>1.22</v>
+      </c>
+      <c r="AQ205">
+        <v>1.8</v>
+      </c>
+      <c r="AR205">
+        <v>1.91</v>
+      </c>
+      <c r="AS205">
+        <v>1.64</v>
+      </c>
+      <c r="AT205">
+        <v>2</v>
+      </c>
+      <c r="AU205">
+        <v>2.21</v>
+      </c>
+      <c r="AV205">
+        <v>1.93</v>
+      </c>
+      <c r="AW205">
+        <v>4.14</v>
+      </c>
+      <c r="AX205">
+        <v>2.43</v>
+      </c>
+      <c r="AY205">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205">
+        <v>1.75</v>
+      </c>
+      <c r="BA205">
+        <v>1.17</v>
+      </c>
+      <c r="BB205">
+        <v>1.29</v>
+      </c>
+      <c r="BC205">
+        <v>1.54</v>
+      </c>
+      <c r="BD205">
+        <v>2</v>
+      </c>
+      <c r="BE205">
+        <v>2.49</v>
+      </c>
+      <c r="BF205">
+        <v>3</v>
+      </c>
+      <c r="BG205">
+        <v>3</v>
+      </c>
+      <c r="BH205">
+        <v>6</v>
+      </c>
+      <c r="BI205">
+        <v>1</v>
+      </c>
+      <c r="BJ205">
+        <v>9</v>
+      </c>
+      <c r="BK205">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:63">
+      <c r="A206" s="1">
+        <v>205</v>
+      </c>
+      <c r="B206">
+        <v>2313574</v>
+      </c>
+      <c r="C206" t="s">
+        <v>63</v>
+      </c>
+      <c r="D206" t="s">
+        <v>64</v>
+      </c>
+      <c r="E206" s="2">
+        <v>44990.5625</v>
+      </c>
+      <c r="F206">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>75</v>
+      </c>
+      <c r="H206" t="s">
+        <v>77</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+      <c r="M206">
+        <v>1</v>
+      </c>
+      <c r="N206">
+        <v>2</v>
+      </c>
+      <c r="O206" t="s">
+        <v>213</v>
+      </c>
+      <c r="P206" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q206">
+        <v>5</v>
+      </c>
+      <c r="R206">
+        <v>2</v>
+      </c>
+      <c r="S206">
+        <v>7</v>
+      </c>
+      <c r="T206">
+        <v>2.69</v>
+      </c>
+      <c r="U206">
+        <v>2.04</v>
+      </c>
+      <c r="V206">
+        <v>4.33</v>
+      </c>
+      <c r="W206">
+        <v>1.47</v>
+      </c>
+      <c r="X206">
+        <v>2.58</v>
+      </c>
+      <c r="Y206">
+        <v>3.16</v>
+      </c>
+      <c r="Z206">
+        <v>1.33</v>
+      </c>
+      <c r="AA206">
+        <v>8.4</v>
+      </c>
+      <c r="AB206">
+        <v>1.05</v>
+      </c>
+      <c r="AC206">
+        <v>1.75</v>
+      </c>
+      <c r="AD206">
+        <v>3.46</v>
+      </c>
+      <c r="AE206">
+        <v>3.94</v>
+      </c>
+      <c r="AF206">
+        <v>1.04</v>
+      </c>
+      <c r="AG206">
+        <v>7.6</v>
+      </c>
+      <c r="AH206">
+        <v>1.36</v>
+      </c>
+      <c r="AI206">
+        <v>2.82</v>
+      </c>
+      <c r="AJ206">
+        <v>2.06</v>
+      </c>
+      <c r="AK206">
+        <v>1.82</v>
+      </c>
+      <c r="AL206">
+        <v>1.94</v>
+      </c>
+      <c r="AM206">
+        <v>1.81</v>
+      </c>
+      <c r="AN206">
+        <v>1.29</v>
+      </c>
+      <c r="AO206">
+        <v>1.32</v>
+      </c>
+      <c r="AP206">
+        <v>1.75</v>
+      </c>
+      <c r="AQ206">
+        <v>1.82</v>
+      </c>
+      <c r="AR206">
+        <v>1.1</v>
+      </c>
+      <c r="AS206">
+        <v>1.75</v>
+      </c>
+      <c r="AT206">
+        <v>1.09</v>
+      </c>
+      <c r="AU206">
+        <v>1.67</v>
+      </c>
+      <c r="AV206">
+        <v>1.33</v>
+      </c>
+      <c r="AW206">
+        <v>3</v>
+      </c>
+      <c r="AX206">
+        <v>1.75</v>
+      </c>
+      <c r="AY206">
+        <v>8</v>
+      </c>
+      <c r="AZ206">
+        <v>2.44</v>
+      </c>
+      <c r="BA206">
+        <v>1.23</v>
+      </c>
+      <c r="BB206">
+        <v>1.45</v>
+      </c>
+      <c r="BC206">
+        <v>1.8</v>
+      </c>
+      <c r="BD206">
+        <v>2.32</v>
+      </c>
+      <c r="BE206">
+        <v>3.08</v>
+      </c>
+      <c r="BF206">
+        <v>4</v>
+      </c>
+      <c r="BG206">
+        <v>5</v>
+      </c>
+      <c r="BH206">
+        <v>7</v>
+      </c>
+      <c r="BI206">
+        <v>2</v>
+      </c>
+      <c r="BJ206">
+        <v>11</v>
+      </c>
+      <c r="BK206">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -942,6 +942,9 @@
   <si>
     <t>['9']</t>
   </si>
+  <si>
+    <t>['33']</t>
+  </si>
 </sst>
 </file>
 
@@ -1302,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK206"/>
+  <dimension ref="A1:BK207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2588,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT7">
         <v>0.45</v>
@@ -3928,7 +3931,7 @@
         <v>2.27</v>
       </c>
       <c r="AT14">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4501,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="AT17">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4880,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT19">
         <v>1.36</v>
@@ -7939,7 +7942,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU35">
         <v>1.8</v>
@@ -8891,7 +8894,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT40">
         <v>0.83</v>
@@ -11374,7 +11377,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
         <v>0.75</v>
@@ -11759,7 +11762,7 @@
         <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU55">
         <v>2.14</v>
@@ -14815,7 +14818,7 @@
         <v>1</v>
       </c>
       <c r="AT71">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -15385,7 +15388,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT74">
         <v>0.75</v>
@@ -18250,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
         <v>1.09</v>
@@ -18635,7 +18638,7 @@
         <v>0.83</v>
       </c>
       <c r="AT91">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU91">
         <v>1.86</v>
@@ -22261,7 +22264,7 @@
         <v>1</v>
       </c>
       <c r="AS110">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT110">
         <v>1.09</v>
@@ -23219,7 +23222,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU115">
         <v>1.67</v>
@@ -26845,7 +26848,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT134">
         <v>2</v>
@@ -27039,7 +27042,7 @@
         <v>1.33</v>
       </c>
       <c r="AT135">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU135">
         <v>1.58</v>
@@ -29901,7 +29904,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT150">
         <v>1.5</v>
@@ -31432,7 +31435,7 @@
         <v>1.42</v>
       </c>
       <c r="AT158">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU158">
         <v>1.58</v>
@@ -33339,7 +33342,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT168">
         <v>1.18</v>
@@ -36971,7 +36974,7 @@
         <v>1.58</v>
       </c>
       <c r="AT187">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="AU187">
         <v>2.19</v>
@@ -37350,7 +37353,7 @@
         <v>0.7</v>
       </c>
       <c r="AS189">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT189">
         <v>0.75</v>
@@ -40652,6 +40655,197 @@
       </c>
       <c r="BK206">
         <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:63">
+      <c r="A207" s="1">
+        <v>206</v>
+      </c>
+      <c r="B207">
+        <v>2313580</v>
+      </c>
+      <c r="C207" t="s">
+        <v>63</v>
+      </c>
+      <c r="D207" t="s">
+        <v>64</v>
+      </c>
+      <c r="E207" s="2">
+        <v>44991.625</v>
+      </c>
+      <c r="F207">
+        <v>23</v>
+      </c>
+      <c r="G207" t="s">
+        <v>70</v>
+      </c>
+      <c r="H207" t="s">
+        <v>66</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>0</v>
+      </c>
+      <c r="M207">
+        <v>1</v>
+      </c>
+      <c r="N207">
+        <v>1</v>
+      </c>
+      <c r="O207" t="s">
+        <v>84</v>
+      </c>
+      <c r="P207" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q207">
+        <v>8</v>
+      </c>
+      <c r="R207">
+        <v>2</v>
+      </c>
+      <c r="S207">
+        <v>10</v>
+      </c>
+      <c r="T207">
+        <v>2.75</v>
+      </c>
+      <c r="U207">
+        <v>2.1</v>
+      </c>
+      <c r="V207">
+        <v>4</v>
+      </c>
+      <c r="W207">
+        <v>1.44</v>
+      </c>
+      <c r="X207">
+        <v>2.63</v>
+      </c>
+      <c r="Y207">
+        <v>3.25</v>
+      </c>
+      <c r="Z207">
+        <v>1.33</v>
+      </c>
+      <c r="AA207">
+        <v>9</v>
+      </c>
+      <c r="AB207">
+        <v>1.07</v>
+      </c>
+      <c r="AC207">
+        <v>1.85</v>
+      </c>
+      <c r="AD207">
+        <v>3.5</v>
+      </c>
+      <c r="AE207">
+        <v>3.95</v>
+      </c>
+      <c r="AF207">
+        <v>1.07</v>
+      </c>
+      <c r="AG207">
+        <v>7.5</v>
+      </c>
+      <c r="AH207">
+        <v>1.33</v>
+      </c>
+      <c r="AI207">
+        <v>3.1</v>
+      </c>
+      <c r="AJ207">
+        <v>2.08</v>
+      </c>
+      <c r="AK207">
+        <v>1.69</v>
+      </c>
+      <c r="AL207">
+        <v>1.8</v>
+      </c>
+      <c r="AM207">
+        <v>1.95</v>
+      </c>
+      <c r="AN207">
+        <v>1.29</v>
+      </c>
+      <c r="AO207">
+        <v>1.3</v>
+      </c>
+      <c r="AP207">
+        <v>1.71</v>
+      </c>
+      <c r="AQ207">
+        <v>1.27</v>
+      </c>
+      <c r="AR207">
+        <v>1.6</v>
+      </c>
+      <c r="AS207">
+        <v>1.17</v>
+      </c>
+      <c r="AT207">
+        <v>1.73</v>
+      </c>
+      <c r="AU207">
+        <v>1.75</v>
+      </c>
+      <c r="AV207">
+        <v>1.63</v>
+      </c>
+      <c r="AW207">
+        <v>3.38</v>
+      </c>
+      <c r="AX207">
+        <v>1.74</v>
+      </c>
+      <c r="AY207">
+        <v>7.8</v>
+      </c>
+      <c r="AZ207">
+        <v>2.62</v>
+      </c>
+      <c r="BA207">
+        <v>1.23</v>
+      </c>
+      <c r="BB207">
+        <v>1.45</v>
+      </c>
+      <c r="BC207">
+        <v>1.82</v>
+      </c>
+      <c r="BD207">
+        <v>2.32</v>
+      </c>
+      <c r="BE207">
+        <v>3.08</v>
+      </c>
+      <c r="BF207">
+        <v>5</v>
+      </c>
+      <c r="BG207">
+        <v>7</v>
+      </c>
+      <c r="BH207">
+        <v>11</v>
+      </c>
+      <c r="BI207">
+        <v>6</v>
+      </c>
+      <c r="BJ207">
+        <v>16</v>
+      </c>
+      <c r="BK207">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="310">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1305,7 +1305,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK207"/>
+  <dimension ref="A1:BK208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1639,7 +1639,7 @@
         <v>2.82</v>
       </c>
       <c r="AT2">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT8">
         <v>0.83</v>
@@ -5077,7 +5077,7 @@
         <v>1.17</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU20">
         <v>0</v>
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT34">
         <v>0.45</v>
@@ -9470,7 +9470,7 @@
         <v>1.27</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU43">
         <v>1.27</v>
@@ -10040,7 +10040,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -12144,7 +12144,7 @@
         <v>1.75</v>
       </c>
       <c r="AT57">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU57">
         <v>1.76</v>
@@ -13481,7 +13481,7 @@
         <v>1.09</v>
       </c>
       <c r="AT64">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU64">
         <v>1.32</v>
@@ -14624,7 +14624,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT70">
         <v>1.36</v>
@@ -18444,7 +18444,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT90">
         <v>1.25</v>
@@ -19784,7 +19784,7 @@
         <v>1.42</v>
       </c>
       <c r="AT97">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU97">
         <v>1.43</v>
@@ -20739,7 +20739,7 @@
         <v>2.27</v>
       </c>
       <c r="AT102">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU102">
         <v>1.92</v>
@@ -22073,7 +22073,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT109">
         <v>1.75</v>
@@ -26084,7 +26084,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT130">
         <v>1.09</v>
@@ -26851,7 +26851,7 @@
         <v>1.17</v>
       </c>
       <c r="AT134">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU134">
         <v>1.91</v>
@@ -27424,7 +27424,7 @@
         <v>1</v>
       </c>
       <c r="AT137">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU137">
         <v>1.68</v>
@@ -28949,7 +28949,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT145">
         <v>1.09</v>
@@ -34679,7 +34679,7 @@
         <v>1.89</v>
       </c>
       <c r="AS175">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT175">
         <v>1.82</v>
@@ -36592,7 +36592,7 @@
         <v>1.64</v>
       </c>
       <c r="AT185">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU185">
         <v>2.23</v>
@@ -38690,7 +38690,7 @@
         <v>1.36</v>
       </c>
       <c r="AS196">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AT196">
         <v>1.5</v>
@@ -39648,7 +39648,7 @@
         <v>1.5</v>
       </c>
       <c r="AT201">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AU201">
         <v>1.86</v>
@@ -40846,6 +40846,197 @@
       </c>
       <c r="BK207">
         <v>13</v>
+      </c>
+    </row>
+    <row r="208" spans="1:63">
+      <c r="A208" s="1">
+        <v>207</v>
+      </c>
+      <c r="B208">
+        <v>2313546</v>
+      </c>
+      <c r="C208" t="s">
+        <v>63</v>
+      </c>
+      <c r="D208" t="s">
+        <v>64</v>
+      </c>
+      <c r="E208" s="2">
+        <v>44993.61458333334</v>
+      </c>
+      <c r="F208">
+        <v>19</v>
+      </c>
+      <c r="G208" t="s">
+        <v>71</v>
+      </c>
+      <c r="H208" t="s">
+        <v>74</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208">
+        <v>0</v>
+      </c>
+      <c r="K208">
+        <v>0</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>1</v>
+      </c>
+      <c r="O208" t="s">
+        <v>213</v>
+      </c>
+      <c r="P208" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q208">
+        <v>6</v>
+      </c>
+      <c r="R208">
+        <v>8</v>
+      </c>
+      <c r="S208">
+        <v>14</v>
+      </c>
+      <c r="T208">
+        <v>2.8</v>
+      </c>
+      <c r="U208">
+        <v>1.98</v>
+      </c>
+      <c r="V208">
+        <v>3.9</v>
+      </c>
+      <c r="W208">
+        <v>1.46</v>
+      </c>
+      <c r="X208">
+        <v>2.5</v>
+      </c>
+      <c r="Y208">
+        <v>3.1</v>
+      </c>
+      <c r="Z208">
+        <v>1.33</v>
+      </c>
+      <c r="AA208">
+        <v>8.25</v>
+      </c>
+      <c r="AB208">
+        <v>1.06</v>
+      </c>
+      <c r="AC208">
+        <v>2.49</v>
+      </c>
+      <c r="AD208">
+        <v>3.2</v>
+      </c>
+      <c r="AE208">
+        <v>2.8</v>
+      </c>
+      <c r="AF208">
+        <v>1.08</v>
+      </c>
+      <c r="AG208">
+        <v>7</v>
+      </c>
+      <c r="AH208">
+        <v>1.36</v>
+      </c>
+      <c r="AI208">
+        <v>2.95</v>
+      </c>
+      <c r="AJ208">
+        <v>2</v>
+      </c>
+      <c r="AK208">
+        <v>1.7</v>
+      </c>
+      <c r="AL208">
+        <v>1.9</v>
+      </c>
+      <c r="AM208">
+        <v>1.78</v>
+      </c>
+      <c r="AN208">
+        <v>1.29</v>
+      </c>
+      <c r="AO208">
+        <v>1.34</v>
+      </c>
+      <c r="AP208">
+        <v>1.66</v>
+      </c>
+      <c r="AQ208">
+        <v>1.9</v>
+      </c>
+      <c r="AR208">
+        <v>2</v>
+      </c>
+      <c r="AS208">
+        <v>2</v>
+      </c>
+      <c r="AT208">
+        <v>1.83</v>
+      </c>
+      <c r="AU208">
+        <v>1.64</v>
+      </c>
+      <c r="AV208">
+        <v>1.17</v>
+      </c>
+      <c r="AW208">
+        <v>2.81</v>
+      </c>
+      <c r="AX208">
+        <v>1.75</v>
+      </c>
+      <c r="AY208">
+        <v>8</v>
+      </c>
+      <c r="AZ208">
+        <v>2.44</v>
+      </c>
+      <c r="BA208">
+        <v>1.23</v>
+      </c>
+      <c r="BB208">
+        <v>1.44</v>
+      </c>
+      <c r="BC208">
+        <v>1.75</v>
+      </c>
+      <c r="BD208">
+        <v>2.2</v>
+      </c>
+      <c r="BE208">
+        <v>2.9</v>
+      </c>
+      <c r="BF208">
+        <v>6</v>
+      </c>
+      <c r="BG208">
+        <v>4</v>
+      </c>
+      <c r="BH208">
+        <v>7</v>
+      </c>
+      <c r="BI208">
+        <v>11</v>
+      </c>
+      <c r="BJ208">
+        <v>13</v>
+      </c>
+      <c r="BK208">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1305" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -656,6 +656,12 @@
   </si>
   <si>
     <t>['54']</t>
+  </si>
+  <si>
+    <t>['48', '75', '88', '90+4']</t>
+  </si>
+  <si>
+    <t>['36', '49', '55', '62']</t>
   </si>
   <si>
     <t>['14', '64']</t>
@@ -1305,7 +1311,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK208"/>
+  <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1636,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT2">
         <v>1.83</v>
@@ -1830,7 +1836,7 @@
         <v>0.83</v>
       </c>
       <c r="AT3">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1931,7 +1937,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2313,7 +2319,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2594,7 +2600,7 @@
         <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -3077,7 +3083,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3268,7 +3274,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3459,7 +3465,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -4032,7 +4038,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4414,7 +4420,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4796,7 +4802,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4987,7 +4993,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5369,7 +5375,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5560,7 +5566,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5647,7 +5653,7 @@
         <v>3</v>
       </c>
       <c r="AS23">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT23">
         <v>1.18</v>
@@ -5751,7 +5757,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6032,7 +6038,7 @@
         <v>1.27</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>0.96</v>
@@ -6515,7 +6521,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6602,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT28">
         <v>0.75</v>
@@ -6706,7 +6712,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -7088,7 +7094,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7751,7 +7757,7 @@
         <v>2</v>
       </c>
       <c r="AT34">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU34">
         <v>2.47</v>
@@ -8043,7 +8049,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8425,7 +8431,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8616,7 +8622,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -8998,7 +9004,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9085,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT41">
         <v>0.75</v>
@@ -9279,7 +9285,7 @@
         <v>1.58</v>
       </c>
       <c r="AT42">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU42">
         <v>2.44</v>
@@ -9571,7 +9577,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9661,7 +9667,7 @@
         <v>1.45</v>
       </c>
       <c r="AT44">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU44">
         <v>1.43</v>
@@ -9762,7 +9768,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9953,7 +9959,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10144,7 +10150,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10526,7 +10532,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10908,7 +10914,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11290,7 +11296,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11863,7 +11869,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12054,7 +12060,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12245,7 +12251,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12714,7 +12720,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT60">
         <v>1.5</v>
@@ -12818,7 +12824,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12905,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="AS61">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT61">
         <v>1.82</v>
@@ -13290,7 +13296,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.39</v>
@@ -13478,7 +13484,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT64">
         <v>1.83</v>
@@ -13773,7 +13779,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13964,7 +13970,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14436,7 +14442,7 @@
         <v>1</v>
       </c>
       <c r="AT69">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU69">
         <v>1.74</v>
@@ -14537,7 +14543,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14728,7 +14734,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15492,7 +15498,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15683,7 +15689,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15874,7 +15880,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16152,7 +16158,7 @@
         <v>1.75</v>
       </c>
       <c r="AS78">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT78">
         <v>1.75</v>
@@ -16537,7 +16543,7 @@
         <v>1</v>
       </c>
       <c r="AT80">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.83</v>
@@ -16638,7 +16644,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16728,7 +16734,7 @@
         <v>2.27</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU81">
         <v>1.71</v>
@@ -16829,7 +16835,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -17020,7 +17026,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17107,7 +17113,7 @@
         <v>0.75</v>
       </c>
       <c r="AS83">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT83">
         <v>0.75</v>
@@ -17298,7 +17304,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT84">
         <v>1.64</v>
@@ -17593,7 +17599,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -18166,7 +18172,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18548,7 +18554,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18930,7 +18936,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19121,7 +19127,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19694,7 +19700,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20076,7 +20082,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20267,7 +20273,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -21031,7 +21037,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21500,10 +21506,10 @@
         <v>0.2</v>
       </c>
       <c r="AS106">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT106">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU106">
         <v>1.84</v>
@@ -21604,7 +21610,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21795,7 +21801,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21986,7 +21992,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22267,7 +22273,7 @@
         <v>1.17</v>
       </c>
       <c r="AT110">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.98</v>
@@ -22368,7 +22374,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22455,7 +22461,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT111">
         <v>2</v>
@@ -23323,7 +23329,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23604,7 +23610,7 @@
         <v>1.5</v>
       </c>
       <c r="AT117">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU117">
         <v>1.75</v>
@@ -23705,7 +23711,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23896,7 +23902,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -24174,7 +24180,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT120">
         <v>0.75</v>
@@ -24469,7 +24475,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24851,7 +24857,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -25042,7 +25048,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25233,7 +25239,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25806,7 +25812,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25997,7 +26003,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26087,7 +26093,7 @@
         <v>2</v>
       </c>
       <c r="AT130">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.76</v>
@@ -26188,7 +26194,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26466,7 +26472,7 @@
         <v>1.71</v>
       </c>
       <c r="AS132">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT132">
         <v>1.18</v>
@@ -26570,7 +26576,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26761,7 +26767,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27334,7 +27340,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27716,7 +27722,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27994,7 +28000,7 @@
         <v>1.13</v>
       </c>
       <c r="AS140">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT140">
         <v>0.75</v>
@@ -28188,7 +28194,7 @@
         <v>1.17</v>
       </c>
       <c r="AT141">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU141">
         <v>1.48</v>
@@ -28289,7 +28295,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28480,7 +28486,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -29053,7 +29059,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29244,7 +29250,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29334,7 +29340,7 @@
         <v>0.83</v>
       </c>
       <c r="AT147">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU147">
         <v>1.81</v>
@@ -29435,7 +29441,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29626,7 +29632,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29817,7 +29823,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -30008,7 +30014,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30095,7 +30101,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT151">
         <v>1.25</v>
@@ -30477,7 +30483,7 @@
         <v>1.71</v>
       </c>
       <c r="AS153">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT153">
         <v>1.36</v>
@@ -31154,7 +31160,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31345,7 +31351,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31536,7 +31542,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31727,7 +31733,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -32005,7 +32011,7 @@
         <v>1</v>
       </c>
       <c r="AS161">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT161">
         <v>0.75</v>
@@ -32300,7 +32306,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32769,7 +32775,7 @@
         <v>1</v>
       </c>
       <c r="AS165">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT165">
         <v>1.25</v>
@@ -32873,7 +32879,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33064,7 +33070,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33536,7 +33542,7 @@
         <v>1.58</v>
       </c>
       <c r="AT169">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU169">
         <v>2.23</v>
@@ -33637,7 +33643,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33727,7 +33733,7 @@
         <v>1.64</v>
       </c>
       <c r="AT170">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU170">
         <v>2.19</v>
@@ -34297,7 +34303,7 @@
         <v>1.78</v>
       </c>
       <c r="AS173">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT173">
         <v>1.64</v>
@@ -34401,7 +34407,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34592,7 +34598,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34974,7 +34980,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35356,7 +35362,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35547,7 +35553,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35637,7 +35643,7 @@
         <v>1</v>
       </c>
       <c r="AT180">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU180">
         <v>1.51</v>
@@ -36019,7 +36025,7 @@
         <v>1.5</v>
       </c>
       <c r="AT182">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU182">
         <v>1.91</v>
@@ -36398,7 +36404,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AT184">
         <v>1.36</v>
@@ -36502,7 +36508,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36693,7 +36699,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36884,7 +36890,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37075,7 +37081,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37457,7 +37463,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37648,7 +37654,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37839,7 +37845,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -38030,7 +38036,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38221,7 +38227,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38308,7 +38314,7 @@
         <v>1.5</v>
       </c>
       <c r="AS194">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AT194">
         <v>1.64</v>
@@ -38412,7 +38418,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38603,7 +38609,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38985,7 +38991,7 @@
         <v>210</v>
       </c>
       <c r="P198" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39075,7 +39081,7 @@
         <v>0.83</v>
       </c>
       <c r="AT198">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="AU198">
         <v>1.87</v>
@@ -39176,7 +39182,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -39558,7 +39564,7 @@
         <v>84</v>
       </c>
       <c r="P201" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39940,7 +39946,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40131,7 +40137,7 @@
         <v>212</v>
       </c>
       <c r="P204" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40322,7 +40328,7 @@
         <v>84</v>
       </c>
       <c r="P205" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40513,7 +40519,7 @@
         <v>213</v>
       </c>
       <c r="P206" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40603,7 +40609,7 @@
         <v>1.75</v>
       </c>
       <c r="AT206">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU206">
         <v>1.67</v>
@@ -40704,7 +40710,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q207">
         <v>8</v>
@@ -41037,6 +41043,388 @@
       </c>
       <c r="BK208">
         <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:63">
+      <c r="A209" s="1">
+        <v>208</v>
+      </c>
+      <c r="B209">
+        <v>2313587</v>
+      </c>
+      <c r="C209" t="s">
+        <v>63</v>
+      </c>
+      <c r="D209" t="s">
+        <v>64</v>
+      </c>
+      <c r="E209" s="2">
+        <v>44995.58333333334</v>
+      </c>
+      <c r="F209">
+        <v>24</v>
+      </c>
+      <c r="G209" t="s">
+        <v>82</v>
+      </c>
+      <c r="H209" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209">
+        <v>0</v>
+      </c>
+      <c r="K209">
+        <v>0</v>
+      </c>
+      <c r="L209">
+        <v>4</v>
+      </c>
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>4</v>
+      </c>
+      <c r="O209" t="s">
+        <v>214</v>
+      </c>
+      <c r="P209" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q209">
+        <v>4</v>
+      </c>
+      <c r="R209">
+        <v>4</v>
+      </c>
+      <c r="S209">
+        <v>8</v>
+      </c>
+      <c r="T209">
+        <v>3.18</v>
+      </c>
+      <c r="U209">
+        <v>2.06</v>
+      </c>
+      <c r="V209">
+        <v>3.42</v>
+      </c>
+      <c r="W209">
+        <v>1.41</v>
+      </c>
+      <c r="X209">
+        <v>2.79</v>
+      </c>
+      <c r="Y209">
+        <v>2.75</v>
+      </c>
+      <c r="Z209">
+        <v>1.42</v>
+      </c>
+      <c r="AA209">
+        <v>6.9</v>
+      </c>
+      <c r="AB209">
+        <v>1.08</v>
+      </c>
+      <c r="AC209">
+        <v>2.25</v>
+      </c>
+      <c r="AD209">
+        <v>3.55</v>
+      </c>
+      <c r="AE209">
+        <v>2.85</v>
+      </c>
+      <c r="AF209">
+        <v>1.02</v>
+      </c>
+      <c r="AG209">
+        <v>8.6</v>
+      </c>
+      <c r="AH209">
+        <v>1.26</v>
+      </c>
+      <c r="AI209">
+        <v>3.4</v>
+      </c>
+      <c r="AJ209">
+        <v>1.93</v>
+      </c>
+      <c r="AK209">
+        <v>1.93</v>
+      </c>
+      <c r="AL209">
+        <v>1.68</v>
+      </c>
+      <c r="AM209">
+        <v>2.11</v>
+      </c>
+      <c r="AN209">
+        <v>1.44</v>
+      </c>
+      <c r="AO209">
+        <v>1.3</v>
+      </c>
+      <c r="AP209">
+        <v>1.5</v>
+      </c>
+      <c r="AQ209">
+        <v>1.09</v>
+      </c>
+      <c r="AR209">
+        <v>0.45</v>
+      </c>
+      <c r="AS209">
+        <v>1.25</v>
+      </c>
+      <c r="AT209">
+        <v>0.42</v>
+      </c>
+      <c r="AU209">
+        <v>1.45</v>
+      </c>
+      <c r="AV209">
+        <v>1.42</v>
+      </c>
+      <c r="AW209">
+        <v>2.87</v>
+      </c>
+      <c r="AX209">
+        <v>2</v>
+      </c>
+      <c r="AY209">
+        <v>8</v>
+      </c>
+      <c r="AZ209">
+        <v>2</v>
+      </c>
+      <c r="BA209">
+        <v>1.2</v>
+      </c>
+      <c r="BB209">
+        <v>1.4</v>
+      </c>
+      <c r="BC209">
+        <v>1.73</v>
+      </c>
+      <c r="BD209">
+        <v>2.17</v>
+      </c>
+      <c r="BE209">
+        <v>2.88</v>
+      </c>
+      <c r="BF209">
+        <v>6</v>
+      </c>
+      <c r="BG209">
+        <v>3</v>
+      </c>
+      <c r="BH209">
+        <v>6</v>
+      </c>
+      <c r="BI209">
+        <v>10</v>
+      </c>
+      <c r="BJ209">
+        <v>12</v>
+      </c>
+      <c r="BK209">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:63">
+      <c r="A210" s="1">
+        <v>209</v>
+      </c>
+      <c r="B210">
+        <v>2313589</v>
+      </c>
+      <c r="C210" t="s">
+        <v>63</v>
+      </c>
+      <c r="D210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E210" s="2">
+        <v>44995.6875</v>
+      </c>
+      <c r="F210">
+        <v>24</v>
+      </c>
+      <c r="G210" t="s">
+        <v>65</v>
+      </c>
+      <c r="H210" t="s">
+        <v>77</v>
+      </c>
+      <c r="I210">
+        <v>1</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>4</v>
+      </c>
+      <c r="M210">
+        <v>1</v>
+      </c>
+      <c r="N210">
+        <v>5</v>
+      </c>
+      <c r="O210" t="s">
+        <v>215</v>
+      </c>
+      <c r="P210" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q210">
+        <v>10</v>
+      </c>
+      <c r="R210">
+        <v>6</v>
+      </c>
+      <c r="S210">
+        <v>16</v>
+      </c>
+      <c r="T210">
+        <v>1.8</v>
+      </c>
+      <c r="U210">
+        <v>2.3</v>
+      </c>
+      <c r="V210">
+        <v>8</v>
+      </c>
+      <c r="W210">
+        <v>1.37</v>
+      </c>
+      <c r="X210">
+        <v>2.85</v>
+      </c>
+      <c r="Y210">
+        <v>2.6</v>
+      </c>
+      <c r="Z210">
+        <v>1.43</v>
+      </c>
+      <c r="AA210">
+        <v>6.5</v>
+      </c>
+      <c r="AB210">
+        <v>1.1</v>
+      </c>
+      <c r="AC210">
+        <v>1.3</v>
+      </c>
+      <c r="AD210">
+        <v>4.8</v>
+      </c>
+      <c r="AE210">
+        <v>10.5</v>
+      </c>
+      <c r="AF210">
+        <v>1.05</v>
+      </c>
+      <c r="AG210">
+        <v>9</v>
+      </c>
+      <c r="AH210">
+        <v>1.25</v>
+      </c>
+      <c r="AI210">
+        <v>3.75</v>
+      </c>
+      <c r="AJ210">
+        <v>1.83</v>
+      </c>
+      <c r="AK210">
+        <v>1.95</v>
+      </c>
+      <c r="AL210">
+        <v>2.25</v>
+      </c>
+      <c r="AM210">
+        <v>1.57</v>
+      </c>
+      <c r="AN210">
+        <v>1.06</v>
+      </c>
+      <c r="AO210">
+        <v>1.17</v>
+      </c>
+      <c r="AP210">
+        <v>3.25</v>
+      </c>
+      <c r="AQ210">
+        <v>2.82</v>
+      </c>
+      <c r="AR210">
+        <v>1.09</v>
+      </c>
+      <c r="AS210">
+        <v>2.83</v>
+      </c>
+      <c r="AT210">
+        <v>1</v>
+      </c>
+      <c r="AU210">
+        <v>1.94</v>
+      </c>
+      <c r="AV210">
+        <v>1.32</v>
+      </c>
+      <c r="AW210">
+        <v>3.26</v>
+      </c>
+      <c r="AX210">
+        <v>1.19</v>
+      </c>
+      <c r="AY210">
+        <v>11</v>
+      </c>
+      <c r="AZ210">
+        <v>5.65</v>
+      </c>
+      <c r="BA210">
+        <v>1.34</v>
+      </c>
+      <c r="BB210">
+        <v>1.64</v>
+      </c>
+      <c r="BC210">
+        <v>2.09</v>
+      </c>
+      <c r="BD210">
+        <v>2.76</v>
+      </c>
+      <c r="BE210">
+        <v>3.74</v>
+      </c>
+      <c r="BF210">
+        <v>8</v>
+      </c>
+      <c r="BG210">
+        <v>4</v>
+      </c>
+      <c r="BH210">
+        <v>6</v>
+      </c>
+      <c r="BI210">
+        <v>2</v>
+      </c>
+      <c r="BJ210">
+        <v>14</v>
+      </c>
+      <c r="BK210">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="316">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -664,6 +664,18 @@
     <t>['36', '49', '55', '62']</t>
   </si>
   <si>
+    <t>['44', '90+3']</t>
+  </si>
+  <si>
+    <t>['27', '45+2']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['49', '84']</t>
+  </si>
+  <si>
     <t>['14', '64']</t>
   </si>
   <si>
@@ -758,9 +770,6 @@
   </si>
   <si>
     <t>['5', '33']</t>
-  </si>
-  <si>
-    <t>['64']</t>
   </si>
   <si>
     <t>['33', '67']</t>
@@ -950,6 +959,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1323,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK210"/>
+  <dimension ref="A1:BK216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1833,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT3">
         <v>1</v>
@@ -1937,7 +1949,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -2027,7 +2039,7 @@
         <v>1.58</v>
       </c>
       <c r="AT4">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2215,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT5">
         <v>1.25</v>
@@ -2319,7 +2331,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2406,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT6">
         <v>1.75</v>
@@ -3083,7 +3095,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q10">
         <v>12</v>
@@ -3173,7 +3185,7 @@
         <v>0.83</v>
       </c>
       <c r="AT10">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3274,7 +3286,7 @@
         <v>84</v>
       </c>
       <c r="P11" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q11">
         <v>7</v>
@@ -3465,7 +3477,7 @@
         <v>84</v>
       </c>
       <c r="P12" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q12">
         <v>8</v>
@@ -3552,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT12">
         <v>1.64</v>
@@ -3934,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT14">
         <v>1.73</v>
@@ -4038,7 +4050,7 @@
         <v>91</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q15">
         <v>4</v>
@@ -4128,7 +4140,7 @@
         <v>1.42</v>
       </c>
       <c r="AT15">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4319,7 +4331,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4420,7 +4432,7 @@
         <v>84</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4802,7 +4814,7 @@
         <v>84</v>
       </c>
       <c r="P19" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q19">
         <v>6</v>
@@ -4892,7 +4904,7 @@
         <v>1.17</v>
       </c>
       <c r="AT19">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>2.38</v>
@@ -4993,7 +5005,7 @@
         <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5375,7 +5387,7 @@
         <v>96</v>
       </c>
       <c r="P22" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>14</v>
@@ -5566,7 +5578,7 @@
         <v>97</v>
       </c>
       <c r="P23" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -5656,7 +5668,7 @@
         <v>2.83</v>
       </c>
       <c r="AT23">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU23">
         <v>1.6</v>
@@ -5757,7 +5769,7 @@
         <v>98</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q24">
         <v>6</v>
@@ -6035,7 +6047,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT25">
         <v>1</v>
@@ -6229,7 +6241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU26">
         <v>1.37</v>
@@ -6417,7 +6429,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT27">
         <v>1.25</v>
@@ -6521,7 +6533,7 @@
         <v>84</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q28">
         <v>6</v>
@@ -6712,7 +6724,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q29">
         <v>1</v>
@@ -6799,10 +6811,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT29">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.71</v>
@@ -7094,7 +7106,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q31">
         <v>6</v>
@@ -7184,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU31">
         <v>1.16</v>
@@ -7372,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT32">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU32">
         <v>1.5</v>
@@ -8049,7 +8061,7 @@
         <v>107</v>
       </c>
       <c r="P36" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q36">
         <v>9</v>
@@ -8431,7 +8443,7 @@
         <v>108</v>
       </c>
       <c r="P38" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q38">
         <v>9</v>
@@ -8521,7 +8533,7 @@
         <v>0.83</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>1.6</v>
@@ -8622,7 +8634,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q39">
         <v>14</v>
@@ -9004,7 +9016,7 @@
         <v>111</v>
       </c>
       <c r="P41" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q41">
         <v>4</v>
@@ -9473,7 +9485,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT43">
         <v>1.83</v>
@@ -9577,7 +9589,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q44">
         <v>5</v>
@@ -9664,7 +9676,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT44">
         <v>0.42</v>
@@ -9768,7 +9780,7 @@
         <v>113</v>
       </c>
       <c r="P45" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q45">
         <v>3</v>
@@ -9855,10 +9867,10 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT45">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>1.55</v>
@@ -9959,7 +9971,7 @@
         <v>114</v>
       </c>
       <c r="P46" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -10150,7 +10162,7 @@
         <v>115</v>
       </c>
       <c r="P47" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q47">
         <v>5</v>
@@ -10240,7 +10252,7 @@
         <v>1.42</v>
       </c>
       <c r="AT47">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU47">
         <v>1.71</v>
@@ -10532,7 +10544,7 @@
         <v>84</v>
       </c>
       <c r="P49" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q49">
         <v>8</v>
@@ -10619,10 +10631,10 @@
         <v>2</v>
       </c>
       <c r="AS49">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT49">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU49">
         <v>1.99</v>
@@ -10813,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="AT50">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU50">
         <v>1.35</v>
@@ -10914,7 +10926,7 @@
         <v>117</v>
       </c>
       <c r="P51" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -11296,7 +11308,7 @@
         <v>84</v>
       </c>
       <c r="P53" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q53">
         <v>9</v>
@@ -11869,7 +11881,7 @@
         <v>120</v>
       </c>
       <c r="P56" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q56">
         <v>6</v>
@@ -12060,7 +12072,7 @@
         <v>84</v>
       </c>
       <c r="P57" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q57">
         <v>6</v>
@@ -12251,7 +12263,7 @@
         <v>104</v>
       </c>
       <c r="P58" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -12723,7 +12735,7 @@
         <v>2.83</v>
       </c>
       <c r="AT60">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU60">
         <v>1.63</v>
@@ -12824,7 +12836,7 @@
         <v>84</v>
       </c>
       <c r="P61" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q61">
         <v>2</v>
@@ -12914,7 +12926,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU61">
         <v>1.22</v>
@@ -13102,10 +13114,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT62">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13779,7 +13791,7 @@
         <v>126</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q66">
         <v>7</v>
@@ -13866,7 +13878,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT66">
         <v>0.75</v>
@@ -13970,7 +13982,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q67">
         <v>8</v>
@@ -14057,10 +14069,10 @@
         <v>1</v>
       </c>
       <c r="AS67">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT67">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU67">
         <v>1.41</v>
@@ -14543,7 +14555,7 @@
         <v>130</v>
       </c>
       <c r="P70" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3</v>
@@ -14633,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="AT70">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU70">
         <v>1.98</v>
@@ -14734,7 +14746,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q71">
         <v>5</v>
@@ -15015,7 +15027,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU72">
         <v>1.87</v>
@@ -15498,7 +15510,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q75">
         <v>5</v>
@@ -15689,7 +15701,7 @@
         <v>136</v>
       </c>
       <c r="P76" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q76">
         <v>1</v>
@@ -15880,7 +15892,7 @@
         <v>137</v>
       </c>
       <c r="P77" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15970,7 +15982,7 @@
         <v>1.64</v>
       </c>
       <c r="AT77">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU77">
         <v>2.16</v>
@@ -16349,10 +16361,10 @@
         <v>1.5</v>
       </c>
       <c r="AS79">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT79">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU79">
         <v>1.75</v>
@@ -16644,7 +16656,7 @@
         <v>141</v>
       </c>
       <c r="P81" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16731,7 +16743,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT81">
         <v>0.42</v>
@@ -16835,7 +16847,7 @@
         <v>84</v>
       </c>
       <c r="P82" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>11</v>
@@ -17026,7 +17038,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>2</v>
@@ -17307,7 +17319,7 @@
         <v>2.83</v>
       </c>
       <c r="AT84">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU84">
         <v>1.8</v>
@@ -17498,7 +17510,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU85">
         <v>1.64</v>
@@ -17599,7 +17611,7 @@
         <v>145</v>
       </c>
       <c r="P86" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q86">
         <v>5</v>
@@ -17686,10 +17698,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT86">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU86">
         <v>1.45</v>
@@ -17877,7 +17889,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT87">
         <v>0.75</v>
@@ -18071,7 +18083,7 @@
         <v>1</v>
       </c>
       <c r="AT88">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU88">
         <v>1.62</v>
@@ -18172,7 +18184,7 @@
         <v>84</v>
       </c>
       <c r="P89" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18262,7 +18274,7 @@
         <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU89">
         <v>2.01</v>
@@ -18554,7 +18566,7 @@
         <v>148</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>1</v>
@@ -18936,7 +18948,7 @@
         <v>149</v>
       </c>
       <c r="P93" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q93">
         <v>9</v>
@@ -19127,7 +19139,7 @@
         <v>84</v>
       </c>
       <c r="P94" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -19217,7 +19229,7 @@
         <v>1.17</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU94">
         <v>1.57</v>
@@ -19405,7 +19417,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT95">
         <v>0.75</v>
@@ -19700,7 +19712,7 @@
         <v>84</v>
       </c>
       <c r="P97" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q97">
         <v>9</v>
@@ -20082,7 +20094,7 @@
         <v>151</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20172,7 +20184,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU99">
         <v>1.47</v>
@@ -20273,7 +20285,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20360,7 +20372,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT100">
         <v>0.75</v>
@@ -20554,7 +20566,7 @@
         <v>1.42</v>
       </c>
       <c r="AT101">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU101">
         <v>1.5</v>
@@ -20742,7 +20754,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT102">
         <v>1.83</v>
@@ -21037,7 +21049,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q104">
         <v>6</v>
@@ -21124,7 +21136,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT104">
         <v>0.75</v>
@@ -21318,7 +21330,7 @@
         <v>1.58</v>
       </c>
       <c r="AT105">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU105">
         <v>2.12</v>
@@ -21610,7 +21622,7 @@
         <v>156</v>
       </c>
       <c r="P107" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>3</v>
@@ -21801,7 +21813,7 @@
         <v>84</v>
       </c>
       <c r="P108" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q108">
         <v>10</v>
@@ -21888,10 +21900,10 @@
         <v>1.5</v>
       </c>
       <c r="AS108">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT108">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU108">
         <v>1.49</v>
@@ -21992,7 +22004,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -22374,7 +22386,7 @@
         <v>84</v>
       </c>
       <c r="P111" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23037,7 +23049,7 @@
         <v>1.17</v>
       </c>
       <c r="AT114">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU114">
         <v>1.54</v>
@@ -23329,7 +23341,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q116">
         <v>4</v>
@@ -23419,7 +23431,7 @@
         <v>0.83</v>
       </c>
       <c r="AT116">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU116">
         <v>1.87</v>
@@ -23711,7 +23723,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q118">
         <v>5</v>
@@ -23902,7 +23914,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q119">
         <v>8</v>
@@ -23989,10 +24001,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT119">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU119">
         <v>1.89</v>
@@ -24374,7 +24386,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU121">
         <v>1.54</v>
@@ -24475,7 +24487,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>8</v>
@@ -24756,7 +24768,7 @@
         <v>1.75</v>
       </c>
       <c r="AT123">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU123">
         <v>1.65</v>
@@ -24857,7 +24869,7 @@
         <v>130</v>
       </c>
       <c r="P124" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q124">
         <v>6</v>
@@ -24947,7 +24959,7 @@
         <v>1</v>
       </c>
       <c r="AT124">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU124">
         <v>1.74</v>
@@ -25048,7 +25060,7 @@
         <v>84</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q125">
         <v>7</v>
@@ -25135,7 +25147,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT125">
         <v>0.83</v>
@@ -25239,7 +25251,7 @@
         <v>167</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q126">
         <v>3</v>
@@ -25329,7 +25341,7 @@
         <v>1.17</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25708,7 +25720,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT128">
         <v>1.25</v>
@@ -25812,7 +25824,7 @@
         <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q129">
         <v>5</v>
@@ -25899,7 +25911,7 @@
         <v>1.14</v>
       </c>
       <c r="AS129">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT129">
         <v>1.75</v>
@@ -26003,7 +26015,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q130">
         <v>1</v>
@@ -26194,7 +26206,7 @@
         <v>84</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q131">
         <v>5</v>
@@ -26281,10 +26293,10 @@
         <v>1.33</v>
       </c>
       <c r="AS131">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT131">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU131">
         <v>2.09</v>
@@ -26475,7 +26487,7 @@
         <v>1.25</v>
       </c>
       <c r="AT132">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU132">
         <v>1.45</v>
@@ -26576,7 +26588,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q133">
         <v>1</v>
@@ -26767,7 +26779,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -27236,7 +27248,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT136">
         <v>0.83</v>
@@ -27340,7 +27352,7 @@
         <v>84</v>
       </c>
       <c r="P137" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27722,7 +27734,7 @@
         <v>176</v>
       </c>
       <c r="P139" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q139">
         <v>7</v>
@@ -27812,7 +27824,7 @@
         <v>1.64</v>
       </c>
       <c r="AT139">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU139">
         <v>2.23</v>
@@ -28295,7 +28307,7 @@
         <v>179</v>
       </c>
       <c r="P142" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q142">
         <v>15</v>
@@ -28385,7 +28397,7 @@
         <v>1.5</v>
       </c>
       <c r="AT142">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU142">
         <v>1.72</v>
@@ -28486,7 +28498,7 @@
         <v>180</v>
       </c>
       <c r="P143" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q143">
         <v>11</v>
@@ -28767,7 +28779,7 @@
         <v>1</v>
       </c>
       <c r="AT144">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU144">
         <v>1.45</v>
@@ -28958,7 +28970,7 @@
         <v>2</v>
       </c>
       <c r="AT145">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU145">
         <v>1.69</v>
@@ -29059,7 +29071,7 @@
         <v>84</v>
       </c>
       <c r="P146" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q146">
         <v>3</v>
@@ -29146,7 +29158,7 @@
         <v>1.63</v>
       </c>
       <c r="AS146">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT146">
         <v>1.64</v>
@@ -29250,7 +29262,7 @@
         <v>84</v>
       </c>
       <c r="P147" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2</v>
@@ -29441,7 +29453,7 @@
         <v>154</v>
       </c>
       <c r="P148" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q148">
         <v>2</v>
@@ -29528,10 +29540,10 @@
         <v>2</v>
       </c>
       <c r="AS148">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT148">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU148">
         <v>1.92</v>
@@ -29632,7 +29644,7 @@
         <v>147</v>
       </c>
       <c r="P149" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q149">
         <v>5</v>
@@ -29719,7 +29731,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT149">
         <v>2</v>
@@ -29823,7 +29835,7 @@
         <v>96</v>
       </c>
       <c r="P150" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q150">
         <v>5</v>
@@ -29913,7 +29925,7 @@
         <v>1.17</v>
       </c>
       <c r="AT150">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU150">
         <v>1.83</v>
@@ -30014,7 +30026,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30486,7 +30498,7 @@
         <v>1.25</v>
       </c>
       <c r="AT153">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU153">
         <v>1.53</v>
@@ -30677,7 +30689,7 @@
         <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU154">
         <v>1.44</v>
@@ -30868,7 +30880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT155">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU155">
         <v>1.59</v>
@@ -31160,7 +31172,7 @@
         <v>186</v>
       </c>
       <c r="P157" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q157">
         <v>4</v>
@@ -31250,7 +31262,7 @@
         <v>1.5</v>
       </c>
       <c r="AT157">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU157">
         <v>1.89</v>
@@ -31351,7 +31363,7 @@
         <v>84</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -31542,7 +31554,7 @@
         <v>187</v>
       </c>
       <c r="P159" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q159">
         <v>9</v>
@@ -31733,7 +31745,7 @@
         <v>188</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q160">
         <v>9</v>
@@ -31820,7 +31832,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT160">
         <v>0.75</v>
@@ -32205,7 +32217,7 @@
         <v>1.75</v>
       </c>
       <c r="AT162">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU162">
         <v>1.61</v>
@@ -32306,7 +32318,7 @@
         <v>191</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>2</v>
@@ -32396,7 +32408,7 @@
         <v>1.17</v>
       </c>
       <c r="AT163">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU163">
         <v>1.46</v>
@@ -32879,7 +32891,7 @@
         <v>194</v>
       </c>
       <c r="P166" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q166">
         <v>5</v>
@@ -33070,7 +33082,7 @@
         <v>152</v>
       </c>
       <c r="P167" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33157,7 +33169,7 @@
         <v>1.33</v>
       </c>
       <c r="AS167">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT167">
         <v>1.75</v>
@@ -33351,7 +33363,7 @@
         <v>1.17</v>
       </c>
       <c r="AT168">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU168">
         <v>1.79</v>
@@ -33643,7 +33655,7 @@
         <v>84</v>
       </c>
       <c r="P170" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q170">
         <v>9</v>
@@ -33921,10 +33933,10 @@
         <v>1.38</v>
       </c>
       <c r="AS171">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT171">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU171">
         <v>1.48</v>
@@ -34407,7 +34419,7 @@
         <v>187</v>
       </c>
       <c r="P174" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q174">
         <v>5</v>
@@ -34598,7 +34610,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q175">
         <v>5</v>
@@ -34688,7 +34700,7 @@
         <v>2</v>
       </c>
       <c r="AT175">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU175">
         <v>1.69</v>
@@ -34876,10 +34888,10 @@
         <v>1.5</v>
       </c>
       <c r="AS176">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT176">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU176">
         <v>1.84</v>
@@ -34980,7 +34992,7 @@
         <v>84</v>
       </c>
       <c r="P177" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q177">
         <v>6</v>
@@ -35067,7 +35079,7 @@
         <v>0.9</v>
       </c>
       <c r="AS177">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT177">
         <v>1.25</v>
@@ -35261,7 +35273,7 @@
         <v>0.83</v>
       </c>
       <c r="AT178">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU178">
         <v>1.85</v>
@@ -35362,7 +35374,7 @@
         <v>198</v>
       </c>
       <c r="P179" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q179">
         <v>10</v>
@@ -35449,10 +35461,10 @@
         <v>1.22</v>
       </c>
       <c r="AS179">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT179">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU179">
         <v>1.96</v>
@@ -35553,7 +35565,7 @@
         <v>199</v>
       </c>
       <c r="P180" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q180">
         <v>8</v>
@@ -35834,7 +35846,7 @@
         <v>1.75</v>
       </c>
       <c r="AT181">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU181">
         <v>1.64</v>
@@ -36213,7 +36225,7 @@
         <v>1</v>
       </c>
       <c r="AS183">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT183">
         <v>0.83</v>
@@ -36407,7 +36419,7 @@
         <v>2.83</v>
       </c>
       <c r="AT184">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU184">
         <v>1.89</v>
@@ -36508,7 +36520,7 @@
         <v>203</v>
       </c>
       <c r="P185" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q185">
         <v>7</v>
@@ -36699,7 +36711,7 @@
         <v>204</v>
       </c>
       <c r="P186" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q186">
         <v>7</v>
@@ -36890,7 +36902,7 @@
         <v>105</v>
       </c>
       <c r="P187" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q187">
         <v>7</v>
@@ -37081,7 +37093,7 @@
         <v>84</v>
       </c>
       <c r="P188" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q188">
         <v>2</v>
@@ -37463,7 +37475,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37550,7 +37562,7 @@
         <v>1.8</v>
       </c>
       <c r="AS190">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT190">
         <v>2</v>
@@ -37654,7 +37666,7 @@
         <v>206</v>
       </c>
       <c r="P191" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q191">
         <v>8</v>
@@ -37741,7 +37753,7 @@
         <v>1.7</v>
       </c>
       <c r="AS191">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT191">
         <v>1.64</v>
@@ -37845,7 +37857,7 @@
         <v>207</v>
       </c>
       <c r="P192" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="Q192">
         <v>4</v>
@@ -37935,7 +37947,7 @@
         <v>1</v>
       </c>
       <c r="AT192">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AU192">
         <v>1.65</v>
@@ -38036,7 +38048,7 @@
         <v>208</v>
       </c>
       <c r="P193" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q193">
         <v>4</v>
@@ -38227,7 +38239,7 @@
         <v>86</v>
       </c>
       <c r="P194" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q194">
         <v>6</v>
@@ -38317,7 +38329,7 @@
         <v>1.25</v>
       </c>
       <c r="AT194">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU194">
         <v>1.45</v>
@@ -38418,7 +38430,7 @@
         <v>84</v>
       </c>
       <c r="P195" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q195">
         <v>6</v>
@@ -38508,7 +38520,7 @@
         <v>1.33</v>
       </c>
       <c r="AT195">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU195">
         <v>1.49</v>
@@ -38609,7 +38621,7 @@
         <v>84</v>
       </c>
       <c r="P196" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q196">
         <v>6</v>
@@ -38699,7 +38711,7 @@
         <v>2</v>
       </c>
       <c r="AT196">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU196">
         <v>1.67</v>
@@ -38890,7 +38902,7 @@
         <v>1.42</v>
       </c>
       <c r="AT197">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AU197">
         <v>1.54</v>
@@ -38991,7 +39003,7 @@
         <v>210</v>
       </c>
       <c r="P198" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q198">
         <v>3</v>
@@ -39078,7 +39090,7 @@
         <v>0.5</v>
       </c>
       <c r="AS198">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT198">
         <v>0.42</v>
@@ -39182,7 +39194,7 @@
         <v>84</v>
       </c>
       <c r="P199" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q199">
         <v>3</v>
@@ -39564,7 +39576,7 @@
         <v>84</v>
       </c>
       <c r="P201" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q201">
         <v>5</v>
@@ -39842,7 +39854,7 @@
         <v>0.82</v>
       </c>
       <c r="AS202">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT202">
         <v>0.75</v>
@@ -39946,7 +39958,7 @@
         <v>84</v>
       </c>
       <c r="P203" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q203">
         <v>8</v>
@@ -40137,7 +40149,7 @@
         <v>212</v>
       </c>
       <c r="P204" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q204">
         <v>5</v>
@@ -40328,7 +40340,7 @@
         <v>84</v>
       </c>
       <c r="P205" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q205">
         <v>7</v>
@@ -40519,7 +40531,7 @@
         <v>213</v>
       </c>
       <c r="P206" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q206">
         <v>5</v>
@@ -40710,7 +40722,7 @@
         <v>84</v>
       </c>
       <c r="P207" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q207">
         <v>8</v>
@@ -41425,6 +41437,1152 @@
       </c>
       <c r="BK210">
         <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:63">
+      <c r="A211" s="1">
+        <v>210</v>
+      </c>
+      <c r="B211">
+        <v>2313586</v>
+      </c>
+      <c r="C211" t="s">
+        <v>63</v>
+      </c>
+      <c r="D211" t="s">
+        <v>64</v>
+      </c>
+      <c r="E211" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F211">
+        <v>24</v>
+      </c>
+      <c r="G211" t="s">
+        <v>69</v>
+      </c>
+      <c r="H211" t="s">
+        <v>70</v>
+      </c>
+      <c r="I211">
+        <v>1</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>2</v>
+      </c>
+      <c r="L211">
+        <v>2</v>
+      </c>
+      <c r="M211">
+        <v>1</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211" t="s">
+        <v>216</v>
+      </c>
+      <c r="P211" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q211">
+        <v>7</v>
+      </c>
+      <c r="R211">
+        <v>9</v>
+      </c>
+      <c r="S211">
+        <v>16</v>
+      </c>
+      <c r="T211">
+        <v>3.2</v>
+      </c>
+      <c r="U211">
+        <v>1.93</v>
+      </c>
+      <c r="V211">
+        <v>3.4</v>
+      </c>
+      <c r="W211">
+        <v>1.49</v>
+      </c>
+      <c r="X211">
+        <v>2.4</v>
+      </c>
+      <c r="Y211">
+        <v>3.2</v>
+      </c>
+      <c r="Z211">
+        <v>1.3</v>
+      </c>
+      <c r="AA211">
+        <v>9</v>
+      </c>
+      <c r="AB211">
+        <v>1.06</v>
+      </c>
+      <c r="AC211">
+        <v>2.5</v>
+      </c>
+      <c r="AD211">
+        <v>3</v>
+      </c>
+      <c r="AE211">
+        <v>2.7</v>
+      </c>
+      <c r="AF211">
+        <v>1.08</v>
+      </c>
+      <c r="AG211">
+        <v>7</v>
+      </c>
+      <c r="AH211">
+        <v>1.4</v>
+      </c>
+      <c r="AI211">
+        <v>2.8</v>
+      </c>
+      <c r="AJ211">
+        <v>2.2</v>
+      </c>
+      <c r="AK211">
+        <v>1.6</v>
+      </c>
+      <c r="AL211">
+        <v>1.9</v>
+      </c>
+      <c r="AM211">
+        <v>1.77</v>
+      </c>
+      <c r="AN211">
+        <v>1.41</v>
+      </c>
+      <c r="AO211">
+        <v>1.35</v>
+      </c>
+      <c r="AP211">
+        <v>1.49</v>
+      </c>
+      <c r="AQ211">
+        <v>1.27</v>
+      </c>
+      <c r="AR211">
+        <v>1.64</v>
+      </c>
+      <c r="AS211">
+        <v>1.42</v>
+      </c>
+      <c r="AT211">
+        <v>1.5</v>
+      </c>
+      <c r="AU211">
+        <v>1.65</v>
+      </c>
+      <c r="AV211">
+        <v>1.65</v>
+      </c>
+      <c r="AW211">
+        <v>3.3</v>
+      </c>
+      <c r="AX211">
+        <v>1.75</v>
+      </c>
+      <c r="AY211">
+        <v>8</v>
+      </c>
+      <c r="AZ211">
+        <v>2.42</v>
+      </c>
+      <c r="BA211">
+        <v>1.18</v>
+      </c>
+      <c r="BB211">
+        <v>1.32</v>
+      </c>
+      <c r="BC211">
+        <v>1.6</v>
+      </c>
+      <c r="BD211">
+        <v>2.01</v>
+      </c>
+      <c r="BE211">
+        <v>2.62</v>
+      </c>
+      <c r="BF211">
+        <v>9</v>
+      </c>
+      <c r="BG211">
+        <v>6</v>
+      </c>
+      <c r="BH211">
+        <v>7</v>
+      </c>
+      <c r="BI211">
+        <v>7</v>
+      </c>
+      <c r="BJ211">
+        <v>16</v>
+      </c>
+      <c r="BK211">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:63">
+      <c r="A212" s="1">
+        <v>211</v>
+      </c>
+      <c r="B212">
+        <v>2313585</v>
+      </c>
+      <c r="C212" t="s">
+        <v>63</v>
+      </c>
+      <c r="D212" t="s">
+        <v>64</v>
+      </c>
+      <c r="E212" s="2">
+        <v>44996.5625</v>
+      </c>
+      <c r="F212">
+        <v>24</v>
+      </c>
+      <c r="G212" t="s">
+        <v>66</v>
+      </c>
+      <c r="H212" t="s">
+        <v>72</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+      <c r="K212">
+        <v>0</v>
+      </c>
+      <c r="L212">
+        <v>0</v>
+      </c>
+      <c r="M212">
+        <v>1</v>
+      </c>
+      <c r="N212">
+        <v>1</v>
+      </c>
+      <c r="O212" t="s">
+        <v>84</v>
+      </c>
+      <c r="P212" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q212">
+        <v>9</v>
+      </c>
+      <c r="R212">
+        <v>1</v>
+      </c>
+      <c r="S212">
+        <v>10</v>
+      </c>
+      <c r="T212">
+        <v>3.9</v>
+      </c>
+      <c r="U212">
+        <v>2.04</v>
+      </c>
+      <c r="V212">
+        <v>2.95</v>
+      </c>
+      <c r="W212">
+        <v>1.42</v>
+      </c>
+      <c r="X212">
+        <v>2.75</v>
+      </c>
+      <c r="Y212">
+        <v>2.68</v>
+      </c>
+      <c r="Z212">
+        <v>1.44</v>
+      </c>
+      <c r="AA212">
+        <v>6.65</v>
+      </c>
+      <c r="AB212">
+        <v>1.09</v>
+      </c>
+      <c r="AC212">
+        <v>2.9</v>
+      </c>
+      <c r="AD212">
+        <v>3.15</v>
+      </c>
+      <c r="AE212">
+        <v>2.3</v>
+      </c>
+      <c r="AF212">
+        <v>1.02</v>
+      </c>
+      <c r="AG212">
+        <v>8.6</v>
+      </c>
+      <c r="AH212">
+        <v>1.24</v>
+      </c>
+      <c r="AI212">
+        <v>3.55</v>
+      </c>
+      <c r="AJ212">
+        <v>1.8</v>
+      </c>
+      <c r="AK212">
+        <v>1.9</v>
+      </c>
+      <c r="AL212">
+        <v>1.65</v>
+      </c>
+      <c r="AM212">
+        <v>2.18</v>
+      </c>
+      <c r="AN212">
+        <v>1.6</v>
+      </c>
+      <c r="AO212">
+        <v>1.35</v>
+      </c>
+      <c r="AP212">
+        <v>1.35</v>
+      </c>
+      <c r="AQ212">
+        <v>0.83</v>
+      </c>
+      <c r="AR212">
+        <v>1.5</v>
+      </c>
+      <c r="AS212">
+        <v>0.77</v>
+      </c>
+      <c r="AT212">
+        <v>1.62</v>
+      </c>
+      <c r="AU212">
+        <v>1.89</v>
+      </c>
+      <c r="AV212">
+        <v>1.86</v>
+      </c>
+      <c r="AW212">
+        <v>3.75</v>
+      </c>
+      <c r="AX212">
+        <v>2.2</v>
+      </c>
+      <c r="AY212">
+        <v>8</v>
+      </c>
+      <c r="AZ212">
+        <v>1.83</v>
+      </c>
+      <c r="BA212">
+        <v>1.18</v>
+      </c>
+      <c r="BB212">
+        <v>1.32</v>
+      </c>
+      <c r="BC212">
+        <v>1.6</v>
+      </c>
+      <c r="BD212">
+        <v>2.01</v>
+      </c>
+      <c r="BE212">
+        <v>2.62</v>
+      </c>
+      <c r="BF212">
+        <v>8</v>
+      </c>
+      <c r="BG212">
+        <v>6</v>
+      </c>
+      <c r="BH212">
+        <v>5</v>
+      </c>
+      <c r="BI212">
+        <v>7</v>
+      </c>
+      <c r="BJ212">
+        <v>13</v>
+      </c>
+      <c r="BK212">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="213" spans="1:63">
+      <c r="A213" s="1">
+        <v>212</v>
+      </c>
+      <c r="B213">
+        <v>2313584</v>
+      </c>
+      <c r="C213" t="s">
+        <v>63</v>
+      </c>
+      <c r="D213" t="s">
+        <v>64</v>
+      </c>
+      <c r="E213" s="2">
+        <v>44996.66666666666</v>
+      </c>
+      <c r="F213">
+        <v>24</v>
+      </c>
+      <c r="G213" t="s">
+        <v>68</v>
+      </c>
+      <c r="H213" t="s">
+        <v>73</v>
+      </c>
+      <c r="I213">
+        <v>2</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>3</v>
+      </c>
+      <c r="L213">
+        <v>2</v>
+      </c>
+      <c r="M213">
+        <v>1</v>
+      </c>
+      <c r="N213">
+        <v>3</v>
+      </c>
+      <c r="O213" t="s">
+        <v>217</v>
+      </c>
+      <c r="P213" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q213">
+        <v>3</v>
+      </c>
+      <c r="R213">
+        <v>8</v>
+      </c>
+      <c r="S213">
+        <v>11</v>
+      </c>
+      <c r="T213">
+        <v>3.1</v>
+      </c>
+      <c r="U213">
+        <v>2.05</v>
+      </c>
+      <c r="V213">
+        <v>3.25</v>
+      </c>
+      <c r="W213">
+        <v>1.42</v>
+      </c>
+      <c r="X213">
+        <v>2.65</v>
+      </c>
+      <c r="Y213">
+        <v>2.9</v>
+      </c>
+      <c r="Z213">
+        <v>1.35</v>
+      </c>
+      <c r="AA213">
+        <v>7.75</v>
+      </c>
+      <c r="AB213">
+        <v>1.07</v>
+      </c>
+      <c r="AC213">
+        <v>3.17</v>
+      </c>
+      <c r="AD213">
+        <v>3.83</v>
+      </c>
+      <c r="AE213">
+        <v>1.88</v>
+      </c>
+      <c r="AF213">
+        <v>1.06</v>
+      </c>
+      <c r="AG213">
+        <v>8</v>
+      </c>
+      <c r="AH213">
+        <v>1.3</v>
+      </c>
+      <c r="AI213">
+        <v>3.3</v>
+      </c>
+      <c r="AJ213">
+        <v>2</v>
+      </c>
+      <c r="AK213">
+        <v>1.7</v>
+      </c>
+      <c r="AL213">
+        <v>1.75</v>
+      </c>
+      <c r="AM213">
+        <v>1.95</v>
+      </c>
+      <c r="AN213">
+        <v>1.44</v>
+      </c>
+      <c r="AO213">
+        <v>1.3</v>
+      </c>
+      <c r="AP213">
+        <v>1.51</v>
+      </c>
+      <c r="AQ213">
+        <v>1.45</v>
+      </c>
+      <c r="AR213">
+        <v>1.36</v>
+      </c>
+      <c r="AS213">
+        <v>1.58</v>
+      </c>
+      <c r="AT213">
+        <v>1.25</v>
+      </c>
+      <c r="AU213">
+        <v>1.76</v>
+      </c>
+      <c r="AV213">
+        <v>1.49</v>
+      </c>
+      <c r="AW213">
+        <v>3.25</v>
+      </c>
+      <c r="AX213">
+        <v>2.1</v>
+      </c>
+      <c r="AY213">
+        <v>8</v>
+      </c>
+      <c r="AZ213">
+        <v>1.91</v>
+      </c>
+      <c r="BA213">
+        <v>1.18</v>
+      </c>
+      <c r="BB213">
+        <v>1.32</v>
+      </c>
+      <c r="BC213">
+        <v>1.6</v>
+      </c>
+      <c r="BD213">
+        <v>2.01</v>
+      </c>
+      <c r="BE213">
+        <v>2.62</v>
+      </c>
+      <c r="BF213">
+        <v>4</v>
+      </c>
+      <c r="BG213">
+        <v>6</v>
+      </c>
+      <c r="BH213">
+        <v>4</v>
+      </c>
+      <c r="BI213">
+        <v>6</v>
+      </c>
+      <c r="BJ213">
+        <v>8</v>
+      </c>
+      <c r="BK213">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:63">
+      <c r="A214" s="1">
+        <v>213</v>
+      </c>
+      <c r="B214">
+        <v>2313590</v>
+      </c>
+      <c r="C214" t="s">
+        <v>63</v>
+      </c>
+      <c r="D214" t="s">
+        <v>64</v>
+      </c>
+      <c r="E214" s="2">
+        <v>44997.35416666666</v>
+      </c>
+      <c r="F214">
+        <v>24</v>
+      </c>
+      <c r="G214" t="s">
+        <v>74</v>
+      </c>
+      <c r="H214" t="s">
+        <v>75</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+      <c r="K214">
+        <v>0</v>
+      </c>
+      <c r="L214">
+        <v>0</v>
+      </c>
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214" t="s">
+        <v>84</v>
+      </c>
+      <c r="P214" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q214">
+        <v>8</v>
+      </c>
+      <c r="R214">
+        <v>2</v>
+      </c>
+      <c r="S214">
+        <v>10</v>
+      </c>
+      <c r="T214">
+        <v>2.9</v>
+      </c>
+      <c r="U214">
+        <v>1.95</v>
+      </c>
+      <c r="V214">
+        <v>3.75</v>
+      </c>
+      <c r="W214">
+        <v>1.47</v>
+      </c>
+      <c r="X214">
+        <v>2.45</v>
+      </c>
+      <c r="Y214">
+        <v>3.1</v>
+      </c>
+      <c r="Z214">
+        <v>1.32</v>
+      </c>
+      <c r="AA214">
+        <v>8.5</v>
+      </c>
+      <c r="AB214">
+        <v>1.06</v>
+      </c>
+      <c r="AC214">
+        <v>2.25</v>
+      </c>
+      <c r="AD214">
+        <v>3.3</v>
+      </c>
+      <c r="AE214">
+        <v>3</v>
+      </c>
+      <c r="AF214">
+        <v>1.08</v>
+      </c>
+      <c r="AG214">
+        <v>7.25</v>
+      </c>
+      <c r="AH214">
+        <v>1.53</v>
+      </c>
+      <c r="AI214">
+        <v>2.45</v>
+      </c>
+      <c r="AJ214">
+        <v>2.06</v>
+      </c>
+      <c r="AK214">
+        <v>1.8</v>
+      </c>
+      <c r="AL214">
+        <v>1.9</v>
+      </c>
+      <c r="AM214">
+        <v>1.78</v>
+      </c>
+      <c r="AN214">
+        <v>1.33</v>
+      </c>
+      <c r="AO214">
+        <v>1.34</v>
+      </c>
+      <c r="AP214">
+        <v>1.6</v>
+      </c>
+      <c r="AQ214">
+        <v>1</v>
+      </c>
+      <c r="AR214">
+        <v>1.09</v>
+      </c>
+      <c r="AS214">
+        <v>1</v>
+      </c>
+      <c r="AT214">
+        <v>1.08</v>
+      </c>
+      <c r="AU214">
+        <v>1.59</v>
+      </c>
+      <c r="AV214">
+        <v>1.37</v>
+      </c>
+      <c r="AW214">
+        <v>2.96</v>
+      </c>
+      <c r="AX214">
+        <v>1.62</v>
+      </c>
+      <c r="AY214">
+        <v>7.9</v>
+      </c>
+      <c r="AZ214">
+        <v>2.92</v>
+      </c>
+      <c r="BA214">
+        <v>1.25</v>
+      </c>
+      <c r="BB214">
+        <v>1.48</v>
+      </c>
+      <c r="BC214">
+        <v>1.87</v>
+      </c>
+      <c r="BD214">
+        <v>2.41</v>
+      </c>
+      <c r="BE214">
+        <v>3.28</v>
+      </c>
+      <c r="BF214">
+        <v>6</v>
+      </c>
+      <c r="BG214">
+        <v>3</v>
+      </c>
+      <c r="BH214">
+        <v>4</v>
+      </c>
+      <c r="BI214">
+        <v>3</v>
+      </c>
+      <c r="BJ214">
+        <v>10</v>
+      </c>
+      <c r="BK214">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:63">
+      <c r="A215" s="1">
+        <v>214</v>
+      </c>
+      <c r="B215">
+        <v>2313583</v>
+      </c>
+      <c r="C215" t="s">
+        <v>63</v>
+      </c>
+      <c r="D215" t="s">
+        <v>64</v>
+      </c>
+      <c r="E215" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F215">
+        <v>24</v>
+      </c>
+      <c r="G215" t="s">
+        <v>79</v>
+      </c>
+      <c r="H215" t="s">
+        <v>67</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+      <c r="K215">
+        <v>0</v>
+      </c>
+      <c r="L215">
+        <v>1</v>
+      </c>
+      <c r="M215">
+        <v>1</v>
+      </c>
+      <c r="N215">
+        <v>2</v>
+      </c>
+      <c r="O215" t="s">
+        <v>218</v>
+      </c>
+      <c r="P215" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q215">
+        <v>6</v>
+      </c>
+      <c r="R215">
+        <v>1</v>
+      </c>
+      <c r="S215">
+        <v>7</v>
+      </c>
+      <c r="T215">
+        <v>3.95</v>
+      </c>
+      <c r="U215">
+        <v>1.88</v>
+      </c>
+      <c r="V215">
+        <v>3.15</v>
+      </c>
+      <c r="W215">
+        <v>1.53</v>
+      </c>
+      <c r="X215">
+        <v>2.3</v>
+      </c>
+      <c r="Y215">
+        <v>3.4</v>
+      </c>
+      <c r="Z215">
+        <v>1.27</v>
+      </c>
+      <c r="AA215">
+        <v>9.75</v>
+      </c>
+      <c r="AB215">
+        <v>1.05</v>
+      </c>
+      <c r="AC215">
+        <v>2.88</v>
+      </c>
+      <c r="AD215">
+        <v>3.25</v>
+      </c>
+      <c r="AE215">
+        <v>2.36</v>
+      </c>
+      <c r="AF215">
+        <v>1.09</v>
+      </c>
+      <c r="AG215">
+        <v>6.5</v>
+      </c>
+      <c r="AH215">
+        <v>1.48</v>
+      </c>
+      <c r="AI215">
+        <v>2.5</v>
+      </c>
+      <c r="AJ215">
+        <v>2.43</v>
+      </c>
+      <c r="AK215">
+        <v>1.54</v>
+      </c>
+      <c r="AL215">
+        <v>2</v>
+      </c>
+      <c r="AM215">
+        <v>1.7</v>
+      </c>
+      <c r="AN215">
+        <v>1.57</v>
+      </c>
+      <c r="AO215">
+        <v>1.3</v>
+      </c>
+      <c r="AP215">
+        <v>1.35</v>
+      </c>
+      <c r="AQ215">
+        <v>1</v>
+      </c>
+      <c r="AR215">
+        <v>1.82</v>
+      </c>
+      <c r="AS215">
+        <v>1</v>
+      </c>
+      <c r="AT215">
+        <v>1.75</v>
+      </c>
+      <c r="AU215">
+        <v>1.65</v>
+      </c>
+      <c r="AV215">
+        <v>2</v>
+      </c>
+      <c r="AW215">
+        <v>3.65</v>
+      </c>
+      <c r="AX215">
+        <v>2.28</v>
+      </c>
+      <c r="AY215">
+        <v>7.5</v>
+      </c>
+      <c r="AZ215">
+        <v>1.92</v>
+      </c>
+      <c r="BA215">
+        <v>1.25</v>
+      </c>
+      <c r="BB215">
+        <v>1.48</v>
+      </c>
+      <c r="BC215">
+        <v>1.87</v>
+      </c>
+      <c r="BD215">
+        <v>2.39</v>
+      </c>
+      <c r="BE215">
+        <v>3.28</v>
+      </c>
+      <c r="BF215">
+        <v>4</v>
+      </c>
+      <c r="BG215">
+        <v>3</v>
+      </c>
+      <c r="BH215">
+        <v>4</v>
+      </c>
+      <c r="BI215">
+        <v>5</v>
+      </c>
+      <c r="BJ215">
+        <v>8</v>
+      </c>
+      <c r="BK215">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:63">
+      <c r="A216" s="1">
+        <v>215</v>
+      </c>
+      <c r="B216">
+        <v>2313588</v>
+      </c>
+      <c r="C216" t="s">
+        <v>63</v>
+      </c>
+      <c r="D216" t="s">
+        <v>64</v>
+      </c>
+      <c r="E216" s="2">
+        <v>44997.5625</v>
+      </c>
+      <c r="F216">
+        <v>24</v>
+      </c>
+      <c r="G216" t="s">
+        <v>76</v>
+      </c>
+      <c r="H216" t="s">
+        <v>78</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>0</v>
+      </c>
+      <c r="L216">
+        <v>2</v>
+      </c>
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>2</v>
+      </c>
+      <c r="O216" t="s">
+        <v>219</v>
+      </c>
+      <c r="P216" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q216">
+        <v>6</v>
+      </c>
+      <c r="R216">
+        <v>8</v>
+      </c>
+      <c r="S216">
+        <v>14</v>
+      </c>
+      <c r="T216">
+        <v>2.06</v>
+      </c>
+      <c r="U216">
+        <v>2.21</v>
+      </c>
+      <c r="V216">
+        <v>6.2</v>
+      </c>
+      <c r="W216">
+        <v>1.35</v>
+      </c>
+      <c r="X216">
+        <v>2.95</v>
+      </c>
+      <c r="Y216">
+        <v>2.6</v>
+      </c>
+      <c r="Z216">
+        <v>1.44</v>
+      </c>
+      <c r="AA216">
+        <v>6.45</v>
+      </c>
+      <c r="AB216">
+        <v>1.09</v>
+      </c>
+      <c r="AC216">
+        <v>1.48</v>
+      </c>
+      <c r="AD216">
+        <v>4.25</v>
+      </c>
+      <c r="AE216">
+        <v>5.8</v>
+      </c>
+      <c r="AF216">
+        <v>1.05</v>
+      </c>
+      <c r="AG216">
+        <v>9</v>
+      </c>
+      <c r="AH216">
+        <v>1.25</v>
+      </c>
+      <c r="AI216">
+        <v>3.75</v>
+      </c>
+      <c r="AJ216">
+        <v>1.84</v>
+      </c>
+      <c r="AK216">
+        <v>2.02</v>
+      </c>
+      <c r="AL216">
+        <v>1.95</v>
+      </c>
+      <c r="AM216">
+        <v>1.8</v>
+      </c>
+      <c r="AN216">
+        <v>1.06</v>
+      </c>
+      <c r="AO216">
+        <v>1.17</v>
+      </c>
+      <c r="AP216">
+        <v>2.65</v>
+      </c>
+      <c r="AQ216">
+        <v>2.27</v>
+      </c>
+      <c r="AR216">
+        <v>1.18</v>
+      </c>
+      <c r="AS216">
+        <v>2.33</v>
+      </c>
+      <c r="AT216">
+        <v>1.08</v>
+      </c>
+      <c r="AU216">
+        <v>2.03</v>
+      </c>
+      <c r="AV216">
+        <v>1.35</v>
+      </c>
+      <c r="AW216">
+        <v>3.38</v>
+      </c>
+      <c r="AX216">
+        <v>1.18</v>
+      </c>
+      <c r="AY216">
+        <v>12</v>
+      </c>
+      <c r="AZ216">
+        <v>6.5</v>
+      </c>
+      <c r="BA216">
+        <v>1.19</v>
+      </c>
+      <c r="BB216">
+        <v>1.39</v>
+      </c>
+      <c r="BC216">
+        <v>1.69</v>
+      </c>
+      <c r="BD216">
+        <v>2.11</v>
+      </c>
+      <c r="BE216">
+        <v>2.71</v>
+      </c>
+      <c r="BF216">
+        <v>7</v>
+      </c>
+      <c r="BG216">
+        <v>6</v>
+      </c>
+      <c r="BH216">
+        <v>3</v>
+      </c>
+      <c r="BI216">
+        <v>8</v>
+      </c>
+      <c r="BJ216">
+        <v>10</v>
+      </c>
+      <c r="BK216">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1353" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -963,6 +963,9 @@
   <si>
     <t>['6']</t>
   </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1323,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK216"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2800,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT8">
         <v>0.83</v>
@@ -2994,7 +2997,7 @@
         <v>1.64</v>
       </c>
       <c r="AT9">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3567,7 +3570,7 @@
         <v>1.58</v>
       </c>
       <c r="AT12">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU12">
         <v>1.19</v>
@@ -7005,7 +7008,7 @@
         <v>1.42</v>
       </c>
       <c r="AT30">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU30">
         <v>1.55</v>
@@ -7766,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT34">
         <v>0.42</v>
@@ -10058,7 +10061,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
         <v>0.75</v>
@@ -10443,7 +10446,7 @@
         <v>1</v>
       </c>
       <c r="AT48">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU48">
         <v>1.38</v>
@@ -14263,7 +14266,7 @@
         <v>1.58</v>
       </c>
       <c r="AT68">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU68">
         <v>2.14</v>
@@ -14642,7 +14645,7 @@
         <v>2</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT70">
         <v>1.25</v>
@@ -16937,7 +16940,7 @@
         <v>1.33</v>
       </c>
       <c r="AT82">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU82">
         <v>1.27</v>
@@ -18462,7 +18465,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT90">
         <v>1.25</v>
@@ -21712,7 +21715,7 @@
         <v>1</v>
       </c>
       <c r="AT107">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU107">
         <v>1.57</v>
@@ -22091,7 +22094,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT109">
         <v>1.75</v>
@@ -25532,7 +25535,7 @@
         <v>0.83</v>
       </c>
       <c r="AT127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.9</v>
@@ -26102,7 +26105,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT130">
         <v>1</v>
@@ -28967,7 +28970,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT145">
         <v>1.08</v>
@@ -29161,7 +29164,7 @@
         <v>1.42</v>
       </c>
       <c r="AT146">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU146">
         <v>1.54</v>
@@ -34318,7 +34321,7 @@
         <v>1.25</v>
       </c>
       <c r="AT173">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU173">
         <v>1.45</v>
@@ -34697,7 +34700,7 @@
         <v>1.89</v>
       </c>
       <c r="AS175">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT175">
         <v>1.75</v>
@@ -37756,7 +37759,7 @@
         <v>2.33</v>
       </c>
       <c r="AT191">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU191">
         <v>2</v>
@@ -38708,7 +38711,7 @@
         <v>1.36</v>
       </c>
       <c r="AS196">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT196">
         <v>1.62</v>
@@ -41000,7 +41003,7 @@
         <v>2</v>
       </c>
       <c r="AS208">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AT208">
         <v>1.83</v>
@@ -42583,6 +42586,197 @@
       </c>
       <c r="BK216">
         <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:63">
+      <c r="A217" s="1">
+        <v>216</v>
+      </c>
+      <c r="B217">
+        <v>2313591</v>
+      </c>
+      <c r="C217" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" t="s">
+        <v>64</v>
+      </c>
+      <c r="E217" s="2">
+        <v>44998.625</v>
+      </c>
+      <c r="F217">
+        <v>24</v>
+      </c>
+      <c r="G217" t="s">
+        <v>71</v>
+      </c>
+      <c r="H217" t="s">
+        <v>81</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>1</v>
+      </c>
+      <c r="L217">
+        <v>1</v>
+      </c>
+      <c r="M217">
+        <v>1</v>
+      </c>
+      <c r="N217">
+        <v>2</v>
+      </c>
+      <c r="O217" t="s">
+        <v>193</v>
+      </c>
+      <c r="P217" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q217">
+        <v>6</v>
+      </c>
+      <c r="R217">
+        <v>4</v>
+      </c>
+      <c r="S217">
+        <v>10</v>
+      </c>
+      <c r="T217">
+        <v>3.5</v>
+      </c>
+      <c r="U217">
+        <v>2.1</v>
+      </c>
+      <c r="V217">
+        <v>3.1</v>
+      </c>
+      <c r="W217">
+        <v>1.4</v>
+      </c>
+      <c r="X217">
+        <v>2.75</v>
+      </c>
+      <c r="Y217">
+        <v>3</v>
+      </c>
+      <c r="Z217">
+        <v>1.36</v>
+      </c>
+      <c r="AA217">
+        <v>8</v>
+      </c>
+      <c r="AB217">
+        <v>1.08</v>
+      </c>
+      <c r="AC217">
+        <v>2.8</v>
+      </c>
+      <c r="AD217">
+        <v>3.3</v>
+      </c>
+      <c r="AE217">
+        <v>2.45</v>
+      </c>
+      <c r="AF217">
+        <v>1.06</v>
+      </c>
+      <c r="AG217">
+        <v>8</v>
+      </c>
+      <c r="AH217">
+        <v>1.3</v>
+      </c>
+      <c r="AI217">
+        <v>3.3</v>
+      </c>
+      <c r="AJ217">
+        <v>1.95</v>
+      </c>
+      <c r="AK217">
+        <v>1.8</v>
+      </c>
+      <c r="AL217">
+        <v>1.75</v>
+      </c>
+      <c r="AM217">
+        <v>2</v>
+      </c>
+      <c r="AN217">
+        <v>1.5</v>
+      </c>
+      <c r="AO217">
+        <v>1.32</v>
+      </c>
+      <c r="AP217">
+        <v>1.42</v>
+      </c>
+      <c r="AQ217">
+        <v>2</v>
+      </c>
+      <c r="AR217">
+        <v>1.64</v>
+      </c>
+      <c r="AS217">
+        <v>1.92</v>
+      </c>
+      <c r="AT217">
+        <v>1.58</v>
+      </c>
+      <c r="AU217">
+        <v>1.63</v>
+      </c>
+      <c r="AV217">
+        <v>1.59</v>
+      </c>
+      <c r="AW217">
+        <v>3.22</v>
+      </c>
+      <c r="AX217">
+        <v>1.95</v>
+      </c>
+      <c r="AY217">
+        <v>8</v>
+      </c>
+      <c r="AZ217">
+        <v>2.05</v>
+      </c>
+      <c r="BA217">
+        <v>1.18</v>
+      </c>
+      <c r="BB217">
+        <v>1.29</v>
+      </c>
+      <c r="BC217">
+        <v>1.55</v>
+      </c>
+      <c r="BD217">
+        <v>1.93</v>
+      </c>
+      <c r="BE217">
+        <v>2.49</v>
+      </c>
+      <c r="BF217">
+        <v>3</v>
+      </c>
+      <c r="BG217">
+        <v>5</v>
+      </c>
+      <c r="BH217">
+        <v>9</v>
+      </c>
+      <c r="BI217">
+        <v>8</v>
+      </c>
+      <c r="BJ217">
+        <v>12</v>
+      </c>
+      <c r="BK217">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK217"/>
+  <dimension ref="A1:BK223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT2" t="n">
         <v>1.83</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT5" t="n">
         <v>1.25</v>
@@ -1715,7 +1715,7 @@
         <v>1.42</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT7" t="n">
         <v>0.42</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT9" t="n">
         <v>1.58</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT12" t="n">
         <v>1.58</v>
@@ -3136,7 +3136,7 @@
         <v>1.75</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT15" t="n">
         <v>1.62</v>
@@ -3948,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU18" t="n">
         <v>2.26</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT19" t="n">
         <v>1.25</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT21" t="n">
         <v>0.75</v>
@@ -4963,7 +4963,7 @@
         <v>1.58</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU22" t="n">
         <v>2.32</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT23" t="n">
         <v>1.08</v>
@@ -5775,7 +5775,7 @@
         <v>1.33</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -6181,7 +6181,7 @@
         <v>1.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT29" t="n">
         <v>1.5</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT30" t="n">
         <v>1.58</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7602,7 +7602,7 @@
         <v>1.17</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU35" t="n">
         <v>1.8</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU36" t="n">
         <v>2.3</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -8411,10 +8411,10 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU39" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT40" t="n">
         <v>0.83</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT41" t="n">
         <v>0.75</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT44" t="n">
         <v>0.42</v>
@@ -9835,7 +9835,7 @@
         <v>1.92</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU46" t="n">
         <v>2.19</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.71</v>
@@ -10847,7 +10847,7 @@
         <v>0.5</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT51" t="n">
         <v>0.75</v>
@@ -11053,7 +11053,7 @@
         <v>1.33</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU52" t="n">
         <v>1.48</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU53" t="n">
         <v>2.21</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU55" t="n">
         <v>2.14</v>
@@ -11865,7 +11865,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT60" t="n">
         <v>1.62</v>
@@ -14910,7 +14910,7 @@
         <v>1</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -15113,7 +15113,7 @@
         <v>1.5</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.87</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT73" t="n">
         <v>0.83</v>
@@ -15516,10 +15516,10 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -15719,7 +15719,7 @@
         <v>0.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT75" t="n">
         <v>1.25</v>
@@ -15925,7 +15925,7 @@
         <v>1.17</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT77" t="n">
         <v>1.75</v>
@@ -16328,10 +16328,10 @@
         <v>1.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU78" t="n">
         <v>1.77</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT79" t="n">
         <v>1.08</v>
@@ -17546,7 +17546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT84" t="n">
         <v>1.5</v>
@@ -18158,7 +18158,7 @@
         <v>0.77</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU87" t="n">
         <v>2.15</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>2.01</v>
@@ -18967,10 +18967,10 @@
         <v>1.4</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU91" t="n">
         <v>1.86</v>
@@ -19173,7 +19173,7 @@
         <v>1.58</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU92" t="n">
         <v>2.18</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT93" t="n">
         <v>0.83</v>
@@ -19779,10 +19779,10 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU95" t="n">
         <v>1.87</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT97" t="n">
         <v>1.83</v>
@@ -20794,10 +20794,10 @@
         <v>1.17</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU100" t="n">
         <v>1.9</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT101" t="n">
         <v>1.25</v>
@@ -21609,7 +21609,7 @@
         <v>0.77</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU104" t="n">
         <v>2.23</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT106" t="n">
         <v>0.42</v>
@@ -22624,7 +22624,7 @@
         <v>1.92</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23433,7 +23433,7 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT113" t="n">
         <v>1.25</v>
@@ -23639,7 +23639,7 @@
         <v>1.17</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -23842,7 +23842,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU115" t="n">
         <v>1.67</v>
@@ -24042,7 +24042,7 @@
         <v>2</v>
       </c>
       <c r="AS116" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT116" t="n">
         <v>1.75</v>
@@ -24451,7 +24451,7 @@
         <v>1.33</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -24854,10 +24854,10 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU120" t="n">
         <v>1.87</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT122" t="n">
         <v>0.75</v>
@@ -26275,7 +26275,7 @@
         <v>1.86</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
         <v>1.58</v>
@@ -26681,10 +26681,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU129" t="n">
         <v>1.86</v>
@@ -27090,7 +27090,7 @@
         <v>0.77</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT134" t="n">
         <v>1.83</v>
@@ -27902,7 +27902,7 @@
         <v>1.33</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU135" t="n">
         <v>1.58</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT139" t="n">
         <v>1.25</v>
@@ -28914,10 +28914,10 @@
         <v>1.13</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU140" t="n">
         <v>1.9</v>
@@ -29526,7 +29526,7 @@
         <v>1.58</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU143" t="n">
         <v>1.99</v>
@@ -29932,7 +29932,7 @@
         <v>1.92</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -30335,7 +30335,7 @@
         <v>0.14</v>
       </c>
       <c r="AS147" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT147" t="n">
         <v>0.42</v>
@@ -30538,7 +30538,7 @@
         <v>2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT148" t="n">
         <v>1.75</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT150" t="n">
         <v>1.62</v>
@@ -31350,10 +31350,10 @@
         <v>1.38</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU152" t="n">
         <v>1.65</v>
@@ -32568,10 +32568,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU158" t="n">
         <v>1.58</v>
@@ -32977,7 +32977,7 @@
         <v>2.33</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU160" t="n">
         <v>2.03</v>
@@ -33180,7 +33180,7 @@
         <v>1.25</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU161" t="n">
         <v>1.48</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT165" t="n">
         <v>1.25</v>
@@ -34192,7 +34192,7 @@
         <v>1</v>
       </c>
       <c r="AS166" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT166" t="n">
         <v>0.83</v>
@@ -34398,7 +34398,7 @@
         <v>0.77</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT168" t="n">
         <v>1.08</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -35210,7 +35210,7 @@
         <v>1.42</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.48</v>
@@ -35816,10 +35816,10 @@
         <v>0.8</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU174" t="n">
         <v>1.57</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT176" t="n">
         <v>1.62</v>
@@ -36628,7 +36628,7 @@
         <v>1.56</v>
       </c>
       <c r="AS178" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT178" t="n">
         <v>1.5</v>
@@ -36834,7 +36834,7 @@
         <v>2.33</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU179" t="n">
         <v>1.96</v>
@@ -37846,7 +37846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT184" t="n">
         <v>1.25</v>
@@ -38049,7 +38049,7 @@
         <v>2.11</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT185" t="n">
         <v>1.83</v>
@@ -38255,7 +38255,7 @@
         <v>1.17</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -38458,7 +38458,7 @@
         <v>1.58</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU187" t="n">
         <v>2.19</v>
@@ -38661,7 +38661,7 @@
         <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU188" t="n">
         <v>1.72</v>
@@ -38861,7 +38861,7 @@
         <v>0.7</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT189" t="n">
         <v>0.75</v>
@@ -39064,7 +39064,7 @@
         <v>1.8</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT190" t="n">
         <v>2</v>
@@ -39473,7 +39473,7 @@
         <v>1</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU192" t="n">
         <v>1.65</v>
@@ -39676,7 +39676,7 @@
         <v>1</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AT197" t="n">
         <v>1.75</v>
@@ -41503,7 +41503,7 @@
         <v>1.42</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU202" t="n">
         <v>1.61</v>
@@ -41703,10 +41703,10 @@
         <v>1.64</v>
       </c>
       <c r="AS203" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AU203" t="n">
         <v>1.84</v>
@@ -42109,7 +42109,7 @@
         <v>1.91</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT205" t="n">
         <v>2</v>
@@ -42515,10 +42515,10 @@
         <v>1.6</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AU207" t="n">
         <v>1.75</v>
@@ -43124,7 +43124,7 @@
         <v>1.09</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.83</v>
+        <v>2.85</v>
       </c>
       <c r="AT210" t="n">
         <v>1</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT213" t="n">
         <v>1.25</v>
@@ -43939,7 +43939,7 @@
         <v>1</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU214" t="n">
         <v>1.59</v>
@@ -44600,6 +44600,1224 @@
       </c>
       <c r="BK217" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>2313594</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45002.58333333334</v>
+      </c>
+      <c r="F218" t="n">
+        <v>25</v>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Wisła Płock</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>2</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2</v>
+      </c>
+      <c r="L218" t="n">
+        <v>3</v>
+      </c>
+      <c r="M218" t="n">
+        <v>2</v>
+      </c>
+      <c r="N218" t="n">
+        <v>5</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>['57', '61', '87']</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>['17', '45+1']</t>
+        </is>
+      </c>
+      <c r="Q218" t="n">
+        <v>3</v>
+      </c>
+      <c r="R218" t="n">
+        <v>2</v>
+      </c>
+      <c r="S218" t="n">
+        <v>5</v>
+      </c>
+      <c r="T218" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U218" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V218" t="n">
+        <v>4</v>
+      </c>
+      <c r="W218" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X218" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AB218" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC218" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD218" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE218" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF218" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG218" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH218" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ218" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM218" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN218" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO218" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP218" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ218" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR218" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS218" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT218" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU218" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV218" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW218" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX218" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY218" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ218" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA218" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB218" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC218" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD218" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE218" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF218" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG218" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH218" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI218" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ218" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK218" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>2313596</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45002.6875</v>
+      </c>
+      <c r="F219" t="n">
+        <v>25</v>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>1</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0</v>
+      </c>
+      <c r="M219" t="n">
+        <v>2</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>['45+1', '73']</t>
+        </is>
+      </c>
+      <c r="Q219" t="n">
+        <v>3</v>
+      </c>
+      <c r="R219" t="n">
+        <v>5</v>
+      </c>
+      <c r="S219" t="n">
+        <v>8</v>
+      </c>
+      <c r="T219" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U219" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V219" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W219" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X219" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB219" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC219" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD219" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE219" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AF219" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG219" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AH219" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI219" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AJ219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK219" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL219" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM219" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN219" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO219" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP219" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ219" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS219" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT219" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU219" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV219" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW219" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX219" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY219" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AZ219" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BA219" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB219" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC219" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD219" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE219" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BF219" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH219" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI219" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ219" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK219" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2313600</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45003.35416666666</v>
+      </c>
+      <c r="F220" t="n">
+        <v>25</v>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>1</v>
+      </c>
+      <c r="K220" t="n">
+        <v>2</v>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q220" t="n">
+        <v>6</v>
+      </c>
+      <c r="R220" t="n">
+        <v>2</v>
+      </c>
+      <c r="S220" t="n">
+        <v>8</v>
+      </c>
+      <c r="T220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U220" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V220" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="W220" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X220" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB220" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC220" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE220" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF220" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG220" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AH220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI220" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AJ220" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK220" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL220" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM220" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN220" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO220" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP220" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ220" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS220" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT220" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU220" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV220" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW220" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX220" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY220" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ220" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB220" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC220" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD220" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE220" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF220" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG220" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH220" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI220" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ220" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK220" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>2313592</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F221" t="n">
+        <v>25</v>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>1</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="n">
+        <v>2</v>
+      </c>
+      <c r="M221" t="n">
+        <v>2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>4</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>['54', '72']</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>['1', '75']</t>
+        </is>
+      </c>
+      <c r="Q221" t="n">
+        <v>3</v>
+      </c>
+      <c r="R221" t="n">
+        <v>2</v>
+      </c>
+      <c r="S221" t="n">
+        <v>5</v>
+      </c>
+      <c r="T221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X221" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB221" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD221" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE221" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF221" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG221" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH221" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI221" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK221" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL221" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM221" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN221" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP221" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ221" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR221" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS221" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT221" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU221" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV221" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW221" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY221" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ221" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BA221" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB221" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC221" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD221" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE221" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH221" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI221" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ221" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK221" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2313595</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45003.5625</v>
+      </c>
+      <c r="F222" t="n">
+        <v>25</v>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="n">
+        <v>0</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>0</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q222" t="n">
+        <v>11</v>
+      </c>
+      <c r="R222" t="n">
+        <v>4</v>
+      </c>
+      <c r="S222" t="n">
+        <v>15</v>
+      </c>
+      <c r="T222" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U222" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W222" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X222" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB222" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC222" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE222" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AF222" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG222" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH222" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI222" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AJ222" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL222" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM222" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN222" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO222" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP222" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AR222" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS222" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT222" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU222" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AV222" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW222" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX222" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY222" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ222" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA222" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB222" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD222" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE222" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BF222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG222" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH222" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI222" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ222" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>2313597</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45003.66666666666</v>
+      </c>
+      <c r="F223" t="n">
+        <v>25</v>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>1</v>
+      </c>
+      <c r="J223" t="n">
+        <v>1</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2</v>
+      </c>
+      <c r="L223" t="n">
+        <v>4</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="n">
+        <v>5</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>['38', '59', '65', '84']</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="Q223" t="n">
+        <v>11</v>
+      </c>
+      <c r="R223" t="n">
+        <v>1</v>
+      </c>
+      <c r="S223" t="n">
+        <v>12</v>
+      </c>
+      <c r="T223" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V223" t="n">
+        <v>7</v>
+      </c>
+      <c r="W223" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X223" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC223" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD223" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE223" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF223" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG223" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI223" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ223" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK223" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL223" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM223" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AO223" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP223" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ223" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AR223" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS223" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AT223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU223" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AV223" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW223" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AX223" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AY223" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ223" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BA223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB223" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC223" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD223" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE223" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF223" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH223" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI223" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ223" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK223" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK226"/>
+  <dimension ref="A1:BK235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT3" t="n">
         <v>1</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT4" t="n">
         <v>1.08</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT6" t="n">
         <v>1.85</v>
@@ -1918,7 +1918,7 @@
         <v>1.08</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT8" t="n">
         <v>0.77</v>
@@ -2324,7 +2324,7 @@
         <v>1.58</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.54</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU12" t="n">
         <v>1.19</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT13" t="n">
         <v>0.77</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT14" t="n">
         <v>1.67</v>
@@ -3542,7 +3542,7 @@
         <v>1.38</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT17" t="n">
         <v>1.67</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT18" t="n">
         <v>1.85</v>
@@ -4354,7 +4354,7 @@
         <v>1.08</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU19" t="n">
         <v>2.38</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.58</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU21" t="n">
         <v>2.16</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT26" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT27" t="n">
         <v>1.38</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT28" t="n">
         <v>0.77</v>
@@ -6384,7 +6384,7 @@
         <v>1.54</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.38</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU30" t="n">
         <v>1.55</v>
@@ -6790,7 +6790,7 @@
         <v>1.15</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU31" t="n">
         <v>1.16</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT32" t="n">
         <v>1.85</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU33" t="n">
         <v>1.8</v>
@@ -7396,10 +7396,10 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU34" t="n">
         <v>2.47</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT37" t="n">
         <v>1.38</v>
@@ -8820,7 +8820,7 @@
         <v>2.85</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9223,10 +9223,10 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU43" t="n">
         <v>1.27</v>
@@ -9429,7 +9429,7 @@
         <v>1.54</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU44" t="n">
         <v>1.43</v>
@@ -9629,10 +9629,10 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU45" t="n">
         <v>1.55</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT46" t="n">
         <v>0.77</v>
@@ -10241,7 +10241,7 @@
         <v>1.15</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10441,10 +10441,10 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU49" t="n">
         <v>1.99</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT50" t="n">
         <v>1.08</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT52" t="n">
         <v>1.85</v>
@@ -12065,10 +12065,10 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12271,7 +12271,7 @@
         <v>1.38</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU58" t="n">
         <v>1.57</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT59" t="n">
         <v>1.38</v>
@@ -12677,7 +12677,7 @@
         <v>2.85</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU60" t="n">
         <v>1.63</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT61" t="n">
         <v>1.85</v>
@@ -13080,10 +13080,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13486,10 +13486,10 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU64" t="n">
         <v>1.32</v>
@@ -13689,10 +13689,10 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -13892,10 +13892,10 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT66" t="n">
         <v>0.77</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>0.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.96</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14298,10 +14298,10 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU68" t="n">
         <v>2.14</v>
@@ -14501,10 +14501,10 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -14704,10 +14704,10 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU70" t="n">
         <v>1.98</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT80" t="n">
         <v>1</v>
@@ -16937,10 +16937,10 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU81" t="n">
         <v>1.71</v>
@@ -17140,10 +17140,10 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU82" t="n">
         <v>1.27</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17549,7 +17549,7 @@
         <v>2.85</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU85" t="n">
         <v>1.64</v>
@@ -17952,10 +17952,10 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU86" t="n">
         <v>1.45</v>
@@ -18155,7 +18155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT87" t="n">
         <v>0.6899999999999999</v>
@@ -18764,7 +18764,7 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT90" t="n">
         <v>1.38</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT92" t="n">
         <v>1.85</v>
@@ -19985,7 +19985,7 @@
         <v>1.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU96" t="n">
         <v>1.74</v>
@@ -20188,7 +20188,7 @@
         <v>1.38</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT98" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20591,10 +20591,10 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU99" t="n">
         <v>1.47</v>
@@ -21000,7 +21000,7 @@
         <v>1.38</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU101" t="n">
         <v>1.5</v>
@@ -21200,10 +21200,10 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU102" t="n">
         <v>1.92</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT103" t="n">
         <v>0.77</v>
@@ -21606,7 +21606,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT104" t="n">
         <v>0.77</v>
@@ -21809,10 +21809,10 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU105" t="n">
         <v>2.12</v>
@@ -22015,7 +22015,7 @@
         <v>2.85</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -22215,10 +22215,10 @@
         <v>1.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT108" t="n">
         <v>1.08</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT109" t="n">
         <v>1.85</v>
@@ -23027,10 +23027,10 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT111" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23233,7 +23233,7 @@
         <v>1.15</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -24248,7 +24248,7 @@
         <v>1.38</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU117" t="n">
         <v>1.75</v>
@@ -24448,7 +24448,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT118" t="n">
         <v>0.6899999999999999</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -25060,7 +25060,7 @@
         <v>1.15</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25263,7 +25263,7 @@
         <v>1.38</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU122" t="n">
         <v>1.56</v>
@@ -25463,7 +25463,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT123" t="n">
         <v>1.85</v>
@@ -25666,10 +25666,10 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU124" t="n">
         <v>1.74</v>
@@ -25869,7 +25869,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT125" t="n">
         <v>0.77</v>
@@ -26075,7 +26075,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU126" t="n">
         <v>1.49</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU127" t="n">
         <v>1.9</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT128" t="n">
         <v>1.38</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27290,7 +27290,7 @@
         <v>1.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT132" t="n">
         <v>1.08</v>
@@ -27493,10 +27493,10 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT133" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU133" t="n">
         <v>2.14</v>
@@ -27699,7 +27699,7 @@
         <v>1.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU134" t="n">
         <v>1.91</v>
@@ -27899,7 +27899,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT135" t="n">
         <v>1.67</v>
@@ -28102,7 +28102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT136" t="n">
         <v>0.77</v>
@@ -28305,10 +28305,10 @@
         <v>2</v>
       </c>
       <c r="AS137" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU137" t="n">
         <v>1.68</v>
@@ -28508,10 +28508,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU138" t="n">
         <v>1.68</v>
@@ -28714,7 +28714,7 @@
         <v>1.58</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU139" t="n">
         <v>2.23</v>
@@ -29323,7 +29323,7 @@
         <v>1.38</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT143" t="n">
         <v>0.77</v>
@@ -29929,7 +29929,7 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT145" t="n">
         <v>1</v>
@@ -30132,10 +30132,10 @@
         <v>1.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU146" t="n">
         <v>1.54</v>
@@ -30338,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU147" t="n">
         <v>1.81</v>
@@ -30741,10 +30741,10 @@
         <v>1.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU149" t="n">
         <v>1.93</v>
@@ -30947,7 +30947,7 @@
         <v>1.08</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU150" t="n">
         <v>1.83</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT151" t="n">
         <v>1.38</v>
@@ -31553,10 +31553,10 @@
         <v>1.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU153" t="n">
         <v>1.53</v>
@@ -31759,7 +31759,7 @@
         <v>1.08</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU154" t="n">
         <v>1.44</v>
@@ -31959,7 +31959,7 @@
         <v>2.14</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT155" t="n">
         <v>1.85</v>
@@ -32165,7 +32165,7 @@
         <v>1.15</v>
       </c>
       <c r="AT156" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32368,7 +32368,7 @@
         <v>1.38</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU157" t="n">
         <v>1.89</v>
@@ -32771,10 +32771,10 @@
         <v>0.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -32974,7 +32974,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT160" t="n">
         <v>0.77</v>
@@ -33177,7 +33177,7 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT161" t="n">
         <v>0.6899999999999999</v>
@@ -33380,10 +33380,10 @@
         <v>1.5</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU162" t="n">
         <v>1.61</v>
@@ -33789,7 +33789,7 @@
         <v>1.38</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU164" t="n">
         <v>1.92</v>
@@ -34395,7 +34395,7 @@
         <v>1.33</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT167" t="n">
         <v>1.85</v>
@@ -34801,10 +34801,10 @@
         <v>0.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU169" t="n">
         <v>2.23</v>
@@ -35207,7 +35207,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35410,10 +35410,10 @@
         <v>1.89</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT172" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU172" t="n">
         <v>1.58</v>
@@ -35613,10 +35613,10 @@
         <v>1.78</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU173" t="n">
         <v>1.45</v>
@@ -36019,7 +36019,7 @@
         <v>1.89</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT175" t="n">
         <v>1.85</v>
@@ -36225,7 +36225,7 @@
         <v>1.54</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU176" t="n">
         <v>1.84</v>
@@ -36425,7 +36425,7 @@
         <v>0.9</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT177" t="n">
         <v>1.38</v>
@@ -36631,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU178" t="n">
         <v>1.85</v>
@@ -36831,7 +36831,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT179" t="n">
         <v>1</v>
@@ -37037,7 +37037,7 @@
         <v>1.15</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU180" t="n">
         <v>1.51</v>
@@ -37237,7 +37237,7 @@
         <v>1.3</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT181" t="n">
         <v>1.08</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT183" t="n">
         <v>0.77</v>
@@ -37849,7 +37849,7 @@
         <v>2.85</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -38052,7 +38052,7 @@
         <v>1.58</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU185" t="n">
         <v>2.23</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT187" t="n">
         <v>1.67</v>
@@ -38658,7 +38658,7 @@
         <v>1.5</v>
       </c>
       <c r="AS188" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT188" t="n">
         <v>1.85</v>
@@ -38864,7 +38864,7 @@
         <v>1.08</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU189" t="n">
         <v>1.76</v>
@@ -39067,7 +39067,7 @@
         <v>1.54</v>
       </c>
       <c r="AT190" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU190" t="n">
         <v>1.79</v>
@@ -39267,10 +39267,10 @@
         <v>1.7</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU191" t="n">
         <v>2</v>
@@ -39470,7 +39470,7 @@
         <v>1.2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT192" t="n">
         <v>1</v>
@@ -39876,10 +39876,10 @@
         <v>1.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU194" t="n">
         <v>1.45</v>
@@ -40079,10 +40079,10 @@
         <v>1.2</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU195" t="n">
         <v>1.49</v>
@@ -40282,10 +40282,10 @@
         <v>1.36</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU196" t="n">
         <v>1.67</v>
@@ -40688,10 +40688,10 @@
         <v>0.5</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -40891,7 +40891,7 @@
         <v>1.09</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT199" t="n">
         <v>1.38</v>
@@ -41094,7 +41094,7 @@
         <v>0.91</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT200" t="n">
         <v>0.77</v>
@@ -41300,7 +41300,7 @@
         <v>1.38</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU201" t="n">
         <v>1.86</v>
@@ -41500,7 +41500,7 @@
         <v>0.82</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT202" t="n">
         <v>0.6899999999999999</v>
@@ -41909,7 +41909,7 @@
         <v>1.08</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AU204" t="n">
         <v>1.44</v>
@@ -42112,7 +42112,7 @@
         <v>1.58</v>
       </c>
       <c r="AT205" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AU205" t="n">
         <v>2.21</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT206" t="n">
         <v>1</v>
@@ -42718,10 +42718,10 @@
         <v>2</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AU208" t="n">
         <v>1.64</v>
@@ -42921,10 +42921,10 @@
         <v>0.45</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="AU209" t="n">
         <v>1.45</v>
@@ -43327,10 +43327,10 @@
         <v>1.64</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU211" t="n">
         <v>1.65</v>
@@ -43530,10 +43530,10 @@
         <v>1.5</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AU212" t="n">
         <v>1.89</v>
@@ -43736,7 +43736,7 @@
         <v>1.54</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -44139,7 +44139,7 @@
         <v>1.82</v>
       </c>
       <c r="AS215" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="AT215" t="n">
         <v>1.85</v>
@@ -44342,7 +44342,7 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AT216" t="n">
         <v>1.08</v>
@@ -44545,10 +44545,10 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU217" t="n">
         <v>1.63</v>
@@ -46427,6 +46427,1833 @@
       </c>
       <c r="BK226" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2313603</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45016.54166666666</v>
+      </c>
+      <c r="F227" t="n">
+        <v>26</v>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q227" t="n">
+        <v>6</v>
+      </c>
+      <c r="R227" t="n">
+        <v>3</v>
+      </c>
+      <c r="S227" t="n">
+        <v>9</v>
+      </c>
+      <c r="T227" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U227" t="n">
+        <v>2</v>
+      </c>
+      <c r="V227" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W227" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y227" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z227" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA227" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB227" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC227" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AD227" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE227" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF227" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG227" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI227" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ227" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK227" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL227" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM227" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO227" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP227" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AQ227" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AR227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AS227" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AT227" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU227" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV227" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW227" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX227" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY227" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ227" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA227" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB227" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC227" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD227" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE227" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF227" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG227" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI227" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ227" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK227" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2313602</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45016.64583333334</v>
+      </c>
+      <c r="F228" t="n">
+        <v>26</v>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q228" t="n">
+        <v>7</v>
+      </c>
+      <c r="R228" t="n">
+        <v>6</v>
+      </c>
+      <c r="S228" t="n">
+        <v>13</v>
+      </c>
+      <c r="T228" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U228" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V228" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W228" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y228" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z228" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA228" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB228" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD228" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE228" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF228" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG228" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI228" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ228" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AK228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL228" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM228" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN228" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP228" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ228" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR228" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT228" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU228" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV228" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW228" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX228" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY228" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ228" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA228" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC228" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD228" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE228" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH228" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI228" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ228" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK228" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2313604</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F229" t="n">
+        <v>26</v>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>1</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0</v>
+      </c>
+      <c r="N229" t="n">
+        <v>1</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>['11']</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q229" t="n">
+        <v>4</v>
+      </c>
+      <c r="R229" t="n">
+        <v>5</v>
+      </c>
+      <c r="S229" t="n">
+        <v>9</v>
+      </c>
+      <c r="T229" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U229" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V229" t="n">
+        <v>4</v>
+      </c>
+      <c r="W229" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X229" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y229" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z229" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA229" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC229" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD229" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE229" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF229" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI229" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ229" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL229" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM229" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO229" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP229" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ229" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR229" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="AS229" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT229" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU229" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV229" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW229" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AX229" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY229" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ229" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB229" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC229" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD229" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BE229" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BF229" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG229" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH229" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI229" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ229" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK229" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2313607</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45017.52083333334</v>
+      </c>
+      <c r="F230" t="n">
+        <v>26</v>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
+      <c r="K230" t="n">
+        <v>3</v>
+      </c>
+      <c r="L230" t="n">
+        <v>3</v>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="n">
+        <v>4</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>['15', '30', '63']</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q230" t="n">
+        <v>2</v>
+      </c>
+      <c r="R230" t="n">
+        <v>4</v>
+      </c>
+      <c r="S230" t="n">
+        <v>6</v>
+      </c>
+      <c r="T230" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U230" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W230" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X230" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y230" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z230" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA230" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB230" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC230" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AD230" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE230" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AF230" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG230" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH230" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL230" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM230" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN230" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO230" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP230" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ230" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR230" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AU230" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV230" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW230" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX230" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AY230" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ230" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BA230" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB230" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC230" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD230" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE230" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF230" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH230" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI230" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ230" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK230" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2313606</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45017.625</v>
+      </c>
+      <c r="F231" t="n">
+        <v>26</v>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>Lechia Gdańsk</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q231" t="n">
+        <v>4</v>
+      </c>
+      <c r="R231" t="n">
+        <v>2</v>
+      </c>
+      <c r="S231" t="n">
+        <v>6</v>
+      </c>
+      <c r="T231" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V231" t="n">
+        <v>4</v>
+      </c>
+      <c r="W231" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X231" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z231" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA231" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB231" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC231" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD231" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE231" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF231" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG231" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI231" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ231" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK231" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL231" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM231" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO231" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP231" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS231" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT231" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU231" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV231" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW231" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX231" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AY231" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ231" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA231" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB231" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC231" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD231" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE231" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG231" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH231" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI231" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ231" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK231" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>2313609</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45018.3125</v>
+      </c>
+      <c r="F232" t="n">
+        <v>26</v>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Wisła Płock</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="n">
+        <v>2</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q232" t="n">
+        <v>5</v>
+      </c>
+      <c r="R232" t="n">
+        <v>7</v>
+      </c>
+      <c r="S232" t="n">
+        <v>12</v>
+      </c>
+      <c r="T232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U232" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V232" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W232" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X232" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y232" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z232" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA232" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB232" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC232" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE232" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF232" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG232" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AH232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI232" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL232" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM232" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN232" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO232" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP232" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ232" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR232" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS232" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT232" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU232" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV232" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW232" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX232" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AY232" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ232" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA232" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB232" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC232" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD232" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE232" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF232" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG232" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH232" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI232" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ232" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK232" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2313601</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="n">
+        <v>45018.41666666666</v>
+      </c>
+      <c r="F233" t="n">
+        <v>26</v>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="n">
+        <v>0</v>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="n">
+        <v>2</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q233" t="n">
+        <v>9</v>
+      </c>
+      <c r="R233" t="n">
+        <v>5</v>
+      </c>
+      <c r="S233" t="n">
+        <v>14</v>
+      </c>
+      <c r="T233" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U233" t="n">
+        <v>2</v>
+      </c>
+      <c r="V233" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W233" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y233" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z233" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA233" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB233" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD233" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE233" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF233" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG233" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI233" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AJ233" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK233" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL233" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM233" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN233" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AP233" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AQ233" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR233" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS233" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT233" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU233" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV233" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW233" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX233" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY233" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ233" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA233" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB233" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC233" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD233" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE233" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG233" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH233" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI233" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ233" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK233" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2313605</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="n">
+        <v>45018.52083333334</v>
+      </c>
+      <c r="F234" t="n">
+        <v>26</v>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I234" t="n">
+        <v>1</v>
+      </c>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2</v>
+      </c>
+      <c r="M234" t="n">
+        <v>2</v>
+      </c>
+      <c r="N234" t="n">
+        <v>4</v>
+      </c>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>['26', '65']</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>['45+10', '63']</t>
+        </is>
+      </c>
+      <c r="Q234" t="n">
+        <v>9</v>
+      </c>
+      <c r="R234" t="n">
+        <v>5</v>
+      </c>
+      <c r="S234" t="n">
+        <v>14</v>
+      </c>
+      <c r="T234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U234" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V234" t="n">
+        <v>4</v>
+      </c>
+      <c r="W234" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X234" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y234" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z234" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA234" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB234" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC234" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE234" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF234" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG234" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH234" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI234" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ234" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK234" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM234" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN234" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO234" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP234" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ234" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR234" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS234" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT234" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU234" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AV234" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW234" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AX234" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AY234" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ234" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA234" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB234" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC234" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD234" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE234" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BF234" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH234" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI234" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ234" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK234" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>2313608</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="n">
+        <v>45019.58333333334</v>
+      </c>
+      <c r="F235" t="n">
+        <v>26</v>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="n">
+        <v>2</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q235" t="n">
+        <v>1</v>
+      </c>
+      <c r="R235" t="n">
+        <v>4</v>
+      </c>
+      <c r="S235" t="n">
+        <v>5</v>
+      </c>
+      <c r="T235" t="n">
+        <v>3</v>
+      </c>
+      <c r="U235" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V235" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y235" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z235" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA235" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB235" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC235" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD235" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE235" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF235" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG235" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH235" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI235" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AJ235" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL235" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM235" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN235" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP235" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ235" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR235" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS235" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT235" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU235" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV235" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW235" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX235" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY235" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ235" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA235" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB235" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC235" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD235" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE235" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF235" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG235" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH235" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI235" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ235" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK235" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK235"/>
+  <dimension ref="A1:BK240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.54</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.54</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT8" t="n">
         <v>0.77</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT9" t="n">
         <v>1.54</v>
@@ -2527,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.69</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>2.38</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT15" t="n">
         <v>1.57</v>
@@ -3948,7 +3948,7 @@
         <v>1.15</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT21" t="n">
         <v>0.77</v>
@@ -5166,7 +5166,7 @@
         <v>2.85</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU23" t="n">
         <v>1.6</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT24" t="n">
         <v>0.77</v>
@@ -5775,7 +5775,7 @@
         <v>1.31</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU26" t="n">
         <v>1.37</v>
@@ -5978,7 +5978,7 @@
         <v>2.38</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU27" t="n">
         <v>1.43</v>
@@ -6181,7 +6181,7 @@
         <v>1.23</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>1.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT30" t="n">
         <v>1.54</v>
@@ -7396,7 +7396,7 @@
         <v>1</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT34" t="n">
         <v>0.38</v>
@@ -7602,7 +7602,7 @@
         <v>1.08</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU35" t="n">
         <v>1.8</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT36" t="n">
         <v>1.85</v>
@@ -8008,7 +8008,7 @@
         <v>1.69</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.91</v>
@@ -8211,7 +8211,7 @@
         <v>1</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU38" t="n">
         <v>1.6</v>
@@ -8411,7 +8411,7 @@
         <v>3</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT39" t="n">
         <v>0.6899999999999999</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU46" t="n">
         <v>2.19</v>
@@ -10035,10 +10035,10 @@
         <v>1.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT47" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU47" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>1.15</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU50" t="n">
         <v>1.35</v>
@@ -11256,7 +11256,7 @@
         <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU53" t="n">
         <v>2.21</v>
@@ -11659,10 +11659,10 @@
         <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU55" t="n">
         <v>2.14</v>
@@ -11862,7 +11862,7 @@
         <v>2.33</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT56" t="n">
         <v>0.6899999999999999</v>
@@ -12268,7 +12268,7 @@
         <v>0</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT58" t="n">
         <v>1.85</v>
@@ -12474,7 +12474,7 @@
         <v>1.54</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU59" t="n">
         <v>2.41</v>
@@ -14704,7 +14704,7 @@
         <v>2</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT70" t="n">
         <v>1.15</v>
@@ -14910,7 +14910,7 @@
         <v>1.15</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -15110,10 +15110,10 @@
         <v>1.33</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT72" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU72" t="n">
         <v>1.87</v>
@@ -15313,7 +15313,7 @@
         <v>0.75</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT73" t="n">
         <v>0.77</v>
@@ -15722,7 +15722,7 @@
         <v>1</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -15925,7 +15925,7 @@
         <v>1.08</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU76" t="n">
         <v>1.43</v>
@@ -16125,7 +16125,7 @@
         <v>2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT77" t="n">
         <v>1.85</v>
@@ -16534,7 +16534,7 @@
         <v>1.54</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU79" t="n">
         <v>1.75</v>
@@ -18564,7 +18564,7 @@
         <v>1.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU89" t="n">
         <v>2.01</v>
@@ -18764,10 +18764,10 @@
         <v>0.8</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.8</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU91" t="n">
         <v>1.86</v>
@@ -19373,7 +19373,7 @@
         <v>0.6</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT93" t="n">
         <v>0.77</v>
@@ -19579,7 +19579,7 @@
         <v>1.08</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU94" t="n">
         <v>1.57</v>
@@ -19782,7 +19782,7 @@
         <v>1.54</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU95" t="n">
         <v>1.87</v>
@@ -19982,7 +19982,7 @@
         <v>1</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT96" t="n">
         <v>1.85</v>
@@ -20185,7 +20185,7 @@
         <v>2</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT97" t="n">
         <v>1.77</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT101" t="n">
         <v>1.15</v>
@@ -21609,7 +21609,7 @@
         <v>0.79</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU104" t="n">
         <v>2.23</v>
@@ -22421,7 +22421,7 @@
         <v>1.54</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU108" t="n">
         <v>1.49</v>
@@ -22621,7 +22621,7 @@
         <v>1.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT109" t="n">
         <v>1.85</v>
@@ -23433,10 +23433,10 @@
         <v>0.67</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>2.18</v>
@@ -23639,7 +23639,7 @@
         <v>1.08</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU114" t="n">
         <v>1.54</v>
@@ -23839,10 +23839,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU115" t="n">
         <v>1.67</v>
@@ -24245,7 +24245,7 @@
         <v>0.17</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT117" t="n">
         <v>0.38</v>
@@ -24857,7 +24857,7 @@
         <v>2.85</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU120" t="n">
         <v>1.87</v>
@@ -25260,7 +25260,7 @@
         <v>0.67</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT122" t="n">
         <v>0.77</v>
@@ -26481,7 +26481,7 @@
         <v>1.54</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -26884,7 +26884,7 @@
         <v>0.83</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT130" t="n">
         <v>1</v>
@@ -27090,7 +27090,7 @@
         <v>0.79</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU131" t="n">
         <v>2.09</v>
@@ -27293,7 +27293,7 @@
         <v>1.23</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU132" t="n">
         <v>1.45</v>
@@ -27902,7 +27902,7 @@
         <v>1.31</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU135" t="n">
         <v>1.58</v>
@@ -28711,7 +28711,7 @@
         <v>1.5</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT139" t="n">
         <v>1.15</v>
@@ -29320,7 +29320,7 @@
         <v>1.43</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT142" t="n">
         <v>1.46</v>
@@ -29526,7 +29526,7 @@
         <v>1.54</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.99</v>
@@ -29729,7 +29729,7 @@
         <v>1.15</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU144" t="n">
         <v>1.45</v>
@@ -29929,10 +29929,10 @@
         <v>1.57</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU145" t="n">
         <v>1.69</v>
@@ -31150,7 +31150,7 @@
         <v>1.23</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU151" t="n">
         <v>1.41</v>
@@ -31350,7 +31350,7 @@
         <v>1.38</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT152" t="n">
         <v>1.85</v>
@@ -32365,7 +32365,7 @@
         <v>1.56</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT157" t="n">
         <v>1.57</v>
@@ -32568,10 +32568,10 @@
         <v>1.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU158" t="n">
         <v>1.58</v>
@@ -32977,7 +32977,7 @@
         <v>2.38</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU160" t="n">
         <v>2.03</v>
@@ -33786,7 +33786,7 @@
         <v>0.67</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT164" t="n">
         <v>0.77</v>
@@ -33992,7 +33992,7 @@
         <v>2.85</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.96</v>
@@ -34601,7 +34601,7 @@
         <v>1.08</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU168" t="n">
         <v>1.79</v>
@@ -35004,7 +35004,7 @@
         <v>1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT170" t="n">
         <v>1</v>
@@ -35210,7 +35210,7 @@
         <v>1.54</v>
       </c>
       <c r="AT171" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU171" t="n">
         <v>1.48</v>
@@ -35816,10 +35816,10 @@
         <v>0.8</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU174" t="n">
         <v>1.57</v>
@@ -36019,7 +36019,7 @@
         <v>1.89</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT175" t="n">
         <v>1.85</v>
@@ -36428,7 +36428,7 @@
         <v>0.79</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.91</v>
@@ -36834,7 +36834,7 @@
         <v>2.38</v>
       </c>
       <c r="AT179" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU179" t="n">
         <v>1.96</v>
@@ -37240,7 +37240,7 @@
         <v>1.69</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU181" t="n">
         <v>1.64</v>
@@ -37440,7 +37440,7 @@
         <v>1.22</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT182" t="n">
         <v>1</v>
@@ -38049,7 +38049,7 @@
         <v>2.11</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT185" t="n">
         <v>1.77</v>
@@ -38458,7 +38458,7 @@
         <v>1.54</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU187" t="n">
         <v>2.19</v>
@@ -39473,7 +39473,7 @@
         <v>1.15</v>
       </c>
       <c r="AT192" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU192" t="n">
         <v>1.65</v>
@@ -39676,7 +39676,7 @@
         <v>1.15</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU193" t="n">
         <v>1.59</v>
@@ -40282,7 +40282,7 @@
         <v>1.36</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT196" t="n">
         <v>1.57</v>
@@ -40485,7 +40485,7 @@
         <v>2</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT197" t="n">
         <v>1.85</v>
@@ -40894,7 +40894,7 @@
         <v>1.31</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU199" t="n">
         <v>1.49</v>
@@ -41297,7 +41297,7 @@
         <v>1.9</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT201" t="n">
         <v>1.77</v>
@@ -42109,7 +42109,7 @@
         <v>1.91</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT205" t="n">
         <v>1.85</v>
@@ -42518,7 +42518,7 @@
         <v>1.08</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU207" t="n">
         <v>1.75</v>
@@ -42718,7 +42718,7 @@
         <v>2</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT208" t="n">
         <v>1.77</v>
@@ -43939,7 +43939,7 @@
         <v>1.15</v>
       </c>
       <c r="AT214" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU214" t="n">
         <v>1.59</v>
@@ -44345,7 +44345,7 @@
         <v>2.38</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU216" t="n">
         <v>2.03</v>
@@ -44545,7 +44545,7 @@
         <v>1.64</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT217" t="n">
         <v>1.54</v>
@@ -45154,10 +45154,10 @@
         <v>1.08</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AU220" t="n">
         <v>1.51</v>
@@ -45360,7 +45360,7 @@
         <v>1.54</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.67</v>
+        <v>1.54</v>
       </c>
       <c r="AU221" t="n">
         <v>1.71</v>
@@ -45560,10 +45560,10 @@
         <v>0.75</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT222" t="n">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU222" t="n">
         <v>2.12</v>
@@ -45766,7 +45766,7 @@
         <v>2.85</v>
       </c>
       <c r="AT223" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU223" t="n">
         <v>1.95</v>
@@ -46172,7 +46172,7 @@
         <v>1.08</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AU225" t="n">
         <v>1.47</v>
@@ -46372,7 +46372,7 @@
         <v>1.75</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AT226" t="n">
         <v>1.85</v>
@@ -47590,7 +47590,7 @@
         <v>1.5</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AT232" t="n">
         <v>1.46</v>
@@ -48253,6 +48253,1021 @@
         <v>12</v>
       </c>
       <c r="BK235" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2313618</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="n">
+        <v>45022.54166666666</v>
+      </c>
+      <c r="F236" t="n">
+        <v>27</v>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="n">
+        <v>1</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q236" t="n">
+        <v>1</v>
+      </c>
+      <c r="R236" t="n">
+        <v>6</v>
+      </c>
+      <c r="S236" t="n">
+        <v>7</v>
+      </c>
+      <c r="T236" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U236" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V236" t="n">
+        <v>3</v>
+      </c>
+      <c r="W236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X236" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y236" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA236" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB236" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC236" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD236" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE236" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF236" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG236" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH236" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK236" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AL236" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM236" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN236" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AO236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP236" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AQ236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR236" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS236" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU236" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV236" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW236" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX236" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY236" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ236" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA236" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB236" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC236" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD236" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE236" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF236" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG236" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI236" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ236" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK236" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>2313613</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="n">
+        <v>45022.64583333334</v>
+      </c>
+      <c r="F237" t="n">
+        <v>27</v>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="n">
+        <v>2</v>
+      </c>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q237" t="n">
+        <v>7</v>
+      </c>
+      <c r="R237" t="n">
+        <v>2</v>
+      </c>
+      <c r="S237" t="n">
+        <v>9</v>
+      </c>
+      <c r="T237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U237" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V237" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W237" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y237" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z237" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA237" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB237" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC237" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD237" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE237" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AF237" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH237" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI237" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ237" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK237" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL237" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM237" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO237" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP237" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR237" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS237" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT237" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU237" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV237" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AW237" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX237" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AY237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ237" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BA237" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB237" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC237" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD237" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE237" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF237" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG237" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH237" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI237" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ237" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK237" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2313617</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E238" s="2" t="n">
+        <v>45024.3125</v>
+      </c>
+      <c r="F238" t="n">
+        <v>27</v>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Wisła Płock</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>2</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>2</v>
+      </c>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>['54', '71']</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q238" t="n">
+        <v>6</v>
+      </c>
+      <c r="R238" t="n">
+        <v>4</v>
+      </c>
+      <c r="S238" t="n">
+        <v>10</v>
+      </c>
+      <c r="T238" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U238" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W238" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X238" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y238" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z238" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA238" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AB238" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC238" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD238" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE238" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF238" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG238" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH238" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI238" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ238" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK238" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL238" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM238" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN238" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO238" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP238" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ238" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AR238" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS238" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT238" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW238" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX238" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY238" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ238" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA238" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB238" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC238" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD238" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE238" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF238" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG238" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH238" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI238" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ238" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK238" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>2313616</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E239" s="2" t="n">
+        <v>45024.41666666666</v>
+      </c>
+      <c r="F239" t="n">
+        <v>27</v>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>2</v>
+      </c>
+      <c r="N239" t="n">
+        <v>2</v>
+      </c>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>['10', '52']</t>
+        </is>
+      </c>
+      <c r="Q239" t="n">
+        <v>6</v>
+      </c>
+      <c r="R239" t="n">
+        <v>2</v>
+      </c>
+      <c r="S239" t="n">
+        <v>8</v>
+      </c>
+      <c r="T239" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U239" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V239" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X239" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Y239" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Z239" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA239" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AB239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD239" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF239" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG239" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH239" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI239" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AJ239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK239" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL239" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM239" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN239" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO239" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP239" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR239" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS239" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT239" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU239" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV239" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW239" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AX239" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY239" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ239" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="BA239" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB239" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC239" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD239" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE239" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH239" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI239" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ239" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK239" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2313614</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E240" s="2" t="n">
+        <v>45024.52083333334</v>
+      </c>
+      <c r="F240" t="n">
+        <v>27</v>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>2</v>
+      </c>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
+      <c r="K240" t="n">
+        <v>3</v>
+      </c>
+      <c r="L240" t="n">
+        <v>3</v>
+      </c>
+      <c r="M240" t="n">
+        <v>2</v>
+      </c>
+      <c r="N240" t="n">
+        <v>5</v>
+      </c>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>['15', '17', '88']</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>['3', '54']</t>
+        </is>
+      </c>
+      <c r="Q240" t="n">
+        <v>7</v>
+      </c>
+      <c r="R240" t="n">
+        <v>3</v>
+      </c>
+      <c r="S240" t="n">
+        <v>10</v>
+      </c>
+      <c r="T240" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="U240" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V240" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="W240" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X240" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y240" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Z240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA240" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB240" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC240" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE240" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF240" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG240" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AI240" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AJ240" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK240" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM240" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN240" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO240" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP240" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ240" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR240" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS240" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT240" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU240" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AV240" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW240" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX240" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY240" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ240" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BA240" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB240" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC240" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD240" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE240" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF240" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG240" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH240" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI240" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ240" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK240" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK240"/>
+  <dimension ref="A1:BK241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.85</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT4" t="n">
         <v>1.21</v>
@@ -4557,7 +4557,7 @@
         <v>1.08</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT22" t="n">
         <v>0.6899999999999999</v>
@@ -9020,7 +9020,7 @@
         <v>0.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT42" t="n">
         <v>1</v>
@@ -9226,7 +9226,7 @@
         <v>1.54</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU43" t="n">
         <v>1.27</v>
@@ -12068,7 +12068,7 @@
         <v>1.69</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU57" t="n">
         <v>1.76</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT59" t="n">
         <v>1.5</v>
@@ -13489,7 +13489,7 @@
         <v>1.23</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU64" t="n">
         <v>1.32</v>
@@ -14298,7 +14298,7 @@
         <v>1.75</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT68" t="n">
         <v>1.54</v>
@@ -19170,7 +19170,7 @@
         <v>1.4</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT92" t="n">
         <v>1.85</v>
@@ -20188,7 +20188,7 @@
         <v>1.29</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU97" t="n">
         <v>1.43</v>
@@ -21203,7 +21203,7 @@
         <v>2.38</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU102" t="n">
         <v>1.92</v>
@@ -21809,7 +21809,7 @@
         <v>1.4</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT105" t="n">
         <v>1.46</v>
@@ -27493,7 +27493,7 @@
         <v>1.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT133" t="n">
         <v>1.85</v>
@@ -27699,7 +27699,7 @@
         <v>1.08</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU134" t="n">
         <v>1.91</v>
@@ -28308,7 +28308,7 @@
         <v>1.15</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU137" t="n">
         <v>1.68</v>
@@ -29523,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT143" t="n">
         <v>0.79</v>
@@ -34801,7 +34801,7 @@
         <v>0.5</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT169" t="n">
         <v>0.38</v>
@@ -38052,7 +38052,7 @@
         <v>1.69</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU185" t="n">
         <v>2.23</v>
@@ -38455,7 +38455,7 @@
         <v>1.44</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT187" t="n">
         <v>1.54</v>
@@ -41094,7 +41094,7 @@
         <v>0.91</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT200" t="n">
         <v>0.77</v>
@@ -41300,7 +41300,7 @@
         <v>1.29</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU201" t="n">
         <v>1.86</v>
@@ -42721,7 +42721,7 @@
         <v>1.93</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU208" t="n">
         <v>1.64</v>
@@ -46578,7 +46578,7 @@
         <v>0.79</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="AU227" t="n">
         <v>1.9</v>
@@ -47996,7 +47996,7 @@
         <v>1.62</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT234" t="n">
         <v>1.57</v>
@@ -49269,6 +49269,209 @@
       </c>
       <c r="BK240" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>2313611</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E241" s="2" t="n">
+        <v>45024.625</v>
+      </c>
+      <c r="F241" t="n">
+        <v>27</v>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="n">
+        <v>2</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>2</v>
+      </c>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>['34', '88']</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q241" t="n">
+        <v>5</v>
+      </c>
+      <c r="R241" t="n">
+        <v>3</v>
+      </c>
+      <c r="S241" t="n">
+        <v>8</v>
+      </c>
+      <c r="T241" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U241" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V241" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W241" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X241" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y241" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Z241" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AA241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB241" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC241" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE241" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF241" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG241" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH241" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI241" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AJ241" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK241" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL241" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AM241" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN241" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO241" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP241" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AQ241" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR241" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AS241" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT241" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU241" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AV241" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW241" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX241" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ241" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA241" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB241" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC241" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD241" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE241" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF241" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG241" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH241" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI241" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ241" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK241" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK241"/>
+  <dimension ref="A1:BK244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT5" t="n">
         <v>1.5</v>
@@ -1715,7 +1715,7 @@
         <v>1.54</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT7" t="n">
         <v>0.38</v>
@@ -2121,7 +2121,7 @@
         <v>1.93</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT12" t="n">
         <v>1.54</v>
@@ -4151,7 +4151,7 @@
         <v>1.69</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU18" t="n">
         <v>2.26</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT19" t="n">
         <v>1.15</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT20" t="n">
         <v>1.64</v>
@@ -5369,7 +5369,7 @@
         <v>1.29</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU24" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT29" t="n">
         <v>1.46</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU33" t="n">
         <v>1.8</v>
@@ -7599,7 +7599,7 @@
         <v>1.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT35" t="n">
         <v>1.54</v>
@@ -7805,7 +7805,7 @@
         <v>1.29</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU36" t="n">
         <v>2.3</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU40" t="n">
         <v>2.28</v>
@@ -9426,7 +9426,7 @@
         <v>0.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT44" t="n">
         <v>0.38</v>
@@ -11053,7 +11053,7 @@
         <v>1.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU52" t="n">
         <v>1.48</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT53" t="n">
         <v>0.79</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -12271,7 +12271,7 @@
         <v>1.29</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU58" t="n">
         <v>1.57</v>
@@ -13692,7 +13692,7 @@
         <v>1.69</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU65" t="n">
         <v>1.64</v>
@@ -15316,7 +15316,7 @@
         <v>1.29</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU73" t="n">
         <v>1.35</v>
@@ -15516,7 +15516,7 @@
         <v>1.75</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT74" t="n">
         <v>0.6899999999999999</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT76" t="n">
         <v>0.79</v>
@@ -16331,7 +16331,7 @@
         <v>2.85</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU78" t="n">
         <v>1.77</v>
@@ -16531,7 +16531,7 @@
         <v>1.5</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT79" t="n">
         <v>1.21</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT89" t="n">
         <v>0.93</v>
@@ -19173,7 +19173,7 @@
         <v>1.64</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU92" t="n">
         <v>2.18</v>
@@ -19376,7 +19376,7 @@
         <v>1.69</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU93" t="n">
         <v>2.12</v>
@@ -19576,7 +19576,7 @@
         <v>1.2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT94" t="n">
         <v>1.21</v>
@@ -19779,7 +19779,7 @@
         <v>1.4</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT95" t="n">
         <v>0.79</v>
@@ -19985,7 +19985,7 @@
         <v>1.29</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU96" t="n">
         <v>1.74</v>
@@ -20391,7 +20391,7 @@
         <v>1.15</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -20794,7 +20794,7 @@
         <v>1.17</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT100" t="n">
         <v>0.6899999999999999</v>
@@ -21406,7 +21406,7 @@
         <v>1.69</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU103" t="n">
         <v>1.59</v>
@@ -22624,7 +22624,7 @@
         <v>1.93</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU109" t="n">
         <v>1.84</v>
@@ -22824,7 +22824,7 @@
         <v>1</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT110" t="n">
         <v>1</v>
@@ -23030,7 +23030,7 @@
         <v>1.23</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU111" t="n">
         <v>1.57</v>
@@ -23636,7 +23636,7 @@
         <v>1.4</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT114" t="n">
         <v>0.93</v>
@@ -25872,7 +25872,7 @@
         <v>0.79</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU125" t="n">
         <v>2.12</v>
@@ -26072,7 +26072,7 @@
         <v>1.14</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT126" t="n">
         <v>1.57</v>
@@ -26681,10 +26681,10 @@
         <v>1.14</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU129" t="n">
         <v>1.86</v>
@@ -27496,7 +27496,7 @@
         <v>1.64</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU133" t="n">
         <v>2.14</v>
@@ -27696,7 +27696,7 @@
         <v>1.86</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT134" t="n">
         <v>1.64</v>
@@ -28105,7 +28105,7 @@
         <v>2.38</v>
       </c>
       <c r="AT136" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU136" t="n">
         <v>1.96</v>
@@ -29117,7 +29117,7 @@
         <v>1.14</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT141" t="n">
         <v>1</v>
@@ -30538,7 +30538,7 @@
         <v>2</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT148" t="n">
         <v>1.85</v>
@@ -30744,7 +30744,7 @@
         <v>0.79</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU149" t="n">
         <v>1.93</v>
@@ -30944,7 +30944,7 @@
         <v>1.38</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT150" t="n">
         <v>1.57</v>
@@ -31353,7 +31353,7 @@
         <v>1.29</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU152" t="n">
         <v>1.65</v>
@@ -31756,7 +31756,7 @@
         <v>1.63</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT154" t="n">
         <v>1.46</v>
@@ -32165,7 +32165,7 @@
         <v>1.15</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -33583,7 +33583,7 @@
         <v>2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT163" t="n">
         <v>1.85</v>
@@ -34195,7 +34195,7 @@
         <v>1</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU166" t="n">
         <v>1.81</v>
@@ -34398,7 +34398,7 @@
         <v>0.79</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU167" t="n">
         <v>1.94</v>
@@ -34598,7 +34598,7 @@
         <v>1.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT168" t="n">
         <v>1.21</v>
@@ -35413,7 +35413,7 @@
         <v>1.31</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU172" t="n">
         <v>1.58</v>
@@ -36222,7 +36222,7 @@
         <v>1.5</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT176" t="n">
         <v>1.57</v>
@@ -37646,7 +37646,7 @@
         <v>1.54</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU183" t="n">
         <v>1.52</v>
@@ -38252,7 +38252,7 @@
         <v>0.9</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT186" t="n">
         <v>0.6899999999999999</v>
@@ -38661,7 +38661,7 @@
         <v>1.15</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU188" t="n">
         <v>1.72</v>
@@ -38861,7 +38861,7 @@
         <v>0.7</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT189" t="n">
         <v>0.77</v>
@@ -39064,10 +39064,10 @@
         <v>1.8</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU190" t="n">
         <v>1.79</v>
@@ -41097,7 +41097,7 @@
         <v>1.64</v>
       </c>
       <c r="AT200" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU200" t="n">
         <v>2.08</v>
@@ -41706,7 +41706,7 @@
         <v>1</v>
       </c>
       <c r="AT203" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU203" t="n">
         <v>1.84</v>
@@ -41906,7 +41906,7 @@
         <v>0.73</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT204" t="n">
         <v>0.77</v>
@@ -42112,7 +42112,7 @@
         <v>1.69</v>
       </c>
       <c r="AT205" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU205" t="n">
         <v>2.21</v>
@@ -42515,7 +42515,7 @@
         <v>1.6</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT207" t="n">
         <v>1.54</v>
@@ -43733,7 +43733,7 @@
         <v>1.36</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT213" t="n">
         <v>1.15</v>
@@ -44951,10 +44951,10 @@
         <v>1.75</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU219" t="n">
         <v>1.76</v>
@@ -45357,7 +45357,7 @@
         <v>1.73</v>
       </c>
       <c r="AS221" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT221" t="n">
         <v>1.54</v>
@@ -45969,7 +45969,7 @@
         <v>1.15</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU224" t="n">
         <v>1.59</v>
@@ -46169,7 +46169,7 @@
         <v>1.25</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT225" t="n">
         <v>1.5</v>
@@ -47187,7 +47187,7 @@
         <v>2.38</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU230" t="n">
         <v>1.99</v>
@@ -49472,6 +49472,615 @@
       </c>
       <c r="BK241" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2313610</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="n">
+        <v>45026.41666666666</v>
+      </c>
+      <c r="F242" t="n">
+        <v>27</v>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Lechia Gdańsk</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q242" t="n">
+        <v>7</v>
+      </c>
+      <c r="R242" t="n">
+        <v>4</v>
+      </c>
+      <c r="S242" t="n">
+        <v>11</v>
+      </c>
+      <c r="T242" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U242" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V242" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W242" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X242" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y242" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z242" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA242" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC242" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD242" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE242" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF242" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG242" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH242" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI242" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ242" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK242" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL242" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM242" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AO242" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ242" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR242" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS242" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT242" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU242" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV242" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW242" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX242" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ242" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BA242" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB242" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC242" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD242" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BE242" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF242" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG242" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH242" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI242" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ242" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK242" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2313615</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="n">
+        <v>45026.52083333334</v>
+      </c>
+      <c r="F243" t="n">
+        <v>27</v>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0</v>
+      </c>
+      <c r="M243" t="n">
+        <v>0</v>
+      </c>
+      <c r="N243" t="n">
+        <v>0</v>
+      </c>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q243" t="n">
+        <v>3</v>
+      </c>
+      <c r="R243" t="n">
+        <v>4</v>
+      </c>
+      <c r="S243" t="n">
+        <v>7</v>
+      </c>
+      <c r="T243" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U243" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V243" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y243" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z243" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA243" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC243" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AD243" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE243" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AF243" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG243" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH243" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI243" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AJ243" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK243" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM243" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN243" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AO243" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP243" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ243" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR243" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS243" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT243" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU243" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV243" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW243" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AX243" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AY243" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ243" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA243" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB243" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC243" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD243" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE243" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF243" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI243" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ243" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK243" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2313612</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="n">
+        <v>45026.625</v>
+      </c>
+      <c r="F244" t="n">
+        <v>27</v>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2</v>
+      </c>
+      <c r="L244" t="n">
+        <v>2</v>
+      </c>
+      <c r="M244" t="n">
+        <v>2</v>
+      </c>
+      <c r="N244" t="n">
+        <v>4</v>
+      </c>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>['27', '50']</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>['41', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q244" t="n">
+        <v>4</v>
+      </c>
+      <c r="R244" t="n">
+        <v>5</v>
+      </c>
+      <c r="S244" t="n">
+        <v>9</v>
+      </c>
+      <c r="T244" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U244" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V244" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y244" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z244" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA244" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC244" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD244" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE244" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF244" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG244" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH244" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ244" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK244" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL244" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM244" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN244" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AO244" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP244" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ244" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR244" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS244" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT244" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU244" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV244" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW244" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX244" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AY244" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AZ244" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BA244" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB244" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC244" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD244" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF244" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH244" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ244" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK244" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK244"/>
+  <dimension ref="A1:BK246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT3" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT11" t="n">
         <v>0.6899999999999999</v>
@@ -4354,7 +4354,7 @@
         <v>1.07</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU19" t="n">
         <v>2.38</v>
@@ -5572,7 +5572,7 @@
         <v>1.54</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU25" t="n">
         <v>0.96</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT31" t="n">
         <v>1.57</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT32" t="n">
         <v>1.85</v>
@@ -9023,7 +9023,7 @@
         <v>1.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU42" t="n">
         <v>2.44</v>
@@ -9632,7 +9632,7 @@
         <v>2.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU45" t="n">
         <v>1.55</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT48" t="n">
         <v>1.54</v>
@@ -10441,7 +10441,7 @@
         <v>2</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT49" t="n">
         <v>1.46</v>
@@ -13286,7 +13286,7 @@
         <v>1.31</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU63" t="n">
         <v>1.39</v>
@@ -13892,7 +13892,7 @@
         <v>0.67</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT66" t="n">
         <v>0.77</v>
@@ -14707,7 +14707,7 @@
         <v>1.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU70" t="n">
         <v>1.98</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT71" t="n">
         <v>1.54</v>
@@ -16737,7 +16737,7 @@
         <v>1.15</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU80" t="n">
         <v>1.83</v>
@@ -17955,7 +17955,7 @@
         <v>1.54</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU86" t="n">
         <v>1.45</v>
@@ -18155,7 +18155,7 @@
         <v>1.4</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT87" t="n">
         <v>0.6899999999999999</v>
@@ -18358,7 +18358,7 @@
         <v>1.67</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT88" t="n">
         <v>1.85</v>
@@ -21000,7 +21000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU101" t="n">
         <v>1.5</v>
@@ -21606,7 +21606,7 @@
         <v>1.17</v>
       </c>
       <c r="AS104" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT104" t="n">
         <v>0.79</v>
@@ -22827,7 +22827,7 @@
         <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.98</v>
@@ -23230,7 +23230,7 @@
         <v>0.8</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT112" t="n">
         <v>0.77</v>
@@ -25057,10 +25057,10 @@
         <v>1.6</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU121" t="n">
         <v>1.54</v>
@@ -25869,7 +25869,7 @@
         <v>0.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT125" t="n">
         <v>0.71</v>
@@ -26887,7 +26887,7 @@
         <v>1.93</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU130" t="n">
         <v>1.76</v>
@@ -27087,7 +27087,7 @@
         <v>1.33</v>
       </c>
       <c r="AS131" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT131" t="n">
         <v>0.93</v>
@@ -28714,7 +28714,7 @@
         <v>1.69</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU139" t="n">
         <v>2.23</v>
@@ -29120,7 +29120,7 @@
         <v>1.07</v>
       </c>
       <c r="AT141" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU141" t="n">
         <v>1.48</v>
@@ -29726,7 +29726,7 @@
         <v>1.5</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT144" t="n">
         <v>1.21</v>
@@ -30741,7 +30741,7 @@
         <v>1.86</v>
       </c>
       <c r="AS149" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT149" t="n">
         <v>1.79</v>
@@ -31556,7 +31556,7 @@
         <v>1.23</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU153" t="n">
         <v>1.53</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT156" t="n">
         <v>1.79</v>
@@ -33383,7 +33383,7 @@
         <v>1.69</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU162" t="n">
         <v>1.61</v>
@@ -34395,7 +34395,7 @@
         <v>1.33</v>
       </c>
       <c r="AS167" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT167" t="n">
         <v>1.79</v>
@@ -35007,7 +35007,7 @@
         <v>1.69</v>
       </c>
       <c r="AT170" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU170" t="n">
         <v>2.19</v>
@@ -36425,7 +36425,7 @@
         <v>0.9</v>
       </c>
       <c r="AS177" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT177" t="n">
         <v>1.5</v>
@@ -37034,7 +37034,7 @@
         <v>0.44</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT180" t="n">
         <v>0.38</v>
@@ -37443,7 +37443,7 @@
         <v>1.29</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU182" t="n">
         <v>1.91</v>
@@ -37849,7 +37849,7 @@
         <v>2.85</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -39673,7 +39673,7 @@
         <v>0.82</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT193" t="n">
         <v>0.79</v>
@@ -40082,7 +40082,7 @@
         <v>1.31</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU195" t="n">
         <v>1.49</v>
@@ -40688,7 +40688,7 @@
         <v>0.5</v>
       </c>
       <c r="AS198" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT198" t="n">
         <v>0.38</v>
@@ -42315,7 +42315,7 @@
         <v>1.69</v>
       </c>
       <c r="AT206" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU206" t="n">
         <v>1.67</v>
@@ -43127,7 +43127,7 @@
         <v>2.85</v>
       </c>
       <c r="AT210" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU210" t="n">
         <v>1.94</v>
@@ -43530,7 +43530,7 @@
         <v>1.5</v>
       </c>
       <c r="AS212" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT212" t="n">
         <v>1.57</v>
@@ -43736,7 +43736,7 @@
         <v>1.64</v>
       </c>
       <c r="AT213" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU213" t="n">
         <v>1.76</v>
@@ -43936,7 +43936,7 @@
         <v>1.09</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT214" t="n">
         <v>0.93</v>
@@ -45966,7 +45966,7 @@
         <v>0.83</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT224" t="n">
         <v>0.71</v>
@@ -46575,7 +46575,7 @@
         <v>1.83</v>
       </c>
       <c r="AS227" t="n">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AT227" t="n">
         <v>1.64</v>
@@ -46781,7 +46781,7 @@
         <v>1.15</v>
       </c>
       <c r="AT228" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AU228" t="n">
         <v>1.62</v>
@@ -47390,7 +47390,7 @@
         <v>1.23</v>
       </c>
       <c r="AT231" t="n">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AU231" t="n">
         <v>1.45</v>
@@ -50081,6 +50081,412 @@
       </c>
       <c r="BK244" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>2313627</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="n">
+        <v>45030.54166666666</v>
+      </c>
+      <c r="F245" t="n">
+        <v>28</v>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Warta Poznań</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Śląsk Wrocław</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>2</v>
+      </c>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
+      <c r="K245" t="n">
+        <v>3</v>
+      </c>
+      <c r="L245" t="n">
+        <v>3</v>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="n">
+        <v>4</v>
+      </c>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>['11', '29', '69']</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q245" t="n">
+        <v>3</v>
+      </c>
+      <c r="R245" t="n">
+        <v>7</v>
+      </c>
+      <c r="S245" t="n">
+        <v>10</v>
+      </c>
+      <c r="T245" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U245" t="n">
+        <v>2</v>
+      </c>
+      <c r="V245" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W245" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y245" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z245" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA245" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB245" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC245" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD245" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AE245" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AF245" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG245" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI245" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ245" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL245" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM245" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN245" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ245" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR245" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT245" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU245" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV245" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW245" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX245" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ245" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA245" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB245" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC245" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD245" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE245" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF245" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG245" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH245" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI245" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ245" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK245" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2313621</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="n">
+        <v>45030.64583333334</v>
+      </c>
+      <c r="F246" t="n">
+        <v>28</v>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Zagłębie Lubin</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Górnik Zabrze</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0</v>
+      </c>
+      <c r="M246" t="n">
+        <v>2</v>
+      </c>
+      <c r="N246" t="n">
+        <v>2</v>
+      </c>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>['51', '90+10']</t>
+        </is>
+      </c>
+      <c r="Q246" t="n">
+        <v>3</v>
+      </c>
+      <c r="R246" t="n">
+        <v>4</v>
+      </c>
+      <c r="S246" t="n">
+        <v>7</v>
+      </c>
+      <c r="T246" t="n">
+        <v>3</v>
+      </c>
+      <c r="U246" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V246" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W246" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X246" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y246" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z246" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA246" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB246" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC246" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AD246" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE246" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF246" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI246" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ246" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK246" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL246" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM246" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN246" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO246" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AQ246" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AR246" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AS246" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AT246" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AU246" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV246" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW246" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX246" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY246" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ246" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA246" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB246" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC246" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD246" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BE246" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BF246" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH246" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI246" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ246" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK246" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK246"/>
+  <dimension ref="A1:BK252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT2" t="n">
         <v>1.64</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT6" t="n">
         <v>1.79</v>
@@ -2324,7 +2324,7 @@
         <v>1.69</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.29</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.64</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU12" t="n">
         <v>1.19</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT13" t="n">
         <v>0.79</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT14" t="n">
         <v>1.54</v>
@@ -3542,7 +3542,7 @@
         <v>1.29</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.31</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT17" t="n">
         <v>1.54</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT18" t="n">
         <v>1.79</v>
@@ -4760,7 +4760,7 @@
         <v>1.69</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU21" t="n">
         <v>2.16</v>
@@ -4963,7 +4963,7 @@
         <v>1.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU22" t="n">
         <v>2.32</v>
@@ -5163,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT23" t="n">
         <v>1.21</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT25" t="n">
         <v>0.93</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT28" t="n">
         <v>0.79</v>
@@ -6384,7 +6384,7 @@
         <v>1.64</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU29" t="n">
         <v>1.71</v>
@@ -6587,7 +6587,7 @@
         <v>1.29</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU30" t="n">
         <v>1.55</v>
@@ -6790,7 +6790,7 @@
         <v>1.29</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU31" t="n">
         <v>1.16</v>
@@ -6993,7 +6993,7 @@
         <v>0.73</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT37" t="n">
         <v>1.5</v>
@@ -8414,7 +8414,7 @@
         <v>1.69</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU39" t="n">
         <v>1.6</v>
@@ -8817,10 +8817,10 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU41" t="n">
         <v>1.72</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT43" t="n">
         <v>1.64</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT45" t="n">
         <v>1.29</v>
@@ -10241,7 +10241,7 @@
         <v>1.29</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU48" t="n">
         <v>1.38</v>
@@ -10444,7 +10444,7 @@
         <v>0.73</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU49" t="n">
         <v>1.99</v>
@@ -10644,7 +10644,7 @@
         <v>2</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT50" t="n">
         <v>1.21</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU51" t="n">
         <v>1.91</v>
@@ -11865,7 +11865,7 @@
         <v>1.29</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU56" t="n">
         <v>2.05</v>
@@ -12065,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT57" t="n">
         <v>1.64</v>
@@ -12674,10 +12674,10 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU60" t="n">
         <v>1.63</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU61" t="n">
         <v>1.22</v>
@@ -13080,10 +13080,10 @@
         <v>2.33</v>
       </c>
       <c r="AS62" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13486,7 +13486,7 @@
         <v>2.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT64" t="n">
         <v>1.64</v>
@@ -13689,7 +13689,7 @@
         <v>1.5</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT65" t="n">
         <v>1.79</v>
@@ -13895,7 +13895,7 @@
         <v>0.73</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU66" t="n">
         <v>1.96</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU67" t="n">
         <v>1.41</v>
@@ -14301,7 +14301,7 @@
         <v>1.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU68" t="n">
         <v>2.14</v>
@@ -14501,7 +14501,7 @@
         <v>0.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT69" t="n">
         <v>0.38</v>
@@ -15519,7 +15519,7 @@
         <v>1.07</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU74" t="n">
         <v>2.04</v>
@@ -16128,7 +16128,7 @@
         <v>1.69</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU77" t="n">
         <v>2.16</v>
@@ -16328,7 +16328,7 @@
         <v>1.75</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT78" t="n">
         <v>1.79</v>
@@ -16734,7 +16734,7 @@
         <v>1</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT80" t="n">
         <v>0.93</v>
@@ -16937,7 +16937,7 @@
         <v>0.25</v>
       </c>
       <c r="AS81" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT81" t="n">
         <v>0.38</v>
@@ -17143,7 +17143,7 @@
         <v>1.31</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU82" t="n">
         <v>1.27</v>
@@ -17343,10 +17343,10 @@
         <v>0.75</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU83" t="n">
         <v>1.4</v>
@@ -17546,10 +17546,10 @@
         <v>1.75</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU84" t="n">
         <v>1.8</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU85" t="n">
         <v>1.64</v>
@@ -17952,7 +17952,7 @@
         <v>1.67</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT86" t="n">
         <v>1.29</v>
@@ -18158,7 +18158,7 @@
         <v>0.73</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU87" t="n">
         <v>2.15</v>
@@ -18361,7 +18361,7 @@
         <v>1.29</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU88" t="n">
         <v>1.62</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT98" t="n">
         <v>1.79</v>
@@ -20594,7 +20594,7 @@
         <v>1.31</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU99" t="n">
         <v>1.47</v>
@@ -20797,7 +20797,7 @@
         <v>1.64</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.9</v>
@@ -21200,7 +21200,7 @@
         <v>2.17</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT102" t="n">
         <v>1.64</v>
@@ -21403,7 +21403,7 @@
         <v>0.5</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT103" t="n">
         <v>0.71</v>
@@ -21812,7 +21812,7 @@
         <v>1.64</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU105" t="n">
         <v>2.12</v>
@@ -22012,7 +22012,7 @@
         <v>0.2</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT106" t="n">
         <v>0.38</v>
@@ -22215,10 +22215,10 @@
         <v>1.67</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU107" t="n">
         <v>1.57</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT108" t="n">
         <v>1.21</v>
@@ -23027,7 +23027,7 @@
         <v>1.4</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT111" t="n">
         <v>1.79</v>
@@ -23233,7 +23233,7 @@
         <v>1.29</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU112" t="n">
         <v>1.48</v>
@@ -24045,7 +24045,7 @@
         <v>1</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU116" t="n">
         <v>1.87</v>
@@ -24451,7 +24451,7 @@
         <v>1.31</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU118" t="n">
         <v>1.58</v>
@@ -24651,10 +24651,10 @@
         <v>1.17</v>
       </c>
       <c r="AS119" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU119" t="n">
         <v>1.89</v>
@@ -24854,7 +24854,7 @@
         <v>1.14</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT120" t="n">
         <v>0.79</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU122" t="n">
         <v>1.56</v>
@@ -25463,10 +25463,10 @@
         <v>2.2</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU123" t="n">
         <v>1.65</v>
@@ -25666,10 +25666,10 @@
         <v>1.17</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU124" t="n">
         <v>1.74</v>
@@ -26075,7 +26075,7 @@
         <v>1.07</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU126" t="n">
         <v>1.49</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU127" t="n">
         <v>1.9</v>
@@ -26478,7 +26478,7 @@
         <v>0.71</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT128" t="n">
         <v>1.5</v>
@@ -27290,7 +27290,7 @@
         <v>1.71</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT132" t="n">
         <v>1.21</v>
@@ -28102,7 +28102,7 @@
         <v>1.13</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT136" t="n">
         <v>0.71</v>
@@ -28305,7 +28305,7 @@
         <v>2</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT137" t="n">
         <v>1.64</v>
@@ -28508,10 +28508,10 @@
         <v>0.71</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.68</v>
@@ -28914,10 +28914,10 @@
         <v>1.13</v>
       </c>
       <c r="AS140" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU140" t="n">
         <v>1.9</v>
@@ -29323,7 +29323,7 @@
         <v>1.29</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU142" t="n">
         <v>1.72</v>
@@ -30132,10 +30132,10 @@
         <v>1.63</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU146" t="n">
         <v>1.54</v>
@@ -30541,7 +30541,7 @@
         <v>1.64</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU148" t="n">
         <v>1.92</v>
@@ -30947,7 +30947,7 @@
         <v>1.07</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU150" t="n">
         <v>1.83</v>
@@ -31147,7 +31147,7 @@
         <v>0.75</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT151" t="n">
         <v>1.5</v>
@@ -31553,7 +31553,7 @@
         <v>1.71</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT153" t="n">
         <v>1.29</v>
@@ -31759,7 +31759,7 @@
         <v>1.07</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU154" t="n">
         <v>1.44</v>
@@ -31962,7 +31962,7 @@
         <v>1.31</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU155" t="n">
         <v>1.59</v>
@@ -32368,7 +32368,7 @@
         <v>1.29</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU157" t="n">
         <v>1.89</v>
@@ -32771,10 +32771,10 @@
         <v>0.63</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU159" t="n">
         <v>1.63</v>
@@ -32974,7 +32974,7 @@
         <v>0.89</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT160" t="n">
         <v>0.79</v>
@@ -33177,10 +33177,10 @@
         <v>1</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT161" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU161" t="n">
         <v>1.48</v>
@@ -33380,7 +33380,7 @@
         <v>1.5</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT162" t="n">
         <v>1.29</v>
@@ -33586,7 +33586,7 @@
         <v>1.07</v>
       </c>
       <c r="AT163" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU163" t="n">
         <v>1.46</v>
@@ -33789,7 +33789,7 @@
         <v>1.29</v>
       </c>
       <c r="AT164" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU164" t="n">
         <v>1.92</v>
@@ -33989,7 +33989,7 @@
         <v>1</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT165" t="n">
         <v>1.5</v>
@@ -35207,7 +35207,7 @@
         <v>1.38</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT171" t="n">
         <v>0.93</v>
@@ -35613,10 +35613,10 @@
         <v>1.78</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU173" t="n">
         <v>1.45</v>
@@ -36022,7 +36022,7 @@
         <v>1.93</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU175" t="n">
         <v>1.69</v>
@@ -36225,7 +36225,7 @@
         <v>1.64</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU176" t="n">
         <v>1.84</v>
@@ -36631,7 +36631,7 @@
         <v>1</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU178" t="n">
         <v>1.85</v>
@@ -36831,7 +36831,7 @@
         <v>1.22</v>
       </c>
       <c r="AS179" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT179" t="n">
         <v>0.93</v>
@@ -37237,7 +37237,7 @@
         <v>1.3</v>
       </c>
       <c r="AS181" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT181" t="n">
         <v>1.21</v>
@@ -37643,7 +37643,7 @@
         <v>1</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT183" t="n">
         <v>0.71</v>
@@ -37846,7 +37846,7 @@
         <v>1.33</v>
       </c>
       <c r="AS184" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT184" t="n">
         <v>1.29</v>
@@ -38255,7 +38255,7 @@
         <v>1.07</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU186" t="n">
         <v>1.39</v>
@@ -38658,7 +38658,7 @@
         <v>1.5</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT188" t="n">
         <v>1.79</v>
@@ -38864,7 +38864,7 @@
         <v>1.07</v>
       </c>
       <c r="AT189" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU189" t="n">
         <v>1.76</v>
@@ -39267,10 +39267,10 @@
         <v>1.7</v>
       </c>
       <c r="AS191" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU191" t="n">
         <v>2</v>
@@ -39470,7 +39470,7 @@
         <v>1.2</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT192" t="n">
         <v>0.93</v>
@@ -39876,10 +39876,10 @@
         <v>1.5</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU194" t="n">
         <v>1.45</v>
@@ -40285,7 +40285,7 @@
         <v>1.93</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU196" t="n">
         <v>1.67</v>
@@ -40488,7 +40488,7 @@
         <v>1.29</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU197" t="n">
         <v>1.54</v>
@@ -41500,10 +41500,10 @@
         <v>0.82</v>
       </c>
       <c r="AS202" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT202" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU202" t="n">
         <v>1.61</v>
@@ -41909,7 +41909,7 @@
         <v>1.07</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU204" t="n">
         <v>1.44</v>
@@ -42312,7 +42312,7 @@
         <v>1.1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT206" t="n">
         <v>0.93</v>
@@ -42921,7 +42921,7 @@
         <v>0.45</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT209" t="n">
         <v>0.38</v>
@@ -43124,7 +43124,7 @@
         <v>1.09</v>
       </c>
       <c r="AS210" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT210" t="n">
         <v>0.93</v>
@@ -43327,10 +43327,10 @@
         <v>1.64</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU211" t="n">
         <v>1.65</v>
@@ -43533,7 +43533,7 @@
         <v>0.73</v>
       </c>
       <c r="AT212" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU212" t="n">
         <v>1.89</v>
@@ -44139,10 +44139,10 @@
         <v>1.82</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU215" t="n">
         <v>1.65</v>
@@ -44342,7 +44342,7 @@
         <v>1.18</v>
       </c>
       <c r="AS216" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT216" t="n">
         <v>1.21</v>
@@ -44548,7 +44548,7 @@
         <v>1.93</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU217" t="n">
         <v>1.63</v>
@@ -44751,7 +44751,7 @@
         <v>1</v>
       </c>
       <c r="AT218" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.64</v>
       </c>
       <c r="AU218" t="n">
         <v>1.83</v>
@@ -45763,7 +45763,7 @@
         <v>1.08</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT223" t="n">
         <v>0.93</v>
@@ -46375,7 +46375,7 @@
         <v>1.29</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AU226" t="n">
         <v>1.81</v>
@@ -46778,7 +46778,7 @@
         <v>1.25</v>
       </c>
       <c r="AS228" t="n">
-        <v>1.15</v>
+        <v>1.29</v>
       </c>
       <c r="AT228" t="n">
         <v>1.29</v>
@@ -46981,7 +46981,7 @@
         <v>0.42</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AT229" t="n">
         <v>0.38</v>
@@ -47184,7 +47184,7 @@
         <v>2</v>
       </c>
       <c r="AS230" t="n">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="AT230" t="n">
         <v>1.79</v>
@@ -47387,7 +47387,7 @@
         <v>1</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT231" t="n">
         <v>0.93</v>
@@ -47593,7 +47593,7 @@
         <v>1.93</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AU232" t="n">
         <v>1.62</v>
@@ -47793,10 +47793,10 @@
         <v>1.58</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="AT233" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AU233" t="n">
         <v>1.66</v>
@@ -47999,7 +47999,7 @@
         <v>1.64</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AU234" t="n">
         <v>2.07</v>
@@ -48202,7 +48202,7 @@
         <v>1.31</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AU235" t="n">
         <v>1.49</v>
@@ -50487,6 +50487,1224 @@
       </c>
       <c r="BK246" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2313619</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E247" s="2" t="n">
+        <v>45031.41666666666</v>
+      </c>
+      <c r="F247" t="n">
+        <v>28</v>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Cracovia Kraków</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Radomiak Radom</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="n">
+        <v>3</v>
+      </c>
+      <c r="M247" t="n">
+        <v>0</v>
+      </c>
+      <c r="N247" t="n">
+        <v>3</v>
+      </c>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>['19', '90+2', '90+10']</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q247" t="n">
+        <v>7</v>
+      </c>
+      <c r="R247" t="n">
+        <v>4</v>
+      </c>
+      <c r="S247" t="n">
+        <v>11</v>
+      </c>
+      <c r="T247" t="n">
+        <v>3</v>
+      </c>
+      <c r="U247" t="n">
+        <v>2</v>
+      </c>
+      <c r="V247" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W247" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y247" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z247" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA247" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="AB247" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC247" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE247" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF247" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG247" t="n">
+        <v>8.949999999999999</v>
+      </c>
+      <c r="AH247" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI247" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ247" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AK247" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL247" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM247" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN247" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO247" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP247" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ247" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR247" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS247" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT247" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU247" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV247" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX247" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY247" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AZ247" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BA247" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB247" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BC247" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BD247" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE247" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BF247" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG247" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH247" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI247" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ247" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK247" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2313622</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E248" s="2" t="n">
+        <v>45031.52083333334</v>
+      </c>
+      <c r="F248" t="n">
+        <v>28</v>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Korona Kielce</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Jagiellonia Białystok</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="n">
+        <v>3</v>
+      </c>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>['79', '90+5']</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q248" t="n">
+        <v>9</v>
+      </c>
+      <c r="R248" t="n">
+        <v>9</v>
+      </c>
+      <c r="S248" t="n">
+        <v>18</v>
+      </c>
+      <c r="T248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U248" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V248" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W248" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X248" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y248" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Z248" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA248" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB248" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC248" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD248" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE248" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AF248" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI248" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ248" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK248" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL248" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM248" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN248" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO248" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP248" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ248" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR248" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AS248" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT248" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU248" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV248" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW248" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX248" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY248" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ248" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BA248" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB248" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC248" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD248" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE248" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF248" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG248" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH248" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI248" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ248" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK248" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>2313623</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="n">
+        <v>45031.625</v>
+      </c>
+      <c r="F249" t="n">
+        <v>28</v>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Lechia Gdańsk</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Pogoń Szczecin</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
+      <c r="K249" t="n">
+        <v>0</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0</v>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="n">
+        <v>1</v>
+      </c>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q249" t="n">
+        <v>13</v>
+      </c>
+      <c r="R249" t="n">
+        <v>7</v>
+      </c>
+      <c r="S249" t="n">
+        <v>20</v>
+      </c>
+      <c r="T249" t="n">
+        <v>4</v>
+      </c>
+      <c r="U249" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V249" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W249" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X249" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y249" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z249" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA249" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB249" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC249" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AD249" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE249" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF249" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG249" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI249" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AJ249" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK249" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL249" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM249" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN249" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP249" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ249" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR249" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS249" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT249" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU249" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV249" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW249" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX249" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AY249" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ249" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA249" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB249" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC249" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD249" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BE249" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BF249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG249" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH249" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI249" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ249" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK249" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>2313620</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="n">
+        <v>45032.3125</v>
+      </c>
+      <c r="F250" t="n">
+        <v>28</v>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Piast Gliwice</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Wisła Płock</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="n">
+        <v>0</v>
+      </c>
+      <c r="N250" t="n">
+        <v>1</v>
+      </c>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q250" t="n">
+        <v>6</v>
+      </c>
+      <c r="R250" t="n">
+        <v>2</v>
+      </c>
+      <c r="S250" t="n">
+        <v>8</v>
+      </c>
+      <c r="T250" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="U250" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="V250" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W250" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X250" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y250" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Z250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA250" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB250" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC250" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AD250" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE250" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF250" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG250" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH250" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI250" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ250" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK250" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM250" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN250" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO250" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP250" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ250" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AR250" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AS250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT250" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU250" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV250" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AW250" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX250" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY250" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ250" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="BA250" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB250" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC250" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD250" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE250" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF250" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG250" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH250" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI250" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ250" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK250" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>2313625</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E251" s="2" t="n">
+        <v>45032.41666666666</v>
+      </c>
+      <c r="F251" t="n">
+        <v>28</v>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Raków Częstochowa</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Widzew Łódź</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="n">
+        <v>2</v>
+      </c>
+      <c r="M251" t="n">
+        <v>0</v>
+      </c>
+      <c r="N251" t="n">
+        <v>2</v>
+      </c>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>['9', '90+5']</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q251" t="n">
+        <v>4</v>
+      </c>
+      <c r="R251" t="n">
+        <v>1</v>
+      </c>
+      <c r="S251" t="n">
+        <v>5</v>
+      </c>
+      <c r="T251" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U251" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V251" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W251" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X251" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y251" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Z251" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA251" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AB251" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC251" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD251" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AE251" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AF251" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG251" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH251" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI251" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ251" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK251" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL251" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM251" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN251" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO251" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP251" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ251" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AR251" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS251" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AT251" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU251" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV251" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW251" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AX251" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AY251" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ251" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="BA251" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB251" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC251" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD251" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BE251" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BF251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG251" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH251" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI251" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ251" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK251" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>2313624</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E252" s="2" t="n">
+        <v>45032.52083333334</v>
+      </c>
+      <c r="F252" t="n">
+        <v>28</v>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Legia Warszawa</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Lech Poznań</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="n">
+        <v>2</v>
+      </c>
+      <c r="M252" t="n">
+        <v>2</v>
+      </c>
+      <c r="N252" t="n">
+        <v>4</v>
+      </c>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>['13', '87']</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>['47', '69']</t>
+        </is>
+      </c>
+      <c r="Q252" t="n">
+        <v>5</v>
+      </c>
+      <c r="R252" t="n">
+        <v>1</v>
+      </c>
+      <c r="S252" t="n">
+        <v>6</v>
+      </c>
+      <c r="T252" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V252" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X252" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y252" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z252" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA252" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AB252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE252" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF252" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG252" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AH252" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI252" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AJ252" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK252" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AL252" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM252" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN252" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO252" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP252" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ252" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AR252" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS252" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AT252" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU252" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV252" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AW252" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX252" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AY252" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ252" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BA252" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB252" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC252" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD252" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BE252" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BF252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG252" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI252" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ252" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK252" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Poland Ekstraklasa_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK252"/>
+  <dimension ref="A1:BK253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.07</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT16" t="n">
         <v>1.36</v>
@@ -5772,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT26" t="n">
         <v>0.93</v>
@@ -7399,7 +7399,7 @@
         <v>1.93</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU34" t="n">
         <v>2.47</v>
@@ -9429,7 +9429,7 @@
         <v>1.64</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU44" t="n">
         <v>1.43</v>
@@ -11050,7 +11050,7 @@
         <v>1.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT52" t="n">
         <v>1.79</v>
@@ -13283,7 +13283,7 @@
         <v>1.33</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT63" t="n">
         <v>0.93</v>
@@ -14504,7 +14504,7 @@
         <v>1.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU69" t="n">
         <v>1.74</v>
@@ -16940,7 +16940,7 @@
         <v>2.29</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU81" t="n">
         <v>1.71</v>
@@ -17140,7 +17140,7 @@
         <v>1.4</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT82" t="n">
         <v>1.43</v>
@@ -20591,7 +20591,7 @@
         <v>1.4</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT99" t="n">
         <v>1.67</v>
@@ -22015,7 +22015,7 @@
         <v>2.86</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU106" t="n">
         <v>1.84</v>
@@ -24248,7 +24248,7 @@
         <v>1.29</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU117" t="n">
         <v>1.75</v>
@@ -24448,7 +24448,7 @@
         <v>1.14</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT118" t="n">
         <v>0.64</v>
@@ -27899,7 +27899,7 @@
         <v>1.43</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT135" t="n">
         <v>1.54</v>
@@ -30338,7 +30338,7 @@
         <v>1</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU147" t="n">
         <v>1.81</v>
@@ -31959,7 +31959,7 @@
         <v>2.14</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT155" t="n">
         <v>1.79</v>
@@ -34804,7 +34804,7 @@
         <v>1.64</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU169" t="n">
         <v>2.23</v>
@@ -35410,7 +35410,7 @@
         <v>1.89</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT172" t="n">
         <v>1.79</v>
@@ -37037,7 +37037,7 @@
         <v>1.29</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU180" t="n">
         <v>1.51</v>
@@ -40079,7 +40079,7 @@
         <v>1.2</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT195" t="n">
         <v>1.29</v>
@@ -40691,7 +40691,7 @@
         <v>0.73</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU198" t="n">
         <v>1.87</v>
@@ -40891,7 +40891,7 @@
         <v>1.09</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT199" t="n">
         <v>1.5</v>
@@ -42924,7 +42924,7 @@
         <v>1.14</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU209" t="n">
         <v>1.45</v>
@@ -46984,7 +46984,7 @@
         <v>1.64</v>
       </c>
       <c r="AT229" t="n">
-        <v>0.38</v>
+        <v>0.43</v>
       </c>
       <c r="AU229" t="n">
         <v>1.7</v>
@@ -48199,7 +48199,7 @@
         <v>0.75</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT235" t="n">
         <v>0.71</v>
@@ -51705,6 +51705,209 @@
       </c>
       <c r="BK252" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2313626</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Poland Ekstraklasa</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E253" s="2" t="n">
+        <v>45033.58333333334</v>
+      </c>
+      <c r="F253" t="n">
+        <v>28</v>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>Stal Mielec</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Miedź Legnica</t>
+        </is>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="n">
+        <v>2</v>
+      </c>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q253" t="n">
+        <v>5</v>
+      </c>
+      <c r="R253" t="n">
+        <v>6</v>
+      </c>
+      <c r="S253" t="n">
+        <v>11</v>
+      </c>
+      <c r="T253" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U253" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V253" t="n">
+        <v>4</v>
+      </c>
+      <c r="W253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X253" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Y253" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z253" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA253" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB253" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC253" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD253" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE253" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AF253" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG253" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH253" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI253" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ253" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK253" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL253" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM253" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO253" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP253" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AQ253" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AR253" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS253" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT253" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU253" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV253" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW253" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX253" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AY253" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ253" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA253" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB253" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC253" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD253" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE253" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF253" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG253" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH253" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI253" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ253" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK253" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
